--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40644269-702C-4B57-B28F-4B8137459D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF672AEE-FDCE-48C4-8DC9-04496FD2158D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="450">
   <si>
     <t>schemaVersion</t>
   </si>
@@ -43,10 +43,10 @@
     <t>0.1</t>
   </si>
   <si>
-    <t>2026.01.24a</t>
-  </si>
-  <si>
-    <t>Minimal sample for data pipeline</t>
+    <t>2026.01.25b</t>
+  </si>
+  <si>
+    <t>Expanded content pack: more nodes/anomalies/events/effects for prototyping</t>
   </si>
   <si>
     <t>key</t>
@@ -103,6 +103,54 @@
     <t>Default ignore mode</t>
   </si>
   <si>
+    <t>WorldPanicFailThreshold</t>
+  </si>
+  <si>
+    <t>World panic hard fail threshold</t>
+  </si>
+  <si>
+    <t>WorldPanicSoftThreshold</t>
+  </si>
+  <si>
+    <t>World panic warning threshold</t>
+  </si>
+  <si>
+    <t>StartingMoney</t>
+  </si>
+  <si>
+    <t>Starting global money</t>
+  </si>
+  <si>
+    <t>StartingIntel</t>
+  </si>
+  <si>
+    <t>Starting global intel</t>
+  </si>
+  <si>
+    <t>StartingNegEntropy</t>
+  </si>
+  <si>
+    <t>Starting global neg-entropy</t>
+  </si>
+  <si>
+    <t>DailyWorldPanicDecay</t>
+  </si>
+  <si>
+    <t>Daily world panic decay (if supported)</t>
+  </si>
+  <si>
+    <t>DailyIntelDecay</t>
+  </si>
+  <si>
+    <t>Daily intel decay (if supported)</t>
+  </si>
+  <si>
+    <t>DailyUpkeepPerAgent</t>
+  </si>
+  <si>
+    <t>Daily upkeep per busy agent (if supported)</t>
+  </si>
+  <si>
     <t>nodeId</t>
   </si>
   <si>
@@ -154,6 +202,66 @@
     <t>AN_002</t>
   </si>
   <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>节点4</t>
+  </si>
+  <si>
+    <t>coastal;port</t>
+  </si>
+  <si>
+    <t>AN_007;AN_011</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>节点5</t>
+  </si>
+  <si>
+    <t>mountain;temple</t>
+  </si>
+  <si>
+    <t>AN_013;AN_019</t>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>节点6</t>
+  </si>
+  <si>
+    <t>industrial;mine</t>
+  </si>
+  <si>
+    <t>AN_018;AN_020</t>
+  </si>
+  <si>
+    <t>N7</t>
+  </si>
+  <si>
+    <t>节点7</t>
+  </si>
+  <si>
+    <t>academic;lab</t>
+  </si>
+  <si>
+    <t>AN_004;AN_010</t>
+  </si>
+  <si>
+    <t>N8</t>
+  </si>
+  <si>
+    <t>节点8</t>
+  </si>
+  <si>
+    <t>rural;forest</t>
+  </si>
+  <si>
+    <t>AN_008;AN_014</t>
+  </si>
+  <si>
     <t>anomalyId</t>
   </si>
   <si>
@@ -190,6 +298,168 @@
     <t>memetic;panic</t>
   </si>
   <si>
+    <t>AN_003</t>
+  </si>
+  <si>
+    <t>嗜盐水雾</t>
+  </si>
+  <si>
+    <t>bio;toxic;water</t>
+  </si>
+  <si>
+    <t>AN_004</t>
+  </si>
+  <si>
+    <t>空白日记</t>
+  </si>
+  <si>
+    <t>memetic;infohazard</t>
+  </si>
+  <si>
+    <t>AN_005</t>
+  </si>
+  <si>
+    <t>逆向楼梯间</t>
+  </si>
+  <si>
+    <t>spatial;urban</t>
+  </si>
+  <si>
+    <t>AN_006</t>
+  </si>
+  <si>
+    <t>自复原蜡像</t>
+  </si>
+  <si>
+    <t>bio;panic</t>
+  </si>
+  <si>
+    <t>AN_007</t>
+  </si>
+  <si>
+    <t>午夜电台</t>
+  </si>
+  <si>
+    <t>memetic;signal</t>
+  </si>
+  <si>
+    <t>AN_008</t>
+  </si>
+  <si>
+    <t>低语菌落</t>
+  </si>
+  <si>
+    <t>bio;spore</t>
+  </si>
+  <si>
+    <t>AN_009</t>
+  </si>
+  <si>
+    <t>无影灯</t>
+  </si>
+  <si>
+    <t>stealth;optic</t>
+  </si>
+  <si>
+    <t>AN_010</t>
+  </si>
+  <si>
+    <t>恒温灰尘</t>
+  </si>
+  <si>
+    <t>material;lab</t>
+  </si>
+  <si>
+    <t>AN_011</t>
+  </si>
+  <si>
+    <t>回声邮筒</t>
+  </si>
+  <si>
+    <t>spatial;info</t>
+  </si>
+  <si>
+    <t>AN_012</t>
+  </si>
+  <si>
+    <t>镜中幼体</t>
+  </si>
+  <si>
+    <t>bio;stealth;embryo</t>
+  </si>
+  <si>
+    <t>AN_013</t>
+  </si>
+  <si>
+    <t>祈香残火</t>
+  </si>
+  <si>
+    <t>religion;incense;merit</t>
+  </si>
+  <si>
+    <t>AN_014</t>
+  </si>
+  <si>
+    <t>符箓回路</t>
+  </si>
+  <si>
+    <t>tao;qi;sigil</t>
+  </si>
+  <si>
+    <t>AN_015</t>
+  </si>
+  <si>
+    <t>五行失衡井</t>
+  </si>
+  <si>
+    <t>tao;wuxing;panic</t>
+  </si>
+  <si>
+    <t>AN_016</t>
+  </si>
+  <si>
+    <t>洞天影门</t>
+  </si>
+  <si>
+    <t>tao;spatial</t>
+  </si>
+  <si>
+    <t>AN_017</t>
+  </si>
+  <si>
+    <t>天人回响</t>
+  </si>
+  <si>
+    <t>tao;memetic;signal</t>
+  </si>
+  <si>
+    <t>AN_018</t>
+  </si>
+  <si>
+    <t>业火余烬</t>
+  </si>
+  <si>
+    <t>religion;fire;karma</t>
+  </si>
+  <si>
+    <t>AN_019</t>
+  </si>
+  <si>
+    <t>戒律钟摆</t>
+  </si>
+  <si>
+    <t>religion;rule;panic</t>
+  </si>
+  <si>
+    <t>AN_020</t>
+  </si>
+  <si>
+    <t>丹砂雾化</t>
+  </si>
+  <si>
+    <t>tao;toxic;lab</t>
+  </si>
+  <si>
     <t>taskDefId</t>
   </si>
   <si>
@@ -328,6 +598,138 @@
     <t>EFF_IGNORE_RANDOM</t>
   </si>
   <si>
+    <t>EVT_INVESTIGATE_EVIDENCE_LOST</t>
+  </si>
+  <si>
+    <t>证据遗失</t>
+  </si>
+  <si>
+    <t>关键物证在转运中丢失，调查线索可能断裂。</t>
+  </si>
+  <si>
+    <t>EFF_IGNORE_INV_EVIDENCE</t>
+  </si>
+  <si>
+    <t>EVT_INVESTIGATE_MEMETIC_EXPOSURE</t>
+  </si>
+  <si>
+    <t>认知污染</t>
+  </si>
+  <si>
+    <t>调查员疑似遭受认知污染，需立即处置。</t>
+  </si>
+  <si>
+    <t>OriginTask;Node;Global</t>
+  </si>
+  <si>
+    <t>EFF_IGNORE_INV_MEMETIC</t>
+  </si>
+  <si>
+    <t>EVT_INVESTIGATE_BRIBERY</t>
+  </si>
+  <si>
+    <t>封口要价</t>
+  </si>
+  <si>
+    <t>当地关键人物索要好处以保持沉默。</t>
+  </si>
+  <si>
+    <t>EFF_IGNORE_INV_BRIBERY</t>
+  </si>
+  <si>
+    <t>EVT_RANDOM_BLACKOUT</t>
+  </si>
+  <si>
+    <t>区域停电</t>
+  </si>
+  <si>
+    <t>区域性停电导致监控失效与安防薄弱。</t>
+  </si>
+  <si>
+    <t>Node;Global</t>
+  </si>
+  <si>
+    <t>EFF_IGNORE_BLACKOUT</t>
+  </si>
+  <si>
+    <t>EVT_RANDOM_AUDIT</t>
+  </si>
+  <si>
+    <t>总部审计</t>
+  </si>
+  <si>
+    <t>总部派出审计组，要求检查报表与日志。</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>EFF_IGNORE_AUDIT</t>
+  </si>
+  <si>
+    <t>EVT_RANDOM_LEAK</t>
+  </si>
+  <si>
+    <t>信息外泄</t>
+  </si>
+  <si>
+    <t>内部消息疑似外泄，媒体开始追问。</t>
+  </si>
+  <si>
+    <t>Global;Node</t>
+  </si>
+  <si>
+    <t>EFF_IGNORE_LEAK</t>
+  </si>
+  <si>
+    <t>EVT_RANDOM_CULT_ACTIVITY</t>
+  </si>
+  <si>
+    <t>教团活动</t>
+  </si>
+  <si>
+    <t>可疑教团在附近活动，疑似与异常相关。</t>
+  </si>
+  <si>
+    <t>EFF_IGNORE_CULT</t>
+  </si>
+  <si>
+    <t>EVT_RANDOM_STAFF_STRIKE</t>
+  </si>
+  <si>
+    <t>员工罢工</t>
+  </si>
+  <si>
+    <t>后勤与安保提出待遇要求，工作效率下降。</t>
+  </si>
+  <si>
+    <t>EFF_IGNORE_STRIKE</t>
+  </si>
+  <si>
+    <t>EVT_RANDOM_CONTAINMENT_DRIFT</t>
+  </si>
+  <si>
+    <t>收容漂移</t>
+  </si>
+  <si>
+    <t>收容措施出现偏移迹象，需立即校准。</t>
+  </si>
+  <si>
+    <t>EFF_IGNORE_DRIFT</t>
+  </si>
+  <si>
+    <t>EVT_RANDOM_SUPPLY_SEIZURE</t>
+  </si>
+  <si>
+    <t>物资扣押</t>
+  </si>
+  <si>
+    <t>地方机关临时扣押物资，项目补给受阻。</t>
+  </si>
+  <si>
+    <t>EFF_IGNORE_SEIZURE</t>
+  </si>
+  <si>
     <t>optionId</t>
   </si>
   <si>
@@ -376,9 +778,6 @@
     <t>民众情绪稳定，但经费吃紧。</t>
   </si>
   <si>
-    <t>Node;Global</t>
-  </si>
-  <si>
     <t>EFF_OPTION_RELIEF</t>
   </si>
   <si>
@@ -394,6 +793,186 @@
     <t>EFF_OPTION_PROJECT</t>
   </si>
   <si>
+    <t>封锁现场并回溯</t>
+  </si>
+  <si>
+    <t>线索回收，进度回补，但引发关注。</t>
+  </si>
+  <si>
+    <t>EFF_OPT_INV_EVIDENCE_LOCK</t>
+  </si>
+  <si>
+    <t>放弃物证，改走旁证</t>
+  </si>
+  <si>
+    <t>进度受损，但不惊动外界。</t>
+  </si>
+  <si>
+    <t>EFF_OPT_INV_EVIDENCE_PIVOT</t>
+  </si>
+  <si>
+    <t>隔离并执行反制协议</t>
+  </si>
+  <si>
+    <t>行动延缓，污染被压制。</t>
+  </si>
+  <si>
+    <t>EFF_OPT_INV_MEMETIC_ISOLATE</t>
+  </si>
+  <si>
+    <t>继续行动，押注稳定</t>
+  </si>
+  <si>
+    <t>小队冒险推进，外部风险上升。</t>
+  </si>
+  <si>
+    <t>EFF_OPT_INV_MEMETIC_PUSH</t>
+  </si>
+  <si>
+    <t>支付封口费</t>
+  </si>
+  <si>
+    <t>对方保持沉默，舆情回落。</t>
+  </si>
+  <si>
+    <t>EFF_OPT_INV_BRIBE_PAY</t>
+  </si>
+  <si>
+    <t>施压/威慑</t>
+  </si>
+  <si>
+    <t>对方退让，但反弹风险增加。</t>
+  </si>
+  <si>
+    <t>EFF_OPT_INV_BRIBE_PRESSURE</t>
+  </si>
+  <si>
+    <t>启用备用电源</t>
+  </si>
+  <si>
+    <t>维持安防与监控，消耗经费。</t>
+  </si>
+  <si>
+    <t>EFF_OPT_BLACKOUT_BACKUP</t>
+  </si>
+  <si>
+    <t>切换到低功耗模式</t>
+  </si>
+  <si>
+    <t>节省资源，但收容压力上升。</t>
+  </si>
+  <si>
+    <t>EFF_OPT_BLACKOUT_LOWPOWER</t>
+  </si>
+  <si>
+    <t>全力配合</t>
+  </si>
+  <si>
+    <t>合规风险下降，但需要投入成本。</t>
+  </si>
+  <si>
+    <t>EFF_OPT_AUDIT_COOP</t>
+  </si>
+  <si>
+    <t>拖延并整理</t>
+  </si>
+  <si>
+    <t>短期省钱，但可能引发追责。</t>
+  </si>
+  <si>
+    <t>EFF_OPT_AUDIT_DELAY</t>
+  </si>
+  <si>
+    <t>启动舆情引导</t>
+  </si>
+  <si>
+    <t>舆论被压制，成本较高。</t>
+  </si>
+  <si>
+    <t>EFF_OPT_LEAK_PR</t>
+  </si>
+  <si>
+    <t>封禁渠道，追查内鬼</t>
+  </si>
+  <si>
+    <t>找到线索，但外部压力上升。</t>
+  </si>
+  <si>
+    <t>EFF_OPT_LEAK_HUNT</t>
+  </si>
+  <si>
+    <t>秘密监控</t>
+  </si>
+  <si>
+    <t>获得情报，但民间焦虑上升。</t>
+  </si>
+  <si>
+    <t>EFF_OPT_CULT_SURVEIL</t>
+  </si>
+  <si>
+    <t>直接清剿</t>
+  </si>
+  <si>
+    <t>短期平息，但引发更大关注。</t>
+  </si>
+  <si>
+    <t>EFF_OPT_CULT_RAID</t>
+  </si>
+  <si>
+    <t>临时加薪</t>
+  </si>
+  <si>
+    <t>秩序恢复，但资金承压。</t>
+  </si>
+  <si>
+    <t>EFF_OPT_STRIKE_RAISE</t>
+  </si>
+  <si>
+    <t>强制复岗</t>
+  </si>
+  <si>
+    <t>成本降低，但士气与风险恶化。</t>
+  </si>
+  <si>
+    <t>EFF_OPT_STRIKE_FORCE</t>
+  </si>
+  <si>
+    <t>追加安防与校准</t>
+  </si>
+  <si>
+    <t>风险下降，但需要经费。</t>
+  </si>
+  <si>
+    <t>EFF_OPT_DRIFT_REINFORCE</t>
+  </si>
+  <si>
+    <t>转移收容物</t>
+  </si>
+  <si>
+    <t>暂时止损，但任务与舆情受损。</t>
+  </si>
+  <si>
+    <t>EFF_OPT_DRIFT_TRANSFER</t>
+  </si>
+  <si>
+    <t>走官方渠道疏通</t>
+  </si>
+  <si>
+    <t>成本可控，恢复供给。</t>
+  </si>
+  <si>
+    <t>EFF_OPT_SEIZURE_OFFICIAL</t>
+  </si>
+  <si>
+    <t>走黑市替代</t>
+  </si>
+  <si>
+    <t>供给恢复，但后患增加。</t>
+  </si>
+  <si>
+    <t>EFF_OPT_SEIZURE_BLACKMARKET</t>
+  </si>
+  <si>
     <t>调查事件忽略惩罚</t>
   </si>
   <si>
@@ -403,6 +982,84 @@
     <t>保障民生</t>
   </si>
   <si>
+    <t>忽略证据遗失的惩罚</t>
+  </si>
+  <si>
+    <t>忽略认知污染的惩罚</t>
+  </si>
+  <si>
+    <t>忽略封口要价的惩罚</t>
+  </si>
+  <si>
+    <t>忽略停电的惩罚</t>
+  </si>
+  <si>
+    <t>忽略审计的惩罚</t>
+  </si>
+  <si>
+    <t>忽略信息外泄的惩罚</t>
+  </si>
+  <si>
+    <t>忽略教团活动的惩罚</t>
+  </si>
+  <si>
+    <t>忽略员工罢工的惩罚</t>
+  </si>
+  <si>
+    <t>忽略收容漂移的惩罚</t>
+  </si>
+  <si>
+    <t>忽略物资扣押的惩罚</t>
+  </si>
+  <si>
+    <t>封锁回溯取证</t>
+  </si>
+  <si>
+    <t>旁证替代方案</t>
+  </si>
+  <si>
+    <t>隔离反制协议</t>
+  </si>
+  <si>
+    <t>冒险继续推进</t>
+  </si>
+  <si>
+    <t>施压威慑</t>
+  </si>
+  <si>
+    <t>低功耗模式</t>
+  </si>
+  <si>
+    <t>审计配合</t>
+  </si>
+  <si>
+    <t>审计拖延</t>
+  </si>
+  <si>
+    <t>舆情引导</t>
+  </si>
+  <si>
+    <t>追查内鬼</t>
+  </si>
+  <si>
+    <t>秘密监控教团</t>
+  </si>
+  <si>
+    <t>清剿教团</t>
+  </si>
+  <si>
+    <t>加薪安抚</t>
+  </si>
+  <si>
+    <t>追加校准安防</t>
+  </si>
+  <si>
+    <t>官方疏通</t>
+  </si>
+  <si>
+    <t>黑市替代</t>
+  </si>
+  <si>
     <t>scope</t>
   </si>
   <si>
@@ -442,9 +1099,6 @@
     <t>来源任务获得推进</t>
   </si>
   <si>
-    <t>Global</t>
-  </si>
-  <si>
     <t>WorldPanic</t>
   </si>
   <si>
@@ -472,6 +1126,213 @@
     <t>收容任务推进</t>
   </si>
   <si>
+    <t>忽略导致调查进度退回</t>
+  </si>
+  <si>
+    <t>本地恐慌上升</t>
+  </si>
+  <si>
+    <t>情报损失</t>
+  </si>
+  <si>
+    <t>追回物证推进</t>
+  </si>
+  <si>
+    <t>封锁引发关注</t>
+  </si>
+  <si>
+    <t>补回情报</t>
+  </si>
+  <si>
+    <t>旁证效率较低</t>
+  </si>
+  <si>
+    <t>旁证带来额外线索</t>
+  </si>
+  <si>
+    <t>小队受损导致进度退回</t>
+  </si>
+  <si>
+    <t>污染传闻扩散</t>
+  </si>
+  <si>
+    <t>认知危害抬升世界恐慌</t>
+  </si>
+  <si>
+    <t>隔离导致延误</t>
+  </si>
+  <si>
+    <t>传闻被压制</t>
+  </si>
+  <si>
+    <t>获得反制记录</t>
+  </si>
+  <si>
+    <t>冒险推进获得进度</t>
+  </si>
+  <si>
+    <t>外部风险上升</t>
+  </si>
+  <si>
+    <t>目击者扩散带来恐慌</t>
+  </si>
+  <si>
+    <t>舆论发酵</t>
+  </si>
+  <si>
+    <t>封口费成本</t>
+  </si>
+  <si>
+    <t>暂时稳定</t>
+  </si>
+  <si>
+    <t>强硬推进获得效率</t>
+  </si>
+  <si>
+    <t>反弹风险</t>
+  </si>
+  <si>
+    <t>可能引发外部关注</t>
+  </si>
+  <si>
+    <t>安防薄弱引发恐慌</t>
+  </si>
+  <si>
+    <t>收容任务受阻</t>
+  </si>
+  <si>
+    <t>备用电源成本</t>
+  </si>
+  <si>
+    <t>风险下降</t>
+  </si>
+  <si>
+    <t>低功耗维护成本</t>
+  </si>
+  <si>
+    <t>压力上升</t>
+  </si>
+  <si>
+    <t>追责与处罚预期</t>
+  </si>
+  <si>
+    <t>合规罚款/机会成本</t>
+  </si>
+  <si>
+    <t>配合成本</t>
+  </si>
+  <si>
+    <t>合规带来稳定</t>
+  </si>
+  <si>
+    <t>审计输出形成情报资产</t>
+  </si>
+  <si>
+    <t>拖延引发怀疑</t>
+  </si>
+  <si>
+    <t>日志缺口导致情报损失</t>
+  </si>
+  <si>
+    <t>舆论失控</t>
+  </si>
+  <si>
+    <t>舆情成本</t>
+  </si>
+  <si>
+    <t>压力降低</t>
+  </si>
+  <si>
+    <t>本地稳定</t>
+  </si>
+  <si>
+    <t>调查成本</t>
+  </si>
+  <si>
+    <t>获得线索</t>
+  </si>
+  <si>
+    <t>短期关注上升</t>
+  </si>
+  <si>
+    <t>教团扩散引发恐慌</t>
+  </si>
+  <si>
+    <t>外部关注上升</t>
+  </si>
+  <si>
+    <t>获取情报</t>
+  </si>
+  <si>
+    <t>民间焦虑上升</t>
+  </si>
+  <si>
+    <t>清剿带来线索</t>
+  </si>
+  <si>
+    <t>冲突扩大</t>
+  </si>
+  <si>
+    <t>关注上升</t>
+  </si>
+  <si>
+    <t>TaskType:Manage</t>
+  </si>
+  <si>
+    <t>管理任务效率下降</t>
+  </si>
+  <si>
+    <t>内部不稳</t>
+  </si>
+  <si>
+    <t>加薪成本</t>
+  </si>
+  <si>
+    <t>稳定内部</t>
+  </si>
+  <si>
+    <t>士气恶化</t>
+  </si>
+  <si>
+    <t>执行风险上升</t>
+  </si>
+  <si>
+    <t>收容风险抬升</t>
+  </si>
+  <si>
+    <t>外部压力上升</t>
+  </si>
+  <si>
+    <t>追加成本</t>
+  </si>
+  <si>
+    <t>转移引发波动</t>
+  </si>
+  <si>
+    <t>转移导致收容延期</t>
+  </si>
+  <si>
+    <t>供给紧张带来恐慌</t>
+  </si>
+  <si>
+    <t>收容进度受阻</t>
+  </si>
+  <si>
+    <t>疏通成本</t>
+  </si>
+  <si>
+    <t>恢复供给</t>
+  </si>
+  <si>
+    <t>黑市溢价</t>
+  </si>
+  <si>
+    <t>黑市关系带来线索</t>
+  </si>
+  <si>
+    <t>后患增加</t>
+  </si>
+  <si>
     <t>minDay</t>
   </si>
   <si>
@@ -497,6 +1358,27 @@
   </si>
   <si>
     <t>stealth</t>
+  </si>
+  <si>
+    <t>infohazard;stealth</t>
+  </si>
+  <si>
+    <t>urban;industrial;port</t>
+  </si>
+  <si>
+    <t>urban;academic</t>
+  </si>
+  <si>
+    <t>mountain;rural;temple</t>
+  </si>
+  <si>
+    <t>religion;tao</t>
+  </si>
+  <si>
+    <t>urban;industrial;lab</t>
+  </si>
+  <si>
+    <t>port;urban</t>
   </si>
 </sst>
 </file>
@@ -507,13 +1389,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -546,7 +1428,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -559,7 +1441,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -601,72 +1483,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -674,55 +1498,15 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="dk1"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -731,13 +1515,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -747,7 +1531,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -756,7 +1540,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -765,30 +1549,19 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -814,7 +1587,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -845,18 +1618,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.53515625" customWidth="1"/>
+    <col min="2" max="2" width="12.3828125" customWidth="1"/>
+    <col min="3" max="3" width="34.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -867,7 +1640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -880,65 +1653,63 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="28.23046875" customWidth="1"/>
     <col min="4" max="4" width="37.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>434</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>435</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>436</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
+        <v>437</v>
       </c>
       <c r="F1" t="s">
-        <v>151</v>
+        <v>438</v>
       </c>
       <c r="G1" t="s">
-        <v>152</v>
+        <v>439</v>
       </c>
       <c r="H1" t="s">
-        <v>153</v>
+        <v>440</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="J1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>442</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -947,46 +1718,231 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>443</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>445</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>446</v>
+      </c>
+      <c r="F10" t="s">
+        <v>447</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>448</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>449</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="29.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.61328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.4609375" customWidth="1"/>
+    <col min="2" max="2" width="15.61328125" customWidth="1"/>
+    <col min="4" max="4" width="26.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1000,7 +1956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1014,7 +1970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1028,7 +1984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1042,7 +1998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1056,55 +2012,165 @@
         <v>23</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>250</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>0.05</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="21.3046875" customWidth="1"/>
-    <col min="4" max="6" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1113,18 +2179,18 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1133,15 +2199,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1150,22 +2216,122 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.3828125" customWidth="1"/>
     <col min="2" max="2" width="11.921875" customWidth="1"/>
@@ -1173,44 +2339,44 @@
     <col min="4" max="4" width="23.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
       <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1225,18 +2391,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1251,9 +2417,477 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1263,51 +2897,51 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.15234375" customWidth="1"/>
     <col min="2" max="2" width="17.765625" customWidth="1"/>
     <col min="8" max="8" width="14.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1322,21 +2956,21 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -1351,21 +2985,21 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="D4">
         <v>999</v>
@@ -1380,7 +3014,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1388,19 +3022,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="39.69140625" customWidth="1"/>
+    <col min="2" max="2" width="14.23046875" customWidth="1"/>
+    <col min="3" max="3" width="21.921875" customWidth="1"/>
     <col min="5" max="5" width="21.4609375" customWidth="1"/>
     <col min="6" max="6" width="48.61328125" customWidth="1"/>
     <col min="7" max="7" width="27.53515625" customWidth="1"/>
@@ -1410,65 +3046,65 @@
     <col min="11" max="11" width="20.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="K1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1477,482 +3113,2872 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H9" t="s">
+        <v>215</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" t="s">
+        <v>215</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" t="s">
+        <v>205</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="21.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>233</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>236</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>242</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>245</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>251</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>252</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D17" t="s">
+        <v>288</v>
+      </c>
+      <c r="E17" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D18" t="s">
+        <v>291</v>
+      </c>
+      <c r="E18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" t="s">
+        <v>294</v>
+      </c>
+      <c r="E19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" t="s">
+        <v>296</v>
+      </c>
+      <c r="D20" t="s">
+        <v>297</v>
+      </c>
+      <c r="E20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" t="s">
+        <v>303</v>
+      </c>
+      <c r="E22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" t="s">
+        <v>305</v>
+      </c>
+      <c r="D23" t="s">
+        <v>306</v>
+      </c>
+      <c r="E23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" t="s">
+        <v>308</v>
+      </c>
+      <c r="D24" t="s">
+        <v>309</v>
+      </c>
+      <c r="E24" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" t="s">
+        <v>311</v>
+      </c>
+      <c r="D25" t="s">
+        <v>312</v>
+      </c>
+      <c r="E25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F25" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="33.61328125" customWidth="1"/>
     <col min="2" max="2" width="42.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>241</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>274</v>
+      </c>
+      <c r="B24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>277</v>
+      </c>
+      <c r="B25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>280</v>
+      </c>
+      <c r="B26" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>283</v>
+      </c>
+      <c r="B27" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>289</v>
+      </c>
+      <c r="B29" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>298</v>
+      </c>
+      <c r="B32" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>301</v>
+      </c>
+      <c r="B33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>304</v>
+      </c>
+      <c r="B34" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>307</v>
+      </c>
+      <c r="B35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>310</v>
+      </c>
+      <c r="B36" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>313</v>
+      </c>
+      <c r="B37" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A67" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="31.4609375" customWidth="1"/>
     <col min="2" max="2" width="35.4609375" customWidth="1"/>
     <col min="3" max="3" width="27.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>343</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>344</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>345</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>127</v>
+        <v>346</v>
       </c>
       <c r="G1" t="s">
-        <v>128</v>
+        <v>347</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>348</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="E2">
         <v>-0.2</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>352</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>352</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="E4">
         <v>-2</v>
       </c>
       <c r="H4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>348</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>349</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="E5">
         <v>0.15</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>356</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>352</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>352</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="E8">
         <v>-1</v>
       </c>
       <c r="H8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="E9">
         <v>-80</v>
       </c>
       <c r="H9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>253</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>361</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="E10">
         <v>-1</v>
       </c>
       <c r="H10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>253</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>363</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="E11">
         <v>0.1</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" t="s">
+        <v>350</v>
+      </c>
+      <c r="E12">
+        <v>-0.15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" t="s">
+        <v>352</v>
+      </c>
+      <c r="D13" t="s">
+        <v>350</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" t="s">
+        <v>350</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" t="s">
+        <v>349</v>
+      </c>
+      <c r="D15" t="s">
+        <v>350</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D16" t="s">
+        <v>350</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" t="s">
+        <v>350</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" t="s">
+        <v>349</v>
+      </c>
+      <c r="D18" t="s">
+        <v>350</v>
+      </c>
+      <c r="E18">
+        <v>-0.05</v>
+      </c>
+      <c r="H18" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" t="s">
+        <v>350</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" t="s">
+        <v>348</v>
+      </c>
+      <c r="C20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D20" t="s">
+        <v>350</v>
+      </c>
+      <c r="E20">
+        <v>-0.1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" t="s">
+        <v>352</v>
+      </c>
+      <c r="D21" t="s">
+        <v>350</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D22" t="s">
+        <v>350</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C23" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23" t="s">
+        <v>350</v>
+      </c>
+      <c r="E23">
+        <v>-0.05</v>
+      </c>
+      <c r="H23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>262</v>
+      </c>
+      <c r="B24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" t="s">
+        <v>352</v>
+      </c>
+      <c r="D24" t="s">
+        <v>350</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" t="s">
+        <v>350</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>265</v>
+      </c>
+      <c r="B26" t="s">
+        <v>348</v>
+      </c>
+      <c r="C26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D26" t="s">
+        <v>350</v>
+      </c>
+      <c r="E26">
+        <v>0.15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" t="s">
+        <v>356</v>
+      </c>
+      <c r="D27" t="s">
+        <v>350</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" t="s">
+        <v>352</v>
+      </c>
+      <c r="D28" t="s">
+        <v>350</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D29" t="s">
+        <v>350</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" t="s">
+        <v>350</v>
+      </c>
+      <c r="E30">
+        <v>-50</v>
+      </c>
+      <c r="H30" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" t="s">
+        <v>352</v>
+      </c>
+      <c r="D31" t="s">
+        <v>350</v>
+      </c>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>271</v>
+      </c>
+      <c r="B32" t="s">
+        <v>348</v>
+      </c>
+      <c r="C32" t="s">
+        <v>349</v>
+      </c>
+      <c r="D32" t="s">
+        <v>350</v>
+      </c>
+      <c r="E32">
+        <v>0.05</v>
+      </c>
+      <c r="H32" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>271</v>
+      </c>
+      <c r="B33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" t="s">
+        <v>352</v>
+      </c>
+      <c r="D33" t="s">
+        <v>350</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>271</v>
+      </c>
+      <c r="B34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" t="s">
+        <v>356</v>
+      </c>
+      <c r="D34" t="s">
+        <v>350</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" t="s">
+        <v>352</v>
+      </c>
+      <c r="D35" t="s">
+        <v>350</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C36" t="s">
+        <v>349</v>
+      </c>
+      <c r="D36" t="s">
+        <v>350</v>
+      </c>
+      <c r="E36">
+        <v>-0.05</v>
+      </c>
+      <c r="H36" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>274</v>
+      </c>
+      <c r="B37" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" t="s">
+        <v>350</v>
+      </c>
+      <c r="E37">
+        <v>-60</v>
+      </c>
+      <c r="H37" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>274</v>
+      </c>
+      <c r="B38" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" t="s">
+        <v>352</v>
+      </c>
+      <c r="D38" t="s">
+        <v>350</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" t="s">
+        <v>350</v>
+      </c>
+      <c r="E39">
+        <v>-10</v>
+      </c>
+      <c r="H39" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>277</v>
+      </c>
+      <c r="B40" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" t="s">
+        <v>352</v>
+      </c>
+      <c r="D40" t="s">
+        <v>350</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" t="s">
+        <v>356</v>
+      </c>
+      <c r="D41" t="s">
+        <v>350</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" t="s">
+        <v>350</v>
+      </c>
+      <c r="E42">
+        <v>-20</v>
+      </c>
+      <c r="H42" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>280</v>
+      </c>
+      <c r="B43" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" t="s">
+        <v>350</v>
+      </c>
+      <c r="E43">
+        <v>-30</v>
+      </c>
+      <c r="H43" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>280</v>
+      </c>
+      <c r="B44" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" t="s">
+        <v>356</v>
+      </c>
+      <c r="D44" t="s">
+        <v>350</v>
+      </c>
+      <c r="E44">
+        <v>-1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>280</v>
+      </c>
+      <c r="B45" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" t="s">
+        <v>350</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>283</v>
+      </c>
+      <c r="B46" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" t="s">
+        <v>356</v>
+      </c>
+      <c r="D46" t="s">
+        <v>350</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>283</v>
+      </c>
+      <c r="B47" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" t="s">
+        <v>350</v>
+      </c>
+      <c r="E47">
+        <v>-1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" t="s">
+        <v>356</v>
+      </c>
+      <c r="D48" t="s">
+        <v>350</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" t="s">
+        <v>350</v>
+      </c>
+      <c r="E49">
+        <v>-50</v>
+      </c>
+      <c r="H49" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>286</v>
+      </c>
+      <c r="B50" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" t="s">
+        <v>356</v>
+      </c>
+      <c r="D50" t="s">
+        <v>350</v>
+      </c>
+      <c r="E50">
+        <v>-1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>286</v>
+      </c>
+      <c r="B51" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" t="s">
+        <v>352</v>
+      </c>
+      <c r="D51" t="s">
+        <v>350</v>
+      </c>
+      <c r="E51">
+        <v>-1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>289</v>
+      </c>
+      <c r="B52" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" t="s">
+        <v>350</v>
+      </c>
+      <c r="E52">
+        <v>-20</v>
+      </c>
+      <c r="H52" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>289</v>
+      </c>
+      <c r="B53" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" t="s">
+        <v>350</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>289</v>
+      </c>
+      <c r="B54" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" t="s">
+        <v>356</v>
+      </c>
+      <c r="D54" t="s">
+        <v>350</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>220</v>
+      </c>
+      <c r="B55" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" t="s">
+        <v>352</v>
+      </c>
+      <c r="D55" t="s">
+        <v>350</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>220</v>
+      </c>
+      <c r="B56" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" t="s">
+        <v>356</v>
+      </c>
+      <c r="D56" t="s">
+        <v>350</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>292</v>
+      </c>
+      <c r="B57" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" t="s">
+        <v>350</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>292</v>
+      </c>
+      <c r="B58" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" t="s">
+        <v>352</v>
+      </c>
+      <c r="D58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>295</v>
+      </c>
+      <c r="B59" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" t="s">
+        <v>350</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>295</v>
+      </c>
+      <c r="B60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" t="s">
+        <v>352</v>
+      </c>
+      <c r="D60" t="s">
+        <v>350</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="H60" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>295</v>
+      </c>
+      <c r="B61" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" t="s">
+        <v>356</v>
+      </c>
+      <c r="D61" t="s">
+        <v>350</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" t="s">
+        <v>415</v>
+      </c>
+      <c r="C62" t="s">
+        <v>349</v>
+      </c>
+      <c r="D62" t="s">
+        <v>350</v>
+      </c>
+      <c r="E62">
+        <v>-0.1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63" t="s">
+        <v>210</v>
+      </c>
+      <c r="C63" t="s">
+        <v>356</v>
+      </c>
+      <c r="D63" t="s">
+        <v>350</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>298</v>
+      </c>
+      <c r="B64" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" t="s">
+        <v>350</v>
+      </c>
+      <c r="E64">
+        <v>-80</v>
+      </c>
+      <c r="H64" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>298</v>
+      </c>
+      <c r="B65" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" t="s">
+        <v>356</v>
+      </c>
+      <c r="D65" t="s">
+        <v>350</v>
+      </c>
+      <c r="E65">
+        <v>-1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>301</v>
+      </c>
+      <c r="B66" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" t="s">
+        <v>356</v>
+      </c>
+      <c r="D66" t="s">
+        <v>350</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>301</v>
+      </c>
+      <c r="B67" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" t="s">
+        <v>352</v>
+      </c>
+      <c r="D67" t="s">
+        <v>350</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" t="s">
+        <v>352</v>
+      </c>
+      <c r="D68" t="s">
+        <v>350</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="H68" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" t="s">
+        <v>356</v>
+      </c>
+      <c r="D69" t="s">
+        <v>350</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>304</v>
+      </c>
+      <c r="B70" t="s">
+        <v>210</v>
+      </c>
+      <c r="C70" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" t="s">
+        <v>350</v>
+      </c>
+      <c r="E70">
+        <v>-70</v>
+      </c>
+      <c r="H70" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>304</v>
+      </c>
+      <c r="B71" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" t="s">
+        <v>352</v>
+      </c>
+      <c r="D71" t="s">
+        <v>350</v>
+      </c>
+      <c r="E71">
+        <v>-1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>307</v>
+      </c>
+      <c r="B72" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" t="s">
+        <v>352</v>
+      </c>
+      <c r="D72" t="s">
+        <v>350</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>307</v>
+      </c>
+      <c r="B73" t="s">
+        <v>363</v>
+      </c>
+      <c r="C73" t="s">
+        <v>349</v>
+      </c>
+      <c r="D73" t="s">
+        <v>350</v>
+      </c>
+      <c r="E73">
+        <v>-0.1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>307</v>
+      </c>
+      <c r="B74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" t="s">
+        <v>356</v>
+      </c>
+      <c r="D74" t="s">
+        <v>350</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>232</v>
+      </c>
+      <c r="B75" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" t="s">
+        <v>352</v>
+      </c>
+      <c r="D75" t="s">
+        <v>350</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>232</v>
+      </c>
+      <c r="B76" t="s">
+        <v>363</v>
+      </c>
+      <c r="C76" t="s">
+        <v>349</v>
+      </c>
+      <c r="D76" t="s">
+        <v>350</v>
+      </c>
+      <c r="E76">
+        <v>-0.05</v>
+      </c>
+      <c r="H76" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>310</v>
+      </c>
+      <c r="B77" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" t="s">
+        <v>350</v>
+      </c>
+      <c r="E77">
+        <v>-40</v>
+      </c>
+      <c r="H77" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>310</v>
+      </c>
+      <c r="B78" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" t="s">
+        <v>352</v>
+      </c>
+      <c r="D78" t="s">
+        <v>350</v>
+      </c>
+      <c r="E78">
+        <v>-1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>313</v>
+      </c>
+      <c r="B79" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" t="s">
+        <v>158</v>
+      </c>
+      <c r="D79" t="s">
+        <v>350</v>
+      </c>
+      <c r="E79">
+        <v>-60</v>
+      </c>
+      <c r="H79" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>313</v>
+      </c>
+      <c r="B80" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" t="s">
+        <v>154</v>
+      </c>
+      <c r="D80" t="s">
+        <v>350</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>313</v>
+      </c>
+      <c r="B81" t="s">
+        <v>210</v>
+      </c>
+      <c r="C81" t="s">
+        <v>356</v>
+      </c>
+      <c r="D81" t="s">
+        <v>350</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF672AEE-FDCE-48C4-8DC9-04496FD2158D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E95680-6343-4364-8F8D-91C6C8986246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="472">
   <si>
     <t>schemaVersion</t>
   </si>
@@ -106,21 +106,12 @@
     <t>WorldPanicFailThreshold</t>
   </si>
   <si>
-    <t>World panic hard fail threshold</t>
-  </si>
-  <si>
     <t>WorldPanicSoftThreshold</t>
   </si>
   <si>
     <t>World panic warning threshold</t>
   </si>
   <si>
-    <t>StartingMoney</t>
-  </si>
-  <si>
-    <t>Starting global money</t>
-  </si>
-  <si>
     <t>StartingIntel</t>
   </si>
   <si>
@@ -1379,13 +1370,349 @@
   </si>
   <si>
     <t>port;urban</t>
+  </si>
+  <si>
+    <t>StartMoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开局资金</t>
+  </si>
+  <si>
+    <t>PopToMoneyRate</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作用：人口转资金的比例（每日税收系数）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Money += Σ floor(Population * PopToMoneyRate)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WagePerAgentPerDay</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作用：人员工资（每日支出）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Money -= AgentCount * WagePerAgentPerDay</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HireCost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作用：单次招聘成本（点击招聘确认时扣）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Money -= HireCost</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContainedAnomalyMaintenanceDefault</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作用：异常没填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> maintenanceCostPerDay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时的默认维护费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目的：避免表漏填导致维护费为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartWorldPanic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开局世界恐慌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>失败阈值（立刻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GameOver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContainReliefFixed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收容成功后固定降低的世界恐慌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldPanicDecayPerSafeNodePerDay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作用：没有未收容异常的节点，每日提供的微量衰减</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WorldPanic -= safeNodeCount * WorldPanicDecayPerSafeNodePerDay</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClampWorldPanicMin</t>
+  </si>
+  <si>
+    <t>恐慌不允许负数</t>
+  </si>
+  <si>
+    <t>ClampMoneyMin</t>
+  </si>
+  <si>
+    <t>Money 不允许负数：后续做日志提示更友好</t>
+  </si>
+  <si>
+    <t>worldPanicPerDayUncontained</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>maintenanceCostPerDay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1394,11 +1721,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1421,8 +1771,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1652,7 +2012,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1661,55 +2021,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.23046875" customWidth="1"/>
+    <col min="1" max="1" width="57.765625" customWidth="1"/>
     <col min="4" max="4" width="37.53515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E1" t="s">
         <v>434</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>435</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>436</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>437</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" t="s">
         <v>438</v>
-      </c>
-      <c r="G1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H1" t="s">
-        <v>440</v>
-      </c>
-      <c r="I1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1718,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1726,13 +2086,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1740,13 +2100,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1755,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1763,13 +2123,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1778,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1786,13 +2146,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1801,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1809,13 +2169,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1826,7 +2186,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1837,16 +2197,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1857,16 +2217,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F10" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1877,13 +2237,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1894,7 +2254,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1908,13 +2268,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1924,22 +2284,24 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="29.4609375" customWidth="1"/>
+    <col min="1" max="1" width="43.69140625" customWidth="1"/>
     <col min="2" max="2" width="15.61328125" customWidth="1"/>
-    <col min="4" max="4" width="26.3046875" customWidth="1"/>
+    <col min="4" max="4" width="67.3828125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -2014,118 +2376,244 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>447</v>
       </c>
       <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="32.6" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>450</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="32.6" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>452</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="32.6" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>454</v>
+      </c>
+      <c r="B15">
+        <v>500</v>
+      </c>
+      <c r="C15" t="s">
+        <v>456</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="32.6" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>457</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>456</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>459</v>
+      </c>
+      <c r="B17">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
+      <c r="C17" t="s">
+        <v>450</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>456</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>462</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>456</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="32.6" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>464</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>450</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>466</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>456</v>
+      </c>
+      <c r="D21" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>468</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>456</v>
+      </c>
+      <c r="D22" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2144,33 +2632,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2179,18 +2667,18 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2201,13 +2689,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2216,18 +2704,18 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2236,18 +2724,18 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2256,18 +2744,18 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2276,18 +2764,18 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2296,18 +2784,18 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2316,577 +2804,712 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25:J26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.3828125" customWidth="1"/>
-    <col min="2" max="2" width="11.921875" customWidth="1"/>
-    <col min="3" max="3" width="13.61328125" customWidth="1"/>
-    <col min="4" max="4" width="23.15234375" customWidth="1"/>
+    <col min="1" max="1" width="16.3828125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.61328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.15234375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.84375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.921875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.61328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.84375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="27.53515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="31.53515625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.23046875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="G1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D2" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E2">
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="G5" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3">
+      <c r="H5" s="4">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4">
         <v>5</v>
       </c>
-      <c r="G3">
+      <c r="H6" s="4">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4">
         <v>6</v>
       </c>
-      <c r="H3">
+      <c r="H13" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4">
+        <v>4</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
+      <c r="D16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>6</v>
+      </c>
+      <c r="H16" s="4">
+        <v>4</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="4">
+        <v>6</v>
+      </c>
+      <c r="G17" s="4">
+        <v>7</v>
+      </c>
+      <c r="H17" s="4">
+        <v>4</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="4">
         <v>3</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="F18" s="4">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4">
+        <v>6</v>
+      </c>
+      <c r="H18" s="4">
+        <v>4</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
+      <c r="D19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="4">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
+      <c r="F19" s="4">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>7</v>
+      </c>
+      <c r="H19" s="4">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6">
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4">
+        <v>6</v>
+      </c>
+      <c r="H20" s="4">
+        <v>4</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="4">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F21" s="4">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="G21" s="4">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="H21" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
         <v>100</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="G17">
-        <v>7</v>
-      </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <v>6</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19">
-        <v>7</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-      <c r="H20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <v>5</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2906,42 +3529,42 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" t="s">
         <v>143</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>144</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>145</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>146</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>147</v>
-      </c>
-      <c r="G1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -2956,7 +3579,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2964,13 +3587,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -2985,7 +3608,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2993,13 +3616,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D4">
         <v>999</v>
@@ -3014,14 +3637,14 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3030,7 +3653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3048,63 +3673,63 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
         <v>163</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>164</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>165</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>166</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>167</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>168</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>169</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>170</v>
-      </c>
-      <c r="I1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" t="s">
         <v>176</v>
-      </c>
-      <c r="F2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>179</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3113,68 +3738,68 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" t="s">
         <v>183</v>
-      </c>
-      <c r="F3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H3" t="s">
-        <v>186</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3183,33 +3808,33 @@
         <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3218,68 +3843,68 @@
         <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D7">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3288,68 +3913,68 @@
         <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3358,33 +3983,33 @@
         <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3393,33 +4018,33 @@
         <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -3428,33 +4053,33 @@
         <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3463,46 +4088,46 @@
         <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3516,510 +4141,512 @@
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="21.23046875" customWidth="1"/>
+    <col min="4" max="4" width="27.4609375" customWidth="1"/>
+    <col min="5" max="5" width="31.61328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" t="s">
         <v>233</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>234</v>
-      </c>
-      <c r="D1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
         <v>238</v>
-      </c>
-      <c r="C2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" t="s">
         <v>242</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>243</v>
-      </c>
-      <c r="D3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" t="s">
         <v>250</v>
-      </c>
-      <c r="D5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F5" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" t="s">
         <v>242</v>
       </c>
-      <c r="C7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D7" t="s">
-        <v>258</v>
-      </c>
-      <c r="E7" t="s">
-        <v>245</v>
-      </c>
       <c r="F7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" t="s">
         <v>193</v>
       </c>
-      <c r="B8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E8" t="s">
-        <v>196</v>
-      </c>
       <c r="F8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" t="s">
         <v>242</v>
       </c>
-      <c r="C9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E9" t="s">
-        <v>245</v>
-      </c>
       <c r="F9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" t="s">
         <v>202</v>
       </c>
-      <c r="B12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C12" t="s">
-        <v>272</v>
-      </c>
-      <c r="D12" t="s">
-        <v>273</v>
-      </c>
-      <c r="E12" t="s">
-        <v>205</v>
-      </c>
       <c r="F12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13" t="s">
         <v>202</v>
       </c>
-      <c r="B13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" t="s">
-        <v>275</v>
-      </c>
-      <c r="D13" t="s">
-        <v>276</v>
-      </c>
-      <c r="E13" t="s">
-        <v>205</v>
-      </c>
       <c r="F13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E14" t="s">
         <v>207</v>
       </c>
-      <c r="B14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" t="s">
-        <v>279</v>
-      </c>
-      <c r="E14" t="s">
-        <v>210</v>
-      </c>
       <c r="F14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E15" t="s">
         <v>207</v>
       </c>
-      <c r="B15" t="s">
-        <v>242</v>
-      </c>
-      <c r="C15" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E15" t="s">
-        <v>210</v>
-      </c>
       <c r="F15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" t="s">
+        <v>282</v>
+      </c>
+      <c r="E16" t="s">
         <v>212</v>
       </c>
-      <c r="B16" t="s">
-        <v>238</v>
-      </c>
-      <c r="C16" t="s">
-        <v>284</v>
-      </c>
-      <c r="D16" t="s">
-        <v>285</v>
-      </c>
-      <c r="E16" t="s">
-        <v>215</v>
-      </c>
       <c r="F16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F18" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D20" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F20" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C21" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D21" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C22" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D22" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C23" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D23" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F24" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C25" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D25" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4038,7 +4665,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -4046,294 +4673,294 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B18" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B20" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B21" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B22" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B23" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B24" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B25" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4353,25 +4980,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -4379,1606 +5006,1606 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E2">
         <v>-0.2</v>
       </c>
       <c r="H2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>350</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E4">
         <v>-2</v>
       </c>
       <c r="H4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E5">
         <v>0.15</v>
       </c>
       <c r="H5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E8">
         <v>-1</v>
       </c>
       <c r="H8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E9">
         <v>-80</v>
       </c>
       <c r="H9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E10">
         <v>-1</v>
       </c>
       <c r="H10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C11" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D11" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E11">
         <v>0.1</v>
       </c>
       <c r="H11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E12">
         <v>-0.15</v>
       </c>
       <c r="H12" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E14">
         <v>-1</v>
       </c>
       <c r="H14" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B15" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E15">
         <v>0.1</v>
       </c>
       <c r="H15" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D17" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B18" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C18" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D18" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E18">
         <v>-0.05</v>
       </c>
       <c r="H18" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D19" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D20" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E20">
         <v>-0.1</v>
       </c>
       <c r="H20" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C21" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C22" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D22" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B23" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C23" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D23" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E23">
         <v>-0.05</v>
       </c>
       <c r="H23" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C24" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D24" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E24">
         <v>-1</v>
       </c>
       <c r="H24" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C26" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D26" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E26">
         <v>0.15</v>
       </c>
       <c r="H26" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C27" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D27" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C28" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D28" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C29" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D29" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E30">
         <v>-50</v>
       </c>
       <c r="H30" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C31" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D31" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E31">
         <v>-1</v>
       </c>
       <c r="H31" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C32" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D32" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E32">
         <v>0.05</v>
       </c>
       <c r="H32" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D33" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C34" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D34" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C35" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D35" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B36" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C36" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D36" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E36">
         <v>-0.05</v>
       </c>
       <c r="H36" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D37" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E37">
         <v>-60</v>
       </c>
       <c r="H37" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C38" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D38" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E38">
         <v>-1</v>
       </c>
       <c r="H38" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B39" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D39" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E39">
         <v>-10</v>
       </c>
       <c r="H39" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B40" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C40" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D40" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C41" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D41" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D42" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E42">
         <v>-20</v>
       </c>
       <c r="H42" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B43" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D43" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E43">
         <v>-30</v>
       </c>
       <c r="H43" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B44" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C44" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D44" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E44">
         <v>-1</v>
       </c>
       <c r="H44" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B46" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C46" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D46" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B47" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D47" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E47">
         <v>-1</v>
       </c>
       <c r="H47" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C48" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D48" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B49" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D49" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E49">
         <v>-50</v>
       </c>
       <c r="H49" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B50" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C50" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D50" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E50">
         <v>-1</v>
       </c>
       <c r="H50" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C51" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D51" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E51">
         <v>-1</v>
       </c>
       <c r="H51" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B52" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D52" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E52">
         <v>-20</v>
       </c>
       <c r="H52" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B53" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D53" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
       <c r="H53" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B54" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C54" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D54" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C55" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D55" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E55">
         <v>2</v>
       </c>
       <c r="H55" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B56" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C56" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D56" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B57" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D57" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
       <c r="H57" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B58" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C58" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D58" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B59" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D59" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C60" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D60" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E60">
         <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B61" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C61" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D61" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B62" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C62" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D62" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E62">
         <v>-0.1</v>
       </c>
       <c r="H62" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C63" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D63" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B64" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D64" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E64">
         <v>-80</v>
       </c>
       <c r="H64" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C65" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D65" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E65">
         <v>-1</v>
       </c>
       <c r="H65" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B66" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C66" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D66" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C67" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D67" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B68" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C68" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D68" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E68">
         <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B69" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C69" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D69" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B70" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C70" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D70" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E70">
         <v>-70</v>
       </c>
       <c r="H70" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B71" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C71" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D71" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E71">
         <v>-1</v>
       </c>
       <c r="H71" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B72" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C72" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D72" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B73" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C73" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D73" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E73">
         <v>-0.1</v>
       </c>
       <c r="H73" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B74" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C74" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D74" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C75" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D75" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B76" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C76" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D76" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E76">
         <v>-0.05</v>
       </c>
       <c r="H76" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B77" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D77" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E77">
         <v>-40</v>
       </c>
       <c r="H77" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B78" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C78" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D78" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E78">
         <v>-1</v>
       </c>
       <c r="H78" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B79" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D79" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E79">
         <v>-60</v>
       </c>
       <c r="H79" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B80" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C80" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D80" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B81" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C81" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D81" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E95680-6343-4364-8F8D-91C6C8986246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDB2E58-6AA5-4DB6-ACA5-38FDD0F65CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="474">
   <si>
     <t>schemaVersion</t>
   </si>
@@ -55,39 +55,21 @@
     <t>value</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>LocalPanicHighThreshold</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>Local panic trigger</t>
   </si>
   <si>
     <t>RandomEventBaseProb</t>
   </si>
   <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>Random event probability</t>
   </si>
   <si>
     <t>DefaultAutoResolveAfterDays</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Unused in v0</t>
   </si>
   <si>
@@ -97,9 +79,6 @@
     <t>ApplyDailyKeep</t>
   </si>
   <si>
-    <t>enum</t>
-  </si>
-  <si>
     <t>Default ignore mode</t>
   </si>
   <si>
@@ -166,9 +145,6 @@
     <t>节点1</t>
   </si>
   <si>
-    <t>urban;lab</t>
-  </si>
-  <si>
     <t>AN_001</t>
   </si>
   <si>
@@ -199,60 +175,30 @@
     <t>节点4</t>
   </si>
   <si>
-    <t>coastal;port</t>
-  </si>
-  <si>
-    <t>AN_007;AN_011</t>
-  </si>
-  <si>
     <t>N5</t>
   </si>
   <si>
     <t>节点5</t>
   </si>
   <si>
-    <t>mountain;temple</t>
-  </si>
-  <si>
-    <t>AN_013;AN_019</t>
-  </si>
-  <si>
     <t>N6</t>
   </si>
   <si>
     <t>节点6</t>
   </si>
   <si>
-    <t>industrial;mine</t>
-  </si>
-  <si>
-    <t>AN_018;AN_020</t>
-  </si>
-  <si>
     <t>N7</t>
   </si>
   <si>
     <t>节点7</t>
   </si>
   <si>
-    <t>academic;lab</t>
-  </si>
-  <si>
-    <t>AN_004;AN_010</t>
-  </si>
-  <si>
     <t>N8</t>
   </si>
   <si>
     <t>节点8</t>
   </si>
   <si>
-    <t>rural;forest</t>
-  </si>
-  <si>
-    <t>AN_008;AN_014</t>
-  </si>
-  <si>
     <t>anomalyId</t>
   </si>
   <si>
@@ -277,180 +223,120 @@
     <t>Euclid</t>
   </si>
   <si>
-    <t>bio;stealth</t>
-  </si>
-  <si>
     <t>失声合唱</t>
   </si>
   <si>
     <t>Keter</t>
   </si>
   <si>
-    <t>memetic;panic</t>
-  </si>
-  <si>
     <t>AN_003</t>
   </si>
   <si>
     <t>嗜盐水雾</t>
   </si>
   <si>
-    <t>bio;toxic;water</t>
-  </si>
-  <si>
     <t>AN_004</t>
   </si>
   <si>
     <t>空白日记</t>
   </si>
   <si>
-    <t>memetic;infohazard</t>
-  </si>
-  <si>
     <t>AN_005</t>
   </si>
   <si>
     <t>逆向楼梯间</t>
   </si>
   <si>
-    <t>spatial;urban</t>
-  </si>
-  <si>
     <t>AN_006</t>
   </si>
   <si>
     <t>自复原蜡像</t>
   </si>
   <si>
-    <t>bio;panic</t>
-  </si>
-  <si>
     <t>AN_007</t>
   </si>
   <si>
     <t>午夜电台</t>
   </si>
   <si>
-    <t>memetic;signal</t>
-  </si>
-  <si>
     <t>AN_008</t>
   </si>
   <si>
     <t>低语菌落</t>
   </si>
   <si>
-    <t>bio;spore</t>
-  </si>
-  <si>
     <t>AN_009</t>
   </si>
   <si>
     <t>无影灯</t>
   </si>
   <si>
-    <t>stealth;optic</t>
-  </si>
-  <si>
     <t>AN_010</t>
   </si>
   <si>
     <t>恒温灰尘</t>
   </si>
   <si>
-    <t>material;lab</t>
-  </si>
-  <si>
     <t>AN_011</t>
   </si>
   <si>
     <t>回声邮筒</t>
   </si>
   <si>
-    <t>spatial;info</t>
-  </si>
-  <si>
     <t>AN_012</t>
   </si>
   <si>
     <t>镜中幼体</t>
   </si>
   <si>
-    <t>bio;stealth;embryo</t>
-  </si>
-  <si>
     <t>AN_013</t>
   </si>
   <si>
     <t>祈香残火</t>
   </si>
   <si>
-    <t>religion;incense;merit</t>
-  </si>
-  <si>
     <t>AN_014</t>
   </si>
   <si>
     <t>符箓回路</t>
   </si>
   <si>
-    <t>tao;qi;sigil</t>
-  </si>
-  <si>
     <t>AN_015</t>
   </si>
   <si>
     <t>五行失衡井</t>
   </si>
   <si>
-    <t>tao;wuxing;panic</t>
-  </si>
-  <si>
     <t>AN_016</t>
   </si>
   <si>
     <t>洞天影门</t>
   </si>
   <si>
-    <t>tao;spatial</t>
-  </si>
-  <si>
     <t>AN_017</t>
   </si>
   <si>
     <t>天人回响</t>
   </si>
   <si>
-    <t>tao;memetic;signal</t>
-  </si>
-  <si>
     <t>AN_018</t>
   </si>
   <si>
     <t>业火余烬</t>
   </si>
   <si>
-    <t>religion;fire;karma</t>
-  </si>
-  <si>
     <t>AN_019</t>
   </si>
   <si>
     <t>戒律钟摆</t>
   </si>
   <si>
-    <t>religion;rule;panic</t>
-  </si>
-  <si>
     <t>AN_020</t>
   </si>
   <si>
     <t>丹砂雾化</t>
   </si>
   <si>
-    <t>tao;toxic;lab</t>
-  </si>
-  <si>
     <t>taskDefId</t>
   </si>
   <si>
@@ -559,9 +445,6 @@
     <t>BlockOriginTask</t>
   </si>
   <si>
-    <t>OriginTask;Node</t>
-  </si>
-  <si>
     <t>EFF_IGNORE_INV</t>
   </si>
   <si>
@@ -610,9 +493,6 @@
     <t>调查员疑似遭受认知污染，需立即处置。</t>
   </si>
   <si>
-    <t>OriginTask;Node;Global</t>
-  </si>
-  <si>
     <t>EFF_IGNORE_INV_MEMETIC</t>
   </si>
   <si>
@@ -637,9 +517,6 @@
     <t>区域性停电导致监控失效与安防薄弱。</t>
   </si>
   <si>
-    <t>Node;Global</t>
-  </si>
-  <si>
     <t>EFF_IGNORE_BLACKOUT</t>
   </si>
   <si>
@@ -667,9 +544,6 @@
     <t>内部消息疑似外泄，媒体开始追问。</t>
   </si>
   <si>
-    <t>Global;Node</t>
-  </si>
-  <si>
     <t>EFF_IGNORE_LEAK</t>
   </si>
   <si>
@@ -757,9 +631,6 @@
     <t>调查小队冒险推进，压力上升。</t>
   </si>
   <si>
-    <t>OriginTask;Global</t>
-  </si>
-  <si>
     <t>EFF_OPTION_PUSH</t>
   </si>
   <si>
@@ -778,9 +649,6 @@
     <t>项目得到资源，人口受到影响。</t>
   </si>
   <si>
-    <t>Node;TaskType:Contain</t>
-  </si>
-  <si>
     <t>EFF_OPTION_PROJECT</t>
   </si>
   <si>
@@ -1349,27 +1217,6 @@
   </si>
   <si>
     <t>stealth</t>
-  </si>
-  <si>
-    <t>infohazard;stealth</t>
-  </si>
-  <si>
-    <t>urban;industrial;port</t>
-  </si>
-  <si>
-    <t>urban;academic</t>
-  </si>
-  <si>
-    <t>mountain;rural;temple</t>
-  </si>
-  <si>
-    <t>religion;tao</t>
-  </si>
-  <si>
-    <t>urban;industrial;lab</t>
-  </si>
-  <si>
-    <t>port;urban</t>
   </si>
   <si>
     <t>StartMoney</t>
@@ -1380,10 +1227,6 @@
   </si>
   <si>
     <t>PopToMoneyRate</t>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1522,10 +1365,6 @@
       </rPr>
       <t>Money -= HireCost</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1700,11 +1539,185 @@
     <t>Money 不允许负数：后续做日志提示更友好</t>
   </si>
   <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#comment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>worldPanicPerDayUncontained</t>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>maintenanceCostPerDay</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bio,stealth</t>
+  </si>
+  <si>
+    <t>memetic,panic</t>
+  </si>
+  <si>
+    <t>bio,toxic,water</t>
+  </si>
+  <si>
+    <t>memetic,infohazard</t>
+  </si>
+  <si>
+    <t>spatial,urban</t>
+  </si>
+  <si>
+    <t>bio,panic</t>
+  </si>
+  <si>
+    <t>memetic,signal</t>
+  </si>
+  <si>
+    <t>bio,spore</t>
+  </si>
+  <si>
+    <t>stealth,optic</t>
+  </si>
+  <si>
+    <t>material,lab</t>
+  </si>
+  <si>
+    <t>spatial,info</t>
+  </si>
+  <si>
+    <t>bio,stealth,embryo</t>
+  </si>
+  <si>
+    <t>religion,incense,merit</t>
+  </si>
+  <si>
+    <t>tao,qi,sigil</t>
+  </si>
+  <si>
+    <t>tao,wuxing,panic</t>
+  </si>
+  <si>
+    <t>tao,spatial</t>
+  </si>
+  <si>
+    <t>tao,memetic,signal</t>
+  </si>
+  <si>
+    <t>religion,fire,karma</t>
+  </si>
+  <si>
+    <t>religion,rule,panic</t>
+  </si>
+  <si>
+    <t>tao,toxic,lab</t>
+  </si>
+  <si>
+    <t>urban,lab</t>
+  </si>
+  <si>
+    <t>coastal,port</t>
+  </si>
+  <si>
+    <t>mountain,temple</t>
+  </si>
+  <si>
+    <t>industrial,mine</t>
+  </si>
+  <si>
+    <t>academic,lab</t>
+  </si>
+  <si>
+    <t>rural,forest</t>
+  </si>
+  <si>
+    <t>AN_007,AN_011</t>
+  </si>
+  <si>
+    <t>AN_013,AN_019</t>
+  </si>
+  <si>
+    <t>AN_018,AN_020</t>
+  </si>
+  <si>
+    <t>AN_004,AN_010</t>
+  </si>
+  <si>
+    <t>AN_008,AN_014</t>
+  </si>
+  <si>
+    <t>OriginTask,Node</t>
+  </si>
+  <si>
+    <t>OriginTask,Node,Global</t>
+  </si>
+  <si>
+    <t>Node,Global</t>
+  </si>
+  <si>
+    <t>Global,Node</t>
+  </si>
+  <si>
+    <t>OriginTask,Global</t>
+  </si>
+  <si>
+    <t>Node,TaskType:Contain</t>
+  </si>
+  <si>
+    <t>infohazard,stealth</t>
+  </si>
+  <si>
+    <t>religion,tao</t>
+  </si>
+  <si>
+    <t>urban,industrial,port</t>
+  </si>
+  <si>
+    <t>urban,academic</t>
+  </si>
+  <si>
+    <t>mountain,rural,temple</t>
+  </si>
+  <si>
+    <t>urban,industrial,lab</t>
+  </si>
+  <si>
+    <t>port,urban</t>
+  </si>
+  <si>
+    <t>名字</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1712,7 +1725,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1750,6 +1763,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1771,16 +1792,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1976,38 +2009,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.53515625" customWidth="1"/>
     <col min="2" max="2" width="12.3828125" customWidth="1"/>
-    <col min="3" max="3" width="34.84375" customWidth="1"/>
+    <col min="3" max="3" width="69.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2019,267 +2074,341 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="57.765625" customWidth="1"/>
-    <col min="4" max="4" width="37.53515625" customWidth="1"/>
+    <col min="1" max="1" width="36.61328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.23046875" style="2"/>
+    <col min="4" max="4" width="20.69140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.69140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.07421875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.23046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E1" t="s">
-        <v>434</v>
-      </c>
-      <c r="F1" t="s">
-        <v>435</v>
-      </c>
-      <c r="G1" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" t="s">
-        <v>437</v>
-      </c>
-      <c r="I1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>439</v>
-      </c>
-      <c r="G2">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J2">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3">
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3">
+      <c r="J12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>440</v>
-      </c>
-      <c r="G4">
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J4">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="H15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>441</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>442</v>
-      </c>
-      <c r="F9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>443</v>
-      </c>
-      <c r="F10" t="s">
-        <v>444</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>445</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>446</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="J13">
+      <c r="J15" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2291,325 +2420,288 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="43.69140625" customWidth="1"/>
-    <col min="2" max="2" width="15.61328125" customWidth="1"/>
-    <col min="4" max="4" width="67.3828125" customWidth="1"/>
+    <col min="1" max="1" width="43.69140625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="19.84375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="67.3828125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="32.6" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="32.6" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B16" s="2">
+        <v>100</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="32.6" x14ac:dyDescent="0.5">
+      <c r="A17" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B17" s="2">
+        <v>500</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="32.6" x14ac:dyDescent="0.5">
+      <c r="A18" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B18" s="2">
+        <v>100</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.3" x14ac:dyDescent="0.5">
+      <c r="A19" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="B20" s="2">
+        <v>100</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.3" x14ac:dyDescent="0.5">
+      <c r="A21" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
+      <c r="E21" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="32.6" x14ac:dyDescent="0.5">
+      <c r="A22" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B23" s="2">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>0.05</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10">
+      <c r="E23" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B24" s="2">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>447</v>
-      </c>
-      <c r="B12">
-        <v>10000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="32.6" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>449</v>
-      </c>
-      <c r="B13">
-        <v>0.1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>450</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="32.6" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>452</v>
-      </c>
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="32.6" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>454</v>
-      </c>
-      <c r="B15">
-        <v>500</v>
-      </c>
-      <c r="C15" t="s">
-        <v>456</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="32.6" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>457</v>
-      </c>
-      <c r="B16">
-        <v>100</v>
-      </c>
-      <c r="C16" t="s">
-        <v>456</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>459</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>450</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18">
-        <v>100</v>
-      </c>
-      <c r="C18" t="s">
-        <v>456</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>462</v>
-      </c>
-      <c r="B19">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>456</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="32.6" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>464</v>
-      </c>
-      <c r="B20">
-        <v>0.5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>450</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>466</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>456</v>
-      </c>
-      <c r="D21" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>468</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>456</v>
-      </c>
-      <c r="D22" t="s">
-        <v>469</v>
+      <c r="E24" s="2" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -2620,191 +2712,235 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="21.3046875" customWidth="1"/>
-    <col min="4" max="6" width="16.69140625" customWidth="1"/>
+    <col min="1" max="2" width="9.23046875" style="2"/>
+    <col min="3" max="3" width="21.3046875" style="2" customWidth="1"/>
+    <col min="4" max="6" width="16.69140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="B6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3">
+      <c r="E8" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="E10" s="2">
+        <v>500</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5">
+      <c r="C11" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>73</v>
+      <c r="E11" s="2">
+        <v>100</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -2815,696 +2951,726 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25:J26"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.3828125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.61328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.15234375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.84375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="23.921875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.61328125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.84375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="27.53515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="31.53515625" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.23046875" style="4"/>
+    <col min="1" max="1" width="16.3828125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.61328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.15234375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.4609375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.3828125" style="2" customWidth="1"/>
+    <col min="7" max="10" width="16.23046875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:10" s="7" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="4">
+      <c r="B14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
         <v>2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E15" s="2">
         <v>3</v>
       </c>
-      <c r="G2" s="4">
+      <c r="F15" s="2">
         <v>4</v>
       </c>
-      <c r="H2" s="4">
+      <c r="G15" s="2">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4</v>
+      </c>
+      <c r="I15" s="2">
         <v>2</v>
       </c>
-      <c r="I2" s="4">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4">
+      <c r="J15" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2">
         <v>6</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H18" s="2">
         <v>4</v>
       </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2">
+        <v>7</v>
+      </c>
+      <c r="H19" s="2">
+        <v>4</v>
+      </c>
+      <c r="I19" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="J19" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2">
+        <v>4</v>
+      </c>
+      <c r="I20" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="J20" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>7</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E22" s="2">
         <v>3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4</v>
+      </c>
+      <c r="I22" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="J22" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3</v>
+      </c>
+      <c r="I23" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="4">
-        <v>4</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2</v>
-      </c>
-      <c r="H5" s="4">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4">
-        <v>4</v>
-      </c>
-      <c r="G6" s="4">
-        <v>5</v>
-      </c>
-      <c r="H6" s="4">
-        <v>3</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4">
-        <v>4</v>
-      </c>
-      <c r="H7" s="4">
-        <v>3</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4">
-        <v>5</v>
-      </c>
-      <c r="H8" s="4">
-        <v>4</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4">
-        <v>3</v>
-      </c>
-      <c r="G9" s="4">
-        <v>4</v>
-      </c>
-      <c r="H9" s="4">
-        <v>3</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4">
-        <v>3</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4">
-        <v>3</v>
-      </c>
-      <c r="G11" s="4">
-        <v>3</v>
-      </c>
-      <c r="H11" s="4">
-        <v>2</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" s="4">
-        <v>2</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="4">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4">
-        <v>4</v>
-      </c>
-      <c r="G13" s="4">
-        <v>6</v>
-      </c>
-      <c r="H13" s="4">
-        <v>4</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4">
-        <v>3</v>
-      </c>
-      <c r="G14" s="4">
-        <v>4</v>
-      </c>
-      <c r="H14" s="4">
-        <v>2</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="J14" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="4">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5</v>
-      </c>
-      <c r="H15" s="4">
-        <v>3</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="4">
-        <v>4</v>
-      </c>
-      <c r="F16" s="4">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4">
-        <v>6</v>
-      </c>
-      <c r="H16" s="4">
-        <v>4</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1</v>
-      </c>
-      <c r="J16" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="4">
-        <v>4</v>
-      </c>
-      <c r="F17" s="4">
-        <v>6</v>
-      </c>
-      <c r="G17" s="4">
-        <v>7</v>
-      </c>
-      <c r="H17" s="4">
-        <v>4</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="4">
-        <v>3</v>
-      </c>
-      <c r="F18" s="4">
-        <v>5</v>
-      </c>
-      <c r="G18" s="4">
-        <v>6</v>
-      </c>
-      <c r="H18" s="4">
-        <v>4</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="4">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4">
-        <v>5</v>
-      </c>
-      <c r="G19" s="4">
-        <v>7</v>
-      </c>
-      <c r="H19" s="4">
-        <v>5</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1</v>
-      </c>
-      <c r="J19" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="4">
-        <v>3</v>
-      </c>
-      <c r="F20" s="4">
-        <v>4</v>
-      </c>
-      <c r="G20" s="4">
-        <v>6</v>
-      </c>
-      <c r="H20" s="4">
-        <v>4</v>
-      </c>
-      <c r="I20" s="4">
-        <v>1</v>
-      </c>
-      <c r="J20" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="4">
-        <v>3</v>
-      </c>
-      <c r="F21" s="4">
-        <v>4</v>
-      </c>
-      <c r="G21" s="4">
-        <v>5</v>
-      </c>
-      <c r="H21" s="4">
-        <v>3</v>
-      </c>
-      <c r="I21" s="4">
-        <v>1</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="J23" s="2">
         <v>100</v>
       </c>
     </row>
@@ -3516,130 +3682,194 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.15234375" customWidth="1"/>
     <col min="2" max="2" width="17.765625" customWidth="1"/>
+    <col min="5" max="5" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.4609375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.84375" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I1" t="s">
-        <v>147</v>
+      <c r="A1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2">
+      <c r="A2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="E4" s="2">
         <v>0.12</v>
       </c>
-      <c r="F2">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G4" s="2">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2">
+      <c r="H4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="2">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E5" s="2">
         <v>0.1</v>
       </c>
-      <c r="F3">
+      <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="G5" s="2">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3">
+      <c r="H5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="2">
         <v>999</v>
       </c>
-      <c r="E4">
+      <c r="E6" s="2">
         <v>0.02</v>
       </c>
-      <c r="F4">
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="G6" s="2">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I4">
+      <c r="H6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="2">
         <v>2</v>
       </c>
     </row>
@@ -3651,479 +3881,549 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="39.69140625" customWidth="1"/>
+    <col min="1" max="1" width="36.61328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.23046875" customWidth="1"/>
     <col min="3" max="3" width="21.921875" customWidth="1"/>
-    <col min="5" max="5" width="21.4609375" customWidth="1"/>
-    <col min="6" max="6" width="48.61328125" customWidth="1"/>
-    <col min="7" max="7" width="27.53515625" customWidth="1"/>
-    <col min="8" max="8" width="23.61328125" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="27.921875" customWidth="1"/>
-    <col min="11" max="11" width="20.765625" customWidth="1"/>
+    <col min="5" max="5" width="9.23046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4609375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.07421875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.84375" customWidth="1"/>
+    <col min="11" max="11" width="25.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F9" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F10" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="K1" t="s">
+      <c r="F11" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F12" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="I2">
+      <c r="B13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F14" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I3">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="I15" s="2">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>184</v>
-      </c>
-      <c r="K3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="J15" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="F4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" t="s">
-        <v>176</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H6" t="s">
-        <v>193</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>184</v>
-      </c>
-      <c r="K6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" t="s">
-        <v>202</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G8" t="s">
-        <v>182</v>
-      </c>
-      <c r="H8" t="s">
-        <v>207</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>184</v>
-      </c>
-      <c r="K8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>210</v>
-      </c>
-      <c r="F9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" t="s">
-        <v>212</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F10" t="s">
-        <v>216</v>
-      </c>
-      <c r="G10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" t="s">
-        <v>202</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>219</v>
-      </c>
-      <c r="F11" t="s">
-        <v>220</v>
-      </c>
-      <c r="G11" t="s">
-        <v>182</v>
-      </c>
-      <c r="H11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>223</v>
-      </c>
-      <c r="F12" t="s">
-        <v>224</v>
-      </c>
-      <c r="G12" t="s">
-        <v>182</v>
-      </c>
-      <c r="H12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>227</v>
-      </c>
-      <c r="F13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" t="s">
-        <v>182</v>
-      </c>
-      <c r="H13" t="s">
-        <v>202</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>184</v>
-      </c>
-      <c r="K13" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4134,515 +4434,559 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="21.23046875" customWidth="1"/>
-    <col min="4" max="4" width="27.4609375" customWidth="1"/>
+    <col min="1" max="1" width="36.61328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.84375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.61328125" customWidth="1"/>
+    <col min="6" max="6" width="30.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F1" t="s">
-        <v>234</v>
+      <c r="A1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" t="s">
-        <v>238</v>
+      <c r="A2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F3" t="s">
-        <v>243</v>
+      <c r="A3" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="E4" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="F4" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>464</v>
       </c>
       <c r="F5" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>462</v>
       </c>
       <c r="F6" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="E7" t="s">
-        <v>242</v>
+        <v>465</v>
       </c>
       <c r="F7" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>461</v>
       </c>
       <c r="F8" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="E9" t="s">
-        <v>242</v>
+        <v>464</v>
       </c>
       <c r="F9" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>461</v>
       </c>
       <c r="F10" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="E11" t="s">
-        <v>193</v>
+        <v>464</v>
       </c>
       <c r="F11" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C12" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="E12" t="s">
-        <v>202</v>
+        <v>462</v>
       </c>
       <c r="F12" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="D13" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="E13" t="s">
-        <v>202</v>
+        <v>461</v>
       </c>
       <c r="F13" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="D14" t="s">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>462</v>
       </c>
       <c r="F14" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="D15" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>462</v>
       </c>
       <c r="F15" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D16" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E16" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="F16" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="D17" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="E17" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="F17" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="D18" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="E18" t="s">
-        <v>202</v>
+        <v>463</v>
       </c>
       <c r="F18" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="D19" t="s">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="E19" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="F19" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="D20" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="E20" t="s">
-        <v>207</v>
+        <v>462</v>
       </c>
       <c r="F20" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C21" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="D21" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>462</v>
       </c>
       <c r="F21" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="D22" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E22" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="F22" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C23" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="D23" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="E23" t="s">
-        <v>202</v>
+        <v>463</v>
       </c>
       <c r="F23" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C24" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="D24" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="E24" t="s">
-        <v>202</v>
+        <v>462</v>
       </c>
       <c r="F24" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="D25" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="E25" t="s">
-        <v>212</v>
+        <v>462</v>
       </c>
       <c r="F25" t="s">
-        <v>310</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" t="s">
+        <v>262</v>
+      </c>
+      <c r="E26" t="s">
+        <v>462</v>
+      </c>
+      <c r="F26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" t="s">
+        <v>264</v>
+      </c>
+      <c r="D27" t="s">
+        <v>265</v>
+      </c>
+      <c r="E27" t="s">
+        <v>463</v>
+      </c>
+      <c r="F27" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4653,9 +4997,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4664,299 +5010,315 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" t="s">
-        <v>311</v>
+      <c r="A2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B11" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>217</v>
-      </c>
-      <c r="B14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B15" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>225</v>
-      </c>
-      <c r="B16" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>229</v>
-      </c>
-      <c r="B17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>253</v>
-      </c>
-      <c r="B18" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>256</v>
-      </c>
-      <c r="B19" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>259</v>
-      </c>
-      <c r="B20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>262</v>
-      </c>
-      <c r="B21" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>265</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B29" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>268</v>
-      </c>
-      <c r="B23" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>271</v>
-      </c>
-      <c r="B24" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>274</v>
-      </c>
-      <c r="B25" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>277</v>
-      </c>
-      <c r="B26" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>280</v>
-      </c>
-      <c r="B27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>283</v>
-      </c>
-      <c r="B28" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>286</v>
-      </c>
-      <c r="B29" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>289</v>
-      </c>
-      <c r="B30" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>292</v>
-      </c>
-      <c r="B31" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+      <c r="B38" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B32" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>298</v>
-      </c>
-      <c r="B33" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>301</v>
-      </c>
-      <c r="B34" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>304</v>
-      </c>
-      <c r="B35" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>307</v>
-      </c>
-      <c r="B36" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>310</v>
-      </c>
-      <c r="B37" t="s">
-        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -4967,38 +5329,41 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="31.4609375" customWidth="1"/>
     <col min="2" max="2" width="35.4609375" customWidth="1"/>
     <col min="3" max="3" width="27.921875" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="C1" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="D1" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="G1" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -5006,1602 +5371,1654 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="D2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E2">
-        <v>-0.2</v>
+        <v>298</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G2" t="s">
+        <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>417</v>
       </c>
       <c r="C3" t="s">
-        <v>349</v>
+        <v>417</v>
       </c>
       <c r="D3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>417</v>
+      </c>
+      <c r="E3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G3" t="s">
+        <v>428</v>
       </c>
       <c r="H3" t="s">
-        <v>350</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>301</v>
       </c>
       <c r="C4" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="D4" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E4">
-        <v>-2</v>
+        <v>-0.2</v>
       </c>
       <c r="H4" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>345</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="D5" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E5">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="D6" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H6" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="D7" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="H7" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="D8" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="D9" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E9">
-        <v>-80</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="D10" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E10">
         <v>-1</v>
       </c>
       <c r="H10" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>360</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
+        <v>-80</v>
       </c>
       <c r="H11" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B12" t="s">
-        <v>345</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="D12" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E12">
-        <v>-0.15</v>
+        <v>-1</v>
       </c>
       <c r="H12" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>316</v>
       </c>
       <c r="C13" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="D13" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H13" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
       <c r="D14" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>-0.15</v>
       </c>
       <c r="H14" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>345</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="D15" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>349</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H16" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
       <c r="D17" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H17" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s">
-        <v>345</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="D18" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E18">
-        <v>-0.05</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="C20" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="D20" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E20">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="H20" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C21" t="s">
-        <v>349</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="C22" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
       <c r="D22" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="H22" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>259</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>345</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="D23" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E23">
-        <v>-0.05</v>
+        <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>259</v>
+        <v>154</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="D24" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
       <c r="D25" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>-0.05</v>
       </c>
       <c r="H25" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s">
-        <v>345</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="D26" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E26">
-        <v>0.15</v>
+        <v>-1</v>
       </c>
       <c r="H26" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C27" t="s">
-        <v>353</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>301</v>
       </c>
       <c r="C28" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="D28" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="H28" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C29" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="D29" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="D30" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E30">
-        <v>-50</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C31" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="D31" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>381</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="B32" t="s">
-        <v>345</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
-        <v>346</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E32">
-        <v>0.05</v>
+        <v>-50</v>
       </c>
       <c r="H32" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="D33" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H33" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="C34" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
       <c r="D34" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H34" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="D35" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="B36" t="s">
-        <v>360</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="D36" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E36">
-        <v>-0.05</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="D37" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E37">
-        <v>-60</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>316</v>
       </c>
       <c r="C38" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="D38" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E38">
-        <v>-1</v>
+        <v>-0.05</v>
       </c>
       <c r="H38" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E39">
-        <v>-10</v>
+        <v>-60</v>
       </c>
       <c r="H39" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="B40" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="D40" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H40" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s">
-        <v>353</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="H41" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B42" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="D42" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E42">
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>277</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s">
-        <v>155</v>
+        <v>309</v>
       </c>
       <c r="D43" t="s">
+        <v>303</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
         <v>347</v>
-      </c>
-      <c r="E43">
-        <v>-30</v>
-      </c>
-      <c r="H43" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>277</v>
+        <v>167</v>
       </c>
       <c r="B44" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>353</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E44">
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="H44" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B45" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>-30</v>
       </c>
       <c r="H45" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C46" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="D46" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H46" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="B47" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C47" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="D47" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="D48" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="B49" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E49">
-        <v>-50</v>
+        <v>-1</v>
       </c>
       <c r="H49" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>283</v>
+        <v>171</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C50" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="D50" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E50">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>400</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="B51" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s">
-        <v>349</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E51">
-        <v>-1</v>
+        <v>-50</v>
       </c>
       <c r="H51" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="B52" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>309</v>
       </c>
       <c r="D52" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E52">
-        <v>-20</v>
+        <v>-1</v>
       </c>
       <c r="H52" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="D53" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H53" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="B54" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
-        <v>353</v>
+        <v>117</v>
       </c>
       <c r="D54" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="H54" t="s">
-        <v>404</v>
+        <v>358</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s">
-        <v>349</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E55">
         <v>2</v>
       </c>
       <c r="H55" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="B56" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="D56" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>406</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>289</v>
+        <v>175</v>
       </c>
       <c r="B57" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="D57" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
       <c r="H57" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>289</v>
+        <v>175</v>
       </c>
       <c r="B58" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C58" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="D58" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="B59" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="B60" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="D60" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>410</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="B61" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C61" t="s">
-        <v>353</v>
+        <v>113</v>
       </c>
       <c r="D61" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>411</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="B62" t="s">
-        <v>412</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="D62" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E62">
-        <v>-0.1</v>
+        <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C63" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="D63" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>295</v>
+        <v>179</v>
       </c>
       <c r="B64" t="s">
-        <v>207</v>
+        <v>368</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="D64" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E64">
-        <v>-80</v>
+        <v>-0.1</v>
       </c>
       <c r="H64" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>295</v>
+        <v>179</v>
       </c>
       <c r="B65" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C65" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="D65" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="B66" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C66" t="s">
-        <v>353</v>
+        <v>117</v>
       </c>
       <c r="D66" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>-80</v>
       </c>
       <c r="H66" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="B67" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C67" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="D67" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H67" t="s">
-        <v>418</v>
+        <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B68" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C68" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="D68" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B69" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="D69" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>420</v>
+        <v>374</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>301</v>
+        <v>183</v>
       </c>
       <c r="B70" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="D70" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E70">
-        <v>-70</v>
+        <v>2</v>
       </c>
       <c r="H70" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>301</v>
+        <v>183</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C71" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="D71" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="B72" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C72" t="s">
-        <v>349</v>
+        <v>117</v>
       </c>
       <c r="D72" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>-70</v>
       </c>
       <c r="H72" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>144</v>
       </c>
       <c r="C73" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="D73" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E73">
-        <v>-0.1</v>
+        <v>-1</v>
       </c>
       <c r="H73" t="s">
-        <v>423</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="B74" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="D74" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B75" t="s">
-        <v>183</v>
+        <v>316</v>
       </c>
       <c r="C75" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="D75" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="H75" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B76" t="s">
-        <v>360</v>
+        <v>166</v>
       </c>
       <c r="C76" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="D76" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E76">
-        <v>-0.05</v>
+        <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>425</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="B77" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="D77" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E77">
-        <v>-40</v>
+        <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>426</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
+        <v>316</v>
       </c>
       <c r="C78" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="D78" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E78">
-        <v>-1</v>
+        <v>-0.05</v>
       </c>
       <c r="H78" t="s">
-        <v>427</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="B79" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="D79" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E79">
-        <v>-60</v>
+        <v>-40</v>
       </c>
       <c r="H79" t="s">
-        <v>428</v>
+        <v>382</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="B80" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="C80" t="s">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="D80" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H80" t="s">
-        <v>429</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="B81" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C81" t="s">
-        <v>353</v>
+        <v>117</v>
       </c>
       <c r="D81" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E81">
+        <v>-60</v>
+      </c>
+      <c r="H81" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>266</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" t="s">
+        <v>303</v>
+      </c>
+      <c r="E82">
         <v>1</v>
       </c>
-      <c r="H81" t="s">
-        <v>430</v>
+      <c r="H82" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>266</v>
+      </c>
+      <c r="B83" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" t="s">
+        <v>309</v>
+      </c>
+      <c r="D83" t="s">
+        <v>303</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDB2E58-6AA5-4DB6-ACA5-38FDD0F65CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D4C5AB-CDA5-458D-B92D-2793C4F430AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,25 @@
     <sheet name="EffectOps" sheetId="9" r:id="rId9"/>
     <sheet name="EventTriggers" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="475">
   <si>
     <t>schemaVersion</t>
   </si>
@@ -1718,6 +1731,10 @@
   </si>
   <si>
     <t>名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2074,102 +2091,106 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" activeCellId="1" sqref="A4:A15 M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="36.61328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.23046875" style="2"/>
-    <col min="4" max="4" width="20.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.23046875" style="2"/>
+    <col min="1" max="1" width="9.23046875" style="2"/>
+    <col min="2" max="2" width="36.61328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.23046875" style="2"/>
+    <col min="5" max="5" width="20.69140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.69140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.07421875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.23046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>426</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>423</v>
@@ -2178,237 +2199,276 @@
         <v>423</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>2</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>2</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>3</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>3</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>3</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>1</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4434,64 +4494,68 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="36.61328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.84375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.61328125" customWidth="1"/>
-    <col min="6" max="6" width="30.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.61328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.61328125" customWidth="1"/>
+    <col min="7" max="7" width="30.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>417</v>
@@ -4503,489 +4567,564 @@
         <v>417</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>133</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>193</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>194</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>195</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>144</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>133</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>197</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>198</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>199</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>464</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>139</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>193</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>201</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>202</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>462</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>139</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>197</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>204</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>205</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>465</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>147</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>193</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>207</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>208</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>461</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>147</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>197</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>210</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>211</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>464</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>151</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>193</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>213</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>214</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>461</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>151</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>197</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>216</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>217</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>464</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>155</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>193</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>219</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>220</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>462</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>155</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>197</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>222</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>223</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>461</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>159</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>193</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>225</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>226</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>462</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>159</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>197</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>228</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>229</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>462</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
         <v>163</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>193</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>231</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>232</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>166</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>163</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>197</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>234</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>235</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>166</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
         <v>168</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>193</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>237</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>238</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>463</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>168</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>197</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>240</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>241</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>166</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
         <v>172</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>193</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>243</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>244</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>462</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
         <v>172</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>197</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>246</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>247</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>462</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
         <v>176</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>193</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>249</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>250</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>166</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
         <v>176</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>197</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>252</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>253</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>463</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
         <v>180</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>193</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>255</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>256</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>462</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
         <v>180</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>197</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>258</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>259</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>462</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
         <v>184</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>193</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>261</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>262</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>462</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
         <v>184</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>197</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>264</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>265</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>463</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5329,1695 +5468,2103 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="31.4609375" customWidth="1"/>
-    <col min="2" max="2" width="35.4609375" customWidth="1"/>
-    <col min="3" max="3" width="27.921875" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="1" max="1" width="10.23046875" customWidth="1"/>
+    <col min="2" max="2" width="31.4609375" customWidth="1"/>
+    <col min="3" max="3" width="35.4609375" customWidth="1"/>
+    <col min="4" max="4" width="27.921875" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E4">
+      <c r="E4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" s="2">
         <v>-0.2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E5">
+      <c r="E5" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E6">
+      <c r="E6" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F6" s="2">
         <v>-2</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E7">
+      <c r="E7" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="2">
         <v>0.15</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D8" t="s">
-        <v>303</v>
-      </c>
-      <c r="E8">
+      <c r="E8" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D9" t="s">
-        <v>303</v>
-      </c>
-      <c r="E9">
+      <c r="E9" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D10" t="s">
-        <v>303</v>
-      </c>
-      <c r="E10">
+      <c r="E10" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" s="2">
         <v>-1</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E11">
+      <c r="E11" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F11" s="2">
         <v>-80</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D12" t="s">
-        <v>303</v>
-      </c>
-      <c r="E12">
+      <c r="E12" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F12" s="2">
         <v>-1</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D13" t="s">
-        <v>303</v>
-      </c>
-      <c r="E13">
+      <c r="E13" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" s="2">
         <v>0.1</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D14" t="s">
-        <v>303</v>
-      </c>
-      <c r="E14">
+      <c r="E14" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F14" s="2">
         <v>-0.15</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D15" t="s">
-        <v>303</v>
-      </c>
-      <c r="E15">
+      <c r="E15" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D16" t="s">
-        <v>303</v>
-      </c>
-      <c r="E16">
+      <c r="E16" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" s="2">
         <v>-1</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D17" t="s">
-        <v>303</v>
-      </c>
-      <c r="E17">
+      <c r="E17" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" s="2">
         <v>0.1</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D18" t="s">
-        <v>303</v>
-      </c>
-      <c r="E18">
+      <c r="E18" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E19">
+      <c r="E19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19" s="2">
         <v>1</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D20" t="s">
-        <v>303</v>
-      </c>
-      <c r="E20">
+      <c r="E20" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F20" s="2">
         <v>-0.05</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D21" t="s">
-        <v>303</v>
-      </c>
-      <c r="E21">
+      <c r="E21" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F21" s="2">
         <v>2</v>
       </c>
-      <c r="H21" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D22" t="s">
-        <v>303</v>
-      </c>
-      <c r="E22">
+      <c r="E22" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F22" s="2">
         <v>-0.1</v>
       </c>
-      <c r="H22" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D23" t="s">
-        <v>303</v>
-      </c>
-      <c r="E23">
+      <c r="E23" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" s="2">
         <v>1</v>
       </c>
-      <c r="H23" t="s">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D24" t="s">
-        <v>303</v>
-      </c>
-      <c r="E24">
+      <c r="E24" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F24" s="2">
         <v>1</v>
       </c>
-      <c r="H24" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D25" t="s">
-        <v>303</v>
-      </c>
-      <c r="E25">
+      <c r="E25" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F25" s="2">
         <v>-0.05</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D26" t="s">
-        <v>303</v>
-      </c>
-      <c r="E26">
+      <c r="E26" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F26" s="2">
         <v>-1</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D27" t="s">
-        <v>303</v>
-      </c>
-      <c r="E27">
+      <c r="E27" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F27" s="2">
         <v>1</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D28" t="s">
-        <v>303</v>
-      </c>
-      <c r="E28">
+      <c r="E28" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="2">
         <v>0.15</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D29" t="s">
-        <v>303</v>
-      </c>
-      <c r="E29">
+      <c r="E29" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F29" s="2">
         <v>1</v>
       </c>
-      <c r="H29" t="s">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D30" t="s">
-        <v>303</v>
-      </c>
-      <c r="E30">
+      <c r="E30" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F30" s="2">
         <v>1</v>
       </c>
-      <c r="H30" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D31" t="s">
-        <v>303</v>
-      </c>
-      <c r="E31">
+      <c r="E31" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F31" s="2">
         <v>1</v>
       </c>
-      <c r="H31" t="s">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D32" t="s">
-        <v>303</v>
-      </c>
-      <c r="E32">
+      <c r="E32" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F32" s="2">
         <v>-50</v>
       </c>
-      <c r="H32" t="s">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D33" t="s">
-        <v>303</v>
-      </c>
-      <c r="E33">
+      <c r="E33" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F33" s="2">
         <v>-1</v>
       </c>
-      <c r="H33" t="s">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D34" t="s">
-        <v>303</v>
-      </c>
-      <c r="E34">
+      <c r="E34" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F34" s="2">
         <v>0.05</v>
       </c>
-      <c r="H34" t="s">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D35" t="s">
-        <v>303</v>
-      </c>
-      <c r="E35">
+      <c r="E35" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F35" s="2">
         <v>1</v>
       </c>
-      <c r="H35" t="s">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="2">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D36" t="s">
-        <v>303</v>
-      </c>
-      <c r="E36">
+      <c r="E36" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F36" s="2">
         <v>1</v>
       </c>
-      <c r="H36" t="s">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="2">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D37" t="s">
-        <v>303</v>
-      </c>
-      <c r="E37">
+      <c r="E37" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F37" s="2">
         <v>1</v>
       </c>
-      <c r="H37" t="s">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D38" t="s">
-        <v>303</v>
-      </c>
-      <c r="E38">
+      <c r="E38" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F38" s="2">
         <v>-0.05</v>
       </c>
-      <c r="H38" t="s">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D39" t="s">
-        <v>303</v>
-      </c>
-      <c r="E39">
+      <c r="E39" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F39" s="2">
         <v>-60</v>
       </c>
-      <c r="H39" t="s">
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D40" t="s">
-        <v>303</v>
-      </c>
-      <c r="E40">
+      <c r="E40" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F40" s="2">
         <v>-1</v>
       </c>
-      <c r="H40" t="s">
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D41" t="s">
-        <v>303</v>
-      </c>
-      <c r="E41">
+      <c r="E41" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F41" s="2">
         <v>-10</v>
       </c>
-      <c r="H41" t="s">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D42" t="s">
-        <v>303</v>
-      </c>
-      <c r="E42">
+      <c r="E42" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F42" s="2">
         <v>1</v>
       </c>
-      <c r="H42" t="s">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D43" t="s">
-        <v>303</v>
-      </c>
-      <c r="E43">
+      <c r="E43" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F43" s="2">
         <v>1</v>
       </c>
-      <c r="H43" t="s">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D44" t="s">
-        <v>303</v>
-      </c>
-      <c r="E44">
+      <c r="E44" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F44" s="2">
         <v>-20</v>
       </c>
-      <c r="H44" t="s">
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" s="2">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D45" t="s">
-        <v>303</v>
-      </c>
-      <c r="E45">
+      <c r="E45" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F45" s="2">
         <v>-30</v>
       </c>
-      <c r="H45" t="s">
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="2">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D46" t="s">
-        <v>303</v>
-      </c>
-      <c r="E46">
+      <c r="E46" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F46" s="2">
         <v>-1</v>
       </c>
-      <c r="H46" t="s">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D47" t="s">
-        <v>303</v>
-      </c>
-      <c r="E47">
+      <c r="E47" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F47" s="2">
         <v>1</v>
       </c>
-      <c r="H47" t="s">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D48" t="s">
-        <v>303</v>
-      </c>
-      <c r="E48">
+      <c r="E48" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F48" s="2">
         <v>1</v>
       </c>
-      <c r="H48" t="s">
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="2">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D49" t="s">
-        <v>303</v>
-      </c>
-      <c r="E49">
+      <c r="E49" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F49" s="2">
         <v>-1</v>
       </c>
-      <c r="H49" t="s">
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="2">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D50" t="s">
-        <v>303</v>
-      </c>
-      <c r="E50">
+      <c r="E50" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F50" s="2">
         <v>2</v>
       </c>
-      <c r="H50" t="s">
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="2">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D51" t="s">
-        <v>303</v>
-      </c>
-      <c r="E51">
+      <c r="E51" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F51" s="2">
         <v>-50</v>
       </c>
-      <c r="H51" t="s">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" s="2">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D52" t="s">
-        <v>303</v>
-      </c>
-      <c r="E52">
+      <c r="E52" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F52" s="2">
         <v>-1</v>
       </c>
-      <c r="H52" t="s">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" s="2">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D53" t="s">
-        <v>303</v>
-      </c>
-      <c r="E53">
+      <c r="E53" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F53" s="2">
         <v>-1</v>
       </c>
-      <c r="H53" t="s">
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" s="2">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D54" t="s">
-        <v>303</v>
-      </c>
-      <c r="E54">
+      <c r="E54" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F54" s="2">
         <v>-20</v>
       </c>
-      <c r="H54" t="s">
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" s="2">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D55" t="s">
-        <v>303</v>
-      </c>
-      <c r="E55">
+      <c r="E55" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F55" s="2">
         <v>2</v>
       </c>
-      <c r="H55" t="s">
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" s="2">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D56" t="s">
-        <v>303</v>
-      </c>
-      <c r="E56">
+      <c r="E56" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F56" s="2">
         <v>1</v>
       </c>
-      <c r="H56" t="s">
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" s="2">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D57" t="s">
-        <v>303</v>
-      </c>
-      <c r="E57">
+      <c r="E57" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F57" s="2">
         <v>2</v>
       </c>
-      <c r="H57" t="s">
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" s="2">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D58" t="s">
-        <v>303</v>
-      </c>
-      <c r="E58">
+      <c r="E58" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F58" s="2">
         <v>1</v>
       </c>
-      <c r="H58" t="s">
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" s="2">
+        <v>56</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D59" t="s">
-        <v>303</v>
-      </c>
-      <c r="E59">
+      <c r="E59" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F59" s="2">
         <v>2</v>
       </c>
-      <c r="H59" t="s">
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" s="2">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D60" t="s">
-        <v>303</v>
-      </c>
-      <c r="E60">
+      <c r="E60" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F60" s="2">
         <v>1</v>
       </c>
-      <c r="H60" t="s">
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" s="2">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D61" t="s">
-        <v>303</v>
-      </c>
-      <c r="E61">
+      <c r="E61" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F61" s="2">
         <v>1</v>
       </c>
-      <c r="H61" t="s">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" s="2">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D62" t="s">
-        <v>303</v>
-      </c>
-      <c r="E62">
+      <c r="E62" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F62" s="2">
         <v>2</v>
       </c>
-      <c r="H62" t="s">
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" s="2">
+        <v>60</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D63" t="s">
-        <v>303</v>
-      </c>
-      <c r="E63">
+      <c r="E63" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F63" s="2">
         <v>1</v>
       </c>
-      <c r="H63" t="s">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A64" s="2">
+        <v>61</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D64" t="s">
-        <v>303</v>
-      </c>
-      <c r="E64">
+      <c r="E64" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F64" s="2">
         <v>-0.1</v>
       </c>
-      <c r="H64" t="s">
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" s="2">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D65" t="s">
-        <v>303</v>
-      </c>
-      <c r="E65">
+      <c r="E65" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F65" s="2">
         <v>1</v>
       </c>
-      <c r="H65" t="s">
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" s="2">
+        <v>63</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D66" t="s">
-        <v>303</v>
-      </c>
-      <c r="E66">
+      <c r="E66" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F66" s="2">
         <v>-80</v>
       </c>
-      <c r="H66" t="s">
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" s="2">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D67" t="s">
-        <v>303</v>
-      </c>
-      <c r="E67">
+      <c r="E67" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F67" s="2">
         <v>-1</v>
       </c>
-      <c r="H67" t="s">
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" s="2">
+        <v>65</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D68" t="s">
-        <v>303</v>
-      </c>
-      <c r="E68">
+      <c r="E68" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F68" s="2">
         <v>1</v>
       </c>
-      <c r="H68" t="s">
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69" s="2">
+        <v>66</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D69" t="s">
-        <v>303</v>
-      </c>
-      <c r="E69">
+      <c r="E69" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F69" s="2">
         <v>1</v>
       </c>
-      <c r="H69" t="s">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
+        <v>67</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D70" t="s">
-        <v>303</v>
-      </c>
-      <c r="E70">
+      <c r="E70" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F70" s="2">
         <v>2</v>
       </c>
-      <c r="H70" t="s">
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" s="2">
+        <v>68</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D71" t="s">
-        <v>303</v>
-      </c>
-      <c r="E71">
+      <c r="E71" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F71" s="2">
         <v>1</v>
       </c>
-      <c r="H71" t="s">
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" s="2">
+        <v>69</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D72" t="s">
-        <v>303</v>
-      </c>
-      <c r="E72">
+      <c r="E72" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F72" s="2">
         <v>-70</v>
       </c>
-      <c r="H72" t="s">
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" s="2">
+        <v>70</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D73" t="s">
-        <v>303</v>
-      </c>
-      <c r="E73">
+      <c r="E73" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F73" s="2">
         <v>-1</v>
       </c>
-      <c r="H73" t="s">
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" s="2">
+        <v>71</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D74" t="s">
-        <v>303</v>
-      </c>
-      <c r="E74">
+      <c r="E74" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F74" s="2">
         <v>1</v>
       </c>
-      <c r="H74" t="s">
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75" s="2">
+        <v>72</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D75" t="s">
-        <v>303</v>
-      </c>
-      <c r="E75">
+      <c r="E75" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F75" s="2">
         <v>-0.1</v>
       </c>
-      <c r="H75" t="s">
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" s="2">
+        <v>73</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D76" t="s">
-        <v>303</v>
-      </c>
-      <c r="E76">
+      <c r="E76" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F76" s="2">
         <v>1</v>
       </c>
-      <c r="H76" t="s">
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" s="2">
+        <v>74</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D77" t="s">
-        <v>303</v>
-      </c>
-      <c r="E77">
+      <c r="E77" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F77" s="2">
         <v>1</v>
       </c>
-      <c r="H77" t="s">
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78" s="2">
+        <v>75</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D78" t="s">
-        <v>303</v>
-      </c>
-      <c r="E78">
+      <c r="E78" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F78" s="2">
         <v>-0.05</v>
       </c>
-      <c r="H78" t="s">
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" s="2">
+        <v>76</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D79" t="s">
-        <v>303</v>
-      </c>
-      <c r="E79">
+      <c r="E79" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F79" s="2">
         <v>-40</v>
       </c>
-      <c r="H79" t="s">
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80" s="2">
+        <v>77</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D80" t="s">
-        <v>303</v>
-      </c>
-      <c r="E80">
+      <c r="E80" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F80" s="2">
         <v>-1</v>
       </c>
-      <c r="H80" t="s">
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" s="2">
+        <v>78</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D81" t="s">
-        <v>303</v>
-      </c>
-      <c r="E81">
+      <c r="E81" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F81" s="2">
         <v>-60</v>
       </c>
-      <c r="H81" t="s">
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82" s="2">
+        <v>79</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D82" t="s">
-        <v>303</v>
-      </c>
-      <c r="E82">
+      <c r="E82" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F82" s="2">
         <v>1</v>
       </c>
-      <c r="H82" t="s">
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" s="2">
+        <v>80</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D83" t="s">
-        <v>303</v>
-      </c>
-      <c r="E83">
+      <c r="E83" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F83" s="2">
         <v>1</v>
       </c>
-      <c r="H83" t="s">
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2" t="s">
         <v>386</v>
       </c>
     </row>

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D4C5AB-CDA5-458D-B92D-2793C4F430AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149D7CCA-1D7C-4AAC-B139-34A6A24B9562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1894" yWindow="4406" windowWidth="24695" windowHeight="13054" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -2093,7 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M23" activeCellId="1" sqref="A4:A15 M23"/>
     </sheetView>
   </sheetViews>
@@ -2480,10 +2480,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2494,12 +2494,12 @@
     <col min="6" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2515,8 +2515,9 @@
       <c r="E2" s="3" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>417</v>
       </c>
@@ -2533,7 +2534,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2566,7 +2567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -2577,7 +2578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>396</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="32.6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" ht="32.6" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>398</v>
       </c>
@@ -2665,7 +2666,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="32.6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" ht="32.6" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>400</v>
       </c>

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149D7CCA-1D7C-4AAC-B139-34A6A24B9562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEF2D51-F631-42E7-BD97-6B3C3826409D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1894" yWindow="4406" windowWidth="24695" windowHeight="13054" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="3806" windowWidth="24694" windowHeight="13054" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -2482,7 +2482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -2776,7 +2776,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3014,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3024,7 +3024,7 @@
     <col min="2" max="2" width="11.921875" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.61328125" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.15234375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.4609375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.921875" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.3828125" style="2" customWidth="1"/>
     <col min="7" max="10" width="16.23046875" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9.23046875" style="2"/>
@@ -3121,7 +3121,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J4" s="2">
         <v>100</v>
@@ -3153,7 +3153,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J5" s="2">
         <v>100</v>
@@ -3185,7 +3185,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J6" s="2">
         <v>100</v>
@@ -3217,7 +3217,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J7" s="2">
         <v>100</v>
@@ -3249,7 +3249,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J8" s="2">
         <v>100</v>
@@ -3281,7 +3281,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J9" s="2">
         <v>100</v>
@@ -3313,7 +3313,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J10" s="2">
         <v>100</v>
@@ -3345,7 +3345,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J11" s="2">
         <v>100</v>
@@ -3377,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J12" s="2">
         <v>100</v>
@@ -3409,7 +3409,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J13" s="2">
         <v>100</v>
@@ -3441,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J14" s="2">
         <v>100</v>
@@ -3473,7 +3473,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J15" s="2">
         <v>100</v>
@@ -3505,7 +3505,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J16" s="2">
         <v>100</v>
@@ -3537,7 +3537,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J17" s="2">
         <v>100</v>
@@ -3569,7 +3569,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J18" s="2">
         <v>100</v>
@@ -3601,7 +3601,7 @@
         <v>4</v>
       </c>
       <c r="I19" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J19" s="2">
         <v>100</v>
@@ -3633,7 +3633,7 @@
         <v>4</v>
       </c>
       <c r="I20" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J20" s="2">
         <v>100</v>
@@ -3665,7 +3665,7 @@
         <v>5</v>
       </c>
       <c r="I21" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J21" s="2">
         <v>100</v>
@@ -3697,7 +3697,7 @@
         <v>4</v>
       </c>
       <c r="I22" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J22" s="2">
         <v>100</v>
@@ -3729,7 +3729,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J23" s="2">
         <v>100</v>

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEF2D51-F631-42E7-BD97-6B3C3826409D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC79CCD-566D-4F03-9179-D4ABF2568C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="3806" windowWidth="24694" windowHeight="13054" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2614" yWindow="4046" windowWidth="24695" windowHeight="13054" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -3014,7 +3014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -3745,8 +3745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3858,13 +3858,13 @@
         <v>112</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>0.12</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2">
         <v>3</v>
@@ -3893,7 +3893,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2">
         <v>3</v>
@@ -3922,7 +3922,7 @@
         <v>0.02</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
@@ -3945,7 +3945,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4093,7 +4093,7 @@
         <v>460</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
@@ -4128,7 +4128,7 @@
         <v>144</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>145</v>
@@ -4163,7 +4163,7 @@
         <v>460</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
@@ -4198,7 +4198,7 @@
         <v>461</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>15</v>
@@ -4233,7 +4233,7 @@
         <v>461</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>145</v>
@@ -4268,7 +4268,7 @@
         <v>462</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>15</v>
@@ -4303,7 +4303,7 @@
         <v>166</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>145</v>
@@ -4338,7 +4338,7 @@
         <v>463</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>15</v>
@@ -4373,7 +4373,7 @@
         <v>462</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>15</v>
@@ -4408,7 +4408,7 @@
         <v>463</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>15</v>
@@ -4443,7 +4443,7 @@
         <v>462</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>15</v>
@@ -4478,7 +4478,7 @@
         <v>462</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>145</v>

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC79CCD-566D-4F03-9179-D4ABF2568C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512859A3-D0C1-4D25-8630-09AAAC694275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2614" yWindow="4046" windowWidth="24695" windowHeight="13054" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2614" yWindow="4046" windowWidth="24695" windowHeight="13054" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,10 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -3014,8 +3015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3109,13 +3110,13 @@
         <v>429</v>
       </c>
       <c r="E4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
@@ -3141,13 +3142,13 @@
         <v>430</v>
       </c>
       <c r="E5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2">
         <v>4</v>
@@ -3173,13 +3174,13 @@
         <v>431</v>
       </c>
       <c r="E6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -3205,13 +3206,13 @@
         <v>432</v>
       </c>
       <c r="E7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
@@ -3237,13 +3238,13 @@
         <v>433</v>
       </c>
       <c r="E8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
@@ -3269,13 +3270,13 @@
         <v>434</v>
       </c>
       <c r="E9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2">
         <v>3</v>
@@ -3301,13 +3302,13 @@
         <v>435</v>
       </c>
       <c r="E10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H10" s="2">
         <v>4</v>
@@ -3333,13 +3334,13 @@
         <v>436</v>
       </c>
       <c r="E11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H11" s="2">
         <v>3</v>
@@ -3368,10 +3369,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -3397,13 +3398,13 @@
         <v>438</v>
       </c>
       <c r="E13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H13" s="2">
         <v>2</v>
@@ -3432,10 +3433,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -3461,13 +3462,13 @@
         <v>440</v>
       </c>
       <c r="E15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H15" s="2">
         <v>4</v>
@@ -3493,13 +3494,13 @@
         <v>441</v>
       </c>
       <c r="E16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H16" s="2">
         <v>2</v>
@@ -3525,13 +3526,13 @@
         <v>442</v>
       </c>
       <c r="E17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H17" s="2">
         <v>3</v>
@@ -3557,13 +3558,13 @@
         <v>443</v>
       </c>
       <c r="E18" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H18" s="2">
         <v>4</v>
@@ -3589,13 +3590,13 @@
         <v>444</v>
       </c>
       <c r="E19" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H19" s="2">
         <v>4</v>
@@ -3621,13 +3622,13 @@
         <v>445</v>
       </c>
       <c r="E20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H20" s="2">
         <v>4</v>
@@ -3653,13 +3654,13 @@
         <v>446</v>
       </c>
       <c r="E21" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H21" s="2">
         <v>5</v>
@@ -3685,13 +3686,13 @@
         <v>447</v>
       </c>
       <c r="E22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H22" s="2">
         <v>4</v>
@@ -3717,13 +3718,13 @@
         <v>448</v>
       </c>
       <c r="E23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H23" s="2">
         <v>3</v>
@@ -3738,6 +3739,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3745,8 +3747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512859A3-D0C1-4D25-8630-09AAAC694275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5855B92F-BA23-41EB-BE90-F216371E3250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2614" yWindow="4046" windowWidth="24695" windowHeight="13054" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2614" yWindow="4046" windowWidth="24695" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -2029,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2059,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -2483,7 +2483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -3015,7 +3015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5855B92F-BA23-41EB-BE90-F216371E3250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F74408-DA19-44DE-9D71-C10AD81D74EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2614" yWindow="4046" windowWidth="24695" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2614" yWindow="4046" windowWidth="24695" windowHeight="13054" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="475">
   <si>
     <t>schemaVersion</t>
   </si>
@@ -1674,9 +1674,6 @@
     <t>academic,lab</t>
   </si>
   <si>
-    <t>rural,forest</t>
-  </si>
-  <si>
     <t>AN_007,AN_011</t>
   </si>
   <si>
@@ -1736,6 +1733,10 @@
   </si>
   <si>
     <t>key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rural,forest</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2029,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2094,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" activeCellId="1" sqref="A4:A15 M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2147,7 +2148,7 @@
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>122</v>
@@ -2225,6 +2226,9 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>395</v>
       </c>
@@ -2254,6 +2258,9 @@
       <c r="E5" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
@@ -2268,8 +2275,11 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -2294,6 +2304,9 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>432</v>
       </c>
@@ -2323,6 +2336,9 @@
       <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
@@ -2347,7 +2363,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I9" s="2">
         <v>2</v>
@@ -2366,6 +2385,9 @@
       <c r="C10" s="2">
         <v>5</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
@@ -2381,7 +2403,10 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>432</v>
@@ -2404,10 +2429,13 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -2427,7 +2455,10 @@
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I13" s="2">
         <v>3</v>
@@ -2446,6 +2477,9 @@
       <c r="C14" s="2">
         <v>1</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="H14" s="2">
         <v>1</v>
       </c>
@@ -2464,7 +2498,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
@@ -2777,7 +2814,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2793,7 +2830,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>32</v>
@@ -2922,7 +2959,7 @@
         <v>100000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -2942,7 +2979,7 @@
         <v>2000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -2962,7 +2999,7 @@
         <v>3000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -2982,7 +3019,7 @@
         <v>500</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -2993,7 +3030,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3002,7 +3039,7 @@
         <v>100</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -4092,7 +4129,7 @@
         <v>137</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -4162,7 +4199,7 @@
         <v>137</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -4197,7 +4234,7 @@
         <v>137</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -4232,7 +4269,7 @@
         <v>137</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -4267,7 +4304,7 @@
         <v>143</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -4337,7 +4374,7 @@
         <v>143</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -4372,7 +4409,7 @@
         <v>143</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -4407,7 +4444,7 @@
         <v>143</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
@@ -4442,7 +4479,7 @@
         <v>143</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -4477,7 +4514,7 @@
         <v>143</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
@@ -4535,7 +4572,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>122</v>
@@ -4619,7 +4656,7 @@
         <v>199</v>
       </c>
       <c r="F5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G5" t="s">
         <v>200</v>
@@ -4642,7 +4679,7 @@
         <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G6" t="s">
         <v>203</v>
@@ -4665,7 +4702,7 @@
         <v>205</v>
       </c>
       <c r="F7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G7" t="s">
         <v>206</v>
@@ -4688,7 +4725,7 @@
         <v>208</v>
       </c>
       <c r="F8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G8" t="s">
         <v>209</v>
@@ -4711,7 +4748,7 @@
         <v>211</v>
       </c>
       <c r="F9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G9" t="s">
         <v>212</v>
@@ -4734,7 +4771,7 @@
         <v>214</v>
       </c>
       <c r="F10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G10" t="s">
         <v>215</v>
@@ -4757,7 +4794,7 @@
         <v>217</v>
       </c>
       <c r="F11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G11" t="s">
         <v>218</v>
@@ -4780,7 +4817,7 @@
         <v>220</v>
       </c>
       <c r="F12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G12" t="s">
         <v>221</v>
@@ -4803,7 +4840,7 @@
         <v>223</v>
       </c>
       <c r="F13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G13" t="s">
         <v>224</v>
@@ -4826,7 +4863,7 @@
         <v>226</v>
       </c>
       <c r="F14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G14" t="s">
         <v>227</v>
@@ -4849,7 +4886,7 @@
         <v>229</v>
       </c>
       <c r="F15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G15" t="s">
         <v>230</v>
@@ -4918,7 +4955,7 @@
         <v>238</v>
       </c>
       <c r="F18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G18" t="s">
         <v>239</v>
@@ -4964,7 +5001,7 @@
         <v>244</v>
       </c>
       <c r="F20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G20" t="s">
         <v>245</v>
@@ -4987,7 +5024,7 @@
         <v>247</v>
       </c>
       <c r="F21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G21" t="s">
         <v>248</v>
@@ -5033,7 +5070,7 @@
         <v>253</v>
       </c>
       <c r="F23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G23" t="s">
         <v>254</v>
@@ -5056,7 +5093,7 @@
         <v>256</v>
       </c>
       <c r="F24" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G24" t="s">
         <v>257</v>
@@ -5079,7 +5116,7 @@
         <v>259</v>
       </c>
       <c r="F25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G25" t="s">
         <v>260</v>
@@ -5102,7 +5139,7 @@
         <v>262</v>
       </c>
       <c r="F26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G26" t="s">
         <v>263</v>
@@ -5125,7 +5162,7 @@
         <v>265</v>
       </c>
       <c r="F27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G27" t="s">
         <v>266</v>
@@ -5515,7 +5552,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>192</v>

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F74408-DA19-44DE-9D71-C10AD81D74EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172C093E-24EF-4AF0-BF87-1D3EA3DC1932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2614" yWindow="4046" windowWidth="24695" windowHeight="13054" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="453">
   <si>
     <t>schemaVersion</t>
   </si>
@@ -1212,15 +1212,6 @@
     <t>maxDay</t>
   </si>
   <si>
-    <t>requiresNodeTagsAny</t>
-  </si>
-  <si>
-    <t>requiresNodeTagsAll</t>
-  </si>
-  <si>
-    <t>requiresAnomalyTagsAny</t>
-  </si>
-  <si>
     <t>requiresSecured</t>
   </si>
   <si>
@@ -1228,9 +1219,6 @@
   </si>
   <si>
     <t>onlyAffectOriginTask</t>
-  </si>
-  <si>
-    <t>stealth</t>
   </si>
   <si>
     <t>StartMoney</t>
@@ -1599,66 +1587,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>bio,stealth</t>
-  </si>
-  <si>
-    <t>memetic,panic</t>
-  </si>
-  <si>
-    <t>bio,toxic,water</t>
-  </si>
-  <si>
-    <t>memetic,infohazard</t>
-  </si>
-  <si>
-    <t>spatial,urban</t>
-  </si>
-  <si>
-    <t>bio,panic</t>
-  </si>
-  <si>
-    <t>memetic,signal</t>
-  </si>
-  <si>
-    <t>bio,spore</t>
-  </si>
-  <si>
-    <t>stealth,optic</t>
-  </si>
-  <si>
-    <t>material,lab</t>
-  </si>
-  <si>
-    <t>spatial,info</t>
-  </si>
-  <si>
-    <t>bio,stealth,embryo</t>
-  </si>
-  <si>
-    <t>religion,incense,merit</t>
-  </si>
-  <si>
-    <t>tao,qi,sigil</t>
-  </si>
-  <si>
-    <t>tao,wuxing,panic</t>
-  </si>
-  <si>
-    <t>tao,spatial</t>
-  </si>
-  <si>
-    <t>tao,memetic,signal</t>
-  </si>
-  <si>
-    <t>religion,fire,karma</t>
-  </si>
-  <si>
-    <t>religion,rule,panic</t>
-  </si>
-  <si>
-    <t>tao,toxic,lab</t>
-  </si>
-  <si>
     <t>urban,lab</t>
   </si>
   <si>
@@ -1705,27 +1633,6 @@
   </si>
   <si>
     <t>Node,TaskType:Contain</t>
-  </si>
-  <si>
-    <t>infohazard,stealth</t>
-  </si>
-  <si>
-    <t>religion,tao</t>
-  </si>
-  <si>
-    <t>urban,industrial,port</t>
-  </si>
-  <si>
-    <t>urban,academic</t>
-  </si>
-  <si>
-    <t>mountain,rural,temple</t>
-  </si>
-  <si>
-    <t>urban,industrial,lab</t>
-  </si>
-  <si>
-    <t>port,urban</t>
   </si>
   <si>
     <t>名字</t>
@@ -1737,6 +1644,41 @@
   </si>
   <si>
     <t>rural,forest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiresAnomalyId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AN_002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>taskType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskDefId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirestaskType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiresnodeId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2060,18 +2002,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -2096,7 +2038,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2104,9 +2046,7 @@
     <col min="1" max="1" width="9.23046875" style="2"/>
     <col min="2" max="2" width="36.61328125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.23046875" style="2"/>
-    <col min="5" max="5" width="20.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="18.69140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.921875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.07421875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.23046875" style="2" bestFit="1" customWidth="1"/>
@@ -2125,30 +2065,30 @@
         <v>388</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>103</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>122</v>
@@ -2160,60 +2100,60 @@
         <v>388</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>103</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -2226,11 +2166,14 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>446</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -2256,10 +2199,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>446</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>445</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -2275,11 +2221,14 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>446</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -2304,11 +2253,14 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>446</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -2334,10 +2286,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>446</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>70</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -2363,10 +2318,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>72</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="I9" s="2">
         <v>2</v>
@@ -2385,8 +2343,14 @@
       <c r="C10" s="2">
         <v>5</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>446</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>74</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -2403,13 +2367,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -2429,13 +2393,13 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -2455,10 +2419,13 @@
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>470</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>80</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="I13" s="2">
         <v>3</v>
@@ -2477,8 +2444,14 @@
       <c r="C14" s="2">
         <v>1</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>451</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>82</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -2498,10 +2471,13 @@
         <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
@@ -2542,34 +2518,34 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>424</v>
       </c>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>423</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -2684,68 +2660,68 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B14" s="2">
         <v>10000</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32.6" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C15" s="2">
         <v>0.1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="32.6" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B16" s="2">
         <v>100</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="32.6" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B17" s="2">
         <v>500</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="32.6" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B18" s="2">
         <v>100</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -2756,51 +2732,51 @@
         <v>100</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B21" s="2">
         <v>20</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="32.6" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C22" s="2">
         <v>0.5</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -2814,7 +2790,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2830,7 +2806,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>32</v>
@@ -2867,22 +2843,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -2893,7 +2869,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -2950,7 +2926,7 @@
         <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -2959,7 +2935,7 @@
         <v>100000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -2970,7 +2946,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -2979,7 +2955,7 @@
         <v>2000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -2990,7 +2966,7 @@
         <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -2999,7 +2975,7 @@
         <v>3000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -3010,7 +2986,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -3019,7 +2995,7 @@
         <v>500</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -3030,7 +3006,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3039,7 +3015,7 @@
         <v>100</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -3050,10 +3026,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3061,15 +3037,14 @@
     <col min="1" max="1" width="16.3828125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.921875" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.61328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.15234375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.3828125" style="2" customWidth="1"/>
-    <col min="7" max="10" width="16.23046875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.23046875" style="2"/>
+    <col min="4" max="4" width="10.921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.3828125" style="2" customWidth="1"/>
+    <col min="6" max="9" width="16.23046875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:10" s="7" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>56</v>
       </c>
@@ -3080,60 +3055,54 @@
         <v>57</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>61</v>
+        <v>421</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -3143,29 +3112,26 @@
       <c r="C4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>429</v>
+      <c r="D4" s="2">
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="I4" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J4" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
@@ -3175,29 +3141,26 @@
       <c r="C5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>430</v>
+      <c r="D5" s="2">
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H5" s="2">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="I5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J5" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
@@ -3207,29 +3170,26 @@
       <c r="C6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>431</v>
+      <c r="D6" s="2">
+        <v>1</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="I6" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J6" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>68</v>
       </c>
@@ -3239,29 +3199,26 @@
       <c r="C7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>432</v>
+      <c r="D7" s="2">
+        <v>1</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H7" s="2">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="I7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J7" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
@@ -3271,29 +3228,26 @@
       <c r="C8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>433</v>
+      <c r="D8" s="2">
+        <v>1</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H8" s="2">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="I8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
@@ -3303,29 +3257,26 @@
       <c r="C9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>434</v>
+      <c r="D9" s="2">
+        <v>1</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H9" s="2">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="I9" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J9" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>74</v>
       </c>
@@ -3335,29 +3286,26 @@
       <c r="C10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>435</v>
+      <c r="D10" s="2">
+        <v>1</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H10" s="2">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="I10" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J10" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -3367,29 +3315,26 @@
       <c r="C11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>436</v>
+      <c r="D11" s="2">
+        <v>1</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H11" s="2">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="I11" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J11" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>78</v>
       </c>
@@ -3399,29 +3344,26 @@
       <c r="C12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>437</v>
+      <c r="D12" s="2">
+        <v>1</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I12" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J12" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>80</v>
       </c>
@@ -3431,29 +3373,26 @@
       <c r="C13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>438</v>
+      <c r="D13" s="2">
+        <v>1</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H13" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="I13" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J13" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>82</v>
       </c>
@@ -3463,29 +3402,26 @@
       <c r="C14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>439</v>
+      <c r="D14" s="2">
+        <v>1</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I14" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J14" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>84</v>
       </c>
@@ -3495,29 +3431,26 @@
       <c r="C15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>440</v>
+      <c r="D15" s="2">
+        <v>1</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H15" s="2">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="I15" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J15" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>86</v>
       </c>
@@ -3527,29 +3460,26 @@
       <c r="C16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>441</v>
+      <c r="D16" s="2">
+        <v>1</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H16" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="I16" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J16" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>88</v>
       </c>
@@ -3559,29 +3489,26 @@
       <c r="C17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>442</v>
+      <c r="D17" s="2">
+        <v>1</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H17" s="2">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="I17" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J17" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>90</v>
       </c>
@@ -3591,29 +3518,26 @@
       <c r="C18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>443</v>
+      <c r="D18" s="2">
+        <v>1</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H18" s="2">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="I18" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J18" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -3623,29 +3547,26 @@
       <c r="C19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>444</v>
+      <c r="D19" s="2">
+        <v>1</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H19" s="2">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="I19" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J19" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>94</v>
       </c>
@@ -3655,29 +3576,26 @@
       <c r="C20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>445</v>
+      <c r="D20" s="2">
+        <v>1</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H20" s="2">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="I20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J20" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>96</v>
       </c>
@@ -3687,29 +3605,26 @@
       <c r="C21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>446</v>
+      <c r="D21" s="2">
+        <v>1</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H21" s="2">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="I21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J21" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>98</v>
       </c>
@@ -3719,29 +3634,26 @@
       <c r="C22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>447</v>
+      <c r="D22" s="2">
+        <v>1</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H22" s="2">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="I22" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J22" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>100</v>
       </c>
@@ -3751,25 +3663,22 @@
       <c r="C23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>448</v>
+      <c r="D23" s="2">
+        <v>1</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H23" s="2">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="I23" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J23" s="2">
         <v>100</v>
       </c>
     </row>
@@ -3785,7 +3694,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3830,10 +3739,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>102</v>
+        <v>448</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>447</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>31</v>
@@ -3859,31 +3768,31 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -4073,37 +3982,37 @@
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -4129,7 +4038,7 @@
         <v>137</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -4199,7 +4108,7 @@
         <v>137</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -4234,7 +4143,7 @@
         <v>137</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -4269,7 +4178,7 @@
         <v>137</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -4304,7 +4213,7 @@
         <v>143</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -4374,7 +4283,7 @@
         <v>143</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -4409,7 +4318,7 @@
         <v>143</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -4444,7 +4353,7 @@
         <v>143</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
@@ -4479,7 +4388,7 @@
         <v>143</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -4514,7 +4423,7 @@
         <v>143</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
@@ -4572,7 +4481,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>122</v>
@@ -4595,25 +4504,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -4656,7 +4565,7 @@
         <v>199</v>
       </c>
       <c r="F5" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="G5" t="s">
         <v>200</v>
@@ -4679,7 +4588,7 @@
         <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="G6" t="s">
         <v>203</v>
@@ -4702,7 +4611,7 @@
         <v>205</v>
       </c>
       <c r="F7" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="G7" t="s">
         <v>206</v>
@@ -4725,7 +4634,7 @@
         <v>208</v>
       </c>
       <c r="F8" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="G8" t="s">
         <v>209</v>
@@ -4748,7 +4657,7 @@
         <v>211</v>
       </c>
       <c r="F9" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="G9" t="s">
         <v>212</v>
@@ -4771,7 +4680,7 @@
         <v>214</v>
       </c>
       <c r="F10" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="G10" t="s">
         <v>215</v>
@@ -4794,7 +4703,7 @@
         <v>217</v>
       </c>
       <c r="F11" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="G11" t="s">
         <v>218</v>
@@ -4817,7 +4726,7 @@
         <v>220</v>
       </c>
       <c r="F12" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="G12" t="s">
         <v>221</v>
@@ -4840,7 +4749,7 @@
         <v>223</v>
       </c>
       <c r="F13" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="G13" t="s">
         <v>224</v>
@@ -4863,7 +4772,7 @@
         <v>226</v>
       </c>
       <c r="F14" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="G14" t="s">
         <v>227</v>
@@ -4886,7 +4795,7 @@
         <v>229</v>
       </c>
       <c r="F15" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="G15" t="s">
         <v>230</v>
@@ -4955,7 +4864,7 @@
         <v>238</v>
       </c>
       <c r="F18" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="G18" t="s">
         <v>239</v>
@@ -5001,7 +4910,7 @@
         <v>244</v>
       </c>
       <c r="F20" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="G20" t="s">
         <v>245</v>
@@ -5024,7 +4933,7 @@
         <v>247</v>
       </c>
       <c r="F21" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="G21" t="s">
         <v>248</v>
@@ -5070,7 +4979,7 @@
         <v>253</v>
       </c>
       <c r="F23" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="G23" t="s">
         <v>254</v>
@@ -5093,7 +5002,7 @@
         <v>256</v>
       </c>
       <c r="F24" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="G24" t="s">
         <v>257</v>
@@ -5116,7 +5025,7 @@
         <v>259</v>
       </c>
       <c r="F25" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="G25" t="s">
         <v>260</v>
@@ -5139,7 +5048,7 @@
         <v>262</v>
       </c>
       <c r="F26" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="G26" t="s">
         <v>263</v>
@@ -5162,7 +5071,7 @@
         <v>265</v>
       </c>
       <c r="F27" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="G27" t="s">
         <v>266</v>
@@ -5206,10 +5115,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -5552,7 +5461,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>192</v>
@@ -5581,31 +5490,31 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172C093E-24EF-4AF0-BF87-1D3EA3DC1932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D967F96-8329-4034-99FE-BE026E35F363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2614" yWindow="4046" windowWidth="24695" windowHeight="13054" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="677" yWindow="4851" windowWidth="24694" windowHeight="8786" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="EventOptions" sheetId="7" r:id="rId7"/>
     <sheet name="Effects" sheetId="8" r:id="rId8"/>
     <sheet name="EffectOps" sheetId="9" r:id="rId9"/>
-    <sheet name="EventTriggers" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="452">
   <si>
     <t>schemaVersion</t>
   </si>
@@ -414,12 +413,6 @@
     <t>eventDefId</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>causeType</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
@@ -465,9 +458,6 @@
     <t>EVT_RANDOM_SHORTAGE</t>
   </si>
   <si>
-    <t>Random</t>
-  </si>
-  <si>
     <t>补给短缺</t>
   </si>
   <si>
@@ -1204,21 +1194,6 @@
   </si>
   <si>
     <t>后患增加</t>
-  </si>
-  <si>
-    <t>minDay</t>
-  </si>
-  <si>
-    <t>maxDay</t>
-  </si>
-  <si>
-    <t>requiresSecured</t>
-  </si>
-  <si>
-    <t>minLocalPanic</t>
-  </si>
-  <si>
-    <t>onlyAffectOriginTask</t>
   </si>
   <si>
     <t>StartMoney</t>
@@ -1651,13 +1626,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AN_002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Any</t>
-  </si>
-  <si>
     <t>taskType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1666,19 +1634,52 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>requirestaskType</t>
+    <t>ANY</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>requiresnodeId</t>
+    <t>requiresNodeId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>N2</t>
+    <t>requiresTaskType</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>RandomDaily</t>
+  </si>
+  <si>
+    <t>minDay</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>N1</t>
+    <t>maxDay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>limitNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数限制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日触发概率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2002,18 +2003,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -2025,465 +2026,6 @@
       </c>
       <c r="C4" t="s">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:K15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="9.23046875" style="2"/>
-    <col min="2" max="2" width="36.61328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.23046875" style="2"/>
-    <col min="5" max="7" width="18.69140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.23046875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="I13" s="2">
-        <v>3</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2518,34 +2060,34 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -2660,68 +2202,68 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B14" s="2">
         <v>10000</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32.6" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C15" s="2">
         <v>0.1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="32.6" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B16" s="2">
         <v>100</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="32.6" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B17" s="2">
         <v>500</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="32.6" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B18" s="2">
         <v>100</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -2732,51 +2274,51 @@
         <v>100</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B21" s="2">
         <v>20</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="32.6" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C22" s="2">
         <v>0.5</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +2348,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>32</v>
@@ -2843,22 +2385,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -2869,7 +2411,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -2926,7 +2468,7 @@
         <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -2935,7 +2477,7 @@
         <v>100000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -2946,7 +2488,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -2955,7 +2497,7 @@
         <v>2000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -2966,7 +2508,7 @@
         <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -2975,7 +2517,7 @@
         <v>3000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -2986,7 +2528,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -2995,7 +2537,7 @@
         <v>500</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -3006,7 +2548,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3015,7 +2557,7 @@
         <v>100</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -3067,39 +2609,39 @@
         <v>61</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -3739,10 +3281,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>31</v>
@@ -3768,31 +3310,31 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -3890,554 +3432,867 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="36.61328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.23046875" customWidth="1"/>
-    <col min="3" max="3" width="21.921875" customWidth="1"/>
-    <col min="5" max="5" width="9.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.3828125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.4609375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.07421875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.3046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.84375" customWidth="1"/>
-    <col min="11" max="11" width="25.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.4609375" customWidth="1"/>
+    <col min="4" max="4" width="18.4609375" customWidth="1"/>
+    <col min="5" max="5" width="13.15234375" customWidth="1"/>
+    <col min="7" max="7" width="9.23046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.4609375" customWidth="1"/>
+    <col min="9" max="9" width="14.4609375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.07421875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.15234375" customWidth="1"/>
+    <col min="12" max="12" width="27.84375" customWidth="1"/>
+    <col min="13" max="13" width="25.84375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.84375" customWidth="1"/>
+    <col min="15" max="15" width="8.921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="N1" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="2">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="N4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>99</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>20</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>20</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="M6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>20</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>20</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>99</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>20</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="J9" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>20</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="2">
+      <c r="J10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>20</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F11" s="2">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>20</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>99</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>20</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>99</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>20</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>99</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>20</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="2">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="2">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="2">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="2">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="2">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="2">
-        <v>4</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="2">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>187</v>
+      <c r="N15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>99</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>20</v>
+      </c>
+      <c r="R15" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4464,65 +4319,65 @@
         <v>122</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -4530,22 +4385,22 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" t="s">
         <v>193</v>
-      </c>
-      <c r="D4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -4553,22 +4408,22 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G5" t="s">
         <v>197</v>
-      </c>
-      <c r="D5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E5" t="s">
-        <v>199</v>
-      </c>
-      <c r="F5" t="s">
-        <v>439</v>
-      </c>
-      <c r="G5" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -4576,22 +4431,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F6" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -4599,22 +4454,22 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -4622,22 +4477,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -4645,22 +4500,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -4668,22 +4523,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F10" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -4691,22 +4546,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F11" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -4714,22 +4569,22 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F12" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -4737,22 +4592,22 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F13" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -4760,22 +4615,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F14" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -4783,22 +4638,22 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F15" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -4806,22 +4661,22 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" t="s">
         <v>163</v>
       </c>
-      <c r="C16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" t="s">
-        <v>232</v>
-      </c>
-      <c r="F16" t="s">
-        <v>166</v>
-      </c>
       <c r="G16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -4829,22 +4684,22 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" t="s">
         <v>163</v>
       </c>
-      <c r="C17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" t="s">
-        <v>234</v>
-      </c>
-      <c r="E17" t="s">
-        <v>235</v>
-      </c>
-      <c r="F17" t="s">
-        <v>166</v>
-      </c>
       <c r="G17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -4852,22 +4707,22 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F18" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -4875,22 +4730,22 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -4898,22 +4753,22 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F20" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -4921,22 +4776,22 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F21" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -4944,22 +4799,22 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E22" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -4967,22 +4822,22 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D23" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E23" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F23" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -4990,22 +4845,22 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F24" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -5013,22 +4868,22 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F25" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G25" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -5036,22 +4891,22 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D26" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E26" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F26" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G26" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -5059,22 +4914,22 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D27" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F27" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G27" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -5099,7 +4954,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -5107,7 +4962,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -5115,298 +4970,298 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -5435,25 +5290,25 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -5461,28 +5316,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>2</v>
@@ -5490,31 +5345,31 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -5522,16 +5377,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F4" s="2">
         <v>-0.2</v>
@@ -5539,7 +5394,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -5547,16 +5402,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -5564,7 +5419,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -5572,16 +5427,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F6" s="2">
         <v>-2</v>
@@ -5589,7 +5444,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -5597,16 +5452,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F7" s="2">
         <v>0.15</v>
@@ -5614,7 +5469,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
@@ -5622,16 +5477,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -5639,7 +5494,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -5647,16 +5502,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -5664,7 +5519,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -5672,16 +5527,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F10" s="2">
         <v>-1</v>
@@ -5689,7 +5544,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -5697,16 +5552,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F11" s="2">
         <v>-80</v>
@@ -5714,7 +5569,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -5722,16 +5577,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F12" s="2">
         <v>-1</v>
@@ -5739,7 +5594,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -5747,16 +5602,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F13" s="2">
         <v>0.1</v>
@@ -5764,7 +5619,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
@@ -5772,16 +5627,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F14" s="2">
         <v>-0.15</v>
@@ -5789,7 +5644,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
@@ -5797,16 +5652,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -5814,7 +5669,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -5822,16 +5677,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F16" s="2">
         <v>-1</v>
@@ -5839,7 +5694,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -5847,16 +5702,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F17" s="2">
         <v>0.1</v>
@@ -5864,7 +5719,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -5872,16 +5727,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -5889,7 +5744,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -5897,16 +5752,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -5914,7 +5769,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
@@ -5922,16 +5777,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F20" s="2">
         <v>-0.05</v>
@@ -5939,7 +5794,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
@@ -5947,16 +5802,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F21" s="2">
         <v>2</v>
@@ -5964,7 +5819,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
@@ -5972,16 +5827,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F22" s="2">
         <v>-0.1</v>
@@ -5989,7 +5844,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
@@ -5997,16 +5852,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -6014,7 +5869,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -6022,16 +5877,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -6039,7 +5894,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
@@ -6047,16 +5902,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F25" s="2">
         <v>-0.05</v>
@@ -6064,7 +5919,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -6072,16 +5927,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F26" s="2">
         <v>-1</v>
@@ -6089,7 +5944,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -6097,16 +5952,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -6114,7 +5969,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
@@ -6122,16 +5977,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F28" s="2">
         <v>0.15</v>
@@ -6139,7 +5994,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -6147,16 +6002,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
@@ -6164,7 +6019,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
@@ -6172,16 +6027,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
@@ -6189,7 +6044,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -6197,16 +6052,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -6214,7 +6069,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
@@ -6222,16 +6077,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F32" s="2">
         <v>-50</v>
@@ -6239,7 +6094,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
@@ -6247,16 +6102,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F33" s="2">
         <v>-1</v>
@@ -6264,7 +6119,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
@@ -6272,16 +6127,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F34" s="2">
         <v>0.05</v>
@@ -6289,7 +6144,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
@@ -6297,16 +6152,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
@@ -6314,7 +6169,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
@@ -6322,16 +6177,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
@@ -6339,7 +6194,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
@@ -6347,16 +6202,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
@@ -6364,7 +6219,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
@@ -6372,16 +6227,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F38" s="2">
         <v>-0.05</v>
@@ -6389,7 +6244,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
@@ -6397,16 +6252,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F39" s="2">
         <v>-60</v>
@@ -6414,7 +6269,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
@@ -6422,16 +6277,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F40" s="2">
         <v>-1</v>
@@ -6439,7 +6294,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
@@ -6447,16 +6302,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F41" s="2">
         <v>-10</v>
@@ -6464,7 +6319,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
@@ -6472,16 +6327,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -6489,7 +6344,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
@@ -6497,16 +6352,16 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
@@ -6514,7 +6369,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
@@ -6522,16 +6377,16 @@
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F44" s="2">
         <v>-20</v>
@@ -6539,7 +6394,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
@@ -6547,16 +6402,16 @@
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F45" s="2">
         <v>-30</v>
@@ -6564,7 +6419,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
@@ -6572,16 +6427,16 @@
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F46" s="2">
         <v>-1</v>
@@ -6589,7 +6444,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
@@ -6597,16 +6452,16 @@
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
@@ -6614,7 +6469,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
@@ -6622,16 +6477,16 @@
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
@@ -6639,7 +6494,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
@@ -6647,16 +6502,16 @@
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F49" s="2">
         <v>-1</v>
@@ -6664,7 +6519,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
@@ -6672,16 +6527,16 @@
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F50" s="2">
         <v>2</v>
@@ -6689,7 +6544,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
@@ -6697,16 +6552,16 @@
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F51" s="2">
         <v>-50</v>
@@ -6714,7 +6569,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
@@ -6722,16 +6577,16 @@
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F52" s="2">
         <v>-1</v>
@@ -6739,7 +6594,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
@@ -6747,16 +6602,16 @@
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F53" s="2">
         <v>-1</v>
@@ -6764,7 +6619,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
@@ -6772,16 +6627,16 @@
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F54" s="2">
         <v>-20</v>
@@ -6789,7 +6644,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
@@ -6797,16 +6652,16 @@
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F55" s="2">
         <v>2</v>
@@ -6814,7 +6669,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
@@ -6822,16 +6677,16 @@
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F56" s="2">
         <v>1</v>
@@ -6839,7 +6694,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
@@ -6847,16 +6702,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F57" s="2">
         <v>2</v>
@@ -6864,7 +6719,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.4">
@@ -6872,16 +6727,16 @@
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F58" s="2">
         <v>1</v>
@@ -6889,7 +6744,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
@@ -6897,16 +6752,16 @@
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F59" s="2">
         <v>2</v>
@@ -6914,7 +6769,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
@@ -6922,16 +6777,16 @@
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F60" s="2">
         <v>1</v>
@@ -6939,7 +6794,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
@@ -6947,16 +6802,16 @@
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F61" s="2">
         <v>1</v>
@@ -6964,7 +6819,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
@@ -6972,16 +6827,16 @@
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F62" s="2">
         <v>2</v>
@@ -6989,7 +6844,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
@@ -6997,16 +6852,16 @@
         <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F63" s="2">
         <v>1</v>
@@ -7014,7 +6869,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
@@ -7022,16 +6877,16 @@
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F64" s="2">
         <v>-0.1</v>
@@ -7039,7 +6894,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
@@ -7047,16 +6902,16 @@
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F65" s="2">
         <v>1</v>
@@ -7064,7 +6919,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
@@ -7072,16 +6927,16 @@
         <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F66" s="2">
         <v>-80</v>
@@ -7089,7 +6944,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
@@ -7097,16 +6952,16 @@
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F67" s="2">
         <v>-1</v>
@@ -7114,7 +6969,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
@@ -7122,16 +6977,16 @@
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F68" s="2">
         <v>1</v>
@@ -7139,7 +6994,7 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
@@ -7147,16 +7002,16 @@
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F69" s="2">
         <v>1</v>
@@ -7164,7 +7019,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
@@ -7172,16 +7027,16 @@
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F70" s="2">
         <v>2</v>
@@ -7189,7 +7044,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
@@ -7197,16 +7052,16 @@
         <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
@@ -7214,7 +7069,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
@@ -7222,16 +7077,16 @@
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F72" s="2">
         <v>-70</v>
@@ -7239,7 +7094,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
@@ -7247,16 +7102,16 @@
         <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F73" s="2">
         <v>-1</v>
@@ -7264,7 +7119,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.4">
@@ -7272,16 +7127,16 @@
         <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F74" s="2">
         <v>1</v>
@@ -7289,7 +7144,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
@@ -7297,16 +7152,16 @@
         <v>72</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F75" s="2">
         <v>-0.1</v>
@@ -7314,7 +7169,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
@@ -7322,16 +7177,16 @@
         <v>73</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
@@ -7339,7 +7194,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
@@ -7347,16 +7202,16 @@
         <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F77" s="2">
         <v>1</v>
@@ -7364,7 +7219,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
@@ -7372,16 +7227,16 @@
         <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F78" s="2">
         <v>-0.05</v>
@@ -7389,7 +7244,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
@@ -7397,16 +7252,16 @@
         <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F79" s="2">
         <v>-40</v>
@@ -7414,7 +7269,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
@@ -7422,16 +7277,16 @@
         <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F80" s="2">
         <v>-1</v>
@@ -7439,7 +7294,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.4">
@@ -7447,16 +7302,16 @@
         <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F81" s="2">
         <v>-60</v>
@@ -7464,7 +7319,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.4">
@@ -7472,16 +7327,16 @@
         <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F82" s="2">
         <v>1</v>
@@ -7489,7 +7344,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
@@ -7497,16 +7352,16 @@
         <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F83" s="2">
         <v>1</v>
@@ -7514,7 +7369,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D967F96-8329-4034-99FE-BE026E35F363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C37F76-3DF2-49EE-A8E6-FEE2D567E65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="677" yWindow="4851" windowWidth="24694" windowHeight="8786" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
     <sheet name="Balance" sheetId="2" r:id="rId2"/>
     <sheet name="Nodes" sheetId="3" r:id="rId3"/>
     <sheet name="Anomalies" sheetId="4" r:id="rId4"/>
-    <sheet name="TaskDefs" sheetId="5" r:id="rId5"/>
-    <sheet name="Events" sheetId="6" r:id="rId6"/>
-    <sheet name="EventOptions" sheetId="7" r:id="rId7"/>
-    <sheet name="Effects" sheetId="8" r:id="rId8"/>
-    <sheet name="EffectOps" sheetId="9" r:id="rId9"/>
+    <sheet name="NewsDefs" sheetId="10" r:id="rId5"/>
+    <sheet name="TaskDefs" sheetId="5" r:id="rId6"/>
+    <sheet name="Events" sheetId="6" r:id="rId7"/>
+    <sheet name="EventOptions" sheetId="7" r:id="rId8"/>
+    <sheet name="Effects" sheetId="8" r:id="rId9"/>
+    <sheet name="EffectOps" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="466">
   <si>
     <t>schemaVersion</t>
   </si>
@@ -1682,12 +1683,303 @@
     <t>p</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>newsDefId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【0..1 概率门槛；同一 ctx 取候选的 max(p) 做一次 gate】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【加权抽样用；&lt;=0 忽略】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【0=不限】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不限；全局冷却，按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> newsDefId </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计】</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不限；全局触发上限，按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> newsDefId </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计】</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Any </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或具体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> anomalyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Any </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可能是假新闻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>【当前只用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RandomDaily</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>RandomDaily</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1733,6 +2025,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1754,7 +2054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1777,6 +2077,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2034,6 +2337,2114 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.23046875" customWidth="1"/>
+    <col min="2" max="2" width="31.4609375" customWidth="1"/>
+    <col min="3" max="3" width="35.4609375" customWidth="1"/>
+    <col min="4" max="4" width="27.921875" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-2</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-80</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-0.15</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-0.05</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-0.05</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-50</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="2">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="2">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F38" s="2">
+        <v>-0.05</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-60</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F41" s="2">
+        <v>-10</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F44" s="2">
+        <v>-20</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" s="2">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F45" s="2">
+        <v>-30</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="2">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="2">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="2">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F50" s="2">
+        <v>2</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="2">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F51" s="2">
+        <v>-50</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" s="2">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" s="2">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F53" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" s="2">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F54" s="2">
+        <v>-20</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" s="2">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" s="2">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" s="2">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" s="2">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" s="2">
+        <v>56</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F59" s="2">
+        <v>2</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" s="2">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" s="2">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" s="2">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F62" s="2">
+        <v>2</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" s="2">
+        <v>60</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A64" s="2">
+        <v>61</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F64" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" s="2">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" s="2">
+        <v>63</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F66" s="2">
+        <v>-80</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" s="2">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F67" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" s="2">
+        <v>65</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69" s="2">
+        <v>66</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
+        <v>67</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F70" s="2">
+        <v>2</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" s="2">
+        <v>68</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" s="2">
+        <v>69</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F72" s="2">
+        <v>-70</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" s="2">
+        <v>70</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F73" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" s="2">
+        <v>71</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75" s="2">
+        <v>72</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F75" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" s="2">
+        <v>73</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F76" s="2">
+        <v>1</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" s="2">
+        <v>74</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78" s="2">
+        <v>75</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F78" s="2">
+        <v>-0.05</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" s="2">
+        <v>76</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F79" s="2">
+        <v>-40</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80" s="2">
+        <v>77</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F80" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" s="2">
+        <v>78</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F81" s="2">
+        <v>-60</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82" s="2">
+        <v>79</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" s="2">
+        <v>80</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F83" s="2">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F24"/>
@@ -3232,6 +5643,178 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A267AB8-FF53-4BE1-95AB-C48FB74D6425}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.23046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.15234375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.84375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.69140625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.23046875" style="2"/>
+    <col min="9" max="9" width="13.15234375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.07421875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.23046875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="B1" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -3430,11 +6013,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4296,7 +6879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -4938,7 +7521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
@@ -5268,2112 +7851,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I83"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="10.23046875" customWidth="1"/>
-    <col min="2" max="2" width="31.4609375" customWidth="1"/>
-    <col min="3" max="3" width="35.4609375" customWidth="1"/>
-    <col min="4" max="4" width="27.921875" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-2</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-80</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-0.15</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F20" s="2">
-        <v>-0.05</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F22" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="2">
-        <v>22</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F25" s="2">
-        <v>-0.05</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="2">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F26" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
-        <v>24</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="2">
-        <v>25</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="2">
-        <v>26</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="2">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="2">
-        <v>28</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="2">
-        <v>29</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F32" s="2">
-        <v>-50</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="2">
-        <v>30</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F33" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="2">
-        <v>31</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="2">
-        <v>32</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="2">
-        <v>33</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="2">
-        <v>34</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="2">
-        <v>35</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F38" s="2">
-        <v>-0.05</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="2">
-        <v>36</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F39" s="2">
-        <v>-60</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="2">
-        <v>37</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F40" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="2">
-        <v>38</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F41" s="2">
-        <v>-10</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" s="2">
-        <v>39</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F42" s="2">
-        <v>1</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" s="2">
-        <v>40</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F43" s="2">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" s="2">
-        <v>41</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F44" s="2">
-        <v>-20</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="2">
-        <v>42</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F45" s="2">
-        <v>-30</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="2">
-        <v>43</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F46" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="2">
-        <v>44</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F47" s="2">
-        <v>1</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="2">
-        <v>45</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F48" s="2">
-        <v>1</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="2">
-        <v>46</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F49" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="2">
-        <v>47</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F50" s="2">
-        <v>2</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="2">
-        <v>48</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F51" s="2">
-        <v>-50</v>
-      </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A52" s="2">
-        <v>49</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F52" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A53" s="2">
-        <v>50</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F53" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A54" s="2">
-        <v>51</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F54" s="2">
-        <v>-20</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A55" s="2">
-        <v>52</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F55" s="2">
-        <v>2</v>
-      </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A56" s="2">
-        <v>53</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F56" s="2">
-        <v>1</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A57" s="2">
-        <v>54</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F57" s="2">
-        <v>2</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A58" s="2">
-        <v>55</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F58" s="2">
-        <v>1</v>
-      </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59" s="2">
-        <v>56</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F59" s="2">
-        <v>2</v>
-      </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A60" s="2">
-        <v>57</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F60" s="2">
-        <v>1</v>
-      </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61" s="2">
-        <v>58</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F61" s="2">
-        <v>1</v>
-      </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A62" s="2">
-        <v>59</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F62" s="2">
-        <v>2</v>
-      </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A63" s="2">
-        <v>60</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F63" s="2">
-        <v>1</v>
-      </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A64" s="2">
-        <v>61</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F64" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A65" s="2">
-        <v>62</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F65" s="2">
-        <v>1</v>
-      </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66" s="2">
-        <v>63</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F66" s="2">
-        <v>-80</v>
-      </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A67" s="2">
-        <v>64</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F67" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A68" s="2">
-        <v>65</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F68" s="2">
-        <v>1</v>
-      </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A69" s="2">
-        <v>66</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F69" s="2">
-        <v>1</v>
-      </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A70" s="2">
-        <v>67</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F70" s="2">
-        <v>2</v>
-      </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A71" s="2">
-        <v>68</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F71" s="2">
-        <v>1</v>
-      </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A72" s="2">
-        <v>69</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F72" s="2">
-        <v>-70</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A73" s="2">
-        <v>70</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F73" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A74" s="2">
-        <v>71</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F74" s="2">
-        <v>1</v>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A75" s="2">
-        <v>72</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F75" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A76" s="2">
-        <v>73</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F76" s="2">
-        <v>1</v>
-      </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" s="2">
-        <v>74</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F77" s="2">
-        <v>1</v>
-      </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A78" s="2">
-        <v>75</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F78" s="2">
-        <v>-0.05</v>
-      </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A79" s="2">
-        <v>76</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F79" s="2">
-        <v>-40</v>
-      </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A80" s="2">
-        <v>77</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F80" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A81" s="2">
-        <v>78</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F81" s="2">
-        <v>-60</v>
-      </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A82" s="2">
-        <v>79</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F82" s="2">
-        <v>1</v>
-      </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A83" s="2">
-        <v>80</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F83" s="2">
-        <v>1</v>
-      </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C37F76-3DF2-49EE-A8E6-FEE2D567E65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E034C8E9-FB54-46DB-951D-57B88290D632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -4982,7 +4982,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
         <v>2</v>
@@ -5101,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
         <v>4</v>
@@ -5130,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
@@ -5159,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
@@ -5188,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
         <v>3</v>
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
         <v>3</v>
@@ -5246,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
         <v>4</v>
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
         <v>3</v>
@@ -5304,7 +5304,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -5333,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -5391,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
         <v>4</v>
@@ -5420,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
         <v>2</v>
@@ -5449,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
         <v>3</v>
@@ -5478,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
         <v>4</v>
@@ -5507,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2">
         <v>4</v>
@@ -5536,7 +5536,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
         <v>4</v>
@@ -5565,7 +5565,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2">
         <v>5</v>
@@ -5594,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
         <v>4</v>
@@ -5623,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2">
         <v>3</v>
@@ -5646,7 +5646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A267AB8-FF53-4BE1-95AB-C48FB74D6425}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -5818,8 +5818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5937,10 +5937,10 @@
         <v>0.12</v>
       </c>
       <c r="F4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>113</v>
@@ -5969,7 +5969,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>117</v>
@@ -5998,7 +5998,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>121</v>
@@ -6010,6 +6010,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E034C8E9-FB54-46DB-951D-57B88290D632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65B0242-487D-4B24-83A4-299F6D069B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="494">
   <si>
     <t>schemaVersion</t>
   </si>
@@ -1974,6 +1974,90 @@
     <t>TEST</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>invReq</t>
+  </si>
+  <si>
+    <t>conReq</t>
+  </si>
+  <si>
+    <t>manReq</t>
+  </si>
+  <si>
+    <t>hpDmg</t>
+  </si>
+  <si>
+    <t>sanDmg</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>7,6,0,0</t>
+  </si>
+  <si>
+    <t>5,7,0,5</t>
+  </si>
+  <si>
+    <t>4,7,6,0</t>
+  </si>
+  <si>
+    <t>11,10,0,0</t>
+  </si>
+  <si>
+    <t>8,11,0,10</t>
+  </si>
+  <si>
+    <t>7,11,10,5</t>
+  </si>
+  <si>
+    <t>8,7,0,0</t>
+  </si>
+  <si>
+    <t>6,8,0,6</t>
+  </si>
+  <si>
+    <t>5,8,7,0</t>
+  </si>
+  <si>
+    <t>10,9,0,0</t>
+  </si>
+  <si>
+    <t>7,10,0,9</t>
+  </si>
+  <si>
+    <t>6,10,9,4</t>
+  </si>
+  <si>
+    <t>6,5,0,0</t>
+  </si>
+  <si>
+    <t>4,6,0,4</t>
+  </si>
+  <si>
+    <t>3,6,5,0</t>
+  </si>
+  <si>
+    <t>12,11,0,0</t>
+  </si>
+  <si>
+    <t>9,12,0,11</t>
+  </si>
+  <si>
+    <t>8,12,11,6</t>
+  </si>
+  <si>
+    <t>9,8,0,0</t>
+  </si>
+  <si>
+    <t>7,9,0,7</t>
+  </si>
+  <si>
+    <t>6,9,8,0</t>
+  </si>
 </sst>
 </file>
 
@@ -2054,7 +2138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2080,6 +2164,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4979,10 +5069,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4996,8 +5086,8 @@
     <col min="10" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:9" s="7" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>56</v>
       </c>
@@ -5025,8 +5115,23 @@
       <c r="I2" s="7" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="J2" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>405</v>
       </c>
@@ -5054,8 +5159,23 @@
       <c r="I3" s="7" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J3" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -5083,8 +5203,23 @@
       <c r="I4" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J4" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
@@ -5112,8 +5247,23 @@
       <c r="I5" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J5" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="M5" s="2">
+        <v>9</v>
+      </c>
+      <c r="N5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
@@ -5141,8 +5291,23 @@
       <c r="I6" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J6" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="M6" s="2">
+        <v>4</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>68</v>
       </c>
@@ -5170,8 +5335,23 @@
       <c r="I7" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J7" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="M7" s="2">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
@@ -5199,8 +5379,23 @@
       <c r="I8" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J8" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="M8" s="2">
+        <v>7</v>
+      </c>
+      <c r="N8" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
@@ -5228,8 +5423,23 @@
       <c r="I9" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J9" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="M9" s="2">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>74</v>
       </c>
@@ -5257,8 +5467,23 @@
       <c r="I10" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J10" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="M10" s="2">
+        <v>9</v>
+      </c>
+      <c r="N10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -5286,8 +5511,23 @@
       <c r="I11" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J11" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5</v>
+      </c>
+      <c r="N11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>78</v>
       </c>
@@ -5315,8 +5555,23 @@
       <c r="I12" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J12" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="M12" s="2">
+        <v>3</v>
+      </c>
+      <c r="N12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>80</v>
       </c>
@@ -5344,8 +5599,23 @@
       <c r="I13" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J13" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="M13" s="2">
+        <v>4</v>
+      </c>
+      <c r="N13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>82</v>
       </c>
@@ -5373,8 +5643,23 @@
       <c r="I14" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J14" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="M14" s="2">
+        <v>3</v>
+      </c>
+      <c r="N14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>84</v>
       </c>
@@ -5402,8 +5687,23 @@
       <c r="I15" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J15" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="M15" s="2">
+        <v>9</v>
+      </c>
+      <c r="N15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>86</v>
       </c>
@@ -5431,8 +5731,23 @@
       <c r="I16" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J16" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="M16" s="2">
+        <v>4</v>
+      </c>
+      <c r="N16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>88</v>
       </c>
@@ -5460,8 +5775,23 @@
       <c r="I17" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J17" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="M17" s="2">
+        <v>5</v>
+      </c>
+      <c r="N17" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>90</v>
       </c>
@@ -5489,8 +5819,23 @@
       <c r="I18" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J18" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="M18" s="2">
+        <v>9</v>
+      </c>
+      <c r="N18" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -5518,8 +5863,23 @@
       <c r="I19" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J19" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="M19" s="2">
+        <v>9</v>
+      </c>
+      <c r="N19" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>94</v>
       </c>
@@ -5547,8 +5907,23 @@
       <c r="I20" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J20" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="M20" s="2">
+        <v>9</v>
+      </c>
+      <c r="N20" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>96</v>
       </c>
@@ -5576,8 +5951,23 @@
       <c r="I21" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J21" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="M21" s="2">
+        <v>12</v>
+      </c>
+      <c r="N21" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>98</v>
       </c>
@@ -5605,8 +5995,23 @@
       <c r="I22" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J22" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="M22" s="2">
+        <v>6</v>
+      </c>
+      <c r="N22" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>100</v>
       </c>
@@ -5634,6 +6039,84 @@
       <c r="I23" s="2">
         <v>100</v>
       </c>
+      <c r="J23" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="M23" s="2">
+        <v>5</v>
+      </c>
+      <c r="N23" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="J24" s="10"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" s="11"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B45" s="11"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B47" s="11"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B48" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5819,7 +6302,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5966,7 +6449,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
         <v>5</v>
@@ -5995,7 +6478,7 @@
         <v>0.02</v>
       </c>
       <c r="F6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>5</v>

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65B0242-487D-4B24-83A4-299F6D069B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574863A9-E9A1-452C-BE21-0007B7107932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2829" yWindow="3283" windowWidth="24694" windowHeight="12711" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="497">
   <si>
     <t>schemaVersion</t>
   </si>
@@ -2057,6 +2057,18 @@
   </si>
   <si>
     <t>6,9,8,0</t>
+  </si>
+  <si>
+    <t>invExp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>conExp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>manExpPerDay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5069,10 +5081,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5080,14 +5092,16 @@
     <col min="1" max="1" width="16.3828125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.921875" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.61328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.61328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.3828125" style="2" customWidth="1"/>
-    <col min="6" max="9" width="16.23046875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.61328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.61328125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="16.23046875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:17" s="7" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>56</v>
       </c>
@@ -5130,8 +5144,17 @@
       <c r="N2" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="O2" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>405</v>
       </c>
@@ -5174,8 +5197,17 @@
       <c r="N3" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O3" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -5218,8 +5250,17 @@
       <c r="N4" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O4" s="2">
+        <v>2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
@@ -5262,8 +5303,17 @@
       <c r="N5" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O5" s="2">
+        <v>5</v>
+      </c>
+      <c r="P5" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
@@ -5306,8 +5356,17 @@
       <c r="N6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O6" s="2">
+        <v>2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>68</v>
       </c>
@@ -5350,8 +5409,17 @@
       <c r="N7" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O7" s="2">
+        <v>2</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
@@ -5394,8 +5462,17 @@
       <c r="N8" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O8" s="2">
+        <v>5</v>
+      </c>
+      <c r="P8" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
@@ -5438,8 +5515,17 @@
       <c r="N9" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O9" s="2">
+        <v>2</v>
+      </c>
+      <c r="P9" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>74</v>
       </c>
@@ -5482,8 +5568,17 @@
       <c r="N10" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O10" s="2">
+        <v>5</v>
+      </c>
+      <c r="P10" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -5526,8 +5621,17 @@
       <c r="N11" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O11" s="2">
+        <v>2</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>78</v>
       </c>
@@ -5570,8 +5674,17 @@
       <c r="N12" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O12" s="2">
+        <v>2</v>
+      </c>
+      <c r="P12" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>80</v>
       </c>
@@ -5614,8 +5727,17 @@
       <c r="N13" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O13" s="2">
+        <v>2</v>
+      </c>
+      <c r="P13" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>82</v>
       </c>
@@ -5658,8 +5780,17 @@
       <c r="N14" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O14" s="2">
+        <v>2</v>
+      </c>
+      <c r="P14" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>84</v>
       </c>
@@ -5702,8 +5833,17 @@
       <c r="N15" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O15" s="2">
+        <v>5</v>
+      </c>
+      <c r="P15" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>86</v>
       </c>
@@ -5746,8 +5886,17 @@
       <c r="N16" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O16" s="2">
+        <v>2</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>88</v>
       </c>
@@ -5790,8 +5939,17 @@
       <c r="N17" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O17" s="2">
+        <v>2</v>
+      </c>
+      <c r="P17" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>90</v>
       </c>
@@ -5834,8 +5992,17 @@
       <c r="N18" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O18" s="2">
+        <v>5</v>
+      </c>
+      <c r="P18" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -5878,8 +6045,17 @@
       <c r="N19" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O19" s="2">
+        <v>5</v>
+      </c>
+      <c r="P19" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>94</v>
       </c>
@@ -5922,8 +6098,17 @@
       <c r="N20" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O20" s="2">
+        <v>5</v>
+      </c>
+      <c r="P20" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>96</v>
       </c>
@@ -5966,8 +6151,17 @@
       <c r="N21" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O21" s="2">
+        <v>5</v>
+      </c>
+      <c r="P21" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>98</v>
       </c>
@@ -6010,8 +6204,17 @@
       <c r="N22" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O22" s="2">
+        <v>2</v>
+      </c>
+      <c r="P22" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>100</v>
       </c>
@@ -6054,20 +6257,29 @@
       <c r="N23" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O23" s="2">
+        <v>2</v>
+      </c>
+      <c r="P23" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="J24" s="10"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B32" s="11"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
@@ -6301,7 +6513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574863A9-E9A1-452C-BE21-0007B7107932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985E4DA2-795B-48D8-8DDB-BC4F0090A9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2829" yWindow="3283" windowWidth="24694" windowHeight="12711" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3171" yWindow="3626" windowWidth="28089" windowHeight="13303" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="507">
   <si>
     <t>schemaVersion</t>
   </si>
@@ -1716,11 +1716,297 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>invReq</t>
+  </si>
+  <si>
+    <t>conReq</t>
+  </si>
+  <si>
+    <t>manReq</t>
+  </si>
+  <si>
+    <t>hpDmg</t>
+  </si>
+  <si>
+    <t>sanDmg</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>7,6,0,0</t>
+  </si>
+  <si>
+    <t>5,7,0,5</t>
+  </si>
+  <si>
+    <t>4,7,6,0</t>
+  </si>
+  <si>
+    <t>11,10,0,0</t>
+  </si>
+  <si>
+    <t>8,11,0,10</t>
+  </si>
+  <si>
+    <t>7,11,10,5</t>
+  </si>
+  <si>
+    <t>8,7,0,0</t>
+  </si>
+  <si>
+    <t>6,8,0,6</t>
+  </si>
+  <si>
+    <t>5,8,7,0</t>
+  </si>
+  <si>
+    <t>10,9,0,0</t>
+  </si>
+  <si>
+    <t>7,10,0,9</t>
+  </si>
+  <si>
+    <t>6,10,9,4</t>
+  </si>
+  <si>
+    <t>6,5,0,0</t>
+  </si>
+  <si>
+    <t>4,6,0,4</t>
+  </si>
+  <si>
+    <t>3,6,5,0</t>
+  </si>
+  <si>
+    <t>12,11,0,0</t>
+  </si>
+  <si>
+    <t>9,12,0,11</t>
+  </si>
+  <si>
+    <t>8,12,11,6</t>
+  </si>
+  <si>
+    <t>9,8,0,0</t>
+  </si>
+  <si>
+    <t>7,9,0,7</t>
+  </si>
+  <si>
+    <t>6,9,8,0</t>
+  </si>
+  <si>
+    <t>invExp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>conExp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>manExpPerDay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEWS_BOOTSTRAP_GLOBAL</t>
+  </si>
+  <si>
+    <t>NEWS_BOOTSTRAP_NODE</t>
+  </si>
+  <si>
+    <t>NEWS_BOOTSTRAP_RUMOR</t>
+  </si>
+  <si>
+    <t>Bootstrap</t>
+  </si>
+  <si>
+    <t>ANY</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <r>
+      <t>【当前只用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RandomDaily</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>【</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Any </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或具体</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> anomalyId</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Any </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未知</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可能是假新闻</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1731,6 +2017,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1742,6 +2029,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1752,6 +2040,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1768,6 +2057,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1778,6 +2068,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1789,6 +2080,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1799,6 +2091,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1811,7 +2104,36 @@
   </si>
   <si>
     <r>
-      <t>【</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>O5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通告：站点网络进入一级响应</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过去</t>
     </r>
     <r>
       <rPr>
@@ -1819,20 +2141,33 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Any </t>
+      <t>48</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>或具体</t>
+      <t>小时异常目击上升。各站点提升警戒，优先处理“可快速验证”的线索，避免无谓暴露。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>站点简报：</t>
     </r>
     <r>
       <rPr>
@@ -1840,234 +2175,33 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> anomalyId</t>
+      <t>N1</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>；</t>
+      <t>辖区出现不明活动</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Any </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>表示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>未知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>可能是假新闻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>】</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>【当前只用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RandomDaily</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>】</t>
-    </r>
-  </si>
-  <si>
-    <t>RandomDaily</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TEST</t>
+    <t>本地渠道报告多起“异常传闻”与人员失踪。建议先派遣小队调查，确认是否存在可收容目标。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>invReq</t>
-  </si>
-  <si>
-    <t>conReq</t>
-  </si>
-  <si>
-    <t>manReq</t>
-  </si>
-  <si>
-    <t>hpDmg</t>
-  </si>
-  <si>
-    <t>sanDmg</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>7,6,0,0</t>
-  </si>
-  <si>
-    <t>5,7,0,5</t>
-  </si>
-  <si>
-    <t>4,7,6,0</t>
-  </si>
-  <si>
-    <t>11,10,0,0</t>
-  </si>
-  <si>
-    <t>8,11,0,10</t>
-  </si>
-  <si>
-    <t>7,11,10,5</t>
-  </si>
-  <si>
-    <t>8,7,0,0</t>
-  </si>
-  <si>
-    <t>6,8,0,6</t>
-  </si>
-  <si>
-    <t>5,8,7,0</t>
-  </si>
-  <si>
-    <t>10,9,0,0</t>
-  </si>
-  <si>
-    <t>7,10,0,9</t>
-  </si>
-  <si>
-    <t>6,10,9,4</t>
-  </si>
-  <si>
-    <t>6,5,0,0</t>
-  </si>
-  <si>
-    <t>4,6,0,4</t>
-  </si>
-  <si>
-    <t>3,6,5,0</t>
-  </si>
-  <si>
-    <t>12,11,0,0</t>
-  </si>
-  <si>
-    <t>9,12,0,11</t>
-  </si>
-  <si>
-    <t>8,12,11,6</t>
-  </si>
-  <si>
-    <t>9,8,0,0</t>
-  </si>
-  <si>
-    <t>7,9,0,7</t>
-  </si>
-  <si>
-    <t>6,9,8,0</t>
-  </si>
-  <si>
-    <t>invExp</t>
+    <t>都市传闻：黑暗中有人“点名”你的名字</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>conExp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>manExpPerDay</t>
+    <t>多名目击者称在夜间听到低语与重复的编号。真实性未知，但具备异常特征——可作为低成本调查线索。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2075,7 +2209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2129,6 +2263,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2150,7 +2299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2174,14 +2323,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5083,8 +5244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5130,28 +5291,28 @@
         <v>415</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -5183,28 +5344,28 @@
         <v>414</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
@@ -5236,13 +5397,13 @@
         <v>100</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M4" s="2">
         <v>4</v>
@@ -5289,13 +5450,13 @@
         <v>100</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M5" s="2">
         <v>9</v>
@@ -5342,13 +5503,13 @@
         <v>100</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M6" s="2">
         <v>4</v>
@@ -5395,13 +5556,13 @@
         <v>100</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="M7" s="2">
         <v>5</v>
@@ -5448,13 +5609,13 @@
         <v>100</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M8" s="2">
         <v>7</v>
@@ -5501,13 +5662,13 @@
         <v>100</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="M9" s="2">
         <v>5</v>
@@ -5554,13 +5715,13 @@
         <v>100</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M10" s="2">
         <v>9</v>
@@ -5607,13 +5768,13 @@
         <v>100</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="M11" s="2">
         <v>5</v>
@@ -5660,13 +5821,13 @@
         <v>100</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="M12" s="2">
         <v>3</v>
@@ -5713,13 +5874,13 @@
         <v>100</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M13" s="2">
         <v>4</v>
@@ -5766,13 +5927,13 @@
         <v>100</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="M14" s="2">
         <v>3</v>
@@ -5819,13 +5980,13 @@
         <v>100</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M15" s="2">
         <v>9</v>
@@ -5872,13 +6033,13 @@
         <v>100</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M16" s="2">
         <v>4</v>
@@ -5925,13 +6086,13 @@
         <v>100</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="M17" s="2">
         <v>5</v>
@@ -5978,13 +6139,13 @@
         <v>100</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M18" s="2">
         <v>9</v>
@@ -6031,13 +6192,13 @@
         <v>100</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M19" s="2">
         <v>9</v>
@@ -6084,13 +6245,13 @@
         <v>100</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M20" s="2">
         <v>9</v>
@@ -6137,13 +6298,13 @@
         <v>100</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M21" s="2">
         <v>12</v>
@@ -6190,13 +6351,13 @@
         <v>100</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="M22" s="2">
         <v>6</v>
@@ -6243,13 +6404,13 @@
         <v>100</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="M23" s="2">
         <v>5</v>
@@ -6268,67 +6429,67 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="J24" s="10"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B29" s="11"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B30" s="11"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B31" s="11"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B32" s="11"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B33" s="11"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B34" s="11"/>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B35" s="11"/>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B36" s="11"/>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B37" s="11"/>
+      <c r="B37" s="10"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B38" s="11"/>
+      <c r="B38" s="10"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B39" s="11"/>
+      <c r="B39" s="10"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B40" s="11"/>
+      <c r="B40" s="10"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B41" s="11"/>
+      <c r="B41" s="10"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B42" s="11"/>
+      <c r="B42" s="10"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B43" s="11"/>
+      <c r="B43" s="10"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B44" s="11"/>
+      <c r="B44" s="10"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B45" s="11"/>
+      <c r="B45" s="10"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B46" s="11"/>
+      <c r="B46" s="10"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B47" s="11"/>
+      <c r="B47" s="10"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B48" s="11"/>
+      <c r="B48" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6339,168 +6500,246 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A267AB8-FF53-4BE1-95AB-C48FB74D6425}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.23046875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.53515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.15234375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.3828125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.84375" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.921875" style="2" customWidth="1"/>
     <col min="6" max="6" width="25.69140625" style="2" customWidth="1"/>
     <col min="7" max="8" width="9.23046875" style="2"/>
     <col min="9" max="9" width="13.15234375" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.07421875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.23046875" style="2"/>
+    <col min="11" max="11" width="16.3828125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="37.4609375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="B1" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="B1" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="I1" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
+    <row r="4" spans="1:12" ht="48.9" x14ac:dyDescent="0.4">
+      <c r="A4" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="48.9" x14ac:dyDescent="0.4">
+      <c r="A5" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="48.9" x14ac:dyDescent="0.4">
+      <c r="A6" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11">
         <v>0</v>
       </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E10" s="1"/>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985E4DA2-795B-48D8-8DDB-BC4F0090A9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7F66D4-B419-4905-A6A9-0FF17824B7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3171" yWindow="3626" windowWidth="28089" windowHeight="13303" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="111" yWindow="3077" windowWidth="20735" windowHeight="13303" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="486">
   <si>
     <t>schemaVersion</t>
   </si>
@@ -69,24 +69,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>LocalPanicHighThreshold</t>
-  </si>
-  <si>
-    <t>Local panic trigger</t>
-  </si>
-  <si>
-    <t>RandomEventBaseProb</t>
-  </si>
-  <si>
-    <t>Random event probability</t>
-  </si>
-  <si>
-    <t>DefaultAutoResolveAfterDays</t>
-  </si>
-  <si>
-    <t>Unused in v0</t>
-  </si>
-  <si>
     <t>DefaultIgnoreApplyMode</t>
   </si>
   <si>
@@ -99,42 +81,12 @@
     <t>WorldPanicFailThreshold</t>
   </si>
   <si>
-    <t>WorldPanicSoftThreshold</t>
-  </si>
-  <si>
-    <t>World panic warning threshold</t>
-  </si>
-  <si>
-    <t>StartingIntel</t>
-  </si>
-  <si>
-    <t>Starting global intel</t>
-  </si>
-  <si>
-    <t>StartingNegEntropy</t>
-  </si>
-  <si>
-    <t>Starting global neg-entropy</t>
-  </si>
-  <si>
     <t>DailyWorldPanicDecay</t>
   </si>
   <si>
     <t>Daily world panic decay (if supported)</t>
   </si>
   <si>
-    <t>DailyIntelDecay</t>
-  </si>
-  <si>
-    <t>Daily intel decay (if supported)</t>
-  </si>
-  <si>
-    <t>DailyUpkeepPerAgent</t>
-  </si>
-  <si>
-    <t>Daily upkeep per busy agent (if supported)</t>
-  </si>
-  <si>
     <t>nodeId</t>
   </si>
   <si>
@@ -217,18 +169,6 @@
   </si>
   <si>
     <t>class</t>
-  </si>
-  <si>
-    <t>baseThreat</t>
-  </si>
-  <si>
-    <t>investigateDifficulty</t>
-  </si>
-  <si>
-    <t>containDifficulty</t>
-  </si>
-  <si>
-    <t>manageRisk</t>
   </si>
   <si>
     <t>镜面渗漏</t>
@@ -1294,54 +1234,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Money -= AgentCount * WagePerAgentPerDay</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HireCost</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>作用：单次招聘成本（点击招聘确认时扣）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公式：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Money -= HireCost</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2204,6 +2096,10 @@
     <t>多名目击者称在夜间听到低语与重复的编号。真实性未知，但具备异常特征——可作为低成本调查线索。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>manNegentropy PerDay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2299,7 +2195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2319,9 +2215,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2569,18 +2462,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -2605,12 +2498,11 @@
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.23046875" customWidth="1"/>
     <col min="2" max="2" width="31.4609375" customWidth="1"/>
     <col min="3" max="3" width="35.4609375" customWidth="1"/>
     <col min="4" max="4" width="27.921875" customWidth="1"/>
@@ -2618,105 +2510,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>434</v>
+      <c r="A2" t="s">
+        <v>412</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>2</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>414</v>
+      <c r="A3" t="s">
+        <v>392</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F4" s="2">
         <v>-0.2</v>
@@ -2724,24 +2615,24 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -2749,24 +2640,24 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F6" s="2">
         <v>-2</v>
@@ -2774,24 +2665,24 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F7" s="2">
         <v>0.15</v>
@@ -2799,24 +2690,24 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -2824,24 +2715,24 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -2849,24 +2740,24 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F10" s="2">
         <v>-1</v>
@@ -2874,24 +2765,24 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F11" s="2">
         <v>-80</v>
@@ -2899,24 +2790,24 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F12" s="2">
         <v>-1</v>
@@ -2924,24 +2815,24 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F13" s="2">
         <v>0.1</v>
@@ -2949,24 +2840,24 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
+      <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F14" s="2">
         <v>-0.15</v>
@@ -2974,24 +2865,24 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -2999,24 +2890,24 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
+      <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F16" s="2">
         <v>-1</v>
@@ -3024,24 +2915,24 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
+      <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F17" s="2">
         <v>0.1</v>
@@ -3049,24 +2940,24 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
+      <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -3074,24 +2965,24 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
+      <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -3099,24 +2990,24 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
+      <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F20" s="2">
         <v>-0.05</v>
@@ -3124,24 +3015,24 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
+      <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F21" s="2">
         <v>2</v>
@@ -3149,24 +3040,24 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
+      <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F22" s="2">
         <v>-0.1</v>
@@ -3174,24 +3065,24 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
+      <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -3199,24 +3090,24 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
+      <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -3224,24 +3115,24 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="2">
+      <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F25" s="2">
         <v>-0.05</v>
@@ -3249,24 +3140,24 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="2">
+      <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F26" s="2">
         <v>-1</v>
@@ -3274,24 +3165,24 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
+      <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -3299,24 +3190,24 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="2">
+      <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F28" s="2">
         <v>0.15</v>
@@ -3324,24 +3215,24 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="2">
+      <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
@@ -3349,24 +3240,24 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="2">
+      <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
@@ -3374,24 +3265,24 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="2">
+      <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -3399,24 +3290,24 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="2">
+      <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F32" s="2">
         <v>-50</v>
@@ -3424,24 +3315,24 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="2">
+      <c r="A33">
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F33" s="2">
         <v>-1</v>
@@ -3449,24 +3340,24 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="2">
+      <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F34" s="2">
         <v>0.05</v>
@@ -3474,24 +3365,24 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="2">
+      <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
@@ -3499,24 +3390,24 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="2">
+      <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
@@ -3524,24 +3415,24 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="2">
+      <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
@@ -3549,24 +3440,24 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="2">
+      <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F38" s="2">
         <v>-0.05</v>
@@ -3574,24 +3465,24 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="2">
+      <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F39" s="2">
         <v>-60</v>
@@ -3599,24 +3490,24 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="2">
+      <c r="A40">
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F40" s="2">
         <v>-1</v>
@@ -3624,24 +3515,24 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="2">
+      <c r="A41">
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F41" s="2">
         <v>-10</v>
@@ -3649,24 +3540,24 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" s="2">
+      <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -3674,24 +3565,24 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" s="2">
+      <c r="A43">
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
@@ -3699,24 +3590,24 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" s="2">
+      <c r="A44">
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F44" s="2">
         <v>-20</v>
@@ -3724,24 +3615,24 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="2">
+      <c r="A45">
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F45" s="2">
         <v>-30</v>
@@ -3749,24 +3640,24 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="2">
+      <c r="A46">
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F46" s="2">
         <v>-1</v>
@@ -3774,24 +3665,24 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="2">
+      <c r="A47">
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
@@ -3799,24 +3690,24 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="2">
+      <c r="A48">
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
@@ -3824,24 +3715,24 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="2">
+      <c r="A49">
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F49" s="2">
         <v>-1</v>
@@ -3849,24 +3740,24 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="2">
+      <c r="A50">
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F50" s="2">
         <v>2</v>
@@ -3874,24 +3765,24 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="2">
+      <c r="A51">
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F51" s="2">
         <v>-50</v>
@@ -3899,24 +3790,24 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A52" s="2">
+      <c r="A52">
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F52" s="2">
         <v>-1</v>
@@ -3924,24 +3815,24 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A53" s="2">
+      <c r="A53">
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F53" s="2">
         <v>-1</v>
@@ -3949,24 +3840,24 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A54" s="2">
+      <c r="A54">
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F54" s="2">
         <v>-20</v>
@@ -3974,24 +3865,24 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A55" s="2">
+      <c r="A55">
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F55" s="2">
         <v>2</v>
@@ -3999,24 +3890,24 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A56" s="2">
+      <c r="A56">
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F56" s="2">
         <v>1</v>
@@ -4024,24 +3915,24 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A57" s="2">
+      <c r="A57">
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F57" s="2">
         <v>2</v>
@@ -4049,24 +3940,24 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A58" s="2">
+      <c r="A58">
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F58" s="2">
         <v>1</v>
@@ -4074,24 +3965,24 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59" s="2">
+      <c r="A59">
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F59" s="2">
         <v>2</v>
@@ -4099,24 +3990,24 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A60" s="2">
+      <c r="A60">
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F60" s="2">
         <v>1</v>
@@ -4124,24 +4015,24 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61" s="2">
+      <c r="A61">
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F61" s="2">
         <v>1</v>
@@ -4149,24 +4040,24 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A62" s="2">
+      <c r="A62">
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F62" s="2">
         <v>2</v>
@@ -4174,24 +4065,24 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A63" s="2">
+      <c r="A63">
         <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F63" s="2">
         <v>1</v>
@@ -4199,24 +4090,24 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A64" s="2">
+      <c r="A64">
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F64" s="2">
         <v>-0.1</v>
@@ -4224,24 +4115,24 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A65" s="2">
+      <c r="A65">
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F65" s="2">
         <v>1</v>
@@ -4249,24 +4140,24 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66" s="2">
+      <c r="A66">
         <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F66" s="2">
         <v>-80</v>
@@ -4274,24 +4165,24 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A67" s="2">
+      <c r="A67">
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F67" s="2">
         <v>-1</v>
@@ -4299,24 +4190,24 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A68" s="2">
+      <c r="A68">
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F68" s="2">
         <v>1</v>
@@ -4324,24 +4215,24 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A69" s="2">
+      <c r="A69">
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F69" s="2">
         <v>1</v>
@@ -4349,24 +4240,24 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A70" s="2">
+      <c r="A70">
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F70" s="2">
         <v>2</v>
@@ -4374,24 +4265,24 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A71" s="2">
+      <c r="A71">
         <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
@@ -4399,24 +4290,24 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A72" s="2">
+      <c r="A72">
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F72" s="2">
         <v>-70</v>
@@ -4424,24 +4315,24 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A73" s="2">
+      <c r="A73">
         <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F73" s="2">
         <v>-1</v>
@@ -4449,24 +4340,24 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A74" s="2">
+      <c r="A74">
         <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F74" s="2">
         <v>1</v>
@@ -4474,24 +4365,24 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A75" s="2">
+      <c r="A75">
         <v>72</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F75" s="2">
         <v>-0.1</v>
@@ -4499,24 +4390,24 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A76" s="2">
+      <c r="A76">
         <v>73</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
@@ -4524,24 +4415,24 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" s="2">
+      <c r="A77">
         <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F77" s="2">
         <v>1</v>
@@ -4549,24 +4440,24 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A78" s="2">
+      <c r="A78">
         <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F78" s="2">
         <v>-0.05</v>
@@ -4574,24 +4465,24 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A79" s="2">
+      <c r="A79">
         <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F79" s="2">
         <v>-40</v>
@@ -4599,24 +4490,24 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A80" s="2">
+      <c r="A80">
         <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F80" s="2">
         <v>-1</v>
@@ -4624,24 +4515,24 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A81" s="2">
+      <c r="A81">
         <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F81" s="2">
         <v>-60</v>
@@ -4649,24 +4540,24 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A82" s="2">
+      <c r="A82">
         <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F82" s="2">
         <v>1</v>
@@ -4674,24 +4565,24 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A83" s="2">
+      <c r="A83">
         <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F83" s="2">
         <v>1</v>
@@ -4699,7 +4590,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -4710,10 +4601,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4734,270 +4625,172 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
-        <v>6</v>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.35</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.05</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="8">
+        <v>364</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32.6" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="32.6" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32.6" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.3" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
+      <c r="E10" s="6" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>100</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <v>375</v>
+      </c>
+      <c r="B12" s="2">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="32.6" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>377</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B14" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="32.6" x14ac:dyDescent="0.5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="32.6" x14ac:dyDescent="0.5">
-      <c r="A16" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B16" s="2">
-        <v>100</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="32.6" x14ac:dyDescent="0.5">
-      <c r="A17" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B17" s="2">
-        <v>500</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="32.6" x14ac:dyDescent="0.5">
-      <c r="A18" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B18" s="2">
-        <v>100</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.3" x14ac:dyDescent="0.5">
-      <c r="A19" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C19" s="2">
+        <v>381</v>
+      </c>
+      <c r="B15" s="2">
         <v>0</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2">
-        <v>100</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.3" x14ac:dyDescent="0.5">
-      <c r="A21" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="32.6" x14ac:dyDescent="0.5">
-      <c r="A22" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>404</v>
+      <c r="E15" s="2" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5019,73 +4812,73 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -5094,18 +4887,18 @@
         <v>10000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -5116,13 +4909,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -5131,18 +4924,18 @@
         <v>5000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -5151,18 +4944,18 @@
         <v>100000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -5171,18 +4964,18 @@
         <v>2000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -5191,18 +4984,18 @@
         <v>3000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -5211,18 +5004,18 @@
         <v>500</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -5231,7 +5024,7 @@
         <v>100</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -5242,10 +5035,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5253,1243 +5046,1044 @@
     <col min="1" max="1" width="16.3828125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.921875" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.61328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.61328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.3828125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.61328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.61328125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="16.23046875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.23046875" style="2"/>
+    <col min="4" max="5" width="16.23046875" style="2" customWidth="1"/>
+    <col min="6" max="12" width="9.23046875" style="2"/>
+    <col min="13" max="13" width="13.4609375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.84375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:17" s="7" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>58</v>
+        <v>391</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>415</v>
+        <v>393</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.4">
+        <v>442</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>414</v>
+        <v>392</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
+        <v>100</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.1</v>
       </c>
-      <c r="I4" s="2">
+      <c r="E5" s="2">
         <v>100</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="M4" s="2">
-        <v>4</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="F5" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I5" s="2">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2">
         <v>5</v>
       </c>
-      <c r="O4" s="2">
-        <v>2</v>
-      </c>
-      <c r="P4" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>100</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>472</v>
+      <c r="L5" s="2">
+        <v>5</v>
       </c>
       <c r="M5" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2">
         <v>10</v>
       </c>
-      <c r="O5" s="2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2">
         <v>5</v>
       </c>
-      <c r="P5" s="2">
+      <c r="K6" s="2">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>10</v>
+      </c>
+      <c r="N6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>100</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I7" s="2">
         <v>5</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="J7" s="2">
+        <v>6</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>10</v>
+      </c>
+      <c r="N7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>100</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="I8" s="2">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>5</v>
+      </c>
+      <c r="M8" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="N8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>100</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6</v>
+      </c>
+      <c r="K9" s="2">
         <v>2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>10</v>
+      </c>
+      <c r="N9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.1</v>
       </c>
-      <c r="I6" s="2">
+      <c r="E10" s="2">
         <v>100</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="M6" s="2">
-        <v>4</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="F10" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2">
         <v>5</v>
       </c>
-      <c r="O6" s="2">
-        <v>2</v>
-      </c>
-      <c r="P6" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>100</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="L10" s="2">
         <v>5</v>
       </c>
-      <c r="N7" s="2">
-        <v>6</v>
-      </c>
-      <c r="O7" s="2">
-        <v>2</v>
-      </c>
-      <c r="P7" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>100</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="M8" s="2">
-        <v>7</v>
-      </c>
-      <c r="N8" s="2">
-        <v>8</v>
-      </c>
-      <c r="O8" s="2">
-        <v>5</v>
-      </c>
-      <c r="P8" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="2">
+      <c r="M10" s="2">
         <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>100</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="M9" s="2">
-        <v>5</v>
-      </c>
-      <c r="N9" s="2">
-        <v>6</v>
-      </c>
-      <c r="O9" s="2">
-        <v>2</v>
-      </c>
-      <c r="P9" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>4</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>100</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="M10" s="2">
-        <v>9</v>
       </c>
       <c r="N10" s="2">
         <v>10</v>
       </c>
-      <c r="O10" s="2">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>100</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I11" s="2">
         <v>5</v>
       </c>
-      <c r="P10" s="2">
+      <c r="J11" s="2">
+        <v>6</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>10</v>
+      </c>
+      <c r="N11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>100</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>4</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>10</v>
+      </c>
+      <c r="N12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>100</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2">
         <v>5</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>10</v>
+      </c>
+      <c r="N13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>100</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>4</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>10</v>
+      </c>
+      <c r="N14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>100</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I15" s="2">
+        <v>9</v>
+      </c>
+      <c r="J15" s="2">
+        <v>10</v>
+      </c>
+      <c r="K15" s="2">
+        <v>5</v>
+      </c>
+      <c r="L15" s="2">
+        <v>5</v>
+      </c>
+      <c r="M15" s="2">
         <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>100</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="M11" s="2">
-        <v>5</v>
-      </c>
-      <c r="N11" s="2">
-        <v>6</v>
-      </c>
-      <c r="O11" s="2">
-        <v>2</v>
-      </c>
-      <c r="P11" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>100</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="M12" s="2">
-        <v>3</v>
-      </c>
-      <c r="N12" s="2">
-        <v>4</v>
-      </c>
-      <c r="O12" s="2">
-        <v>2</v>
-      </c>
-      <c r="P12" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>100</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="M13" s="2">
-        <v>4</v>
-      </c>
-      <c r="N13" s="2">
-        <v>5</v>
-      </c>
-      <c r="O13" s="2">
-        <v>2</v>
-      </c>
-      <c r="P13" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>100</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="M14" s="2">
-        <v>3</v>
-      </c>
-      <c r="N14" s="2">
-        <v>4</v>
-      </c>
-      <c r="O14" s="2">
-        <v>2</v>
-      </c>
-      <c r="P14" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>4</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>100</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="M15" s="2">
-        <v>9</v>
       </c>
       <c r="N15" s="2">
         <v>10</v>
       </c>
-      <c r="O15" s="2">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>100</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2">
         <v>5</v>
       </c>
-      <c r="P15" s="2">
+      <c r="K16" s="2">
+        <v>2</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>10</v>
+      </c>
+      <c r="N16" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>100</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I17" s="2">
         <v>5</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="J17" s="2">
+        <v>6</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>10</v>
+      </c>
+      <c r="N17" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>100</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I18" s="2">
+        <v>9</v>
+      </c>
+      <c r="J18" s="2">
+        <v>10</v>
+      </c>
+      <c r="K18" s="2">
+        <v>5</v>
+      </c>
+      <c r="L18" s="2">
+        <v>5</v>
+      </c>
+      <c r="M18" s="2">
         <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>2</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>100</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="M16" s="2">
-        <v>4</v>
-      </c>
-      <c r="N16" s="2">
-        <v>5</v>
-      </c>
-      <c r="O16" s="2">
-        <v>2</v>
-      </c>
-      <c r="P16" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>3</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>100</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="M17" s="2">
-        <v>5</v>
-      </c>
-      <c r="N17" s="2">
-        <v>6</v>
-      </c>
-      <c r="O17" s="2">
-        <v>2</v>
-      </c>
-      <c r="P17" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>4</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I18" s="2">
-        <v>100</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="M18" s="2">
-        <v>9</v>
       </c>
       <c r="N18" s="2">
         <v>10</v>
       </c>
-      <c r="O18" s="2">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>100</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I19" s="2">
+        <v>9</v>
+      </c>
+      <c r="J19" s="2">
+        <v>10</v>
+      </c>
+      <c r="K19" s="2">
         <v>5</v>
       </c>
-      <c r="P18" s="2">
+      <c r="L19" s="2">
         <v>5</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="M19" s="2">
         <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>4</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>100</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="M19" s="2">
-        <v>9</v>
       </c>
       <c r="N19" s="2">
         <v>10</v>
       </c>
-      <c r="O19" s="2">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>100</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I20" s="2">
+        <v>9</v>
+      </c>
+      <c r="J20" s="2">
+        <v>10</v>
+      </c>
+      <c r="K20" s="2">
         <v>5</v>
       </c>
-      <c r="P19" s="2">
+      <c r="L20" s="2">
         <v>5</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="M20" s="2">
         <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>4</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>100</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="M20" s="2">
-        <v>9</v>
       </c>
       <c r="N20" s="2">
         <v>10</v>
       </c>
-      <c r="O20" s="2">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>100</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="I21" s="2">
+        <v>12</v>
+      </c>
+      <c r="J21" s="2">
+        <v>13</v>
+      </c>
+      <c r="K21" s="2">
         <v>5</v>
       </c>
-      <c r="P20" s="2">
+      <c r="L21" s="2">
         <v>5</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="M21" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="N21" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>100</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="I22" s="2">
+        <v>6</v>
+      </c>
+      <c r="J22" s="2">
+        <v>7</v>
+      </c>
+      <c r="K22" s="2">
+        <v>2</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2</v>
+      </c>
+      <c r="M22" s="2">
+        <v>10</v>
+      </c>
+      <c r="N22" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>100</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I23" s="2">
         <v>5</v>
       </c>
-      <c r="H21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>100</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="M21" s="2">
-        <v>12</v>
-      </c>
-      <c r="N21" s="2">
-        <v>13</v>
-      </c>
-      <c r="O21" s="2">
-        <v>5</v>
-      </c>
-      <c r="P21" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>4</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I22" s="2">
-        <v>100</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="J23" s="2">
         <v>6</v>
       </c>
-      <c r="N22" s="2">
-        <v>7</v>
-      </c>
-      <c r="O22" s="2">
+      <c r="K23" s="2">
         <v>2</v>
       </c>
-      <c r="P22" s="2">
+      <c r="L23" s="2">
         <v>2</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="M23" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>3</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I23" s="2">
-        <v>100</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="M23" s="2">
-        <v>5</v>
-      </c>
       <c r="N23" s="2">
-        <v>6</v>
-      </c>
-      <c r="O23" s="2">
-        <v>2</v>
-      </c>
-      <c r="P23" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="J24" s="9"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B32" s="10"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F24" s="8"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B32" s="9"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B33" s="10"/>
+      <c r="B33" s="9"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B34" s="10"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B35" s="10"/>
+      <c r="B35" s="9"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B36" s="10"/>
+      <c r="B36" s="9"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B37" s="10"/>
+      <c r="B37" s="9"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B38" s="10"/>
+      <c r="B38" s="9"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B39" s="10"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B40" s="10"/>
+      <c r="B40" s="9"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B41" s="10"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B42" s="10"/>
+      <c r="B42" s="9"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B43" s="10"/>
+      <c r="B43" s="9"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B44" s="10"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B45" s="10"/>
+      <c r="B45" s="9"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B46" s="10"/>
+      <c r="B46" s="9"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B47" s="10"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B48" s="10"/>
+      <c r="B48" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6502,7 +6096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A267AB8-FF53-4BE1-95AB-C48FB74D6425}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -6523,219 +6117,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="B1" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>498</v>
+      <c r="B1" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>476</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>500</v>
+        <v>437</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="48.9" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="E4" s="11">
-        <v>1</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="A4" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
         <v>0</v>
       </c>
-      <c r="J4" s="9">
-        <v>1</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>502</v>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="48.9" x14ac:dyDescent="0.4">
-      <c r="A5" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9">
-        <v>1</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="A5" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
         <v>0</v>
       </c>
-      <c r="J5" s="9">
-        <v>1</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>504</v>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="48.9" x14ac:dyDescent="0.4">
-      <c r="A6" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="A6" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
         <v>0</v>
       </c>
-      <c r="J6" s="9">
-        <v>1</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>506</v>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
@@ -6752,8 +6346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6769,100 +6363,100 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -6877,7 +6471,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -6885,13 +6479,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2">
         <v>6</v>
@@ -6906,7 +6500,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -6914,13 +6508,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2">
         <v>999</v>
@@ -6935,7 +6529,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="I6" s="2">
         <v>2</v>
@@ -6953,7 +6547,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6975,205 +6569,205 @@
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="F4" s="2">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="N4" s="2">
         <v>0.1</v>
@@ -7193,43 +6787,43 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="F5" s="2">
         <v>6</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="N5" s="2">
         <v>0.1</v>
@@ -7249,43 +6843,43 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="F6" s="2">
         <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="N6" s="2">
         <v>0.1</v>
@@ -7305,43 +6899,43 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="F7" s="2">
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="N7" s="2">
         <v>0.1</v>
@@ -7361,43 +6955,43 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="F8" s="2">
         <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="N8" s="2">
         <v>0.1</v>
@@ -7417,43 +7011,43 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="F9" s="2">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="N9" s="2">
         <v>0.1</v>
@@ -7473,43 +7067,43 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="F10" s="2">
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2">
         <v>0.1</v>
@@ -7529,43 +7123,43 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="F11" s="2">
         <v>6</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="N11" s="2">
         <v>0.1</v>
@@ -7585,43 +7179,43 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="F12" s="2">
         <v>6</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="N12" s="2">
         <v>0.1</v>
@@ -7641,43 +7235,43 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="N13" s="2">
         <v>0.1</v>
@@ -7697,43 +7291,43 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="F14" s="2">
         <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N14" s="2">
         <v>0.1</v>
@@ -7753,43 +7347,43 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="F15" s="2">
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="N15" s="2">
         <v>0.1</v>
@@ -7818,13 +7412,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.07421875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.61328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.84375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.84375" bestFit="1" customWidth="1"/>
@@ -7834,620 +7427,620 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B1" s="4" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F8" t="s">
+        <v>406</v>
+      </c>
+      <c r="G8" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" t="s">
         <v>187</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E9" t="s">
         <v>188</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F9" t="s">
+        <v>409</v>
+      </c>
+      <c r="G9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
         <v>190</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E10" t="s">
         <v>191</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F10" t="s">
+        <v>406</v>
+      </c>
+      <c r="G10" t="s">
         <v>192</v>
       </c>
-      <c r="F4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E11" t="s">
         <v>194</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F11" t="s">
+        <v>409</v>
+      </c>
+      <c r="G11" t="s">
         <v>195</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" t="s">
         <v>196</v>
       </c>
-      <c r="F5" t="s">
-        <v>431</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F12" t="s">
+        <v>407</v>
+      </c>
+      <c r="G12" t="s">
         <v>198</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" t="s">
         <v>199</v>
       </c>
-      <c r="F6" t="s">
-        <v>429</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E13" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F13" t="s">
+        <v>406</v>
+      </c>
+      <c r="G13" t="s">
         <v>201</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" t="s">
         <v>202</v>
       </c>
-      <c r="F7" t="s">
-        <v>432</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E14" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F14" t="s">
+        <v>407</v>
+      </c>
+      <c r="G14" t="s">
         <v>204</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" t="s">
         <v>205</v>
       </c>
-      <c r="F8" t="s">
-        <v>428</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E15" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F15" t="s">
+        <v>407</v>
+      </c>
+      <c r="G15" t="s">
         <v>207</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" t="s">
         <v>208</v>
       </c>
-      <c r="F9" t="s">
-        <v>431</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E16" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
         <v>210</v>
       </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" t="s">
         <v>211</v>
       </c>
-      <c r="F10" t="s">
-        <v>428</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
         <v>213</v>
       </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" t="s">
         <v>214</v>
       </c>
-      <c r="F11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E18" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F18" t="s">
+        <v>408</v>
+      </c>
+      <c r="G18" t="s">
         <v>216</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" t="s">
         <v>217</v>
       </c>
-      <c r="F12" t="s">
-        <v>429</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E19" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" t="s">
         <v>219</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
         <v>220</v>
       </c>
-      <c r="F13" t="s">
-        <v>428</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E20" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F20" t="s">
+        <v>407</v>
+      </c>
+      <c r="G20" t="s">
         <v>222</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" t="s">
         <v>223</v>
       </c>
-      <c r="F14" t="s">
-        <v>429</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E21" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F21" t="s">
+        <v>407</v>
+      </c>
+      <c r="G21" t="s">
         <v>225</v>
       </c>
-      <c r="E15" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" t="s">
         <v>226</v>
       </c>
-      <c r="F15" t="s">
-        <v>429</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E22" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" t="s">
         <v>228</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" t="s">
         <v>229</v>
       </c>
-      <c r="F16" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="E23" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F23" t="s">
+        <v>408</v>
+      </c>
+      <c r="G23" t="s">
         <v>231</v>
       </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" t="s">
         <v>232</v>
       </c>
-      <c r="F17" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E24" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F24" t="s">
+        <v>407</v>
+      </c>
+      <c r="G24" t="s">
         <v>234</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" t="s">
         <v>235</v>
       </c>
-      <c r="F18" t="s">
-        <v>430</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E25" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F25" t="s">
+        <v>407</v>
+      </c>
+      <c r="G25" t="s">
         <v>237</v>
       </c>
-      <c r="E19" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" t="s">
         <v>238</v>
       </c>
-      <c r="F19" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E26" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="F26" t="s">
+        <v>407</v>
+      </c>
+      <c r="G26" t="s">
         <v>240</v>
       </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" t="s">
         <v>241</v>
       </c>
-      <c r="F20" t="s">
-        <v>429</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E27" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F27" t="s">
+        <v>408</v>
+      </c>
+      <c r="G27" t="s">
         <v>243</v>
-      </c>
-      <c r="E21" t="s">
-        <v>244</v>
-      </c>
-      <c r="F21" t="s">
-        <v>429</v>
-      </c>
-      <c r="G21" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D22" t="s">
-        <v>246</v>
-      </c>
-      <c r="E22" t="s">
-        <v>247</v>
-      </c>
-      <c r="F22" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D23" t="s">
-        <v>249</v>
-      </c>
-      <c r="E23" t="s">
-        <v>250</v>
-      </c>
-      <c r="F23" t="s">
-        <v>430</v>
-      </c>
-      <c r="G23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>177</v>
-      </c>
-      <c r="C24" t="s">
-        <v>190</v>
-      </c>
-      <c r="D24" t="s">
-        <v>252</v>
-      </c>
-      <c r="E24" t="s">
-        <v>253</v>
-      </c>
-      <c r="F24" t="s">
-        <v>429</v>
-      </c>
-      <c r="G24" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="2">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" t="s">
-        <v>255</v>
-      </c>
-      <c r="E25" t="s">
-        <v>256</v>
-      </c>
-      <c r="F25" t="s">
-        <v>429</v>
-      </c>
-      <c r="G25" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="2">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D26" t="s">
-        <v>258</v>
-      </c>
-      <c r="E26" t="s">
-        <v>259</v>
-      </c>
-      <c r="F26" t="s">
-        <v>429</v>
-      </c>
-      <c r="G26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C27" t="s">
-        <v>194</v>
-      </c>
-      <c r="D27" t="s">
-        <v>261</v>
-      </c>
-      <c r="E27" t="s">
-        <v>262</v>
-      </c>
-      <c r="F27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G27" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -8458,328 +8051,442 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="33.61328125" customWidth="1"/>
-    <col min="2" max="2" width="42.3828125" customWidth="1"/>
+    <col min="2" max="2" width="33.61328125" customWidth="1"/>
+    <col min="3" max="3" width="42.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7F66D4-B419-4905-A6A9-0FF17824B7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EAB533-2879-4390-A233-B2CBADA120AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="111" yWindow="3077" windowWidth="20735" windowHeight="13303" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="111" yWindow="3077" windowWidth="20735" windowHeight="13303" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
     <sheet name="Balance" sheetId="2" r:id="rId2"/>
     <sheet name="Nodes" sheetId="3" r:id="rId3"/>
     <sheet name="Anomalies" sheetId="4" r:id="rId4"/>
-    <sheet name="NewsDefs" sheetId="10" r:id="rId5"/>
-    <sheet name="TaskDefs" sheetId="5" r:id="rId6"/>
-    <sheet name="Events" sheetId="6" r:id="rId7"/>
-    <sheet name="EventOptions" sheetId="7" r:id="rId8"/>
-    <sheet name="Effects" sheetId="8" r:id="rId9"/>
-    <sheet name="EffectOps" sheetId="9" r:id="rId10"/>
+    <sheet name="AnomaliesGen" sheetId="11" r:id="rId5"/>
+    <sheet name="NewsDefs" sheetId="10" r:id="rId6"/>
+    <sheet name="TaskDefs" sheetId="5" r:id="rId7"/>
+    <sheet name="Events" sheetId="6" r:id="rId8"/>
+    <sheet name="EventOptions" sheetId="7" r:id="rId9"/>
+    <sheet name="Effects" sheetId="8" r:id="rId10"/>
+    <sheet name="EffectOps" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="477">
   <si>
     <t>schemaVersion</t>
   </si>
@@ -93,18 +94,9 @@
     <t>name</t>
   </si>
   <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>startLocalPanic</t>
-  </si>
-  <si>
     <t>startPopulation</t>
   </si>
   <si>
-    <t>startAnomalyIds</t>
-  </si>
-  <si>
     <t>N1</t>
   </si>
   <si>
@@ -120,18 +112,12 @@
     <t>节点2</t>
   </si>
   <si>
-    <t>rural</t>
-  </si>
-  <si>
     <t>N3</t>
   </si>
   <si>
     <t>节点3</t>
   </si>
   <si>
-    <t>urban</t>
-  </si>
-  <si>
     <t>AN_002</t>
   </si>
   <si>
@@ -180,9 +166,6 @@
     <t>失声合唱</t>
   </si>
   <si>
-    <t>Keter</t>
-  </si>
-  <si>
     <t>AN_003</t>
   </si>
   <si>
@@ -300,21 +283,12 @@
     <t>baseDays</t>
   </si>
   <si>
-    <t>progressPerDay</t>
-  </si>
-  <si>
     <t>agentSlotsMin</t>
   </si>
   <si>
     <t>agentSlotsMax</t>
   </si>
   <si>
-    <t>yieldKey</t>
-  </si>
-  <si>
-    <t>yieldPerDay</t>
-  </si>
-  <si>
     <t>TASK_INVESTIGATE</t>
   </si>
   <si>
@@ -346,9 +320,6 @@
   </si>
   <si>
     <t>管理</t>
-  </si>
-  <si>
-    <t>NegEntropy</t>
   </si>
   <si>
     <t>eventDefId</t>
@@ -1455,36 +1426,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>urban,lab</t>
-  </si>
-  <si>
-    <t>coastal,port</t>
-  </si>
-  <si>
-    <t>mountain,temple</t>
-  </si>
-  <si>
-    <t>industrial,mine</t>
-  </si>
-  <si>
-    <t>academic,lab</t>
-  </si>
-  <si>
-    <t>AN_007,AN_011</t>
-  </si>
-  <si>
-    <t>AN_013,AN_019</t>
-  </si>
-  <si>
-    <t>AN_018,AN_020</t>
-  </si>
-  <si>
-    <t>AN_004,AN_010</t>
-  </si>
-  <si>
-    <t>AN_008,AN_014</t>
-  </si>
-  <si>
     <t>OriginTask,Node</t>
   </si>
   <si>
@@ -1511,10 +1452,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>rural,forest</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>requiresAnomalyId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1608,21 +1545,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>invReq</t>
-  </si>
-  <si>
-    <t>conReq</t>
-  </si>
-  <si>
-    <t>manReq</t>
-  </si>
-  <si>
-    <t>hpDmg</t>
-  </si>
-  <si>
-    <t>sanDmg</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -1672,9 +1594,6 @@
   </si>
   <si>
     <t>3,6,5,0</t>
-  </si>
-  <si>
-    <t>12,11,0,0</t>
   </si>
   <si>
     <t>9,12,0,11</t>
@@ -2098,6 +2017,77 @@
   </si>
   <si>
     <t>manNegentropy PerDay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlocked</t>
+  </si>
+  <si>
+    <t>12,11,0,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Euclid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thaumiel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apollyon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnomaliesGenNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>invReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>invhpDmg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>invsanDmg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>conReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>conhpDmg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>consanDmg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>manReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>manhpDmg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mansanDmg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2462,18 +2452,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -2494,6 +2484,452 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="33.61328125" customWidth="1"/>
+    <col min="3" max="3" width="42.3828125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I83"/>
   <sheetViews>
@@ -2511,25 +2947,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -2537,60 +2973,60 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -2598,16 +3034,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F4" s="2">
         <v>-0.2</v>
@@ -2615,7 +3051,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -2623,16 +3059,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -2640,7 +3076,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -2648,16 +3084,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F6" s="2">
         <v>-2</v>
@@ -2665,7 +3101,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -2673,16 +3109,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F7" s="2">
         <v>0.15</v>
@@ -2690,7 +3126,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
@@ -2698,16 +3134,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -2715,7 +3151,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -2723,16 +3159,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -2740,7 +3176,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -2748,16 +3184,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F10" s="2">
         <v>-1</v>
@@ -2765,7 +3201,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -2773,16 +3209,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F11" s="2">
         <v>-80</v>
@@ -2790,7 +3226,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -2798,16 +3234,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F12" s="2">
         <v>-1</v>
@@ -2815,7 +3251,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -2823,16 +3259,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F13" s="2">
         <v>0.1</v>
@@ -2840,7 +3276,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
@@ -2848,16 +3284,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F14" s="2">
         <v>-0.15</v>
@@ -2865,7 +3301,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
@@ -2873,16 +3309,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -2890,7 +3326,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -2898,16 +3334,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F16" s="2">
         <v>-1</v>
@@ -2915,7 +3351,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -2923,16 +3359,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F17" s="2">
         <v>0.1</v>
@@ -2940,7 +3376,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -2948,16 +3384,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -2965,7 +3401,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -2973,16 +3409,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -2990,7 +3426,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
@@ -2998,16 +3434,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F20" s="2">
         <v>-0.05</v>
@@ -3015,7 +3451,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
@@ -3023,16 +3459,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F21" s="2">
         <v>2</v>
@@ -3040,7 +3476,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
@@ -3048,16 +3484,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F22" s="2">
         <v>-0.1</v>
@@ -3065,7 +3501,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
@@ -3073,16 +3509,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -3090,7 +3526,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -3098,16 +3534,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -3115,7 +3551,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
@@ -3123,16 +3559,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F25" s="2">
         <v>-0.05</v>
@@ -3140,7 +3576,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -3148,16 +3584,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F26" s="2">
         <v>-1</v>
@@ -3165,7 +3601,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -3173,16 +3609,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -3190,7 +3626,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
@@ -3198,16 +3634,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F28" s="2">
         <v>0.15</v>
@@ -3215,7 +3651,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -3223,16 +3659,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
@@ -3240,7 +3676,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
@@ -3248,16 +3684,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
@@ -3265,7 +3701,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -3273,16 +3709,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -3290,7 +3726,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
@@ -3298,16 +3734,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F32" s="2">
         <v>-50</v>
@@ -3315,7 +3751,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
@@ -3323,16 +3759,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F33" s="2">
         <v>-1</v>
@@ -3340,7 +3776,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
@@ -3348,16 +3784,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F34" s="2">
         <v>0.05</v>
@@ -3365,7 +3801,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
@@ -3373,16 +3809,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
@@ -3390,7 +3826,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
@@ -3398,16 +3834,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
@@ -3415,7 +3851,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
@@ -3423,16 +3859,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
@@ -3440,7 +3876,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
@@ -3448,16 +3884,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F38" s="2">
         <v>-0.05</v>
@@ -3465,7 +3901,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
@@ -3473,16 +3909,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F39" s="2">
         <v>-60</v>
@@ -3490,7 +3926,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
@@ -3498,16 +3934,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F40" s="2">
         <v>-1</v>
@@ -3515,7 +3951,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
@@ -3523,16 +3959,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F41" s="2">
         <v>-10</v>
@@ -3540,7 +3976,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
@@ -3548,16 +3984,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -3565,7 +4001,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
@@ -3573,16 +4009,16 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
@@ -3590,7 +4026,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
@@ -3598,16 +4034,16 @@
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F44" s="2">
         <v>-20</v>
@@ -3615,7 +4051,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
@@ -3623,16 +4059,16 @@
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F45" s="2">
         <v>-30</v>
@@ -3640,7 +4076,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
@@ -3648,16 +4084,16 @@
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F46" s="2">
         <v>-1</v>
@@ -3665,7 +4101,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
@@ -3673,16 +4109,16 @@
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
@@ -3690,7 +4126,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
@@ -3698,16 +4134,16 @@
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
@@ -3715,7 +4151,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
@@ -3723,16 +4159,16 @@
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F49" s="2">
         <v>-1</v>
@@ -3740,7 +4176,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
@@ -3748,16 +4184,16 @@
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F50" s="2">
         <v>2</v>
@@ -3765,7 +4201,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
@@ -3773,16 +4209,16 @@
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F51" s="2">
         <v>-50</v>
@@ -3790,7 +4226,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
@@ -3798,16 +4234,16 @@
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F52" s="2">
         <v>-1</v>
@@ -3815,7 +4251,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
@@ -3823,16 +4259,16 @@
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F53" s="2">
         <v>-1</v>
@@ -3840,7 +4276,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
@@ -3848,16 +4284,16 @@
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F54" s="2">
         <v>-20</v>
@@ -3865,7 +4301,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
@@ -3873,16 +4309,16 @@
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F55" s="2">
         <v>2</v>
@@ -3890,7 +4326,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
@@ -3898,16 +4334,16 @@
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F56" s="2">
         <v>1</v>
@@ -3915,7 +4351,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
@@ -3923,16 +4359,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F57" s="2">
         <v>2</v>
@@ -3940,7 +4376,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.4">
@@ -3948,16 +4384,16 @@
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F58" s="2">
         <v>1</v>
@@ -3965,7 +4401,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
@@ -3973,16 +4409,16 @@
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F59" s="2">
         <v>2</v>
@@ -3990,7 +4426,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
@@ -3998,16 +4434,16 @@
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F60" s="2">
         <v>1</v>
@@ -4015,7 +4451,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
@@ -4023,16 +4459,16 @@
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F61" s="2">
         <v>1</v>
@@ -4040,7 +4476,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
@@ -4048,16 +4484,16 @@
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F62" s="2">
         <v>2</v>
@@ -4065,7 +4501,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
@@ -4073,16 +4509,16 @@
         <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F63" s="2">
         <v>1</v>
@@ -4090,7 +4526,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
@@ -4098,16 +4534,16 @@
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F64" s="2">
         <v>-0.1</v>
@@ -4115,7 +4551,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
@@ -4123,16 +4559,16 @@
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F65" s="2">
         <v>1</v>
@@ -4140,7 +4576,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
@@ -4148,16 +4584,16 @@
         <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F66" s="2">
         <v>-80</v>
@@ -4165,7 +4601,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
@@ -4173,16 +4609,16 @@
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F67" s="2">
         <v>-1</v>
@@ -4190,7 +4626,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
@@ -4198,16 +4634,16 @@
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F68" s="2">
         <v>1</v>
@@ -4215,7 +4651,7 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
@@ -4223,16 +4659,16 @@
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F69" s="2">
         <v>1</v>
@@ -4240,7 +4676,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
@@ -4248,16 +4684,16 @@
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F70" s="2">
         <v>2</v>
@@ -4265,7 +4701,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
@@ -4273,16 +4709,16 @@
         <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
@@ -4290,7 +4726,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
@@ -4298,16 +4734,16 @@
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F72" s="2">
         <v>-70</v>
@@ -4315,7 +4751,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
@@ -4323,16 +4759,16 @@
         <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F73" s="2">
         <v>-1</v>
@@ -4340,7 +4776,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.4">
@@ -4348,16 +4784,16 @@
         <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F74" s="2">
         <v>1</v>
@@ -4365,7 +4801,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
@@ -4373,16 +4809,16 @@
         <v>72</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F75" s="2">
         <v>-0.1</v>
@@ -4390,7 +4826,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
@@ -4398,16 +4834,16 @@
         <v>73</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
@@ -4415,7 +4851,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
@@ -4423,16 +4859,16 @@
         <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F77" s="2">
         <v>1</v>
@@ -4440,7 +4876,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
@@ -4448,16 +4884,16 @@
         <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F78" s="2">
         <v>-0.05</v>
@@ -4465,7 +4901,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
@@ -4473,16 +4909,16 @@
         <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F79" s="2">
         <v>-40</v>
@@ -4490,7 +4926,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
@@ -4498,16 +4934,16 @@
         <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F80" s="2">
         <v>-1</v>
@@ -4515,7 +4951,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.4">
@@ -4523,16 +4959,16 @@
         <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F81" s="2">
         <v>-60</v>
@@ -4540,7 +4976,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.4">
@@ -4548,16 +4984,16 @@
         <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F82" s="2">
         <v>1</v>
@@ -4565,7 +5001,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
@@ -4573,16 +5009,16 @@
         <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F83" s="2">
         <v>1</v>
@@ -4590,7 +5026,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -4625,34 +5061,34 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -4679,57 +5115,57 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B6" s="2">
         <v>10000</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32.6" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C7" s="2">
         <v>0.1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="32.6" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B8" s="2">
         <v>100</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="32.6" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B9" s="2">
         <v>100</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -4740,51 +5176,51 @@
         <v>100</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B12" s="2">
         <v>20</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="32.6" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C13" s="2">
         <v>0.5</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -4796,41 +5232,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="9.23046875" style="2"/>
-    <col min="3" max="3" width="21.3046875" style="2" customWidth="1"/>
-    <col min="4" max="6" width="16.69140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.23046875" style="2"/>
+    <col min="3" max="3" width="16.69140625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -4841,204 +5267,148 @@
         <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>397</v>
+      <c r="C8" s="2">
+        <v>2000</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>398</v>
+        <v>30</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3000</v>
       </c>
       <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3000</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>399</v>
+        <v>32</v>
+      </c>
+      <c r="C10" s="2">
+        <v>500</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="2">
-        <v>500</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>413</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="2">
+        <v>100</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>100</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>404</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5046,995 +5416,1327 @@
     <col min="1" max="1" width="16.3828125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.921875" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.61328125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="16.23046875" style="2" customWidth="1"/>
-    <col min="6" max="12" width="9.23046875" style="2"/>
-    <col min="13" max="13" width="13.4609375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.84375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.23046875" style="2"/>
+    <col min="4" max="4" width="12.69140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.15234375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.765625" style="2" customWidth="1"/>
+    <col min="7" max="17" width="9.23046875" style="2"/>
+    <col min="18" max="18" width="13.4609375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="14.84375" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:19" s="7" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>438</v>
+        <v>78</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>383</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="Q2" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="R2" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="S2" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>444</v>
+        <v>382</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>382</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+        <v>417</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>461</v>
       </c>
       <c r="D4" s="2">
         <v>0.1</v>
       </c>
       <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
         <v>100</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="I4" s="2">
-        <v>4</v>
+        <v>420</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="J4" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2">
         <v>2</v>
       </c>
-      <c r="L4" s="2">
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
         <v>2</v>
       </c>
-      <c r="M4" s="2">
+      <c r="Q4" s="2">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2">
         <v>10</v>
       </c>
-      <c r="N4" s="2">
+      <c r="S4" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>462</v>
       </c>
       <c r="D5" s="2">
         <v>0.1</v>
       </c>
       <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
         <v>100</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>448</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="I5" s="2">
-        <v>9</v>
+        <v>423</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="J5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2</v>
+      </c>
+      <c r="P5" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>5</v>
+      </c>
+      <c r="R5" s="2">
+        <v>30</v>
+      </c>
+      <c r="S5" s="2">
         <v>10</v>
       </c>
-      <c r="K5" s="2">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2">
-        <v>5</v>
-      </c>
-      <c r="M5" s="2">
-        <v>30</v>
-      </c>
-      <c r="N5" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>463</v>
       </c>
       <c r="D6" s="2">
         <v>0.1</v>
       </c>
       <c r="E6" s="2">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
         <v>100</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="I6" s="2">
+        <v>420</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="J6" s="2">
         <v>4</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2">
+        <v>8</v>
+      </c>
+      <c r="M6" s="2">
         <v>5</v>
       </c>
-      <c r="K6" s="2">
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>3</v>
+      </c>
+      <c r="P6" s="2">
         <v>2</v>
       </c>
-      <c r="L6" s="2">
+      <c r="Q6" s="2">
         <v>2</v>
       </c>
-      <c r="M6" s="2">
+      <c r="R6" s="2">
         <v>10</v>
       </c>
-      <c r="N6" s="2">
+      <c r="S6" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>464</v>
       </c>
       <c r="D7" s="2">
         <v>0.1</v>
       </c>
       <c r="E7" s="2">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
         <v>100</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I7" s="2">
+        <v>426</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2">
         <v>5</v>
       </c>
-      <c r="J7" s="2">
-        <v>6</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
+        <v>12</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>5</v>
+      </c>
+      <c r="P7" s="2">
         <v>2</v>
       </c>
-      <c r="L7" s="2">
+      <c r="Q7" s="2">
         <v>2</v>
       </c>
-      <c r="M7" s="2">
+      <c r="R7" s="2">
         <v>10</v>
       </c>
-      <c r="N7" s="2">
+      <c r="S7" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>465</v>
       </c>
       <c r="D8" s="2">
         <v>0.1</v>
       </c>
       <c r="E8" s="2">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2">
         <v>100</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="I8" s="2">
-        <v>7</v>
+        <v>429</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="J8" s="2">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2">
+        <v>15</v>
+      </c>
+      <c r="M8" s="2">
+        <v>15</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
         <v>8</v>
       </c>
-      <c r="K8" s="2">
+      <c r="P8" s="2">
         <v>5</v>
       </c>
-      <c r="L8" s="2">
+      <c r="Q8" s="2">
         <v>5</v>
       </c>
-      <c r="M8" s="2">
+      <c r="R8" s="2">
         <v>30</v>
       </c>
-      <c r="N8" s="2">
+      <c r="S8" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>462</v>
       </c>
       <c r="D9" s="2">
         <v>0.1</v>
       </c>
       <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
         <v>100</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I9" s="2">
-        <v>5</v>
+        <v>426</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="J9" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K9" s="2">
         <v>2</v>
       </c>
       <c r="L9" s="2">
+        <v>5</v>
+      </c>
+      <c r="M9" s="2">
+        <v>6</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>6</v>
+      </c>
+      <c r="P9" s="2">
         <v>2</v>
       </c>
-      <c r="M9" s="2">
+      <c r="Q9" s="2">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2">
         <v>10</v>
       </c>
-      <c r="N9" s="2">
+      <c r="S9" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>463</v>
       </c>
       <c r="D10" s="2">
         <v>0.1</v>
       </c>
       <c r="E10" s="2">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2">
         <v>100</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>448</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="I10" s="2">
+        <v>423</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="J10" s="2">
+        <v>4</v>
+      </c>
+      <c r="K10" s="2">
+        <v>4</v>
+      </c>
+      <c r="L10" s="2">
         <v>9</v>
       </c>
-      <c r="J10" s="2">
+      <c r="M10" s="2">
         <v>10</v>
       </c>
-      <c r="K10" s="2">
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>10</v>
+      </c>
+      <c r="P10" s="2">
         <v>5</v>
       </c>
-      <c r="L10" s="2">
+      <c r="Q10" s="2">
         <v>5</v>
       </c>
-      <c r="M10" s="2">
+      <c r="R10" s="2">
         <v>30</v>
       </c>
-      <c r="N10" s="2">
+      <c r="S10" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2">
         <v>0.1</v>
       </c>
       <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
         <v>100</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I11" s="2">
-        <v>5</v>
+        <v>426</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="J11" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2">
         <v>2</v>
       </c>
       <c r="L11" s="2">
+        <v>5</v>
+      </c>
+      <c r="M11" s="2">
+        <v>6</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>6</v>
+      </c>
+      <c r="P11" s="2">
         <v>2</v>
       </c>
-      <c r="M11" s="2">
+      <c r="Q11" s="2">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2">
         <v>10</v>
       </c>
-      <c r="N11" s="2">
+      <c r="S11" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>463</v>
       </c>
       <c r="D12" s="2">
         <v>0.1</v>
       </c>
       <c r="E12" s="2">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2">
         <v>100</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>457</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="I12" s="2">
-        <v>3</v>
+        <v>432</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>433</v>
       </c>
       <c r="J12" s="2">
         <v>4</v>
       </c>
       <c r="K12" s="2">
+        <v>4</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3</v>
+      </c>
+      <c r="M12" s="2">
+        <v>4</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>4</v>
+      </c>
+      <c r="P12" s="2">
         <v>2</v>
       </c>
-      <c r="L12" s="2">
+      <c r="Q12" s="2">
         <v>2</v>
       </c>
-      <c r="M12" s="2">
+      <c r="R12" s="2">
         <v>10</v>
       </c>
-      <c r="N12" s="2">
+      <c r="S12" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2">
         <v>0.1</v>
       </c>
       <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
         <v>100</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="I13" s="2">
-        <v>4</v>
+        <v>420</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="J13" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K13" s="2">
         <v>2</v>
       </c>
       <c r="L13" s="2">
+        <v>4</v>
+      </c>
+      <c r="M13" s="2">
+        <v>5</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>5</v>
+      </c>
+      <c r="P13" s="2">
         <v>2</v>
       </c>
-      <c r="M13" s="2">
+      <c r="Q13" s="2">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2">
         <v>10</v>
       </c>
-      <c r="N13" s="2">
+      <c r="S13" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2">
         <v>0.1</v>
       </c>
       <c r="E14" s="2">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2">
         <v>100</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>457</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="I14" s="2">
-        <v>3</v>
+        <v>432</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>433</v>
       </c>
       <c r="J14" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K14" s="2">
         <v>2</v>
       </c>
       <c r="L14" s="2">
+        <v>3</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>4</v>
+      </c>
+      <c r="P14" s="2">
         <v>2</v>
       </c>
-      <c r="M14" s="2">
+      <c r="Q14" s="2">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2">
         <v>10</v>
       </c>
-      <c r="N14" s="2">
+      <c r="S14" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>463</v>
       </c>
       <c r="D15" s="2">
         <v>0.1</v>
       </c>
       <c r="E15" s="2">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2">
         <v>100</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>448</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="I15" s="2">
+        <v>423</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="J15" s="2">
+        <v>4</v>
+      </c>
+      <c r="K15" s="2">
+        <v>4</v>
+      </c>
+      <c r="L15" s="2">
         <v>9</v>
       </c>
-      <c r="J15" s="2">
+      <c r="M15" s="2">
         <v>10</v>
       </c>
-      <c r="K15" s="2">
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>10</v>
+      </c>
+      <c r="P15" s="2">
         <v>5</v>
       </c>
-      <c r="L15" s="2">
+      <c r="Q15" s="2">
         <v>5</v>
       </c>
-      <c r="M15" s="2">
+      <c r="R15" s="2">
         <v>30</v>
       </c>
-      <c r="N15" s="2">
+      <c r="S15" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2">
         <v>0.1</v>
       </c>
       <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
         <v>100</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="I16" s="2">
-        <v>4</v>
+        <v>420</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="J16" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K16" s="2">
         <v>2</v>
       </c>
       <c r="L16" s="2">
+        <v>4</v>
+      </c>
+      <c r="M16" s="2">
+        <v>5</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>5</v>
+      </c>
+      <c r="P16" s="2">
         <v>2</v>
       </c>
-      <c r="M16" s="2">
+      <c r="Q16" s="2">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2">
         <v>10</v>
       </c>
-      <c r="N16" s="2">
+      <c r="S16" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2">
         <v>0.1</v>
       </c>
       <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
         <v>100</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I17" s="2">
-        <v>5</v>
+        <v>426</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="J17" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K17" s="2">
         <v>2</v>
       </c>
       <c r="L17" s="2">
+        <v>5</v>
+      </c>
+      <c r="M17" s="2">
+        <v>6</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>6</v>
+      </c>
+      <c r="P17" s="2">
         <v>2</v>
       </c>
-      <c r="M17" s="2">
+      <c r="Q17" s="2">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2">
         <v>10</v>
       </c>
-      <c r="N17" s="2">
+      <c r="S17" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>463</v>
       </c>
       <c r="D18" s="2">
         <v>0.1</v>
       </c>
       <c r="E18" s="2">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2">
         <v>100</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>448</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="I18" s="2">
+        <v>423</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4</v>
+      </c>
+      <c r="K18" s="2">
+        <v>4</v>
+      </c>
+      <c r="L18" s="2">
         <v>9</v>
       </c>
-      <c r="J18" s="2">
+      <c r="M18" s="2">
         <v>10</v>
       </c>
-      <c r="K18" s="2">
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>10</v>
+      </c>
+      <c r="P18" s="2">
         <v>5</v>
       </c>
-      <c r="L18" s="2">
+      <c r="Q18" s="2">
         <v>5</v>
       </c>
-      <c r="M18" s="2">
+      <c r="R18" s="2">
         <v>30</v>
       </c>
-      <c r="N18" s="2">
+      <c r="S18" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>463</v>
       </c>
       <c r="D19" s="2">
         <v>0.1</v>
       </c>
       <c r="E19" s="2">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2">
         <v>100</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>448</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="I19" s="2">
+        <v>423</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="J19" s="2">
+        <v>4</v>
+      </c>
+      <c r="K19" s="2">
+        <v>4</v>
+      </c>
+      <c r="L19" s="2">
         <v>9</v>
       </c>
-      <c r="J19" s="2">
+      <c r="M19" s="2">
         <v>10</v>
       </c>
-      <c r="K19" s="2">
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>10</v>
+      </c>
+      <c r="P19" s="2">
         <v>5</v>
       </c>
-      <c r="L19" s="2">
+      <c r="Q19" s="2">
         <v>5</v>
       </c>
-      <c r="M19" s="2">
+      <c r="R19" s="2">
         <v>30</v>
       </c>
-      <c r="N19" s="2">
+      <c r="S19" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>464</v>
       </c>
       <c r="D20" s="2">
         <v>0.1</v>
       </c>
       <c r="E20" s="2">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2">
         <v>100</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>448</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="I20" s="2">
-        <v>9</v>
+        <v>423</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="J20" s="2">
         <v>10</v>
       </c>
       <c r="K20" s="2">
+        <v>10</v>
+      </c>
+      <c r="L20" s="2">
+        <v>9</v>
+      </c>
+      <c r="M20" s="2">
+        <v>10</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>10</v>
+      </c>
+      <c r="P20" s="2">
         <v>5</v>
       </c>
-      <c r="L20" s="2">
+      <c r="Q20" s="2">
         <v>5</v>
       </c>
-      <c r="M20" s="2">
+      <c r="R20" s="2">
         <v>30</v>
       </c>
-      <c r="N20" s="2">
+      <c r="S20" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>45</v>
+        <v>463</v>
       </c>
       <c r="D21" s="2">
         <v>0.1</v>
       </c>
       <c r="E21" s="2">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2">
         <v>100</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="I21" s="2">
+        <v>434</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="J21" s="2">
+        <v>4</v>
+      </c>
+      <c r="K21" s="2">
+        <v>4</v>
+      </c>
+      <c r="L21" s="2">
         <v>12</v>
       </c>
-      <c r="J21" s="2">
+      <c r="M21" s="2">
         <v>13</v>
       </c>
-      <c r="K21" s="2">
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>13</v>
+      </c>
+      <c r="P21" s="2">
         <v>5</v>
       </c>
-      <c r="L21" s="2">
+      <c r="Q21" s="2">
         <v>5</v>
       </c>
-      <c r="M21" s="2">
+      <c r="R21" s="2">
         <v>30</v>
       </c>
-      <c r="N21" s="2">
+      <c r="S21" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="D22" s="2">
         <v>0.1</v>
       </c>
       <c r="E22" s="2">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2">
         <v>100</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="I22" s="2">
-        <v>6</v>
+        <v>437</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>438</v>
       </c>
       <c r="J22" s="2">
+        <v>10</v>
+      </c>
+      <c r="K22" s="2">
+        <v>10</v>
+      </c>
+      <c r="L22" s="2">
+        <v>5</v>
+      </c>
+      <c r="M22" s="2">
+        <v>12</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
         <v>7</v>
       </c>
-      <c r="K22" s="2">
+      <c r="P22" s="2">
         <v>2</v>
       </c>
-      <c r="L22" s="2">
+      <c r="Q22" s="2">
         <v>2</v>
       </c>
-      <c r="M22" s="2">
+      <c r="R22" s="2">
         <v>10</v>
       </c>
-      <c r="N22" s="2">
+      <c r="S22" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D23" s="2">
         <v>0.1</v>
       </c>
       <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2">
         <v>100</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="G23" s="2" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I23" s="2">
-        <v>5</v>
+        <v>426</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="J23" s="2">
+        <v>30</v>
+      </c>
+      <c r="K23" s="2">
+        <v>30</v>
+      </c>
+      <c r="L23" s="2">
+        <v>15</v>
+      </c>
+      <c r="M23" s="2">
+        <v>15</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
         <v>6</v>
       </c>
-      <c r="K23" s="2">
+      <c r="P23" s="2">
         <v>2</v>
       </c>
-      <c r="L23" s="2">
+      <c r="Q23" s="2">
         <v>2</v>
       </c>
-      <c r="M23" s="2">
+      <c r="R23" s="2">
         <v>10</v>
       </c>
-      <c r="N23" s="2">
+      <c r="S23" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="F24" s="8"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="G24" s="8"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B31" s="9"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B32" s="9"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
@@ -6093,10 +6795,110 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7E7546-4639-4A5A-8AF8-63CD370339B0}">
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="9.23046875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A267AB8-FF53-4BE1-95AB-C48FB74D6425}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -6118,118 +6920,118 @@
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B1" s="11" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="48.9" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
@@ -6250,24 +7052,24 @@
         <v>1</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="48.9" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
@@ -6288,24 +7090,24 @@
         <v>1</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="48.9" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -6326,214 +7128,14 @@
         <v>1</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E9" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="19.15234375" customWidth="1"/>
-    <col min="2" max="2" width="17.765625" customWidth="1"/>
-    <col min="5" max="5" width="14.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.23046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.4609375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.84375" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="2">
-        <v>999</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6543,10 +7145,149 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.15234375" customWidth="1"/>
+    <col min="2" max="2" width="17.765625" customWidth="1"/>
+    <col min="4" max="4" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.84375" customWidth="1"/>
+    <col min="7" max="7" width="13.23046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -6569,196 +7310,196 @@
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="F4" s="2">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -6767,7 +7508,7 @@
         <v>9</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="N4" s="2">
         <v>0.1</v>
@@ -6787,43 +7528,43 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="F5" s="2">
         <v>6</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="N5" s="2">
         <v>0.1</v>
@@ -6843,34 +7584,34 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="F6" s="2">
         <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -6879,7 +7620,7 @@
         <v>9</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="N6" s="2">
         <v>0.1</v>
@@ -6899,34 +7640,34 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="F7" s="2">
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -6935,7 +7676,7 @@
         <v>9</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="N7" s="2">
         <v>0.1</v>
@@ -6955,43 +7696,43 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="F8" s="2">
         <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="N8" s="2">
         <v>0.1</v>
@@ -7011,34 +7752,34 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="F9" s="2">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -7047,7 +7788,7 @@
         <v>9</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="N9" s="2">
         <v>0.1</v>
@@ -7067,43 +7808,43 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="F10" s="2">
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="N10" s="2">
         <v>0.1</v>
@@ -7123,34 +7864,34 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="F11" s="2">
         <v>6</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -7159,7 +7900,7 @@
         <v>9</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="N11" s="2">
         <v>0.1</v>
@@ -7179,34 +7920,34 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="F12" s="2">
         <v>6</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -7215,7 +7956,7 @@
         <v>9</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="N12" s="2">
         <v>0.1</v>
@@ -7235,34 +7976,34 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -7271,7 +8012,7 @@
         <v>9</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="N13" s="2">
         <v>0.1</v>
@@ -7291,34 +8032,34 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="F14" s="2">
         <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -7327,7 +8068,7 @@
         <v>9</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N14" s="2">
         <v>0.1</v>
@@ -7347,43 +8088,43 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="F15" s="2">
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="N15" s="2">
         <v>0.1</v>
@@ -7408,12 +8149,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7427,68 +8168,68 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B1" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -7496,22 +8237,22 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" t="s">
         <v>111</v>
       </c>
-      <c r="C4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" t="s">
-        <v>121</v>
-      </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -7519,22 +8260,22 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="G5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -7542,22 +8283,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" t="s">
+        <v>387</v>
+      </c>
+      <c r="G6" t="s">
         <v>170</v>
-      </c>
-      <c r="D6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" t="s">
-        <v>407</v>
-      </c>
-      <c r="G6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -7565,22 +8306,22 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F7" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -7588,22 +8329,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F8" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="G8" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -7611,22 +8352,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F9" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="G9" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -7634,22 +8375,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E10" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F10" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -7657,22 +8398,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E11" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F11" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="G11" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -7680,22 +8421,22 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F12" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="G12" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -7703,22 +8444,22 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F13" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="G13" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -7726,22 +8467,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F14" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="G14" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -7749,22 +8490,22 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F15" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="G15" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -7772,22 +8513,22 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E16" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -7795,22 +8536,22 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -7818,22 +8559,22 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E18" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F18" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="G18" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -7841,22 +8582,22 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D19" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E19" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G19" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -7864,22 +8605,22 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E20" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F20" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="G20" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -7887,22 +8628,22 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D21" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E21" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F21" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="G21" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -7910,22 +8651,22 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E22" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -7933,22 +8674,22 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D23" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E23" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F23" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="G23" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -7956,22 +8697,22 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E24" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F24" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="G24" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -7979,22 +8720,22 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E25" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F25" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="G25" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -8002,22 +8743,22 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D26" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E26" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F26" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="G26" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -8025,468 +8766,22 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D27" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E27" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F27" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="G27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="33.61328125" customWidth="1"/>
-    <col min="3" max="3" width="42.3828125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B1" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>392</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39">
-        <v>36</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EAB533-2879-4390-A233-B2CBADA120AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D754A5BB-E3D7-4855-BC3C-76F0A669DF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="111" yWindow="3077" windowWidth="20735" windowHeight="13303" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="478">
   <si>
     <t>schemaVersion</t>
   </si>
@@ -2088,6 +2088,10 @@
   </si>
   <si>
     <t>mansanDmg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actPeopleKill</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5405,10 +5409,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5418,15 +5422,15 @@
     <col min="3" max="3" width="13.61328125" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.69140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.15234375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.765625" style="2" customWidth="1"/>
-    <col min="7" max="17" width="9.23046875" style="2"/>
-    <col min="18" max="18" width="13.4609375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="14.84375" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.23046875" style="2"/>
+    <col min="6" max="7" width="11.765625" style="2" customWidth="1"/>
+    <col min="8" max="18" width="9.23046875" style="2"/>
+    <col min="19" max="19" width="13.4609375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="14.84375" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:19" s="7" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:20" s="7" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
@@ -5445,47 +5449,50 @@
       <c r="F2" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>373</v>
       </c>
@@ -5504,8 +5511,8 @@
       <c r="F3" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>418</v>
+      <c r="G3" s="7" t="s">
+        <v>382</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>418</v>
@@ -5514,7 +5521,7 @@
         <v>418</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>417</v>
@@ -5543,8 +5550,11 @@
       <c r="S3" s="3" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T3" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -5563,47 +5573,50 @@
       <c r="F4" s="2">
         <v>100</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>0</v>
       </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
       <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
         <v>3</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>2</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>0</v>
       </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
       <c r="P4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>2</v>
       </c>
       <c r="R4" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S4" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -5622,17 +5635,17 @@
       <c r="F5" s="2">
         <v>100</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2</v>
       </c>
       <c r="K5" s="2">
         <v>2</v>
@@ -5641,28 +5654,31 @@
         <v>2</v>
       </c>
       <c r="M5" s="2">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2">
         <v>5</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>0</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>2</v>
-      </c>
-      <c r="P5" s="2">
-        <v>5</v>
       </c>
       <c r="Q5" s="2">
         <v>5</v>
       </c>
       <c r="R5" s="2">
+        <v>5</v>
+      </c>
+      <c r="S5" s="2">
         <v>30</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -5681,47 +5697,50 @@
       <c r="F6" s="2">
         <v>100</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="2">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="J6" s="2">
-        <v>4</v>
       </c>
       <c r="K6" s="2">
         <v>4</v>
       </c>
       <c r="L6" s="2">
+        <v>4</v>
+      </c>
+      <c r="M6" s="2">
         <v>8</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>5</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>0</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <v>3</v>
-      </c>
-      <c r="P6" s="2">
-        <v>2</v>
       </c>
       <c r="Q6" s="2">
         <v>2</v>
       </c>
       <c r="R6" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S6" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -5740,47 +5759,50 @@
       <c r="F7" s="2">
         <v>100</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="J7" s="2">
-        <v>10</v>
       </c>
       <c r="K7" s="2">
         <v>10</v>
       </c>
       <c r="L7" s="2">
+        <v>10</v>
+      </c>
+      <c r="M7" s="2">
         <v>5</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>12</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>0</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>5</v>
-      </c>
-      <c r="P7" s="2">
-        <v>2</v>
       </c>
       <c r="Q7" s="2">
         <v>2</v>
       </c>
       <c r="R7" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S7" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -5799,47 +5821,50 @@
       <c r="F8" s="2">
         <v>100</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="J8" s="2">
-        <v>30</v>
       </c>
       <c r="K8" s="2">
         <v>30</v>
       </c>
       <c r="L8" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M8" s="2">
         <v>15</v>
       </c>
       <c r="N8" s="2">
+        <v>15</v>
+      </c>
+      <c r="O8" s="2">
         <v>0</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>8</v>
-      </c>
-      <c r="P8" s="2">
-        <v>5</v>
       </c>
       <c r="Q8" s="2">
         <v>5</v>
       </c>
       <c r="R8" s="2">
+        <v>5</v>
+      </c>
+      <c r="S8" s="2">
         <v>30</v>
       </c>
-      <c r="S8" s="2">
+      <c r="T8" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -5858,47 +5883,50 @@
       <c r="F9" s="2">
         <v>100</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="2">
+        <v>100</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2</v>
       </c>
       <c r="K9" s="2">
         <v>2</v>
       </c>
       <c r="L9" s="2">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2">
         <v>5</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>6</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>0</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>6</v>
-      </c>
-      <c r="P9" s="2">
-        <v>2</v>
       </c>
       <c r="Q9" s="2">
         <v>2</v>
       </c>
       <c r="R9" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S9" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -5917,47 +5945,50 @@
       <c r="F10" s="2">
         <v>100</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="J10" s="2">
-        <v>4</v>
       </c>
       <c r="K10" s="2">
         <v>4</v>
       </c>
       <c r="L10" s="2">
+        <v>4</v>
+      </c>
+      <c r="M10" s="2">
         <v>9</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>10</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>0</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>10</v>
-      </c>
-      <c r="P10" s="2">
-        <v>5</v>
       </c>
       <c r="Q10" s="2">
         <v>5</v>
       </c>
       <c r="R10" s="2">
+        <v>5</v>
+      </c>
+      <c r="S10" s="2">
         <v>30</v>
       </c>
-      <c r="S10" s="2">
+      <c r="T10" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
@@ -5976,47 +6007,50 @@
       <c r="F11" s="2">
         <v>100</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="2">
+        <v>100</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>2</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>5</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>6</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>0</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <v>6</v>
-      </c>
-      <c r="P11" s="2">
-        <v>2</v>
       </c>
       <c r="Q11" s="2">
         <v>2</v>
       </c>
       <c r="R11" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S11" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
@@ -6035,47 +6069,50 @@
       <c r="F12" s="2">
         <v>100</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="2">
+        <v>100</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="J12" s="2">
-        <v>4</v>
       </c>
       <c r="K12" s="2">
         <v>4</v>
       </c>
       <c r="L12" s="2">
+        <v>4</v>
+      </c>
+      <c r="M12" s="2">
         <v>3</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>4</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>0</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <v>4</v>
-      </c>
-      <c r="P12" s="2">
-        <v>2</v>
       </c>
       <c r="Q12" s="2">
         <v>2</v>
       </c>
       <c r="R12" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S12" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
@@ -6094,47 +6131,50 @@
       <c r="F13" s="2">
         <v>100</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="2">
+        <v>100</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="J13" s="2">
-        <v>2</v>
       </c>
       <c r="K13" s="2">
         <v>2</v>
       </c>
       <c r="L13" s="2">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2">
         <v>4</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>5</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>0</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <v>5</v>
-      </c>
-      <c r="P13" s="2">
-        <v>2</v>
       </c>
       <c r="Q13" s="2">
         <v>2</v>
       </c>
       <c r="R13" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S13" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
@@ -6153,47 +6193,50 @@
       <c r="F14" s="2">
         <v>100</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="2">
+        <v>100</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="J14" s="2">
-        <v>2</v>
       </c>
       <c r="K14" s="2">
         <v>2</v>
       </c>
       <c r="L14" s="2">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2">
         <v>3</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>4</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>0</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <v>4</v>
-      </c>
-      <c r="P14" s="2">
-        <v>2</v>
       </c>
       <c r="Q14" s="2">
         <v>2</v>
       </c>
       <c r="R14" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S14" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -6212,47 +6255,50 @@
       <c r="F15" s="2">
         <v>100</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="2">
+        <v>100</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="J15" s="2">
-        <v>4</v>
       </c>
       <c r="K15" s="2">
         <v>4</v>
       </c>
       <c r="L15" s="2">
+        <v>4</v>
+      </c>
+      <c r="M15" s="2">
         <v>9</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>10</v>
       </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
         <v>0</v>
       </c>
-      <c r="O15" s="2">
+      <c r="P15" s="2">
         <v>10</v>
-      </c>
-      <c r="P15" s="2">
-        <v>5</v>
       </c>
       <c r="Q15" s="2">
         <v>5</v>
       </c>
       <c r="R15" s="2">
+        <v>5</v>
+      </c>
+      <c r="S15" s="2">
         <v>30</v>
       </c>
-      <c r="S15" s="2">
+      <c r="T15" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
@@ -6271,47 +6317,50 @@
       <c r="F16" s="2">
         <v>100</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="2">
+        <v>100</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="J16" s="2">
-        <v>2</v>
       </c>
       <c r="K16" s="2">
         <v>2</v>
       </c>
       <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2">
         <v>4</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>5</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <v>0</v>
       </c>
-      <c r="O16" s="2">
+      <c r="P16" s="2">
         <v>5</v>
-      </c>
-      <c r="P16" s="2">
-        <v>2</v>
       </c>
       <c r="Q16" s="2">
         <v>2</v>
       </c>
       <c r="R16" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S16" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T16" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
@@ -6330,47 +6379,50 @@
       <c r="F17" s="2">
         <v>100</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="2">
+        <v>100</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="J17" s="2">
-        <v>2</v>
       </c>
       <c r="K17" s="2">
         <v>2</v>
       </c>
       <c r="L17" s="2">
+        <v>2</v>
+      </c>
+      <c r="M17" s="2">
         <v>5</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="2">
         <v>6</v>
       </c>
-      <c r="N17" s="2">
+      <c r="O17" s="2">
         <v>0</v>
       </c>
-      <c r="O17" s="2">
+      <c r="P17" s="2">
         <v>6</v>
-      </c>
-      <c r="P17" s="2">
-        <v>2</v>
       </c>
       <c r="Q17" s="2">
         <v>2</v>
       </c>
       <c r="R17" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S17" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T17" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>64</v>
       </c>
@@ -6389,47 +6441,50 @@
       <c r="F18" s="2">
         <v>100</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="2">
+        <v>100</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="J18" s="2">
-        <v>4</v>
       </c>
       <c r="K18" s="2">
         <v>4</v>
       </c>
       <c r="L18" s="2">
+        <v>4</v>
+      </c>
+      <c r="M18" s="2">
         <v>9</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="2">
         <v>10</v>
       </c>
-      <c r="N18" s="2">
+      <c r="O18" s="2">
         <v>0</v>
       </c>
-      <c r="O18" s="2">
+      <c r="P18" s="2">
         <v>10</v>
-      </c>
-      <c r="P18" s="2">
-        <v>5</v>
       </c>
       <c r="Q18" s="2">
         <v>5</v>
       </c>
       <c r="R18" s="2">
+        <v>5</v>
+      </c>
+      <c r="S18" s="2">
         <v>30</v>
       </c>
-      <c r="S18" s="2">
+      <c r="T18" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
@@ -6448,47 +6503,50 @@
       <c r="F19" s="2">
         <v>100</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="2">
+        <v>100</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="J19" s="2">
-        <v>4</v>
       </c>
       <c r="K19" s="2">
         <v>4</v>
       </c>
       <c r="L19" s="2">
+        <v>4</v>
+      </c>
+      <c r="M19" s="2">
         <v>9</v>
       </c>
-      <c r="M19" s="2">
+      <c r="N19" s="2">
         <v>10</v>
       </c>
-      <c r="N19" s="2">
+      <c r="O19" s="2">
         <v>0</v>
       </c>
-      <c r="O19" s="2">
+      <c r="P19" s="2">
         <v>10</v>
-      </c>
-      <c r="P19" s="2">
-        <v>5</v>
       </c>
       <c r="Q19" s="2">
         <v>5</v>
       </c>
       <c r="R19" s="2">
+        <v>5</v>
+      </c>
+      <c r="S19" s="2">
         <v>30</v>
       </c>
-      <c r="S19" s="2">
+      <c r="T19" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
@@ -6507,47 +6565,50 @@
       <c r="F20" s="2">
         <v>100</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="2">
+        <v>100</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="J20" s="2">
-        <v>10</v>
       </c>
       <c r="K20" s="2">
         <v>10</v>
       </c>
       <c r="L20" s="2">
+        <v>10</v>
+      </c>
+      <c r="M20" s="2">
         <v>9</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="2">
         <v>10</v>
       </c>
-      <c r="N20" s="2">
+      <c r="O20" s="2">
         <v>0</v>
       </c>
-      <c r="O20" s="2">
+      <c r="P20" s="2">
         <v>10</v>
-      </c>
-      <c r="P20" s="2">
-        <v>5</v>
       </c>
       <c r="Q20" s="2">
         <v>5</v>
       </c>
       <c r="R20" s="2">
+        <v>5</v>
+      </c>
+      <c r="S20" s="2">
         <v>30</v>
       </c>
-      <c r="S20" s="2">
+      <c r="T20" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>70</v>
       </c>
@@ -6566,47 +6627,50 @@
       <c r="F21" s="2">
         <v>100</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="2">
+        <v>100</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="J21" s="2">
-        <v>4</v>
       </c>
       <c r="K21" s="2">
         <v>4</v>
       </c>
       <c r="L21" s="2">
+        <v>4</v>
+      </c>
+      <c r="M21" s="2">
         <v>12</v>
       </c>
-      <c r="M21" s="2">
+      <c r="N21" s="2">
         <v>13</v>
       </c>
-      <c r="N21" s="2">
+      <c r="O21" s="2">
         <v>0</v>
       </c>
-      <c r="O21" s="2">
+      <c r="P21" s="2">
         <v>13</v>
-      </c>
-      <c r="P21" s="2">
-        <v>5</v>
       </c>
       <c r="Q21" s="2">
         <v>5</v>
       </c>
       <c r="R21" s="2">
+        <v>5</v>
+      </c>
+      <c r="S21" s="2">
         <v>30</v>
       </c>
-      <c r="S21" s="2">
+      <c r="T21" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>72</v>
       </c>
@@ -6625,47 +6689,50 @@
       <c r="F22" s="2">
         <v>100</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="2">
+        <v>100</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="J22" s="2">
-        <v>10</v>
       </c>
       <c r="K22" s="2">
         <v>10</v>
       </c>
       <c r="L22" s="2">
+        <v>10</v>
+      </c>
+      <c r="M22" s="2">
         <v>5</v>
       </c>
-      <c r="M22" s="2">
+      <c r="N22" s="2">
         <v>12</v>
       </c>
-      <c r="N22" s="2">
+      <c r="O22" s="2">
         <v>0</v>
       </c>
-      <c r="O22" s="2">
+      <c r="P22" s="2">
         <v>7</v>
-      </c>
-      <c r="P22" s="2">
-        <v>2</v>
       </c>
       <c r="Q22" s="2">
         <v>2</v>
       </c>
       <c r="R22" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S22" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T22" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>74</v>
       </c>
@@ -6684,59 +6751,62 @@
       <c r="F23" s="2">
         <v>100</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="2">
+        <v>100</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="J23" s="2">
-        <v>30</v>
       </c>
       <c r="K23" s="2">
         <v>30</v>
       </c>
       <c r="L23" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M23" s="2">
         <v>15</v>
       </c>
       <c r="N23" s="2">
+        <v>15</v>
+      </c>
+      <c r="O23" s="2">
         <v>0</v>
       </c>
-      <c r="O23" s="2">
+      <c r="P23" s="2">
         <v>6</v>
-      </c>
-      <c r="P23" s="2">
-        <v>2</v>
       </c>
       <c r="Q23" s="2">
         <v>2</v>
       </c>
       <c r="R23" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S23" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="G24" s="8"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T23" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="H24" s="8"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B31" s="9"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B32" s="9"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -4457,9 +4457,6 @@
       <c r="F4" t="n">
         <v>5</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -4488,11 +4485,9 @@
       <c r="F5" t="n">
         <v>0.2</v>
       </c>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>0.99</v>
       </c>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -4521,9 +4516,6 @@
       <c r="F6" t="n">
         <v>-200</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -4552,11 +4544,9 @@
       <c r="F7" t="n">
         <v>0.1</v>
       </c>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
         <v>0.99</v>
       </c>
-      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -4585,9 +4575,6 @@
       <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -4616,9 +4603,6 @@
       <c r="F9" t="n">
         <v>2</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -4647,9 +4631,6 @@
       <c r="F10" t="n">
         <v>-300</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -4681,8 +4662,6 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -4711,9 +4690,6 @@
       <c r="F12" t="n">
         <v>10</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -4742,9 +4718,6 @@
       <c r="F13" t="n">
         <v>300</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -4773,9 +4746,6 @@
       <c r="F14" t="n">
         <v>-1</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -4804,9 +4774,6 @@
       <c r="F15" t="n">
         <v>500</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -4835,11 +4802,9 @@
       <c r="F16" t="n">
         <v>0.1</v>
       </c>
-      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
         <v>0.99</v>
       </c>
-      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -4868,9 +4833,6 @@
       <c r="F17" t="n">
         <v>1</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4902,8 +4864,6 @@
       <c r="G18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -4932,9 +4892,6 @@
       <c r="F19" t="n">
         <v>2</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4963,9 +4920,6 @@
       <c r="F20" t="n">
         <v>-300</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4994,9 +4948,6 @@
       <c r="F21" t="n">
         <v>10</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -5025,9 +4976,6 @@
       <c r="F22" t="n">
         <v>300</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -5056,9 +5004,6 @@
       <c r="F23" t="n">
         <v>5</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -5087,11 +5032,9 @@
       <c r="F24" t="n">
         <v>0.2</v>
       </c>
-      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
         <v>0.99</v>
       </c>
-      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -5120,9 +5063,6 @@
       <c r="F25" t="n">
         <v>-200</v>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -5151,9 +5091,6 @@
       <c r="F26" t="n">
         <v>2</v>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -5182,9 +5119,6 @@
       <c r="F27" t="n">
         <v>-300</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -5213,11 +5147,9 @@
       <c r="F28" t="n">
         <v>0.3</v>
       </c>
-      <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
         <v>0.99</v>
       </c>
-      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -5246,9 +5178,6 @@
       <c r="F29" t="n">
         <v>-1</v>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -5277,9 +5206,6 @@
       <c r="F30" t="n">
         <v>500</v>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -5308,9 +5234,6 @@
       <c r="F31" t="n">
         <v>-1</v>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5339,9 +5262,6 @@
       <c r="F32" t="n">
         <v>500</v>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5370,9 +5290,6 @@
       <c r="F33" t="n">
         <v>5</v>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5401,9 +5318,6 @@
       <c r="F34" t="n">
         <v>10</v>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5432,9 +5346,6 @@
       <c r="F35" t="n">
         <v>300</v>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5463,9 +5374,6 @@
       <c r="F36" t="n">
         <v>2</v>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5494,9 +5402,6 @@
       <c r="F37" t="n">
         <v>-300</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5525,9 +5430,6 @@
       <c r="F38" t="n">
         <v>2</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5556,9 +5458,6 @@
       <c r="F39" t="n">
         <v>-300</v>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5590,8 +5489,6 @@
       <c r="G40" t="n">
         <v>0</v>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5620,11 +5517,9 @@
       <c r="F41" t="n">
         <v>0.3</v>
       </c>
-      <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
         <v>0.99</v>
       </c>
-      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5653,11 +5548,9 @@
       <c r="F42" t="n">
         <v>0.2</v>
       </c>
-      <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
         <v>0.99</v>
       </c>
-      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5686,9 +5579,6 @@
       <c r="F43" t="n">
         <v>-200</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5717,9 +5607,6 @@
       <c r="F44" t="n">
         <v>10</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5748,9 +5635,6 @@
       <c r="F45" t="n">
         <v>300</v>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5779,11 +5663,9 @@
       <c r="F46" t="n">
         <v>0.1</v>
       </c>
-      <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
         <v>0.99</v>
       </c>
-      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5812,9 +5694,6 @@
       <c r="F47" t="n">
         <v>1</v>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5843,11 +5722,9 @@
       <c r="F48" t="n">
         <v>0.2</v>
       </c>
-      <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
         <v>0.99</v>
       </c>
-      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5876,9 +5753,6 @@
       <c r="F49" t="n">
         <v>-200</v>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5907,11 +5781,9 @@
       <c r="F50" t="n">
         <v>0.3</v>
       </c>
-      <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
         <v>0.99</v>
       </c>
-      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5940,11 +5812,9 @@
       <c r="F51" t="n">
         <v>0.2</v>
       </c>
-      <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
         <v>0.99</v>
       </c>
-      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5973,9 +5843,6 @@
       <c r="F52" t="n">
         <v>-200</v>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6004,9 +5871,6 @@
       <c r="F53" t="n">
         <v>2</v>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6035,9 +5899,6 @@
       <c r="F54" t="n">
         <v>-300</v>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6066,9 +5927,6 @@
       <c r="F55" t="n">
         <v>10</v>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6097,9 +5955,6 @@
       <c r="F56" t="n">
         <v>300</v>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6128,11 +5983,9 @@
       <c r="F57" t="n">
         <v>0.2</v>
       </c>
-      <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
         <v>0.99</v>
       </c>
-      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6161,9 +6014,6 @@
       <c r="F58" t="n">
         <v>-200</v>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6192,9 +6042,6 @@
       <c r="F59" t="n">
         <v>5</v>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6223,9 +6070,6 @@
       <c r="F60" t="n">
         <v>-1</v>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6254,9 +6098,6 @@
       <c r="F61" t="n">
         <v>500</v>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6285,11 +6126,9 @@
       <c r="F62" t="n">
         <v>0.1</v>
       </c>
-      <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
         <v>0.99</v>
       </c>
-      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6318,9 +6157,6 @@
       <c r="F63" t="n">
         <v>1</v>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6352,8 +6188,6 @@
       <c r="G64" t="n">
         <v>0</v>
       </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6382,9 +6216,6 @@
       <c r="F65" t="n">
         <v>10</v>
       </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6413,9 +6244,6 @@
       <c r="F66" t="n">
         <v>300</v>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6444,9 +6272,6 @@
       <c r="F67" t="n">
         <v>10</v>
       </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -6475,9 +6300,6 @@
       <c r="F68" t="n">
         <v>300</v>
       </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -6509,8 +6331,6 @@
       <c r="G69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -6539,11 +6359,9 @@
       <c r="F70" t="n">
         <v>0.1</v>
       </c>
-      <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
         <v>0.99</v>
       </c>
-      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -6572,9 +6390,6 @@
       <c r="F71" t="n">
         <v>1</v>
       </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -6603,9 +6418,6 @@
       <c r="F72" t="n">
         <v>2</v>
       </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -6634,9 +6446,6 @@
       <c r="F73" t="n">
         <v>-300</v>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -6665,11 +6474,9 @@
       <c r="F74" t="n">
         <v>0.1</v>
       </c>
-      <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
         <v>0.99</v>
       </c>
-      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -6698,9 +6505,6 @@
       <c r="F75" t="n">
         <v>1</v>
       </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -6729,11 +6533,9 @@
       <c r="F76" t="n">
         <v>0.1</v>
       </c>
-      <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
         <v>0.99</v>
       </c>
-      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -6762,9 +6564,6 @@
       <c r="F77" t="n">
         <v>1</v>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -6793,9 +6592,6 @@
       <c r="F78" t="n">
         <v>-1</v>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -6824,9 +6620,6 @@
       <c r="F79" t="n">
         <v>500</v>
       </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -6855,11 +6648,9 @@
       <c r="F80" t="n">
         <v>0.2</v>
       </c>
-      <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
         <v>0.99</v>
       </c>
-      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -6888,9 +6679,6 @@
       <c r="F81" t="n">
         <v>-200</v>
       </c>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -6919,9 +6707,6 @@
       <c r="F82" t="n">
         <v>5</v>
       </c>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -6953,8 +6738,6 @@
       <c r="G83" t="n">
         <v>0</v>
       </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -6983,9 +6766,6 @@
       <c r="F84" t="n">
         <v>2</v>
       </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -7014,9 +6794,6 @@
       <c r="F85" t="n">
         <v>-300</v>
       </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -7045,9 +6822,6 @@
       <c r="F86" t="n">
         <v>10</v>
       </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -7076,9 +6850,6 @@
       <c r="F87" t="n">
         <v>300</v>
       </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -7107,9 +6878,6 @@
       <c r="F88" t="n">
         <v>2</v>
       </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -7138,9 +6906,6 @@
       <c r="F89" t="n">
         <v>-300</v>
       </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -7172,8 +6937,6 @@
       <c r="G90" t="n">
         <v>0</v>
       </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -7202,9 +6965,6 @@
       <c r="F91" t="n">
         <v>-1</v>
       </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -7233,9 +6993,6 @@
       <c r="F92" t="n">
         <v>500</v>
       </c>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -7264,9 +7021,6 @@
       <c r="F93" t="n">
         <v>-1</v>
       </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -7295,9 +7049,6 @@
       <c r="F94" t="n">
         <v>500</v>
       </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -7326,11 +7077,9 @@
       <c r="F95" t="n">
         <v>0.1</v>
       </c>
-      <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
         <v>0.99</v>
       </c>
-      <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -7359,9 +7108,6 @@
       <c r="F96" t="n">
         <v>1</v>
       </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -7393,8 +7139,6 @@
       <c r="G97" t="n">
         <v>0</v>
       </c>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -7423,11 +7167,9 @@
       <c r="F98" t="n">
         <v>0.3</v>
       </c>
-      <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
         <v>0.99</v>
       </c>
-      <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -7459,8 +7201,6 @@
       <c r="G99" t="n">
         <v>0</v>
       </c>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -7489,9 +7229,6 @@
       <c r="F100" t="n">
         <v>2</v>
       </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -7520,9 +7257,6 @@
       <c r="F101" t="n">
         <v>-300</v>
       </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -7554,8 +7288,6 @@
       <c r="G102" t="n">
         <v>0</v>
       </c>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -7587,8 +7319,6 @@
       <c r="G103" t="n">
         <v>0</v>
       </c>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -7620,8 +7350,6 @@
       <c r="G104" t="n">
         <v>0</v>
       </c>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -7650,11 +7378,9 @@
       <c r="F105" t="n">
         <v>0.1</v>
       </c>
-      <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
         <v>0.99</v>
       </c>
-      <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -7683,9 +7409,6 @@
       <c r="F106" t="n">
         <v>1</v>
       </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -7714,11 +7437,9 @@
       <c r="F107" t="n">
         <v>0.3</v>
       </c>
-      <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
         <v>0.99</v>
       </c>
-      <c r="I107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -7747,9 +7468,6 @@
       <c r="F108" t="n">
         <v>-1</v>
       </c>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -7778,9 +7496,6 @@
       <c r="F109" t="n">
         <v>500</v>
       </c>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -7809,9 +7524,6 @@
       <c r="F110" t="n">
         <v>5</v>
       </c>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -7840,11 +7552,9 @@
       <c r="F111" t="n">
         <v>0.3</v>
       </c>
-      <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
         <v>0.99</v>
       </c>
-      <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -7873,11 +7583,9 @@
       <c r="F112" t="n">
         <v>0.3</v>
       </c>
-      <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
         <v>0.99</v>
       </c>
-      <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -7906,9 +7614,6 @@
       <c r="F113" t="n">
         <v>5</v>
       </c>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7937,11 +7642,9 @@
       <c r="F114" t="n">
         <v>0.3</v>
       </c>
-      <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
         <v>0.99</v>
       </c>
-      <c r="I114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7970,9 +7673,6 @@
       <c r="F115" t="n">
         <v>2</v>
       </c>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -8001,9 +7701,6 @@
       <c r="F116" t="n">
         <v>-300</v>
       </c>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -8032,9 +7729,6 @@
       <c r="F117" t="n">
         <v>-1</v>
       </c>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -8063,9 +7757,6 @@
       <c r="F118" t="n">
         <v>500</v>
       </c>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -8094,11 +7785,9 @@
       <c r="F119" t="n">
         <v>0.3</v>
       </c>
-      <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
         <v>0.99</v>
       </c>
-      <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -8127,9 +7816,6 @@
       <c r="F120" t="n">
         <v>-1</v>
       </c>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -8158,9 +7844,6 @@
       <c r="F121" t="n">
         <v>500</v>
       </c>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -8189,11 +7872,9 @@
       <c r="F122" t="n">
         <v>0.1</v>
       </c>
-      <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
         <v>0.99</v>
       </c>
-      <c r="I122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -8222,9 +7903,6 @@
       <c r="F123" t="n">
         <v>1</v>
       </c>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -8256,8 +7934,6 @@
       <c r="G124" t="n">
         <v>0</v>
       </c>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -8286,11 +7962,9 @@
       <c r="F125" t="n">
         <v>0.1</v>
       </c>
-      <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
         <v>0.99</v>
       </c>
-      <c r="I125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -8319,9 +7993,6 @@
       <c r="F126" t="n">
         <v>1</v>
       </c>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -8350,9 +8021,6 @@
       <c r="F127" t="n">
         <v>-1</v>
       </c>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -8381,9 +8049,6 @@
       <c r="F128" t="n">
         <v>500</v>
       </c>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -8412,11 +8077,9 @@
       <c r="F129" t="n">
         <v>0.3</v>
       </c>
-      <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
         <v>0.99</v>
       </c>
-      <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -8445,9 +8108,6 @@
       <c r="F130" t="n">
         <v>5</v>
       </c>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -8476,9 +8136,6 @@
       <c r="F131" t="n">
         <v>-1</v>
       </c>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -8507,9 +8164,6 @@
       <c r="F132" t="n">
         <v>500</v>
       </c>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -8538,11 +8192,9 @@
       <c r="F133" t="n">
         <v>0.3</v>
       </c>
-      <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
         <v>0.99</v>
       </c>
-      <c r="I133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -8571,11 +8223,9 @@
       <c r="F134" t="n">
         <v>0.2</v>
       </c>
-      <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
         <v>0.99</v>
       </c>
-      <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8604,9 +8254,6 @@
       <c r="F135" t="n">
         <v>-200</v>
       </c>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -8635,9 +8282,6 @@
       <c r="F136" t="n">
         <v>2</v>
       </c>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -8666,9 +8310,6 @@
       <c r="F137" t="n">
         <v>-300</v>
       </c>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -8697,9 +8338,6 @@
       <c r="F138" t="n">
         <v>2</v>
       </c>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -8728,9 +8366,6 @@
       <c r="F139" t="n">
         <v>-300</v>
       </c>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -8759,9 +8394,6 @@
       <c r="F140" t="n">
         <v>10</v>
       </c>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -8790,9 +8422,6 @@
       <c r="F141" t="n">
         <v>300</v>
       </c>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8821,9 +8450,6 @@
       <c r="F142" t="n">
         <v>10</v>
       </c>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -8852,9 +8478,6 @@
       <c r="F143" t="n">
         <v>300</v>
       </c>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -8883,11 +8506,9 @@
       <c r="F144" t="n">
         <v>0.1</v>
       </c>
-      <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
         <v>0.99</v>
       </c>
-      <c r="I144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -8916,9 +8537,6 @@
       <c r="F145" t="n">
         <v>1</v>
       </c>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -8947,9 +8565,6 @@
       <c r="F146" t="n">
         <v>2</v>
       </c>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -8978,9 +8593,6 @@
       <c r="F147" t="n">
         <v>-300</v>
       </c>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -9009,9 +8621,6 @@
       <c r="F148" t="n">
         <v>10</v>
       </c>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -9040,9 +8649,6 @@
       <c r="F149" t="n">
         <v>300</v>
       </c>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -9074,8 +8680,6 @@
       <c r="G150" t="n">
         <v>0</v>
       </c>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -9104,9 +8708,6 @@
       <c r="F151" t="n">
         <v>-1</v>
       </c>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -9135,9 +8736,6 @@
       <c r="F152" t="n">
         <v>500</v>
       </c>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -9166,9 +8764,6 @@
       <c r="F153" t="n">
         <v>5</v>
       </c>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -9197,9 +8792,6 @@
       <c r="F154" t="n">
         <v>10</v>
       </c>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -9228,9 +8820,6 @@
       <c r="F155" t="n">
         <v>300</v>
       </c>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -9259,9 +8848,6 @@
       <c r="F156" t="n">
         <v>-1</v>
       </c>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -9290,9 +8876,6 @@
       <c r="F157" t="n">
         <v>500</v>
       </c>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -9321,9 +8904,6 @@
       <c r="F158" t="n">
         <v>-1</v>
       </c>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -9352,9 +8932,6 @@
       <c r="F159" t="n">
         <v>500</v>
       </c>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -9383,9 +8960,6 @@
       <c r="F160" t="n">
         <v>10</v>
       </c>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -9414,9 +8988,6 @@
       <c r="F161" t="n">
         <v>300</v>
       </c>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -9445,11 +9016,9 @@
       <c r="F162" t="n">
         <v>0.2</v>
       </c>
-      <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
         <v>0.99</v>
       </c>
-      <c r="I162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -9478,9 +9047,6 @@
       <c r="F163" t="n">
         <v>-200</v>
       </c>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -9509,11 +9075,9 @@
       <c r="F164" t="n">
         <v>0.2</v>
       </c>
-      <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
         <v>0.99</v>
       </c>
-      <c r="I164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -9542,9 +9106,6 @@
       <c r="F165" t="n">
         <v>-200</v>
       </c>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -9573,9 +9134,6 @@
       <c r="F166" t="n">
         <v>2</v>
       </c>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -9604,9 +9162,6 @@
       <c r="F167" t="n">
         <v>-300</v>
       </c>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -9635,9 +9190,6 @@
       <c r="F168" t="n">
         <v>10</v>
       </c>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -9666,9 +9218,6 @@
       <c r="F169" t="n">
         <v>300</v>
       </c>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -9697,9 +9246,6 @@
       <c r="F170" t="n">
         <v>10</v>
       </c>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -9728,9 +9274,6 @@
       <c r="F171" t="n">
         <v>300</v>
       </c>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -9759,9 +9302,6 @@
       <c r="F172" t="n">
         <v>2</v>
       </c>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -9790,9 +9330,6 @@
       <c r="F173" t="n">
         <v>-300</v>
       </c>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -9821,9 +9358,6 @@
       <c r="F174" t="n">
         <v>2</v>
       </c>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -9852,9 +9386,6 @@
       <c r="F175" t="n">
         <v>-300</v>
       </c>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -9883,11 +9414,9 @@
       <c r="F176" t="n">
         <v>0.1</v>
       </c>
-      <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
         <v>0.99</v>
       </c>
-      <c r="I176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -9916,9 +9445,6 @@
       <c r="F177" t="n">
         <v>1</v>
       </c>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -9947,11 +9473,9 @@
       <c r="F178" t="n">
         <v>0.3</v>
       </c>
-      <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
         <v>0.99</v>
       </c>
-      <c r="I178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -9980,9 +9504,6 @@
       <c r="F179" t="n">
         <v>2</v>
       </c>
-      <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -10011,9 +9532,6 @@
       <c r="F180" t="n">
         <v>-300</v>
       </c>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -10042,11 +9560,9 @@
       <c r="F181" t="n">
         <v>0.3</v>
       </c>
-      <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
         <v>0.99</v>
       </c>
-      <c r="I181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -10075,9 +9591,6 @@
       <c r="F182" t="n">
         <v>5</v>
       </c>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -10106,11 +9619,9 @@
       <c r="F183" t="n">
         <v>0.1</v>
       </c>
-      <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
         <v>0.99</v>
       </c>
-      <c r="I183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -10139,9 +9650,6 @@
       <c r="F184" t="n">
         <v>1</v>
       </c>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -10170,11 +9678,9 @@
       <c r="F185" t="n">
         <v>0.2</v>
       </c>
-      <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
         <v>0.99</v>
       </c>
-      <c r="I185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -10203,9 +9709,6 @@
       <c r="F186" t="n">
         <v>-200</v>
       </c>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -10234,9 +9737,6 @@
       <c r="F187" t="n">
         <v>5</v>
       </c>
-      <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -10265,9 +9765,6 @@
       <c r="F188" t="n">
         <v>10</v>
       </c>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -10296,9 +9793,6 @@
       <c r="F189" t="n">
         <v>300</v>
       </c>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -10327,11 +9821,9 @@
       <c r="F190" t="n">
         <v>0.2</v>
       </c>
-      <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
         <v>0.99</v>
       </c>
-      <c r="I190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -10360,9 +9852,6 @@
       <c r="F191" t="n">
         <v>-200</v>
       </c>
-      <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr"/>
-      <c r="I191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -10391,9 +9880,6 @@
       <c r="F192" t="n">
         <v>2</v>
       </c>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -10422,9 +9908,6 @@
       <c r="F193" t="n">
         <v>-300</v>
       </c>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -10453,9 +9936,6 @@
       <c r="F194" t="n">
         <v>2</v>
       </c>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -10484,9 +9964,6 @@
       <c r="F195" t="n">
         <v>-300</v>
       </c>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -10518,8 +9995,6 @@
       <c r="G196" t="n">
         <v>0</v>
       </c>
-      <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -10548,11 +10023,9 @@
       <c r="F197" t="n">
         <v>0.2</v>
       </c>
-      <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
         <v>0.99</v>
       </c>
-      <c r="I197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -10581,9 +10054,6 @@
       <c r="F198" t="n">
         <v>-200</v>
       </c>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
-      <c r="I198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -10612,9 +10082,6 @@
       <c r="F199" t="n">
         <v>10</v>
       </c>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -10643,9 +10110,6 @@
       <c r="F200" t="n">
         <v>300</v>
       </c>
-      <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -10677,8 +10141,6 @@
       <c r="G201" t="n">
         <v>0</v>
       </c>
-      <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -10707,11 +10169,9 @@
       <c r="F202" t="n">
         <v>0.2</v>
       </c>
-      <c r="G202" t="inlineStr"/>
       <c r="H202" t="n">
         <v>0.99</v>
       </c>
-      <c r="I202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -10740,9 +10200,6 @@
       <c r="F203" t="n">
         <v>-200</v>
       </c>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -10771,11 +10228,9 @@
       <c r="F204" t="n">
         <v>0.1</v>
       </c>
-      <c r="G204" t="inlineStr"/>
       <c r="H204" t="n">
         <v>0.99</v>
       </c>
-      <c r="I204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -10804,9 +10259,6 @@
       <c r="F205" t="n">
         <v>1</v>
       </c>
-      <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -10835,9 +10287,6 @@
       <c r="F206" t="n">
         <v>10</v>
       </c>
-      <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -10866,9 +10315,6 @@
       <c r="F207" t="n">
         <v>300</v>
       </c>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -10897,11 +10343,9 @@
       <c r="F208" t="n">
         <v>0.2</v>
       </c>
-      <c r="G208" t="inlineStr"/>
       <c r="H208" t="n">
         <v>0.99</v>
       </c>
-      <c r="I208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -10930,9 +10374,6 @@
       <c r="F209" t="n">
         <v>-200</v>
       </c>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -10961,11 +10402,9 @@
       <c r="F210" t="n">
         <v>0.2</v>
       </c>
-      <c r="G210" t="inlineStr"/>
       <c r="H210" t="n">
         <v>0.99</v>
       </c>
-      <c r="I210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -10994,9 +10433,6 @@
       <c r="F211" t="n">
         <v>-200</v>
       </c>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
-      <c r="I211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -11025,9 +10461,6 @@
       <c r="F212" t="n">
         <v>2</v>
       </c>
-      <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr"/>
-      <c r="I212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -11056,9 +10489,6 @@
       <c r="F213" t="n">
         <v>-300</v>
       </c>
-      <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -11087,11 +10517,9 @@
       <c r="F214" t="n">
         <v>0.1</v>
       </c>
-      <c r="G214" t="inlineStr"/>
       <c r="H214" t="n">
         <v>0.99</v>
       </c>
-      <c r="I214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -11120,9 +10548,6 @@
       <c r="F215" t="n">
         <v>1</v>
       </c>
-      <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -11151,11 +10576,9 @@
       <c r="F216" t="n">
         <v>0.2</v>
       </c>
-      <c r="G216" t="inlineStr"/>
       <c r="H216" t="n">
         <v>0.99</v>
       </c>
-      <c r="I216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -11184,9 +10607,6 @@
       <c r="F217" t="n">
         <v>-200</v>
       </c>
-      <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -11215,11 +10635,9 @@
       <c r="F218" t="n">
         <v>0.1</v>
       </c>
-      <c r="G218" t="inlineStr"/>
       <c r="H218" t="n">
         <v>0.99</v>
       </c>
-      <c r="I218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -11248,9 +10666,6 @@
       <c r="F219" t="n">
         <v>1</v>
       </c>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
-      <c r="I219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -11279,9 +10694,6 @@
       <c r="F220" t="n">
         <v>5</v>
       </c>
-      <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -11310,11 +10722,9 @@
       <c r="F221" t="n">
         <v>0.1</v>
       </c>
-      <c r="G221" t="inlineStr"/>
       <c r="H221" t="n">
         <v>0.99</v>
       </c>
-      <c r="I221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -11343,9 +10753,6 @@
       <c r="F222" t="n">
         <v>1</v>
       </c>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -11374,11 +10781,9 @@
       <c r="F223" t="n">
         <v>0.3</v>
       </c>
-      <c r="G223" t="inlineStr"/>
       <c r="H223" t="n">
         <v>0.99</v>
       </c>
-      <c r="I223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -11407,9 +10812,6 @@
       <c r="F224" t="n">
         <v>10</v>
       </c>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -11438,9 +10840,6 @@
       <c r="F225" t="n">
         <v>300</v>
       </c>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -11469,9 +10868,6 @@
       <c r="F226" t="n">
         <v>2</v>
       </c>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -11500,9 +10896,6 @@
       <c r="F227" t="n">
         <v>-300</v>
       </c>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -11531,9 +10924,6 @@
       <c r="F228" t="n">
         <v>2</v>
       </c>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -11562,9 +10952,6 @@
       <c r="F229" t="n">
         <v>-300</v>
       </c>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -11593,9 +10980,6 @@
       <c r="F230" t="n">
         <v>2</v>
       </c>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -11624,9 +11008,6 @@
       <c r="F231" t="n">
         <v>-300</v>
       </c>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -11655,9 +11036,6 @@
       <c r="F232" t="n">
         <v>2</v>
       </c>
-      <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -11686,9 +11064,6 @@
       <c r="F233" t="n">
         <v>-300</v>
       </c>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -11717,11 +11092,9 @@
       <c r="F234" t="n">
         <v>0.2</v>
       </c>
-      <c r="G234" t="inlineStr"/>
       <c r="H234" t="n">
         <v>0.99</v>
       </c>
-      <c r="I234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -11750,9 +11123,6 @@
       <c r="F235" t="n">
         <v>-200</v>
       </c>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -11781,9 +11151,6 @@
       <c r="F236" t="n">
         <v>2</v>
       </c>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -11812,9 +11179,6 @@
       <c r="F237" t="n">
         <v>-300</v>
       </c>
-      <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -11843,11 +11207,9 @@
       <c r="F238" t="n">
         <v>0.1</v>
       </c>
-      <c r="G238" t="inlineStr"/>
       <c r="H238" t="n">
         <v>0.99</v>
       </c>
-      <c r="I238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -11876,9 +11238,6 @@
       <c r="F239" t="n">
         <v>1</v>
       </c>
-      <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -11907,11 +11266,9 @@
       <c r="F240" t="n">
         <v>0.3</v>
       </c>
-      <c r="G240" t="inlineStr"/>
       <c r="H240" t="n">
         <v>0.99</v>
       </c>
-      <c r="I240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -11940,9 +11297,6 @@
       <c r="F241" t="n">
         <v>-1</v>
       </c>
-      <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr"/>
-      <c r="I241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -11971,9 +11325,6 @@
       <c r="F242" t="n">
         <v>500</v>
       </c>
-      <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr"/>
-      <c r="I242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -12002,11 +11353,9 @@
       <c r="F243" t="n">
         <v>0.1</v>
       </c>
-      <c r="G243" t="inlineStr"/>
       <c r="H243" t="n">
         <v>0.99</v>
       </c>
-      <c r="I243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -12035,9 +11384,6 @@
       <c r="F244" t="n">
         <v>1</v>
       </c>
-      <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -12066,9 +11412,6 @@
       <c r="F245" t="n">
         <v>2</v>
       </c>
-      <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr"/>
-      <c r="I245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -12097,9 +11440,6 @@
       <c r="F246" t="n">
         <v>-300</v>
       </c>
-      <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -12128,11 +11468,9 @@
       <c r="F247" t="n">
         <v>0.2</v>
       </c>
-      <c r="G247" t="inlineStr"/>
       <c r="H247" t="n">
         <v>0.99</v>
       </c>
-      <c r="I247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -12161,9 +11499,6 @@
       <c r="F248" t="n">
         <v>-200</v>
       </c>
-      <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -12192,11 +11527,9 @@
       <c r="F249" t="n">
         <v>0.1</v>
       </c>
-      <c r="G249" t="inlineStr"/>
       <c r="H249" t="n">
         <v>0.99</v>
       </c>
-      <c r="I249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -12225,9 +11558,6 @@
       <c r="F250" t="n">
         <v>1</v>
       </c>
-      <c r="G250" t="inlineStr"/>
-      <c r="H250" t="inlineStr"/>
-      <c r="I250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -12256,11 +11586,9 @@
       <c r="F251" t="n">
         <v>0.2</v>
       </c>
-      <c r="G251" t="inlineStr"/>
       <c r="H251" t="n">
         <v>0.99</v>
       </c>
-      <c r="I251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -12289,9 +11617,6 @@
       <c r="F252" t="n">
         <v>-200</v>
       </c>
-      <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr"/>
-      <c r="I252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -12320,9 +11645,6 @@
       <c r="F253" t="n">
         <v>-1</v>
       </c>
-      <c r="G253" t="inlineStr"/>
-      <c r="H253" t="inlineStr"/>
-      <c r="I253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -12351,9 +11673,6 @@
       <c r="F254" t="n">
         <v>500</v>
       </c>
-      <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -12382,9 +11701,6 @@
       <c r="F255" t="n">
         <v>5</v>
       </c>
-      <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr"/>
-      <c r="I255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -12413,9 +11729,6 @@
       <c r="F256" t="n">
         <v>5</v>
       </c>
-      <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr"/>
-      <c r="I256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -12444,11 +11757,9 @@
       <c r="F257" t="n">
         <v>0.1</v>
       </c>
-      <c r="G257" t="inlineStr"/>
       <c r="H257" t="n">
         <v>0.99</v>
       </c>
-      <c r="I257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -12477,9 +11788,6 @@
       <c r="F258" t="n">
         <v>1</v>
       </c>
-      <c r="G258" t="inlineStr"/>
-      <c r="H258" t="inlineStr"/>
-      <c r="I258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -12508,9 +11816,6 @@
       <c r="F259" t="n">
         <v>2</v>
       </c>
-      <c r="G259" t="inlineStr"/>
-      <c r="H259" t="inlineStr"/>
-      <c r="I259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -12539,9 +11844,6 @@
       <c r="F260" t="n">
         <v>-300</v>
       </c>
-      <c r="G260" t="inlineStr"/>
-      <c r="H260" t="inlineStr"/>
-      <c r="I260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -12573,8 +11875,6 @@
       <c r="G261" t="n">
         <v>0</v>
       </c>
-      <c r="H261" t="inlineStr"/>
-      <c r="I261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -12603,11 +11903,9 @@
       <c r="F262" t="n">
         <v>0.3</v>
       </c>
-      <c r="G262" t="inlineStr"/>
       <c r="H262" t="n">
         <v>0.99</v>
       </c>
-      <c r="I262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -12636,9 +11934,6 @@
       <c r="F263" t="n">
         <v>10</v>
       </c>
-      <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr"/>
-      <c r="I263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -12667,9 +11962,6 @@
       <c r="F264" t="n">
         <v>300</v>
       </c>
-      <c r="G264" t="inlineStr"/>
-      <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -12701,8 +11993,6 @@
       <c r="G265" t="n">
         <v>0</v>
       </c>
-      <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -12731,9 +12021,6 @@
       <c r="F266" t="n">
         <v>2</v>
       </c>
-      <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr"/>
-      <c r="I266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -12762,9 +12049,6 @@
       <c r="F267" t="n">
         <v>-300</v>
       </c>
-      <c r="G267" t="inlineStr"/>
-      <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -12793,11 +12077,9 @@
       <c r="F268" t="n">
         <v>0.1</v>
       </c>
-      <c r="G268" t="inlineStr"/>
       <c r="H268" t="n">
         <v>0.99</v>
       </c>
-      <c r="I268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -12826,9 +12108,6 @@
       <c r="F269" t="n">
         <v>1</v>
       </c>
-      <c r="G269" t="inlineStr"/>
-      <c r="H269" t="inlineStr"/>
-      <c r="I269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -12857,11 +12136,9 @@
       <c r="F270" t="n">
         <v>0.1</v>
       </c>
-      <c r="G270" t="inlineStr"/>
       <c r="H270" t="n">
         <v>0.99</v>
       </c>
-      <c r="I270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -12890,9 +12167,6 @@
       <c r="F271" t="n">
         <v>1</v>
       </c>
-      <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr"/>
-      <c r="I271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -12921,9 +12195,6 @@
       <c r="F272" t="n">
         <v>2</v>
       </c>
-      <c r="G272" t="inlineStr"/>
-      <c r="H272" t="inlineStr"/>
-      <c r="I272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -12952,9 +12223,6 @@
       <c r="F273" t="n">
         <v>-300</v>
       </c>
-      <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr"/>
-      <c r="I273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -12983,9 +12251,6 @@
       <c r="F274" t="n">
         <v>5</v>
       </c>
-      <c r="G274" t="inlineStr"/>
-      <c r="H274" t="inlineStr"/>
-      <c r="I274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -13017,8 +12282,6 @@
       <c r="G275" t="n">
         <v>0</v>
       </c>
-      <c r="H275" t="inlineStr"/>
-      <c r="I275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -13047,11 +12310,9 @@
       <c r="F276" t="n">
         <v>0.2</v>
       </c>
-      <c r="G276" t="inlineStr"/>
       <c r="H276" t="n">
         <v>0.99</v>
       </c>
-      <c r="I276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -13080,9 +12341,6 @@
       <c r="F277" t="n">
         <v>-200</v>
       </c>
-      <c r="G277" t="inlineStr"/>
-      <c r="H277" t="inlineStr"/>
-      <c r="I277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -13111,9 +12369,6 @@
       <c r="F278" t="n">
         <v>-1</v>
       </c>
-      <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr"/>
-      <c r="I278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -13142,9 +12397,6 @@
       <c r="F279" t="n">
         <v>500</v>
       </c>
-      <c r="G279" t="inlineStr"/>
-      <c r="H279" t="inlineStr"/>
-      <c r="I279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -13173,9 +12425,6 @@
       <c r="F280" t="n">
         <v>5</v>
       </c>
-      <c r="G280" t="inlineStr"/>
-      <c r="H280" t="inlineStr"/>
-      <c r="I280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -13204,9 +12453,6 @@
       <c r="F281" t="n">
         <v>-1</v>
       </c>
-      <c r="G281" t="inlineStr"/>
-      <c r="H281" t="inlineStr"/>
-      <c r="I281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -13235,9 +12481,6 @@
       <c r="F282" t="n">
         <v>500</v>
       </c>
-      <c r="G282" t="inlineStr"/>
-      <c r="H282" t="inlineStr"/>
-      <c r="I282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -13266,11 +12509,9 @@
       <c r="F283" t="n">
         <v>0.3</v>
       </c>
-      <c r="G283" t="inlineStr"/>
       <c r="H283" t="n">
         <v>0.99</v>
       </c>
-      <c r="I283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -13299,9 +12540,6 @@
       <c r="F284" t="n">
         <v>5</v>
       </c>
-      <c r="G284" t="inlineStr"/>
-      <c r="H284" t="inlineStr"/>
-      <c r="I284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -13330,9 +12568,6 @@
       <c r="F285" t="n">
         <v>5</v>
       </c>
-      <c r="G285" t="inlineStr"/>
-      <c r="H285" t="inlineStr"/>
-      <c r="I285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -13361,11 +12596,9 @@
       <c r="F286" t="n">
         <v>0.1</v>
       </c>
-      <c r="G286" t="inlineStr"/>
       <c r="H286" t="n">
         <v>0.99</v>
       </c>
-      <c r="I286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -13394,9 +12627,6 @@
       <c r="F287" t="n">
         <v>1</v>
       </c>
-      <c r="G287" t="inlineStr"/>
-      <c r="H287" t="inlineStr"/>
-      <c r="I287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -13425,11 +12655,9 @@
       <c r="F288" t="n">
         <v>0.1</v>
       </c>
-      <c r="G288" t="inlineStr"/>
       <c r="H288" t="n">
         <v>0.99</v>
       </c>
-      <c r="I288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -13458,9 +12686,6 @@
       <c r="F289" t="n">
         <v>1</v>
       </c>
-      <c r="G289" t="inlineStr"/>
-      <c r="H289" t="inlineStr"/>
-      <c r="I289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -13489,9 +12714,6 @@
       <c r="F290" t="n">
         <v>-1</v>
       </c>
-      <c r="G290" t="inlineStr"/>
-      <c r="H290" t="inlineStr"/>
-      <c r="I290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -13520,9 +12742,6 @@
       <c r="F291" t="n">
         <v>500</v>
       </c>
-      <c r="G291" t="inlineStr"/>
-      <c r="H291" t="inlineStr"/>
-      <c r="I291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -13551,11 +12770,9 @@
       <c r="F292" t="n">
         <v>0.3</v>
       </c>
-      <c r="G292" t="inlineStr"/>
       <c r="H292" t="n">
         <v>0.99</v>
       </c>
-      <c r="I292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -13584,11 +12801,9 @@
       <c r="F293" t="n">
         <v>0.3</v>
       </c>
-      <c r="G293" t="inlineStr"/>
       <c r="H293" t="n">
         <v>0.99</v>
       </c>
-      <c r="I293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -13617,11 +12832,9 @@
       <c r="F294" t="n">
         <v>0.2</v>
       </c>
-      <c r="G294" t="inlineStr"/>
       <c r="H294" t="n">
         <v>0.99</v>
       </c>
-      <c r="I294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -13650,9 +12863,6 @@
       <c r="F295" t="n">
         <v>-200</v>
       </c>
-      <c r="G295" t="inlineStr"/>
-      <c r="H295" t="inlineStr"/>
-      <c r="I295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -13681,9 +12891,6 @@
       <c r="F296" t="n">
         <v>2</v>
       </c>
-      <c r="G296" t="inlineStr"/>
-      <c r="H296" t="inlineStr"/>
-      <c r="I296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -13712,9 +12919,6 @@
       <c r="F297" t="n">
         <v>-300</v>
       </c>
-      <c r="G297" t="inlineStr"/>
-      <c r="H297" t="inlineStr"/>
-      <c r="I297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -13743,11 +12947,9 @@
       <c r="F298" t="n">
         <v>0.3</v>
       </c>
-      <c r="G298" t="inlineStr"/>
       <c r="H298" t="n">
         <v>0.99</v>
       </c>
-      <c r="I298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -13776,9 +12978,6 @@
       <c r="F299" t="n">
         <v>-1</v>
       </c>
-      <c r="G299" t="inlineStr"/>
-      <c r="H299" t="inlineStr"/>
-      <c r="I299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -13807,9 +13006,6 @@
       <c r="F300" t="n">
         <v>500</v>
       </c>
-      <c r="G300" t="inlineStr"/>
-      <c r="H300" t="inlineStr"/>
-      <c r="I300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -13838,9 +13034,6 @@
       <c r="F301" t="n">
         <v>2</v>
       </c>
-      <c r="G301" t="inlineStr"/>
-      <c r="H301" t="inlineStr"/>
-      <c r="I301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -13869,9 +13062,6 @@
       <c r="F302" t="n">
         <v>-300</v>
       </c>
-      <c r="G302" t="inlineStr"/>
-      <c r="H302" t="inlineStr"/>
-      <c r="I302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -13903,8 +13093,6 @@
       <c r="G303" t="n">
         <v>0</v>
       </c>
-      <c r="H303" t="inlineStr"/>
-      <c r="I303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -13933,11 +13121,9 @@
       <c r="F304" t="n">
         <v>0.2</v>
       </c>
-      <c r="G304" t="inlineStr"/>
       <c r="H304" t="n">
         <v>0.99</v>
       </c>
-      <c r="I304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -13966,9 +13152,6 @@
       <c r="F305" t="n">
         <v>-200</v>
       </c>
-      <c r="G305" t="inlineStr"/>
-      <c r="H305" t="inlineStr"/>
-      <c r="I305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -13997,11 +13180,9 @@
       <c r="F306" t="n">
         <v>0.2</v>
       </c>
-      <c r="G306" t="inlineStr"/>
       <c r="H306" t="n">
         <v>0.99</v>
       </c>
-      <c r="I306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -14030,9 +13211,6 @@
       <c r="F307" t="n">
         <v>-200</v>
       </c>
-      <c r="G307" t="inlineStr"/>
-      <c r="H307" t="inlineStr"/>
-      <c r="I307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -14061,9 +13239,6 @@
       <c r="F308" t="n">
         <v>10</v>
       </c>
-      <c r="G308" t="inlineStr"/>
-      <c r="H308" t="inlineStr"/>
-      <c r="I308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -14092,9 +13267,6 @@
       <c r="F309" t="n">
         <v>300</v>
       </c>
-      <c r="G309" t="inlineStr"/>
-      <c r="H309" t="inlineStr"/>
-      <c r="I309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -14123,11 +13295,9 @@
       <c r="F310" t="n">
         <v>0.1</v>
       </c>
-      <c r="G310" t="inlineStr"/>
       <c r="H310" t="n">
         <v>0.99</v>
       </c>
-      <c r="I310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -14156,9 +13326,6 @@
       <c r="F311" t="n">
         <v>1</v>
       </c>
-      <c r="G311" t="inlineStr"/>
-      <c r="H311" t="inlineStr"/>
-      <c r="I311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -14187,11 +13354,9 @@
       <c r="F312" t="n">
         <v>0.3</v>
       </c>
-      <c r="G312" t="inlineStr"/>
       <c r="H312" t="n">
         <v>0.99</v>
       </c>
-      <c r="I312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -14220,11 +13385,9 @@
       <c r="F313" t="n">
         <v>0.1</v>
       </c>
-      <c r="G313" t="inlineStr"/>
       <c r="H313" t="n">
         <v>0.99</v>
       </c>
-      <c r="I313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -14253,9 +13416,6 @@
       <c r="F314" t="n">
         <v>1</v>
       </c>
-      <c r="G314" t="inlineStr"/>
-      <c r="H314" t="inlineStr"/>
-      <c r="I314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -14284,9 +13444,6 @@
       <c r="F315" t="n">
         <v>5</v>
       </c>
-      <c r="G315" t="inlineStr"/>
-      <c r="H315" t="inlineStr"/>
-      <c r="I315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -14315,11 +13472,9 @@
       <c r="F316" t="n">
         <v>0.1</v>
       </c>
-      <c r="G316" t="inlineStr"/>
       <c r="H316" t="n">
         <v>0.99</v>
       </c>
-      <c r="I316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -14348,9 +13503,6 @@
       <c r="F317" t="n">
         <v>1</v>
       </c>
-      <c r="G317" t="inlineStr"/>
-      <c r="H317" t="inlineStr"/>
-      <c r="I317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -14379,9 +13531,6 @@
       <c r="F318" t="n">
         <v>2</v>
       </c>
-      <c r="G318" t="inlineStr"/>
-      <c r="H318" t="inlineStr"/>
-      <c r="I318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -14410,9 +13559,6 @@
       <c r="F319" t="n">
         <v>-300</v>
       </c>
-      <c r="G319" t="inlineStr"/>
-      <c r="H319" t="inlineStr"/>
-      <c r="I319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -14441,9 +13587,6 @@
       <c r="F320" t="n">
         <v>-1</v>
       </c>
-      <c r="G320" t="inlineStr"/>
-      <c r="H320" t="inlineStr"/>
-      <c r="I320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -14472,9 +13615,6 @@
       <c r="F321" t="n">
         <v>500</v>
       </c>
-      <c r="G321" t="inlineStr"/>
-      <c r="H321" t="inlineStr"/>
-      <c r="I321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -14503,11 +13643,9 @@
       <c r="F322" t="n">
         <v>0.3</v>
       </c>
-      <c r="G322" t="inlineStr"/>
       <c r="H322" t="n">
         <v>0.99</v>
       </c>
-      <c r="I322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -14536,11 +13674,9 @@
       <c r="F323" t="n">
         <v>0.3</v>
       </c>
-      <c r="G323" t="inlineStr"/>
       <c r="H323" t="n">
         <v>0.99</v>
       </c>
-      <c r="I323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -14569,9 +13705,6 @@
       <c r="F324" t="n">
         <v>-1</v>
       </c>
-      <c r="G324" t="inlineStr"/>
-      <c r="H324" t="inlineStr"/>
-      <c r="I324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -14600,9 +13733,6 @@
       <c r="F325" t="n">
         <v>500</v>
       </c>
-      <c r="G325" t="inlineStr"/>
-      <c r="H325" t="inlineStr"/>
-      <c r="I325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -14631,9 +13761,6 @@
       <c r="F326" t="n">
         <v>2</v>
       </c>
-      <c r="G326" t="inlineStr"/>
-      <c r="H326" t="inlineStr"/>
-      <c r="I326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -14662,9 +13789,6 @@
       <c r="F327" t="n">
         <v>-300</v>
       </c>
-      <c r="G327" t="inlineStr"/>
-      <c r="H327" t="inlineStr"/>
-      <c r="I327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -14693,9 +13817,6 @@
       <c r="F328" t="n">
         <v>5</v>
       </c>
-      <c r="G328" t="inlineStr"/>
-      <c r="H328" t="inlineStr"/>
-      <c r="I328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -14724,9 +13845,6 @@
       <c r="F329" t="n">
         <v>10</v>
       </c>
-      <c r="G329" t="inlineStr"/>
-      <c r="H329" t="inlineStr"/>
-      <c r="I329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -14755,9 +13873,6 @@
       <c r="F330" t="n">
         <v>300</v>
       </c>
-      <c r="G330" t="inlineStr"/>
-      <c r="H330" t="inlineStr"/>
-      <c r="I330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -14786,11 +13901,9 @@
       <c r="F331" t="n">
         <v>0.2</v>
       </c>
-      <c r="G331" t="inlineStr"/>
       <c r="H331" t="n">
         <v>0.99</v>
       </c>
-      <c r="I331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -14819,9 +13932,6 @@
       <c r="F332" t="n">
         <v>-200</v>
       </c>
-      <c r="G332" t="inlineStr"/>
-      <c r="H332" t="inlineStr"/>
-      <c r="I332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -14850,9 +13960,6 @@
       <c r="F333" t="n">
         <v>10</v>
       </c>
-      <c r="G333" t="inlineStr"/>
-      <c r="H333" t="inlineStr"/>
-      <c r="I333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -14881,9 +13988,6 @@
       <c r="F334" t="n">
         <v>300</v>
       </c>
-      <c r="G334" t="inlineStr"/>
-      <c r="H334" t="inlineStr"/>
-      <c r="I334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -14912,9 +14016,6 @@
       <c r="F335" t="n">
         <v>10</v>
       </c>
-      <c r="G335" t="inlineStr"/>
-      <c r="H335" t="inlineStr"/>
-      <c r="I335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -14943,9 +14044,6 @@
       <c r="F336" t="n">
         <v>300</v>
       </c>
-      <c r="G336" t="inlineStr"/>
-      <c r="H336" t="inlineStr"/>
-      <c r="I336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -14974,11 +14072,9 @@
       <c r="F337" t="n">
         <v>0.2</v>
       </c>
-      <c r="G337" t="inlineStr"/>
       <c r="H337" t="n">
         <v>0.99</v>
       </c>
-      <c r="I337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -15007,9 +14103,6 @@
       <c r="F338" t="n">
         <v>-200</v>
       </c>
-      <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr"/>
-      <c r="I338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -15038,9 +14131,6 @@
       <c r="F339" t="n">
         <v>5</v>
       </c>
-      <c r="G339" t="inlineStr"/>
-      <c r="H339" t="inlineStr"/>
-      <c r="I339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -15072,8 +14162,6 @@
       <c r="G340" t="n">
         <v>0</v>
       </c>
-      <c r="H340" t="inlineStr"/>
-      <c r="I340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -15102,9 +14190,6 @@
       <c r="F341" t="n">
         <v>2</v>
       </c>
-      <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr"/>
-      <c r="I341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -15133,9 +14218,6 @@
       <c r="F342" t="n">
         <v>-300</v>
       </c>
-      <c r="G342" t="inlineStr"/>
-      <c r="H342" t="inlineStr"/>
-      <c r="I342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -15164,11 +14246,9 @@
       <c r="F343" t="n">
         <v>0.1</v>
       </c>
-      <c r="G343" t="inlineStr"/>
       <c r="H343" t="n">
         <v>0.99</v>
       </c>
-      <c r="I343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -15197,9 +14277,6 @@
       <c r="F344" t="n">
         <v>1</v>
       </c>
-      <c r="G344" t="inlineStr"/>
-      <c r="H344" t="inlineStr"/>
-      <c r="I344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -15228,11 +14305,9 @@
       <c r="F345" t="n">
         <v>0.2</v>
       </c>
-      <c r="G345" t="inlineStr"/>
       <c r="H345" t="n">
         <v>0.99</v>
       </c>
-      <c r="I345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -15261,9 +14336,6 @@
       <c r="F346" t="n">
         <v>-200</v>
       </c>
-      <c r="G346" t="inlineStr"/>
-      <c r="H346" t="inlineStr"/>
-      <c r="I346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -15292,9 +14364,6 @@
       <c r="F347" t="n">
         <v>2</v>
       </c>
-      <c r="G347" t="inlineStr"/>
-      <c r="H347" t="inlineStr"/>
-      <c r="I347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -15323,9 +14392,6 @@
       <c r="F348" t="n">
         <v>-300</v>
       </c>
-      <c r="G348" t="inlineStr"/>
-      <c r="H348" t="inlineStr"/>
-      <c r="I348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -15354,9 +14420,6 @@
       <c r="F349" t="n">
         <v>5</v>
       </c>
-      <c r="G349" t="inlineStr"/>
-      <c r="H349" t="inlineStr"/>
-      <c r="I349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -15385,9 +14448,6 @@
       <c r="F350" t="n">
         <v>10</v>
       </c>
-      <c r="G350" t="inlineStr"/>
-      <c r="H350" t="inlineStr"/>
-      <c r="I350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -15416,9 +14476,6 @@
       <c r="F351" t="n">
         <v>300</v>
       </c>
-      <c r="G351" t="inlineStr"/>
-      <c r="H351" t="inlineStr"/>
-      <c r="I351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -15447,9 +14504,6 @@
       <c r="F352" t="n">
         <v>5</v>
       </c>
-      <c r="G352" t="inlineStr"/>
-      <c r="H352" t="inlineStr"/>
-      <c r="I352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -15478,9 +14532,6 @@
       <c r="F353" t="n">
         <v>-1</v>
       </c>
-      <c r="G353" t="inlineStr"/>
-      <c r="H353" t="inlineStr"/>
-      <c r="I353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -15509,9 +14560,6 @@
       <c r="F354" t="n">
         <v>500</v>
       </c>
-      <c r="G354" t="inlineStr"/>
-      <c r="H354" t="inlineStr"/>
-      <c r="I354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -15543,8 +14591,6 @@
       <c r="G355" t="n">
         <v>0</v>
       </c>
-      <c r="H355" t="inlineStr"/>
-      <c r="I355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -15573,11 +14619,9 @@
       <c r="F356" t="n">
         <v>0.2</v>
       </c>
-      <c r="G356" t="inlineStr"/>
       <c r="H356" t="n">
         <v>0.99</v>
       </c>
-      <c r="I356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -15606,9 +14650,6 @@
       <c r="F357" t="n">
         <v>-200</v>
       </c>
-      <c r="G357" t="inlineStr"/>
-      <c r="H357" t="inlineStr"/>
-      <c r="I357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -15637,9 +14678,6 @@
       <c r="F358" t="n">
         <v>-1</v>
       </c>
-      <c r="G358" t="inlineStr"/>
-      <c r="H358" t="inlineStr"/>
-      <c r="I358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -15668,9 +14706,6 @@
       <c r="F359" t="n">
         <v>500</v>
       </c>
-      <c r="G359" t="inlineStr"/>
-      <c r="H359" t="inlineStr"/>
-      <c r="I359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -15699,9 +14734,6 @@
       <c r="F360" t="n">
         <v>-1</v>
       </c>
-      <c r="G360" t="inlineStr"/>
-      <c r="H360" t="inlineStr"/>
-      <c r="I360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -15730,9 +14762,6 @@
       <c r="F361" t="n">
         <v>500</v>
       </c>
-      <c r="G361" t="inlineStr"/>
-      <c r="H361" t="inlineStr"/>
-      <c r="I361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -15764,8 +14793,6 @@
       <c r="G362" t="n">
         <v>0</v>
       </c>
-      <c r="H362" t="inlineStr"/>
-      <c r="I362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -15794,9 +14821,6 @@
       <c r="F363" t="n">
         <v>5</v>
       </c>
-      <c r="G363" t="inlineStr"/>
-      <c r="H363" t="inlineStr"/>
-      <c r="I363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -15828,8 +14852,6 @@
       <c r="G364" t="n">
         <v>0</v>
       </c>
-      <c r="H364" t="inlineStr"/>
-      <c r="I364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -15858,11 +14880,9 @@
       <c r="F365" t="n">
         <v>0.3</v>
       </c>
-      <c r="G365" t="inlineStr"/>
       <c r="H365" t="n">
         <v>0.99</v>
       </c>
-      <c r="I365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -15891,9 +14911,6 @@
       <c r="F366" t="n">
         <v>5</v>
       </c>
-      <c r="G366" t="inlineStr"/>
-      <c r="H366" t="inlineStr"/>
-      <c r="I366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -15922,9 +14939,6 @@
       <c r="F367" t="n">
         <v>5</v>
       </c>
-      <c r="G367" t="inlineStr"/>
-      <c r="H367" t="inlineStr"/>
-      <c r="I367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -15953,11 +14967,9 @@
       <c r="F368" t="n">
         <v>0.1</v>
       </c>
-      <c r="G368" t="inlineStr"/>
       <c r="H368" t="n">
         <v>0.99</v>
       </c>
-      <c r="I368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -15986,9 +14998,6 @@
       <c r="F369" t="n">
         <v>1</v>
       </c>
-      <c r="G369" t="inlineStr"/>
-      <c r="H369" t="inlineStr"/>
-      <c r="I369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -16017,9 +15026,6 @@
       <c r="F370" t="n">
         <v>2</v>
       </c>
-      <c r="G370" t="inlineStr"/>
-      <c r="H370" t="inlineStr"/>
-      <c r="I370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -16048,9 +15054,6 @@
       <c r="F371" t="n">
         <v>-300</v>
       </c>
-      <c r="G371" t="inlineStr"/>
-      <c r="H371" t="inlineStr"/>
-      <c r="I371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -16079,9 +15082,6 @@
       <c r="F372" t="n">
         <v>-1</v>
       </c>
-      <c r="G372" t="inlineStr"/>
-      <c r="H372" t="inlineStr"/>
-      <c r="I372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -16110,9 +15110,6 @@
       <c r="F373" t="n">
         <v>500</v>
       </c>
-      <c r="G373" t="inlineStr"/>
-      <c r="H373" t="inlineStr"/>
-      <c r="I373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -16141,9 +15138,6 @@
       <c r="F374" t="n">
         <v>10</v>
       </c>
-      <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr"/>
-      <c r="I374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -16172,9 +15166,6 @@
       <c r="F375" t="n">
         <v>300</v>
       </c>
-      <c r="G375" t="inlineStr"/>
-      <c r="H375" t="inlineStr"/>
-      <c r="I375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -16203,11 +15194,9 @@
       <c r="F376" t="n">
         <v>0.2</v>
       </c>
-      <c r="G376" t="inlineStr"/>
       <c r="H376" t="n">
         <v>0.99</v>
       </c>
-      <c r="I376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -16236,9 +15225,6 @@
       <c r="F377" t="n">
         <v>-200</v>
       </c>
-      <c r="G377" t="inlineStr"/>
-      <c r="H377" t="inlineStr"/>
-      <c r="I377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -16267,11 +15253,9 @@
       <c r="F378" t="n">
         <v>0.3</v>
       </c>
-      <c r="G378" t="inlineStr"/>
       <c r="H378" t="n">
         <v>0.99</v>
       </c>
-      <c r="I378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -16300,11 +15284,9 @@
       <c r="F379" t="n">
         <v>0.3</v>
       </c>
-      <c r="G379" t="inlineStr"/>
       <c r="H379" t="n">
         <v>0.99</v>
       </c>
-      <c r="I379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -16333,11 +15315,9 @@
       <c r="F380" t="n">
         <v>0.2</v>
       </c>
-      <c r="G380" t="inlineStr"/>
       <c r="H380" t="n">
         <v>0.99</v>
       </c>
-      <c r="I380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -16366,9 +15346,6 @@
       <c r="F381" t="n">
         <v>-200</v>
       </c>
-      <c r="G381" t="inlineStr"/>
-      <c r="H381" t="inlineStr"/>
-      <c r="I381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -16400,8 +15377,6 @@
       <c r="G382" t="n">
         <v>0</v>
       </c>
-      <c r="H382" t="inlineStr"/>
-      <c r="I382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -16430,11 +15405,9 @@
       <c r="F383" t="n">
         <v>0.1</v>
       </c>
-      <c r="G383" t="inlineStr"/>
       <c r="H383" t="n">
         <v>0.99</v>
       </c>
-      <c r="I383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -16463,9 +15436,6 @@
       <c r="F384" t="n">
         <v>1</v>
       </c>
-      <c r="G384" t="inlineStr"/>
-      <c r="H384" t="inlineStr"/>
-      <c r="I384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -16494,9 +15464,6 @@
       <c r="F385" t="n">
         <v>2</v>
       </c>
-      <c r="G385" t="inlineStr"/>
-      <c r="H385" t="inlineStr"/>
-      <c r="I385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -16525,9 +15492,6 @@
       <c r="F386" t="n">
         <v>-300</v>
       </c>
-      <c r="G386" t="inlineStr"/>
-      <c r="H386" t="inlineStr"/>
-      <c r="I386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -16556,11 +15520,9 @@
       <c r="F387" t="n">
         <v>0.2</v>
       </c>
-      <c r="G387" t="inlineStr"/>
       <c r="H387" t="n">
         <v>0.99</v>
       </c>
-      <c r="I387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -16589,9 +15551,6 @@
       <c r="F388" t="n">
         <v>-200</v>
       </c>
-      <c r="G388" t="inlineStr"/>
-      <c r="H388" t="inlineStr"/>
-      <c r="I388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -16620,9 +15579,6 @@
       <c r="F389" t="n">
         <v>-1</v>
       </c>
-      <c r="G389" t="inlineStr"/>
-      <c r="H389" t="inlineStr"/>
-      <c r="I389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -16651,9 +15607,6 @@
       <c r="F390" t="n">
         <v>500</v>
       </c>
-      <c r="G390" t="inlineStr"/>
-      <c r="H390" t="inlineStr"/>
-      <c r="I390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -16682,11 +15635,9 @@
       <c r="F391" t="n">
         <v>0.2</v>
       </c>
-      <c r="G391" t="inlineStr"/>
       <c r="H391" t="n">
         <v>0.99</v>
       </c>
-      <c r="I391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -16715,9 +15666,6 @@
       <c r="F392" t="n">
         <v>-200</v>
       </c>
-      <c r="G392" t="inlineStr"/>
-      <c r="H392" t="inlineStr"/>
-      <c r="I392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -16746,9 +15694,6 @@
       <c r="F393" t="n">
         <v>-1</v>
       </c>
-      <c r="G393" t="inlineStr"/>
-      <c r="H393" t="inlineStr"/>
-      <c r="I393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -16777,9 +15722,6 @@
       <c r="F394" t="n">
         <v>500</v>
       </c>
-      <c r="G394" t="inlineStr"/>
-      <c r="H394" t="inlineStr"/>
-      <c r="I394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -16808,9 +15750,6 @@
       <c r="F395" t="n">
         <v>10</v>
       </c>
-      <c r="G395" t="inlineStr"/>
-      <c r="H395" t="inlineStr"/>
-      <c r="I395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -16839,9 +15778,6 @@
       <c r="F396" t="n">
         <v>300</v>
       </c>
-      <c r="G396" t="inlineStr"/>
-      <c r="H396" t="inlineStr"/>
-      <c r="I396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -16870,9 +15806,6 @@
       <c r="F397" t="n">
         <v>2</v>
       </c>
-      <c r="G397" t="inlineStr"/>
-      <c r="H397" t="inlineStr"/>
-      <c r="I397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -16901,9 +15834,6 @@
       <c r="F398" t="n">
         <v>-300</v>
       </c>
-      <c r="G398" t="inlineStr"/>
-      <c r="H398" t="inlineStr"/>
-      <c r="I398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -16932,11 +15862,9 @@
       <c r="F399" t="n">
         <v>0.1</v>
       </c>
-      <c r="G399" t="inlineStr"/>
       <c r="H399" t="n">
         <v>0.99</v>
       </c>
-      <c r="I399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -16965,9 +15893,6 @@
       <c r="F400" t="n">
         <v>1</v>
       </c>
-      <c r="G400" t="inlineStr"/>
-      <c r="H400" t="inlineStr"/>
-      <c r="I400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -16996,11 +15921,9 @@
       <c r="F401" t="n">
         <v>0.2</v>
       </c>
-      <c r="G401" t="inlineStr"/>
       <c r="H401" t="n">
         <v>0.99</v>
       </c>
-      <c r="I401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -17029,9 +15952,6 @@
       <c r="F402" t="n">
         <v>-200</v>
       </c>
-      <c r="G402" t="inlineStr"/>
-      <c r="H402" t="inlineStr"/>
-      <c r="I402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -17060,11 +15980,9 @@
       <c r="F403" t="n">
         <v>0.2</v>
       </c>
-      <c r="G403" t="inlineStr"/>
       <c r="H403" t="n">
         <v>0.99</v>
       </c>
-      <c r="I403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -17093,9 +16011,6 @@
       <c r="F404" t="n">
         <v>-200</v>
       </c>
-      <c r="G404" t="inlineStr"/>
-      <c r="H404" t="inlineStr"/>
-      <c r="I404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -17124,11 +16039,9 @@
       <c r="F405" t="n">
         <v>0.2</v>
       </c>
-      <c r="G405" t="inlineStr"/>
       <c r="H405" t="n">
         <v>0.99</v>
       </c>
-      <c r="I405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -17157,9 +16070,6 @@
       <c r="F406" t="n">
         <v>-200</v>
       </c>
-      <c r="G406" t="inlineStr"/>
-      <c r="H406" t="inlineStr"/>
-      <c r="I406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -17188,9 +16098,6 @@
       <c r="F407" t="n">
         <v>5</v>
       </c>
-      <c r="G407" t="inlineStr"/>
-      <c r="H407" t="inlineStr"/>
-      <c r="I407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -17219,9 +16126,6 @@
       <c r="F408" t="n">
         <v>2</v>
       </c>
-      <c r="G408" t="inlineStr"/>
-      <c r="H408" t="inlineStr"/>
-      <c r="I408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -17250,9 +16154,6 @@
       <c r="F409" t="n">
         <v>-300</v>
       </c>
-      <c r="G409" t="inlineStr"/>
-      <c r="H409" t="inlineStr"/>
-      <c r="I409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -17281,11 +16182,9 @@
       <c r="F410" t="n">
         <v>0.2</v>
       </c>
-      <c r="G410" t="inlineStr"/>
       <c r="H410" t="n">
         <v>0.99</v>
       </c>
-      <c r="I410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -17314,9 +16213,6 @@
       <c r="F411" t="n">
         <v>-200</v>
       </c>
-      <c r="G411" t="inlineStr"/>
-      <c r="H411" t="inlineStr"/>
-      <c r="I411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -17345,9 +16241,6 @@
       <c r="F412" t="n">
         <v>-1</v>
       </c>
-      <c r="G412" t="inlineStr"/>
-      <c r="H412" t="inlineStr"/>
-      <c r="I412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -17376,9 +16269,6 @@
       <c r="F413" t="n">
         <v>500</v>
       </c>
-      <c r="G413" t="inlineStr"/>
-      <c r="H413" t="inlineStr"/>
-      <c r="I413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -17407,11 +16297,9 @@
       <c r="F414" t="n">
         <v>0.1</v>
       </c>
-      <c r="G414" t="inlineStr"/>
       <c r="H414" t="n">
         <v>0.99</v>
       </c>
-      <c r="I414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -17440,9 +16328,6 @@
       <c r="F415" t="n">
         <v>1</v>
       </c>
-      <c r="G415" t="inlineStr"/>
-      <c r="H415" t="inlineStr"/>
-      <c r="I415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -17471,11 +16356,9 @@
       <c r="F416" t="n">
         <v>0.3</v>
       </c>
-      <c r="G416" t="inlineStr"/>
       <c r="H416" t="n">
         <v>0.99</v>
       </c>
-      <c r="I416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -17504,9 +16387,6 @@
       <c r="F417" t="n">
         <v>10</v>
       </c>
-      <c r="G417" t="inlineStr"/>
-      <c r="H417" t="inlineStr"/>
-      <c r="I417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -17535,9 +16415,6 @@
       <c r="F418" t="n">
         <v>300</v>
       </c>
-      <c r="G418" t="inlineStr"/>
-      <c r="H418" t="inlineStr"/>
-      <c r="I418" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27990,11 +26867,9 @@
           <t>AN_001</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -28012,7 +26887,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -28023,8 +26898,11 @@
       <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N4" t="n">
         <v>0.15</v>
       </c>
@@ -28052,11 +26930,9 @@
           <t>AN_001</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -28074,7 +26950,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -28085,8 +26961,11 @@
       <c r="K5" t="n">
         <v>2</v>
       </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N5" t="n">
         <v>0.08</v>
       </c>
@@ -28114,11 +26993,9 @@
           <t>AN_002</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -28136,7 +27013,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -28147,8 +27024,11 @@
       <c r="K6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N6" t="n">
         <v>0.15</v>
       </c>
@@ -28176,11 +27056,9 @@
           <t>AN_002</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -28198,7 +27076,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -28209,8 +27087,11 @@
       <c r="K7" t="n">
         <v>2</v>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N7" t="n">
         <v>0.08</v>
       </c>
@@ -28238,11 +27119,9 @@
           <t>AN_003</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -28260,7 +27139,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -28271,8 +27150,11 @@
       <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N8" t="n">
         <v>0.15</v>
       </c>
@@ -28300,11 +27182,9 @@
           <t>AN_004</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -28322,7 +27202,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -28333,8 +27213,11 @@
       <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N9" t="n">
         <v>0.15</v>
       </c>
@@ -28362,11 +27245,9 @@
           <t>AN_005</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -28384,7 +27265,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -28395,8 +27276,11 @@
       <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N10" t="n">
         <v>0.15</v>
       </c>
@@ -28424,11 +27308,9 @@
           <t>AN_005</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -28446,7 +27328,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -28457,8 +27339,11 @@
       <c r="K11" t="n">
         <v>2</v>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N11" t="n">
         <v>0.08</v>
       </c>
@@ -28486,11 +27371,9 @@
           <t>AN_006</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -28508,7 +27391,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -28519,8 +27402,11 @@
       <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N12" t="n">
         <v>0.15</v>
       </c>
@@ -28548,11 +27434,9 @@
           <t>AN_006</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -28570,7 +27454,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -28581,8 +27465,11 @@
       <c r="K13" t="n">
         <v>2</v>
       </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N13" t="n">
         <v>0.08</v>
       </c>
@@ -28610,11 +27497,9 @@
           <t>AN_007</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -28632,7 +27517,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -28643,8 +27528,11 @@
       <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N14" t="n">
         <v>0.15</v>
       </c>
@@ -28672,11 +27560,9 @@
           <t>AN_008</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -28694,7 +27580,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -28705,8 +27591,11 @@
       <c r="K15" t="n">
         <v>1</v>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N15" t="n">
         <v>0.15</v>
       </c>
@@ -28734,11 +27623,9 @@
           <t>AN_008</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -28756,7 +27643,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -28767,8 +27654,11 @@
       <c r="K16" t="n">
         <v>2</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N16" t="n">
         <v>0.08</v>
       </c>
@@ -28796,11 +27686,9 @@
           <t>AN_009</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -28818,7 +27706,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -28829,8 +27717,11 @@
       <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N17" t="n">
         <v>0.15</v>
       </c>
@@ -28858,11 +27749,9 @@
           <t>AN_009</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -28880,7 +27769,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -28891,8 +27780,11 @@
       <c r="K18" t="n">
         <v>2</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N18" t="n">
         <v>0.08</v>
       </c>
@@ -28920,11 +27812,9 @@
           <t>AN_010</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -28942,7 +27832,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -28953,8 +27843,11 @@
       <c r="K19" t="n">
         <v>1</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N19" t="n">
         <v>0.15</v>
       </c>
@@ -28982,11 +27875,9 @@
           <t>AN_011</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -29004,7 +27895,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -29015,8 +27906,11 @@
       <c r="K20" t="n">
         <v>1</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N20" t="n">
         <v>0.15</v>
       </c>
@@ -29044,11 +27938,9 @@
           <t>AN_011</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -29066,7 +27958,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -29077,8 +27969,11 @@
       <c r="K21" t="n">
         <v>2</v>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N21" t="n">
         <v>0.08</v>
       </c>
@@ -29106,11 +28001,9 @@
           <t>AN_012</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -29128,7 +28021,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -29139,8 +28032,11 @@
       <c r="K22" t="n">
         <v>1</v>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N22" t="n">
         <v>0.15</v>
       </c>
@@ -29168,11 +28064,9 @@
           <t>AN_013</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -29190,7 +28084,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -29201,8 +28095,11 @@
       <c r="K23" t="n">
         <v>1</v>
       </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N23" t="n">
         <v>0.15</v>
       </c>
@@ -29230,11 +28127,9 @@
           <t>AN_013</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -29252,7 +28147,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -29263,8 +28158,11 @@
       <c r="K24" t="n">
         <v>2</v>
       </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N24" t="n">
         <v>0.08</v>
       </c>
@@ -29292,11 +28190,9 @@
           <t>AN_014</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -29314,7 +28210,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -29325,8 +28221,11 @@
       <c r="K25" t="n">
         <v>1</v>
       </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N25" t="n">
         <v>0.15</v>
       </c>
@@ -29354,11 +28253,9 @@
           <t>AN_014</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -29376,7 +28273,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -29387,8 +28284,11 @@
       <c r="K26" t="n">
         <v>2</v>
       </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N26" t="n">
         <v>0.08</v>
       </c>
@@ -29416,11 +28316,9 @@
           <t>AN_015</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -29438,7 +28336,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -29449,8 +28347,11 @@
       <c r="K27" t="n">
         <v>1</v>
       </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N27" t="n">
         <v>0.15</v>
       </c>
@@ -29478,11 +28379,9 @@
           <t>AN_016</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -29500,7 +28399,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -29511,8 +28410,11 @@
       <c r="K28" t="n">
         <v>1</v>
       </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N28" t="n">
         <v>0.15</v>
       </c>
@@ -29540,11 +28442,9 @@
           <t>AN_017</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -29562,7 +28462,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -29573,8 +28473,11 @@
       <c r="K29" t="n">
         <v>1</v>
       </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N29" t="n">
         <v>0.15</v>
       </c>
@@ -29602,11 +28505,9 @@
           <t>AN_017</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -29624,7 +28525,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -29635,8 +28536,11 @@
       <c r="K30" t="n">
         <v>2</v>
       </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N30" t="n">
         <v>0.08</v>
       </c>
@@ -29664,11 +28568,9 @@
           <t>AN_018</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -29686,7 +28588,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -29697,8 +28599,11 @@
       <c r="K31" t="n">
         <v>1</v>
       </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N31" t="n">
         <v>0.15</v>
       </c>
@@ -29726,11 +28631,9 @@
           <t>AN_018</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -29748,7 +28651,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -29759,8 +28662,11 @@
       <c r="K32" t="n">
         <v>2</v>
       </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N32" t="n">
         <v>0.08</v>
       </c>
@@ -29788,11 +28694,9 @@
           <t>AN_019</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -29810,7 +28714,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -29821,8 +28725,11 @@
       <c r="K33" t="n">
         <v>1</v>
       </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N33" t="n">
         <v>0.15</v>
       </c>
@@ -29850,11 +28757,9 @@
           <t>AN_019</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -29872,7 +28777,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -29883,8 +28788,11 @@
       <c r="K34" t="n">
         <v>2</v>
       </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N34" t="n">
         <v>0.08</v>
       </c>
@@ -29912,11 +28820,9 @@
           <t>AN_020</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -29934,7 +28840,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -29945,8 +28851,11 @@
       <c r="K35" t="n">
         <v>1</v>
       </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N35" t="n">
         <v>0.15</v>
       </c>
@@ -29974,11 +28883,9 @@
           <t>AN_021</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -29996,7 +28903,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -30007,8 +28914,11 @@
       <c r="K36" t="n">
         <v>1</v>
       </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N36" t="n">
         <v>0.15</v>
       </c>
@@ -30036,11 +28946,9 @@
           <t>AN_021</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -30058,7 +28966,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -30069,8 +28977,11 @@
       <c r="K37" t="n">
         <v>2</v>
       </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N37" t="n">
         <v>0.08</v>
       </c>
@@ -30098,11 +29009,9 @@
           <t>AN_022</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -30120,7 +29029,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -30131,8 +29040,11 @@
       <c r="K38" t="n">
         <v>1</v>
       </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N38" t="n">
         <v>0.15</v>
       </c>
@@ -30160,11 +29072,9 @@
           <t>AN_023</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -30182,7 +29092,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -30193,8 +29103,11 @@
       <c r="K39" t="n">
         <v>1</v>
       </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N39" t="n">
         <v>0.15</v>
       </c>
@@ -30222,11 +29135,9 @@
           <t>AN_024</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -30244,7 +29155,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -30255,8 +29166,11 @@
       <c r="K40" t="n">
         <v>1</v>
       </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N40" t="n">
         <v>0.15</v>
       </c>
@@ -30284,11 +29198,9 @@
           <t>AN_024</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -30306,7 +29218,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -30317,8 +29229,11 @@
       <c r="K41" t="n">
         <v>2</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N41" t="n">
         <v>0.08</v>
       </c>
@@ -30346,11 +29261,9 @@
           <t>AN_025</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -30368,7 +29281,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -30379,8 +29292,11 @@
       <c r="K42" t="n">
         <v>1</v>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N42" t="n">
         <v>0.15</v>
       </c>
@@ -30408,11 +29324,9 @@
           <t>AN_025</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -30430,7 +29344,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -30441,8 +29355,11 @@
       <c r="K43" t="n">
         <v>2</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N43" t="n">
         <v>0.08</v>
       </c>
@@ -30470,11 +29387,9 @@
           <t>AN_026</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -30492,7 +29407,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -30503,8 +29418,11 @@
       <c r="K44" t="n">
         <v>1</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N44" t="n">
         <v>0.15</v>
       </c>
@@ -30532,11 +29450,9 @@
           <t>AN_026</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -30554,7 +29470,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -30565,8 +29481,11 @@
       <c r="K45" t="n">
         <v>2</v>
       </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N45" t="n">
         <v>0.08</v>
       </c>
@@ -30594,11 +29513,9 @@
           <t>AN_027</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -30616,7 +29533,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -30627,8 +29544,11 @@
       <c r="K46" t="n">
         <v>1</v>
       </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N46" t="n">
         <v>0.15</v>
       </c>
@@ -30656,11 +29576,9 @@
           <t>AN_027</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -30678,7 +29596,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -30689,8 +29607,11 @@
       <c r="K47" t="n">
         <v>2</v>
       </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N47" t="n">
         <v>0.08</v>
       </c>
@@ -30718,11 +29639,9 @@
           <t>AN_028</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -30740,7 +29659,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -30751,8 +29670,11 @@
       <c r="K48" t="n">
         <v>1</v>
       </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N48" t="n">
         <v>0.15</v>
       </c>
@@ -30780,11 +29702,9 @@
           <t>AN_029</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -30802,7 +29722,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -30813,8 +29733,11 @@
       <c r="K49" t="n">
         <v>1</v>
       </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N49" t="n">
         <v>0.15</v>
       </c>
@@ -30842,11 +29765,9 @@
           <t>AN_029</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -30864,7 +29785,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -30875,8 +29796,11 @@
       <c r="K50" t="n">
         <v>2</v>
       </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N50" t="n">
         <v>0.08</v>
       </c>
@@ -30904,11 +29828,9 @@
           <t>AN_030</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -30926,7 +29848,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -30937,8 +29859,11 @@
       <c r="K51" t="n">
         <v>1</v>
       </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N51" t="n">
         <v>0.15</v>
       </c>
@@ -30966,11 +29891,9 @@
           <t>AN_031</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -30988,7 +29911,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -30999,8 +29922,11 @@
       <c r="K52" t="n">
         <v>1</v>
       </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N52" t="n">
         <v>0.15</v>
       </c>
@@ -31028,11 +29954,9 @@
           <t>AN_031</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -31050,7 +29974,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -31061,8 +29985,11 @@
       <c r="K53" t="n">
         <v>2</v>
       </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N53" t="n">
         <v>0.08</v>
       </c>
@@ -31090,11 +30017,9 @@
           <t>AN_032</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -31112,7 +30037,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -31123,8 +30048,11 @@
       <c r="K54" t="n">
         <v>1</v>
       </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N54" t="n">
         <v>0.15</v>
       </c>
@@ -31152,11 +30080,9 @@
           <t>AN_033</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -31174,7 +30100,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -31185,8 +30111,11 @@
       <c r="K55" t="n">
         <v>1</v>
       </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N55" t="n">
         <v>0.15</v>
       </c>
@@ -31214,11 +30143,9 @@
           <t>AN_033</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -31236,7 +30163,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -31247,8 +30174,11 @@
       <c r="K56" t="n">
         <v>2</v>
       </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N56" t="n">
         <v>0.08</v>
       </c>
@@ -31276,11 +30206,9 @@
           <t>AN_034</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -31298,7 +30226,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -31309,8 +30237,11 @@
       <c r="K57" t="n">
         <v>1</v>
       </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N57" t="n">
         <v>0.15</v>
       </c>
@@ -31338,11 +30269,9 @@
           <t>AN_035</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -31360,7 +30289,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -31371,8 +30300,11 @@
       <c r="K58" t="n">
         <v>1</v>
       </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N58" t="n">
         <v>0.15</v>
       </c>
@@ -31400,11 +30332,9 @@
           <t>AN_036</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -31422,7 +30352,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -31433,8 +30363,11 @@
       <c r="K59" t="n">
         <v>1</v>
       </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N59" t="n">
         <v>0.15</v>
       </c>
@@ -31462,11 +30395,9 @@
           <t>AN_036</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -31484,7 +30415,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -31495,8 +30426,11 @@
       <c r="K60" t="n">
         <v>2</v>
       </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N60" t="n">
         <v>0.08</v>
       </c>
@@ -31524,11 +30458,9 @@
           <t>AN_037</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -31546,7 +30478,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -31557,8 +30489,11 @@
       <c r="K61" t="n">
         <v>1</v>
       </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N61" t="n">
         <v>0.15</v>
       </c>
@@ -31586,11 +30521,9 @@
           <t>AN_037</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -31608,7 +30541,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -31619,8 +30552,11 @@
       <c r="K62" t="n">
         <v>2</v>
       </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N62" t="n">
         <v>0.08</v>
       </c>
@@ -31648,11 +30584,9 @@
           <t>AN_038</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -31670,7 +30604,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -31681,8 +30615,11 @@
       <c r="K63" t="n">
         <v>1</v>
       </c>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N63" t="n">
         <v>0.15</v>
       </c>
@@ -31710,11 +30647,9 @@
           <t>AN_038</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -31732,7 +30667,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -31743,8 +30678,11 @@
       <c r="K64" t="n">
         <v>2</v>
       </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N64" t="n">
         <v>0.08</v>
       </c>
@@ -31772,11 +30710,9 @@
           <t>AN_039</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -31794,7 +30730,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -31805,8 +30741,11 @@
       <c r="K65" t="n">
         <v>1</v>
       </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N65" t="n">
         <v>0.15</v>
       </c>
@@ -31834,11 +30773,9 @@
           <t>AN_039</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -31856,7 +30793,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -31867,8 +30804,11 @@
       <c r="K66" t="n">
         <v>2</v>
       </c>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N66" t="n">
         <v>0.08</v>
       </c>
@@ -31896,11 +30836,9 @@
           <t>AN_040</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -31918,7 +30856,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -31929,8 +30867,11 @@
       <c r="K67" t="n">
         <v>1</v>
       </c>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N67" t="n">
         <v>0.15</v>
       </c>
@@ -31958,11 +30899,9 @@
           <t>AN_040</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -31980,7 +30919,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -31991,8 +30930,11 @@
       <c r="K68" t="n">
         <v>2</v>
       </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N68" t="n">
         <v>0.08</v>
       </c>
@@ -32020,11 +30962,9 @@
           <t>AN_041</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -32042,7 +30982,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -32053,8 +30993,11 @@
       <c r="K69" t="n">
         <v>1</v>
       </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N69" t="n">
         <v>0.15</v>
       </c>
@@ -32082,11 +31025,9 @@
           <t>AN_042</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -32104,7 +31045,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -32115,8 +31056,11 @@
       <c r="K70" t="n">
         <v>1</v>
       </c>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N70" t="n">
         <v>0.15</v>
       </c>
@@ -32144,11 +31088,9 @@
           <t>AN_042</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -32166,7 +31108,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -32177,8 +31119,11 @@
       <c r="K71" t="n">
         <v>2</v>
       </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N71" t="n">
         <v>0.08</v>
       </c>
@@ -32206,11 +31151,9 @@
           <t>AN_043</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -32228,7 +31171,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -32239,8 +31182,11 @@
       <c r="K72" t="n">
         <v>1</v>
       </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N72" t="n">
         <v>0.15</v>
       </c>
@@ -32268,11 +31214,9 @@
           <t>AN_043</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -32290,7 +31234,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -32301,8 +31245,11 @@
       <c r="K73" t="n">
         <v>2</v>
       </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N73" t="n">
         <v>0.08</v>
       </c>
@@ -32330,11 +31277,9 @@
           <t>AN_044</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -32352,7 +31297,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -32363,8 +31308,11 @@
       <c r="K74" t="n">
         <v>1</v>
       </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N74" t="n">
         <v>0.15</v>
       </c>
@@ -32392,11 +31340,9 @@
           <t>AN_044</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -32414,7 +31360,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -32425,8 +31371,11 @@
       <c r="K75" t="n">
         <v>2</v>
       </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N75" t="n">
         <v>0.08</v>
       </c>
@@ -32454,11 +31403,9 @@
           <t>AN_045</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -32476,7 +31423,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -32487,8 +31434,11 @@
       <c r="K76" t="n">
         <v>1</v>
       </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N76" t="n">
         <v>0.15</v>
       </c>
@@ -32516,11 +31466,9 @@
           <t>AN_045</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -32538,7 +31486,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -32549,8 +31497,11 @@
       <c r="K77" t="n">
         <v>2</v>
       </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N77" t="n">
         <v>0.08</v>
       </c>
@@ -32578,11 +31529,9 @@
           <t>AN_046</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -32600,7 +31549,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -32611,8 +31560,11 @@
       <c r="K78" t="n">
         <v>1</v>
       </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N78" t="n">
         <v>0.15</v>
       </c>
@@ -32640,11 +31592,9 @@
           <t>AN_046</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -32662,7 +31612,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -32673,8 +31623,11 @@
       <c r="K79" t="n">
         <v>2</v>
       </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N79" t="n">
         <v>0.08</v>
       </c>
@@ -32702,11 +31655,9 @@
           <t>AN_047</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -32724,7 +31675,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -32735,8 +31686,11 @@
       <c r="K80" t="n">
         <v>1</v>
       </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N80" t="n">
         <v>0.15</v>
       </c>
@@ -32764,11 +31718,9 @@
           <t>AN_048</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -32786,7 +31738,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -32797,8 +31749,11 @@
       <c r="K81" t="n">
         <v>1</v>
       </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N81" t="n">
         <v>0.15</v>
       </c>
@@ -32826,11 +31781,9 @@
           <t>AN_048</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -32848,7 +31801,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -32859,8 +31812,11 @@
       <c r="K82" t="n">
         <v>2</v>
       </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N82" t="n">
         <v>0.08</v>
       </c>
@@ -32888,11 +31844,9 @@
           <t>AN_049</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -32910,7 +31864,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -32921,8 +31875,11 @@
       <c r="K83" t="n">
         <v>1</v>
       </c>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N83" t="n">
         <v>0.15</v>
       </c>
@@ -32950,11 +31907,9 @@
           <t>AN_050</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -32972,7 +31927,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -32983,8 +31938,11 @@
       <c r="K84" t="n">
         <v>1</v>
       </c>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N84" t="n">
         <v>0.15</v>
       </c>
@@ -33012,11 +31970,9 @@
           <t>AN_051</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -33034,7 +31990,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -33045,8 +32001,11 @@
       <c r="K85" t="n">
         <v>1</v>
       </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N85" t="n">
         <v>0.15</v>
       </c>
@@ -33074,11 +32033,9 @@
           <t>AN_051</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -33096,7 +32053,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -33107,8 +32064,11 @@
       <c r="K86" t="n">
         <v>2</v>
       </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N86" t="n">
         <v>0.08</v>
       </c>
@@ -33136,11 +32096,9 @@
           <t>AN_052</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -33158,7 +32116,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -33169,8 +32127,11 @@
       <c r="K87" t="n">
         <v>1</v>
       </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N87" t="n">
         <v>0.15</v>
       </c>
@@ -33198,11 +32159,9 @@
           <t>AN_052</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -33220,7 +32179,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -33231,8 +32190,11 @@
       <c r="K88" t="n">
         <v>2</v>
       </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N88" t="n">
         <v>0.08</v>
       </c>
@@ -33260,11 +32222,9 @@
           <t>AN_053</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -33282,7 +32242,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -33293,8 +32253,11 @@
       <c r="K89" t="n">
         <v>1</v>
       </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N89" t="n">
         <v>0.15</v>
       </c>
@@ -33322,11 +32285,9 @@
           <t>AN_054</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -33344,7 +32305,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -33355,8 +32316,11 @@
       <c r="K90" t="n">
         <v>1</v>
       </c>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N90" t="n">
         <v>0.15</v>
       </c>
@@ -33384,11 +32348,9 @@
           <t>AN_054</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -33406,7 +32368,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -33417,8 +32379,11 @@
       <c r="K91" t="n">
         <v>2</v>
       </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N91" t="n">
         <v>0.08</v>
       </c>
@@ -33446,11 +32411,9 @@
           <t>AN_055</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -33468,7 +32431,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -33479,8 +32442,11 @@
       <c r="K92" t="n">
         <v>1</v>
       </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N92" t="n">
         <v>0.15</v>
       </c>
@@ -33508,11 +32474,9 @@
           <t>AN_055</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -33530,7 +32494,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -33541,8 +32505,11 @@
       <c r="K93" t="n">
         <v>2</v>
       </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N93" t="n">
         <v>0.08</v>
       </c>
@@ -33570,11 +32537,9 @@
           <t>AN_056</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -33592,7 +32557,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -33603,8 +32568,11 @@
       <c r="K94" t="n">
         <v>1</v>
       </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N94" t="n">
         <v>0.15</v>
       </c>
@@ -33632,11 +32600,9 @@
           <t>AN_056</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -33654,7 +32620,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -33665,8 +32631,11 @@
       <c r="K95" t="n">
         <v>2</v>
       </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N95" t="n">
         <v>0.08</v>
       </c>
@@ -33694,11 +32663,9 @@
           <t>AN_057</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -33716,7 +32683,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -33727,8 +32694,11 @@
       <c r="K96" t="n">
         <v>1</v>
       </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N96" t="n">
         <v>0.15</v>
       </c>
@@ -33756,11 +32726,9 @@
           <t>AN_058</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -33778,7 +32746,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -33789,8 +32757,11 @@
       <c r="K97" t="n">
         <v>1</v>
       </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N97" t="n">
         <v>0.15</v>
       </c>
@@ -33818,11 +32789,9 @@
           <t>AN_058</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -33840,7 +32809,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -33851,8 +32820,11 @@
       <c r="K98" t="n">
         <v>2</v>
       </c>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N98" t="n">
         <v>0.08</v>
       </c>
@@ -33880,11 +32852,9 @@
           <t>AN_059</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -33902,7 +32872,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -33913,8 +32883,11 @@
       <c r="K99" t="n">
         <v>1</v>
       </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N99" t="n">
         <v>0.15</v>
       </c>
@@ -33942,11 +32915,9 @@
           <t>AN_060</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -33964,7 +32935,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -33975,8 +32946,11 @@
       <c r="K100" t="n">
         <v>1</v>
       </c>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N100" t="n">
         <v>0.15</v>
       </c>
@@ -34004,11 +32978,9 @@
           <t>AN_060</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -34026,7 +32998,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -34037,8 +33009,11 @@
       <c r="K101" t="n">
         <v>2</v>
       </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N101" t="n">
         <v>0.08</v>
       </c>
@@ -34066,11 +33041,9 @@
           <t>AN_061</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -34088,7 +33061,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -34099,8 +33072,11 @@
       <c r="K102" t="n">
         <v>1</v>
       </c>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N102" t="n">
         <v>0.15</v>
       </c>
@@ -34128,11 +33104,9 @@
           <t>AN_062</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -34150,7 +33124,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -34161,8 +33135,11 @@
       <c r="K103" t="n">
         <v>1</v>
       </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N103" t="n">
         <v>0.15</v>
       </c>
@@ -34190,11 +33167,9 @@
           <t>AN_063</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -34212,7 +33187,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -34223,8 +33198,11 @@
       <c r="K104" t="n">
         <v>1</v>
       </c>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N104" t="n">
         <v>0.15</v>
       </c>
@@ -34252,11 +33230,9 @@
           <t>AN_063</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -34274,7 +33250,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -34285,8 +33261,11 @@
       <c r="K105" t="n">
         <v>2</v>
       </c>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N105" t="n">
         <v>0.08</v>
       </c>
@@ -34314,11 +33293,9 @@
           <t>AN_064</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -34336,7 +33313,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -34347,8 +33324,11 @@
       <c r="K106" t="n">
         <v>1</v>
       </c>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N106" t="n">
         <v>0.15</v>
       </c>
@@ -34376,11 +33356,9 @@
           <t>AN_065</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>RandomDaily</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -34398,7 +33376,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>BlockTask</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -34409,8 +33387,11 @@
       <c r="K107" t="n">
         <v>1</v>
       </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>ApplyDailyKeep</t>
+        </is>
+      </c>
       <c r="N107" t="n">
         <v>0.15</v>
       </c>

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -26569,288 +26569,283 @@
   </sheetPr>
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.6"/>
-  <cols>
-    <col width="36.61328125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.4609375" customWidth="1" min="2" max="3"/>
-    <col width="18.4609375" customWidth="1" min="4" max="4"/>
-    <col width="13.15234375" customWidth="1" min="5" max="5"/>
-    <col width="9.23046875" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="30.4609375" customWidth="1" min="8" max="8"/>
-    <col width="14.4609375" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="21.07421875" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="10.15234375" customWidth="1" min="11" max="11"/>
-    <col width="27.84375" customWidth="1" min="12" max="12"/>
-    <col width="25.84375" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="25.84375" customWidth="1" min="14" max="14"/>
-    <col width="8.921875" customWidth="1" style="2" min="15" max="15"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="1" s="4">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>eventDefId</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>requiresAnomalyId</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>requiresNodeId</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>requiresTaskType</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>source</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>weight</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>blockPolicy</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>defaultAffects</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>autoResolveAfterDays</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>ignoreApplyMode</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>ignoreEffectId</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>每日触发概率</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Unnamed: 14</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Unnamed: 15</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
         <is>
           <t>冷却</t>
         </is>
       </c>
-      <c r="R1" s="4" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>次数限制</t>
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="4">
-      <c r="A2" s="3" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>eventDefId</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>requiresAnomalyId</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>requiresNodeId</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>requiresTaskType</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>source</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>weight</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>blockPolicy</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>defaultAffects</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>autoResolveAfterDays</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>ignoreApplyMode</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>ignoreEffectId</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>minDay</t>
         </is>
       </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>maxDay</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>limitNum</t>
         </is>
       </c>
     </row>
-    <row r="3" customFormat="1" s="4">
-      <c r="A3" s="3" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>string[]</t>
         </is>
       </c>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="M3" s="3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="N3" s="3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>int</t>
         </is>
@@ -26867,6 +26862,8 @@
           <t>AN_001</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -26877,19 +26874,15 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>维度门日常事件</t>
+          <t>维度门隔离协议更新</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>在管理维度门时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>收容单元内检测到时空扭曲，影响范围4.7平方米。需要紧急决策干预，已记录6份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -26903,6 +26896,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
         <v>0.15</v>
       </c>
@@ -26930,6 +26924,8 @@
           <t>AN_001</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -26940,19 +26936,15 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>维度门收容抉择</t>
+          <t>维度门紧急情况汇报</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>关于维度门的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>技术部门检测到维度门的异常指数指数下降至86%。技术部门提交了多套应对方案，需要主管裁决。</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -26966,6 +26958,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
         <v>0.08</v>
       </c>
@@ -26993,6 +26986,8 @@
           <t>AN_002</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27003,19 +26998,15 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>灭世之眼日常事件</t>
+          <t>灭世之眼分析结果汇总</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>在管理灭世之眼时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>研究员报告周围4名D级人员出现生理异常症状。现有收容措施已接近临界值，要求调整策略。</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -27029,6 +27020,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
         <v>0.15</v>
       </c>
@@ -27056,6 +27048,8 @@
           <t>AN_002</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27066,19 +27060,15 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>灭世之眼收容抉择</t>
+          <t>灭世之眼人事变动通知</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>关于灭世之眼的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>安保系统显示导致特斯拉防护网负荷达到96%。安保部门请求授权采取应急措施，已记录5份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -27092,6 +27082,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
         <v>0.08</v>
       </c>
@@ -27119,6 +27110,8 @@
           <t>AN_003</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27129,19 +27122,15 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>镜面渗漏日常事件</t>
+          <t>镜面渗漏器材更换申请</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>在管理镜面渗漏时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>对AN_003进行的第35次观测中发现使7件标准设备出现功能异常。伦理委员会要求审核后续处理方案。</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -27155,6 +27144,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
         <v>0.15</v>
       </c>
@@ -27182,6 +27172,8 @@
           <t>AN_004</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27192,19 +27184,15 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>失声合唱日常事件</t>
+          <t>失声合唱紧急应对决策</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>在管理失声合唱时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>站点监测系统记录到失声合唱触发了2处独立监测点的警报。需要权衡资源投入与潜在风险。</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -27218,6 +27206,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
         <v>0.15</v>
       </c>
@@ -27245,6 +27234,8 @@
           <t>AN_005</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27255,19 +27246,15 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>记忆吞噬者日常事件</t>
+          <t>记忆吞噬者例行检查汇报</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>在管理记忆吞噬者时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>收容单元内引发局部区域模因扩散，持续140秒。触发了应急预案，等待上级指示，已记录7份异常[数据删除]报告。</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -27281,6 +27268,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
         <v>0.15</v>
       </c>
@@ -27308,6 +27296,8 @@
           <t>AN_005</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27318,19 +27308,15 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>记忆吞噬者收容抉择</t>
+          <t>记忆吞噬者观测数据异常</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>关于记忆吞噬者的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>技术部门检测到AN_005的休谟上升82%，超出安全阈值。研究小组建议暂停当前收容流程。</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -27344,6 +27330,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
         <v>0.08</v>
       </c>
@@ -27371,6 +27358,8 @@
           <t>AN_006</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27381,19 +27370,15 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>时间囚笼日常事件</t>
+          <t>时间囚笼处置方案修订</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>在管理时间囚笼时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>研究员报告造成收容区斯克兰顿现实稳定锚运行异常。站点主管需做出最终裁决，已记录10份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -27407,6 +27392,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
         <v>0.15</v>
       </c>
@@ -27434,6 +27420,8 @@
           <t>AN_006</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27444,19 +27432,15 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>时间囚笼收容抉择</t>
+          <t>时间囚笼应急事件档案</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>关于时间囚笼的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>安保系统显示产生2次异常能量波动，峰值91焦耳。收容协议要求立即响应，已记录12份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -27470,6 +27454,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
         <v>0.08</v>
       </c>
@@ -27497,6 +27482,8 @@
           <t>AN_007</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27507,19 +27494,15 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>嗜盐水雾日常事件</t>
+          <t>嗜盐水雾试验流程变化</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>在管理嗜盐水雾时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>对AN_007进行的第41次观测中发现导致危险等级读数偏离正常值67个标准差。需要紧急决策干预。</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -27533,6 +27516,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
         <v>0.15</v>
       </c>
@@ -27560,6 +27544,8 @@
           <t>AN_008</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27570,19 +27556,15 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>现实崩解日常事件</t>
+          <t>现实崩解人员状况报告</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>在管理现实崩解时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>站点监测系统记录到现实崩解出现8次信息辐射，持续时间37秒。技术部门提交了多套应对方案，需要主管裁决。</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -27596,6 +27578,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
         <v>0.15</v>
       </c>
@@ -27623,6 +27606,8 @@
           <t>AN_008</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27633,19 +27618,15 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>现实崩解收容抉择</t>
+          <t>现实崩解仪器故障报告</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>关于现实崩解的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>收容单元内检测到概率场扰动，影响范围1.8平方米。现有收容措施已接近临界值，要求调整策略。</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -27659,6 +27640,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
         <v>0.08</v>
       </c>
@@ -27686,6 +27668,8 @@
           <t>AN_009</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27696,19 +27680,15 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>末日预言日常事件</t>
+          <t>末日预言临界状态警报</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>在管理末日预言时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>技术部门检测到末日预言的熵值指数上升至87%。安保部门请求授权采取应急措施，已记录8份异常[数据删除]报告。</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -27722,6 +27702,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
         <v>0.15</v>
       </c>
@@ -27749,6 +27730,8 @@
           <t>AN_009</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27759,19 +27742,15 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>末日预言收容抉择</t>
+          <t>末日预言常规巡检报告</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>关于末日预言的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>研究员报告周围5名D级人员出现空间迷向症状。伦理委员会要求审核后续处理方案，已记录9份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -27785,6 +27764,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
         <v>0.08</v>
       </c>
@@ -27812,6 +27792,8 @@
           <t>AN_010</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27822,19 +27804,15 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>纸鹤记忆日常事件</t>
+          <t>纸鹤记忆检测系统警告</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>在管理纸鹤记忆时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>安保系统显示导致负熵泵负荷达到96%。需要权衡资源投入与潜在风险，已记录5份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -27848,6 +27826,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
         <v>0.15</v>
       </c>
@@ -27875,6 +27854,8 @@
           <t>AN_011</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27885,19 +27866,15 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>意识寄生日常事件</t>
+          <t>意识寄生安保协议变更</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>在管理意识寄生时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>对AN_011进行的第47次观测中发现使4件标准设备出现功能异常。触发了应急预案，等待上级指示。</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -27911,6 +27888,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
         <v>0.15</v>
       </c>
@@ -27938,6 +27916,8 @@
           <t>AN_011</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27948,19 +27928,15 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>意识寄生收容抉择</t>
+          <t>意识寄生突发事件记录</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>关于意识寄生的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>站点监测系统记录到意识寄生触发了5处独立监测点的警报。研究小组建议暂停当前收容流程。</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -27974,6 +27950,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
         <v>0.08</v>
       </c>
@@ -28001,6 +27978,8 @@
           <t>AN_012</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28011,19 +27990,15 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>时钟倒影日常事件</t>
+          <t>时钟倒影测试数据异常</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>在管理时钟倒影时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>收容单元内引发局部区域因果紊乱，持续106秒。站点主管需做出最终裁决，已记录6份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -28037,6 +28012,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
         <v>0.15</v>
       </c>
@@ -28064,6 +28040,8 @@
           <t>AN_013</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28074,19 +28052,15 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>形态模仿日常事件</t>
+          <t>形态模仿D级人员记录</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>在管理形态模仿时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>技术部门检测到形态模仿的扩散速度下降88%，超出安全阈值。收容协议要求立即响应。</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -28100,6 +28074,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
         <v>0.15</v>
       </c>
@@ -28127,6 +28102,8 @@
           <t>AN_013</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28137,19 +28114,15 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>形态模仿收容抉择</t>
+          <t>形态模仿装置性能下降</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>关于形态模仿的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>研究员报告造成收容区Xyank时序调节器运行异常。需要紧急决策干预，已记录10份异常[数据删除]报告。</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -28163,6 +28136,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
         <v>0.08</v>
       </c>
@@ -28190,6 +28164,8 @@
           <t>AN_014</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28200,19 +28176,15 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>梦魇织网日常事件</t>
+          <t>梦魇织网风险评估报告</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>在管理梦魇织网时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>安保系统显示产生5次异常能量波动，峰值90焦耳。技术部门提交了多套应对方案，需要主管裁决。</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -28226,6 +28198,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
         <v>0.15</v>
       </c>
@@ -28253,6 +28226,8 @@
           <t>AN_014</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28263,19 +28238,15 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>梦魇织网收容抉择</t>
+          <t>梦魇织网标准流程执行</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>关于梦魇织网的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>对AN_014进行的第53次观测中发现导致现实稳定度读数偏离正常值74个标准差。现有收容措施已接近临界值，要求调整策略。</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -28289,6 +28260,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
         <v>0.08</v>
       </c>
@@ -28316,6 +28288,8 @@
           <t>AN_015</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28326,19 +28300,15 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>静电蝴蝶日常事件</t>
+          <t>静电蝴蝶能量波动记录</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>在管理静电蝴蝶时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>站点监测系统记录到静电蝴蝶出现4次时间流速异常，持续时间98秒。安保部门请求授权采取应急措施。</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -28352,6 +28322,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
         <v>0.15</v>
       </c>
@@ -28379,6 +28350,8 @@
           <t>AN_016</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28389,19 +28362,15 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>沉默石日常事件</t>
+          <t>沉默石隔离协议更新</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>在管理沉默石时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>收容单元内检测到空间折叠，影响范围7.7平方米。伦理委员会要求审核后续处理方案。</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -28415,6 +28384,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
         <v>0.15</v>
       </c>
@@ -28442,6 +28412,8 @@
           <t>AN_017</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28452,19 +28424,15 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>虚空凝视日常事件</t>
+          <t>虚空凝视紧急情况汇报</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>在管理虚空凝视时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>技术部门检测到虚空凝视的异常指数指数下降至92%。需要权衡资源投入与潜在风险，已记录5份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -28478,6 +28446,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
         <v>0.15</v>
       </c>
@@ -28505,6 +28474,8 @@
           <t>AN_017</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28515,19 +28486,15 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>虚空凝视收容抉择</t>
+          <t>虚空凝视分析结果汇总</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>关于虚空凝视的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>研究员报告周围2名D级人员出现生理异常症状。触发了应急预案，等待上级指示，已记录5份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -28541,6 +28508,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
         <v>0.08</v>
       </c>
@@ -28568,6 +28536,8 @@
           <t>AN_018</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28578,19 +28548,15 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>腐化种子日常事件</t>
+          <t>腐化种子人事变动通知</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>在管理腐化种子时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>安保系统显示导致休谟场发生器负荷达到88%。研究小组建议暂停当前收容流程，已记录10份异常[数据删除]报告。</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -28604,6 +28570,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
         <v>0.15</v>
       </c>
@@ -28631,6 +28598,8 @@
           <t>AN_018</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28641,19 +28610,15 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>腐化种子收容抉择</t>
+          <t>腐化种子器材更换申请</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>关于腐化种子的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>对AN_018进行的第59次观测中发现使7件标准设备出现功能异常。站点主管需做出最终裁决。</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -28667,6 +28632,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
         <v>0.08</v>
       </c>
@@ -28694,6 +28660,8 @@
           <t>AN_019</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28704,19 +28672,15 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>共生幻影日常事件</t>
+          <t>共生幻影紧急应对决策</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>在管理共生幻影时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>站点监测系统记录到共生幻影触发了3处独立监测点的警报。收容协议要求立即响应，已记录12份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -28730,6 +28694,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
         <v>0.15</v>
       </c>
@@ -28757,6 +28722,8 @@
           <t>AN_019</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28767,19 +28734,15 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>共生幻影收容抉择</t>
+          <t>共生幻影例行检查汇报</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>关于共生幻影的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>收容单元内引发局部区域时空扭曲，持续84秒。需要紧急决策干预，已记录9份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -28793,6 +28756,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
         <v>0.08</v>
       </c>
@@ -28820,6 +28784,8 @@
           <t>AN_020</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28830,19 +28796,15 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>梦境碎片日常事件</t>
+          <t>梦境碎片观测数据异常</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>在管理梦境碎片时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>技术部门检测到梦境碎片的休谟上升73%，超出安全阈值。技术部门提交了多套应对方案，需要主管裁决。</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -28856,6 +28818,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
         <v>0.15</v>
       </c>
@@ -28883,6 +28846,8 @@
           <t>AN_021</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28893,19 +28858,15 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>逆熵引擎日常事件</t>
+          <t>逆熵引擎处置方案修订</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>在管理逆熵引擎时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>研究员报告造成收容区生物遏制单元运行异常。现有收容措施已接近临界值，要求调整策略。</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -28919,6 +28880,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
         <v>0.15</v>
       </c>
@@ -28946,6 +28908,8 @@
           <t>AN_021</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28956,19 +28920,15 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>逆熵引擎收容抉择</t>
+          <t>逆熵引擎应急事件档案</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>关于逆熵引擎的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>安保系统显示产生3次异常能量波动，峰值75焦耳。安保部门请求授权采取应急措施，已记录7份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -28982,6 +28942,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
         <v>0.08</v>
       </c>
@@ -29009,6 +28970,8 @@
           <t>AN_022</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29019,19 +28982,15 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>生长笔记日常事件</t>
+          <t>生长笔记试验流程变化</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>在管理生长笔记时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>对AN_022进行的第65次观测中发现导致危险等级读数偏离正常值91个标准差。伦理委员会要求审核后续处理方案。</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29045,6 +29004,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
         <v>0.15</v>
       </c>
@@ -29072,6 +29032,8 @@
           <t>AN_023</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29082,19 +29044,15 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>影子玩偶日常事件</t>
+          <t>影子玩偶人员状况报告</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>在管理影子玩偶时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>站点监测系统记录到影子玩偶出现3次认知污染，持续时间75秒。需要权衡资源投入与潜在风险。</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29108,6 +29066,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
         <v>0.15</v>
       </c>
@@ -29135,6 +29094,8 @@
           <t>AN_024</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29145,19 +29106,15 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>思维回声日常事件</t>
+          <t>思维回声仪器故障报告</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>在管理思维回声时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>收容单元内检测到模因扩散，影响范围7.3平方米。触发了应急预案，等待上级指示，已记录6份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29171,6 +29128,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
         <v>0.15</v>
       </c>
@@ -29198,6 +29156,8 @@
           <t>AN_024</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29208,19 +29168,15 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>思维回声收容抉择</t>
+          <t>思维回声临界状态警报</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>关于思维回声的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>技术部门检测到思维回声的熵值指数下降至81%。研究小组建议暂停当前收容流程，已记录11份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -29234,6 +29190,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
         <v>0.08</v>
       </c>
@@ -29261,6 +29218,8 @@
           <t>AN_025</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29271,19 +29230,15 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>重构黏液日常事件</t>
+          <t>重构黏液常规巡检报告</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>在管理重构黏液时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>研究员报告周围4名D级人员出现空间迷向症状。站点主管需做出最终裁决，已记录8份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29297,6 +29252,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
         <v>0.15</v>
       </c>
@@ -29324,6 +29280,8 @@
           <t>AN_025</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29334,19 +29292,15 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>重构黏液收容抉择</t>
+          <t>重构黏液检测系统警告</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>关于重构黏液的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>安保系统显示导致特斯拉防护网负荷达到90%。收容协议要求立即响应，已记录7份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -29360,6 +29314,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
         <v>0.08</v>
       </c>
@@ -29387,6 +29342,8 @@
           <t>AN_026</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29397,19 +29354,15 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>无限增殖日常事件</t>
+          <t>无限增殖安保协议变更</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>在管理无限增殖时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>对AN_026进行的第71次观测中发现使3件标准设备出现功能异常。需要紧急决策干预。</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29423,6 +29376,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
         <v>0.15</v>
       </c>
@@ -29450,6 +29404,8 @@
           <t>AN_026</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29460,19 +29416,15 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>无限增殖收容抉择</t>
+          <t>无限增殖突发事件记录</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>关于无限增殖的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>站点监测系统[已编辑]到无限增殖触发了4处独立监测点的警报。技术部门提交了多套应对方案，需要主管裁决。</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -29486,6 +29438,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
         <v>0.08</v>
       </c>
@@ -29513,6 +29466,8 @@
           <t>AN_027</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29523,19 +29478,15 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>预知镜面日常事件</t>
+          <t>预知镜面测试数据异常</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>在管理预知镜面时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>收容单元内引发局部区域概率场扰动，持续61秒。现有收容措施已接近临界值，要求调整策略。</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29549,6 +29500,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
         <v>0.15</v>
       </c>
@@ -29576,6 +29528,8 @@
           <t>AN_027</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29586,19 +29540,15 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>预知镜面收容抉择</t>
+          <t>预知镜面D级人员记录</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>关于预知镜面的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>技术部门检测到预知镜面的扩散速度上升72%，超出安全阈值。安保部门请求授权采取应急措施。</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -29612,6 +29562,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
         <v>0.08</v>
       </c>
@@ -29639,6 +29590,8 @@
           <t>AN_028</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29649,19 +29602,15 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>回声墙日常事件</t>
+          <t>回声墙装置性能下降</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>在管理回声墙时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>研究员报告造成收容区斯克兰顿现实稳定锚运行异常。伦理委员会要求审核后续处理方案。</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29675,6 +29624,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
         <v>0.15</v>
       </c>
@@ -29702,6 +29652,8 @@
           <t>AN_029</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29712,19 +29664,15 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>意识瘟疫日常事件</t>
+          <t>意识瘟疫风险评估报告</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>在管理意识瘟疫时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>安保系统显示产生8次异常能量波动，峰值70焦耳。需要权衡资源投入与潜在风险，已记录4份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29738,6 +29686,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
         <v>0.15</v>
       </c>
@@ -29765,6 +29714,8 @@
           <t>AN_029</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29775,19 +29726,15 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>意识瘟疫收容抉择</t>
+          <t>意识瘟疫标准流程执行</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>关于意识瘟疫的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>对AN_029进行的第77次观测中发现导致现实稳定度读数偏离正常值79个标准差。触发了应急预案，等待上级指示。</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -29801,6 +29748,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
         <v>0.08</v>
       </c>
@@ -29828,6 +29776,8 @@
           <t>AN_030</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29838,19 +29788,15 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>温度灯日常事件</t>
+          <t>温度灯能量波动记录</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>在管理温度灯时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>站点监测系统记录到温度灯出现3次维度裂隙，持续时间57秒。研究小组建议暂停当前收容流程。</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29864,6 +29810,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
         <v>0.15</v>
       </c>
@@ -29891,6 +29838,8 @@
           <t>AN_031</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29901,19 +29850,15 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>时间吞噬日常事件</t>
+          <t>时间吞噬隔离协议更新</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>在管理时间吞噬时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>收容单元内检测到因果紊乱，影响范围6.1平方米。站点主管需做出最终裁决，已记录11份异常[数据删除]报告。</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29927,6 +29872,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
         <v>0.15</v>
       </c>
@@ -29954,6 +29900,8 @@
           <t>AN_031</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29964,19 +29912,15 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>时间吞噬收容抉择</t>
+          <t>时间吞噬紧急情况汇报</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>关于时间吞噬的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>技术部门检测到时间吞噬的异常指数指数波动至72%。收容协议要求立即响应，已记录8份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -29990,6 +29934,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
         <v>0.08</v>
       </c>
@@ -30017,6 +29962,8 @@
           <t>AN_032</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30027,19 +29974,15 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>重力珠日常事件</t>
+          <t>重力珠分析结果汇总</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>在管理重力珠时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>研究员报告周围2名D级人员出现生理异常症状。需要紧急决策干预，已记录11份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -30053,6 +29996,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
         <v>0.15</v>
       </c>
@@ -30080,6 +30024,8 @@
           <t>AN_033</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30090,19 +30036,15 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>情绪漩涡日常事件</t>
+          <t>情绪漩涡人事变动通知</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>在管理情绪漩涡时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>安保系统显示导致负熵泵负荷达到78%。技术部门提交了多套应对方案，需要主管裁决。</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -30116,6 +30058,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
         <v>0.15</v>
       </c>
@@ -30143,6 +30086,8 @@
           <t>AN_033</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30153,19 +30098,15 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>情绪漩涡收容抉择</t>
+          <t>情绪漩涡器材更换申请</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>关于情绪漩涡的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>对AN_033进行的第83次观测中发现使5件标准设备出现功能异常。现有收容措施已接近临界值，要求调整策略。</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -30179,6 +30120,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
         <v>0.08</v>
       </c>
@@ -30206,6 +30148,8 @@
           <t>AN_034</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30216,19 +30160,15 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>透明生物日常事件</t>
+          <t>透明生物紧急应对决策</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>在管理透明生物时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>站点监测系统记录到透明生物触发了3处独立监测点的警报。安保部门请求授权采取应急措施。</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -30242,6 +30182,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
         <v>0.15</v>
       </c>
@@ -30269,6 +30210,8 @@
           <t>AN_035</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30279,19 +30222,15 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>锈蚀触媒日常事件</t>
+          <t>锈蚀触媒例行检查汇报</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>在管理锈蚀触媒时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>收容单元内引发局部区域空间折叠，持续31秒。伦理委员会要求审核后续处理方案，已记录10份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -30305,6 +30244,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
         <v>0.15</v>
       </c>
@@ -30332,6 +30272,8 @@
           <t>AN_036</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30342,19 +30284,15 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>维度入侵日常事件</t>
+          <t>维度入侵观测数据异常</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>在管理维度入侵时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>技术部门检测到维度入侵的休谟波动95%，超出安全阈值。需要权衡资源投入与潜在风险。</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -30368,6 +30306,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
         <v>0.15</v>
       </c>
@@ -30395,6 +30334,8 @@
           <t>AN_036</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30405,19 +30346,15 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>维度入侵收容抉择</t>
+          <t>维度入侵处置方案修订</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>关于维度入侵的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>研究员报告造成收容区Xyank时序调节器运行异常。触发了应急预案，等待上级指示。</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -30431,6 +30368,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
         <v>0.08</v>
       </c>
@@ -30458,6 +30396,8 @@
           <t>AN_037</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30468,19 +30408,15 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>存在抹消日常事件</t>
+          <t>存在抹消应急事件档案</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>在管理存在抹消时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>安保系统显示产生8次异常能量波动，峰值71焦耳。研究小组建议暂停当前收容流程，已记录3份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -30494,6 +30430,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
         <v>0.15</v>
       </c>
@@ -30521,6 +30458,8 @@
           <t>AN_037</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30531,19 +30470,15 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>存在抹消收容抉择</t>
+          <t>存在抹消试验流程变化</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>关于存在抹消的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>对AN_037进行的第89次观测中发现导致危险等级读数偏离正常值84个标准差。站点主管需做出最终裁决。</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -30557,6 +30492,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
         <v>0.08</v>
       </c>
@@ -30584,6 +30520,8 @@
           <t>AN_038</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30594,19 +30532,15 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>平行投影日常事件</t>
+          <t>平行投影人员状况报告</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>在管理平行投影时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>站点监测系统记录到平行投影出现2次能量峰值，持续时间95秒。收容协议要求立即响应。</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -30620,6 +30554,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
         <v>0.15</v>
       </c>
@@ -30647,6 +30582,8 @@
           <t>AN_038</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30657,19 +30594,15 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>平行投影收容抉择</t>
+          <t>平行投影仪器故障报告</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>关于平行投影的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>收容单元内检测到时空扭曲，影响范围4.6平方米。需要紧急决策干预，已记录4份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -30683,6 +30616,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
         <v>0.08</v>
       </c>
@@ -30710,6 +30644,8 @@
           <t>AN_039</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30720,19 +30656,15 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>记忆碎片化日常事件</t>
+          <t>记忆碎片化临界状态警报</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>在管理记忆碎片化时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>技术部门检测到AN_039的熵值指数上升至91%。技术部门提交了多套应对方案，需要主管裁决。</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -30746,6 +30678,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
         <v>0.15</v>
       </c>
@@ -30773,6 +30706,8 @@
           <t>AN_039</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30783,19 +30718,15 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>记忆碎片化收容抉择</t>
+          <t>记忆碎片化常规巡检报告</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>关于记忆碎片化的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>研究员报告周围3名D级人员出现空间迷向症状。现有收容措施已接近临界值，要求调整策略。</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -30809,6 +30740,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
         <v>0.08</v>
       </c>
@@ -30836,6 +30768,8 @@
           <t>AN_040</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30846,19 +30780,15 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>虚空裂缝日常事件</t>
+          <t>虚空裂缝检测系统警告</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>在管理虚空裂缝时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>安保系统显示导致休谟场发生器负荷达到86%。安保部门请求授权采取应急措施，已记录8份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -30872,6 +30802,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
         <v>0.15</v>
       </c>
@@ -30899,6 +30830,8 @@
           <t>AN_040</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30909,19 +30842,15 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>虚空裂缝收容抉择</t>
+          <t>虚空裂缝安保协议变更</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>关于虚空裂缝的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>对AN_040进行的第95次观测中发现使6件标准设备出现功能异常。伦理委员会要求审核后续处理方案。</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -30935,6 +30864,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
         <v>0.08</v>
       </c>
@@ -30962,6 +30892,8 @@
           <t>AN_041</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30972,19 +30904,15 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>记忆书签日常事件</t>
+          <t>记忆书签突发事件记录</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>在管理记忆书签时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>站点监测系统记录到记忆书签触发了8处独立监测点的警报。需要权衡资源投入与潜在风险。</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -30998,6 +30926,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
         <v>0.15</v>
       </c>
@@ -31025,6 +30954,8 @@
           <t>AN_042</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31035,19 +30966,15 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>时空褶皱日常事件</t>
+          <t>时空褶皱测试数据异常</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>在管理时空褶皱时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>收容单元内引发局部区域模因扩散，持续118秒。触发了应急预案，等待上级指示，已记录6份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -31061,6 +30988,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
         <v>0.15</v>
       </c>
@@ -31088,6 +31016,8 @@
           <t>AN_042</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31098,19 +31028,15 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>时空褶皱收容抉择</t>
+          <t>时空褶皱D级人员记录</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>关于时空褶皱的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>技术部门检测到时空褶皱的扩散速度上升70%，超出安全阈值。研究小组建议暂停当前收容流程。</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -31124,6 +31050,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
         <v>0.08</v>
       </c>
@@ -31151,6 +31078,8 @@
           <t>AN_043</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31161,19 +31090,15 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>意识复写日常事件</t>
+          <t>意识复写装置性能下降</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>在管理意识复写时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>研究员报告造成收容区生物遏制单元运行异常。站点主管需做出最终裁决，已记录7份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -31187,6 +31112,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
         <v>0.15</v>
       </c>
@@ -31214,6 +31140,8 @@
           <t>AN_043</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31224,19 +31152,15 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>意识复写收容抉择</t>
+          <t>意识复写风险评估报告</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>关于意识复写的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>安保系统显示产生4次异常能量波动，峰值69焦耳。收容协议要求立即响应，已记录8份异常[数据删除]报告。</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -31250,6 +31174,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
         <v>0.08</v>
       </c>
@@ -31277,6 +31202,8 @@
           <t>AN_044</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31287,19 +31214,15 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>熵增加速日常事件</t>
+          <t>熵增加速标准流程执行</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>在管理熵增加速时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>对AN_044进行的第101次观测中发现导致现实稳定度读数偏离正常值66个标准差。需要紧急决策干预。</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -31313,6 +31236,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M74" t="inlineStr"/>
       <c r="N74" t="n">
         <v>0.15</v>
       </c>
@@ -31340,6 +31264,8 @@
           <t>AN_044</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31350,19 +31276,15 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>熵增加速收容抉择</t>
+          <t>熵增加速能量波动记录</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>关于熵增加速的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>站点监测系统记录到熵增加速出现6次信息辐射，持续时间80秒。技术部门提交了多套应对方案，需要主管裁决。</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -31376,6 +31298,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="n">
         <v>0.08</v>
       </c>
@@ -31403,6 +31326,8 @@
           <t>AN_045</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31413,19 +31338,15 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>因果断裂日常事件</t>
+          <t>因果断裂隔离协议更新</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>在管理因果断裂时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>收容单元内检测到概率场扰动，影响范围7.2平方米。现有收容措施已接近临界值，要求调整策略。</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -31439,6 +31360,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M76" t="inlineStr"/>
       <c r="N76" t="n">
         <v>0.15</v>
       </c>
@@ -31466,6 +31388,8 @@
           <t>AN_045</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31476,19 +31400,15 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>因果断裂收容抉择</t>
+          <t>因果断裂紧急情况汇报</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>关于因果断裂的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>技术部门检测到因果断裂的异常指数指数上升至65%。安保部门请求授权采取应急措施。</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -31502,6 +31422,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
         <v>0.08</v>
       </c>
@@ -31529,6 +31450,8 @@
           <t>AN_046</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31539,19 +31462,15 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>概念抹杀日常事件</t>
+          <t>概念抹杀分析结果汇总</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>在管理概念抹杀时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>研究员报告周围7名D级人员出现生理异常症状。伦理委员会要求审核后续处理方案，已记录5份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -31565,6 +31484,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="n">
         <v>0.15</v>
       </c>
@@ -31592,6 +31512,8 @@
           <t>AN_046</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31602,19 +31524,15 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>概念抹杀收容抉择</t>
+          <t>概念抹杀人事变动通知</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>关于概念抹杀的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>安保系统显示导致特斯拉防护网负荷达到98%。需要权衡资源投入与潜在风险，已记录9份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -31628,6 +31546,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M79" t="inlineStr"/>
       <c r="N79" t="n">
         <v>0.08</v>
       </c>
@@ -31655,6 +31574,8 @@
           <t>AN_047</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31665,19 +31586,15 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>愈合泥土日常事件</t>
+          <t>愈合泥土器材更换申请</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>在管理愈合泥土时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>对AN_047进行的第107次观测中发现使3件标准设备出现功能异常。触发了应急预案，等待上级指示。</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -31691,6 +31608,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M80" t="inlineStr"/>
       <c r="N80" t="n">
         <v>0.15</v>
       </c>
@@ -31718,6 +31636,8 @@
           <t>AN_048</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31728,19 +31648,15 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>全知之眼日常事件</t>
+          <t>全知之眼紧急应对决策</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>在管理全知之眼时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>站点监测系统记录到全知之眼触发了5处独立监测点的警报。研究小组建议暂停当前收容流程。</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -31754,6 +31670,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M81" t="inlineStr"/>
       <c r="N81" t="n">
         <v>0.15</v>
       </c>
@@ -31781,6 +31698,8 @@
           <t>AN_048</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31791,19 +31710,15 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>全知之眼收容抉择</t>
+          <t>全知之眼例行检查汇报</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>关于全知之眼的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>收容单元内引发局部区域因果紊乱，持续111秒。站点主管需做出最终裁决，已记录10份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -31817,6 +31732,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M82" t="inlineStr"/>
       <c r="N82" t="n">
         <v>0.08</v>
       </c>
@@ -31844,6 +31760,8 @@
           <t>AN_049</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31854,19 +31772,15 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>寒霜种子日常事件</t>
+          <t>寒霜种子观测数据异常</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>在管理寒霜种子时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>技术部门检测到寒霜种子的休谟上升90%，超出安全阈值。收容协议要求立即响应，已记录7份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -31880,6 +31794,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M83" t="inlineStr"/>
       <c r="N83" t="n">
         <v>0.15</v>
       </c>
@@ -31907,6 +31822,8 @@
           <t>AN_050</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31917,19 +31834,15 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>回声贝壳日常事件</t>
+          <t>回声贝壳处置方案修订</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>在管理回声贝壳时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>研究员报告造成收容区斯克兰顿现实稳定锚运行异常。需要紧急决策干预，已记录11份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -31943,6 +31856,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M84" t="inlineStr"/>
       <c r="N84" t="n">
         <v>0.15</v>
       </c>
@@ -31970,6 +31884,8 @@
           <t>AN_051</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31980,19 +31896,15 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>概念侵蚀日常事件</t>
+          <t>概念侵蚀应急事件档案</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>在管理概念侵蚀时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>安保系统显示产生7次异常能量波动，峰值90焦耳。技术部门提交了多套应对方案，需要主管裁决。</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -32006,6 +31918,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M85" t="inlineStr"/>
       <c r="N85" t="n">
         <v>0.15</v>
       </c>
@@ -32033,6 +31946,8 @@
           <t>AN_051</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32043,19 +31958,15 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>概念侵蚀收容抉择</t>
+          <t>概念侵蚀试验流程变化</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>关于概念侵蚀的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>对AN_051进行的第113次观测中发现导致危险等级读数偏离正常值73个标准差。现有收容措施已接近临界值，要求调整策略。</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -32069,6 +31980,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M86" t="inlineStr"/>
       <c r="N86" t="n">
         <v>0.08</v>
       </c>
@@ -32096,6 +32008,8 @@
           <t>AN_052</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32106,19 +32020,15 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>量子纠缠体日常事件</t>
+          <t>量子纠缠体人员状况报告</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>在管理量子纠缠体时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>站点监测系统[已编辑]到AN_052出现4次时间流速异常，持续时间94秒。安保部门请求授权采取应急措施。</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -32132,6 +32042,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M87" t="inlineStr"/>
       <c r="N87" t="n">
         <v>0.15</v>
       </c>
@@ -32159,6 +32070,8 @@
           <t>AN_052</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32169,19 +32082,15 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>量子纠缠体收容抉择</t>
+          <t>量子纠缠体仪器故障报告</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>关于量子纠缠体的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>收容单元内检测到空间折叠，影响范围3.3平方米。伦理委员会要求审核后续处理方案。</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -32195,6 +32104,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M88" t="inlineStr"/>
       <c r="N88" t="n">
         <v>0.08</v>
       </c>
@@ -32222,6 +32132,8 @@
           <t>AN_053</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32232,19 +32144,15 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>记忆羽毛日常事件</t>
+          <t>记忆羽毛临界状态警报</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>在管理记忆羽毛时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>技术部门检测到记忆羽毛的熵值指数上升至73%。需要权衡资源投入与潜在风险，已记录12份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -32258,6 +32166,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
         <v>0.15</v>
       </c>
@@ -32285,6 +32194,8 @@
           <t>AN_054</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32295,19 +32206,15 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>反物质种子日常事件</t>
+          <t>反物质种子常规巡检报告</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>在管理反物质种子时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>研究员报告周围3名D级人员出现空间迷向症状。触发了应急预案，等待上级指示，已记录8份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -32321,6 +32228,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M90" t="inlineStr"/>
       <c r="N90" t="n">
         <v>0.15</v>
       </c>
@@ -32348,6 +32256,8 @@
           <t>AN_054</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32358,19 +32268,15 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>反物质种子收容抉择</t>
+          <t>反物质种子检测系统警告</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>关于反物质种子的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>安保系统显示导致负熵泵负荷达到88%。研究小组建议暂停当前收容流程，已记录8份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -32384,6 +32290,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M91" t="inlineStr"/>
       <c r="N91" t="n">
         <v>0.08</v>
       </c>
@@ -32411,6 +32318,8 @@
           <t>AN_055</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32421,19 +32330,15 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>熵之终结日常事件</t>
+          <t>熵之终结安保协议变更</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>在管理熵之终结时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>对AN_055进行的第119次观测中发现使3件标准设备出现功能异常。站点主管需做出最终裁决。</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -32447,6 +32352,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M92" t="inlineStr"/>
       <c r="N92" t="n">
         <v>0.15</v>
       </c>
@@ -32474,6 +32380,8 @@
           <t>AN_055</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32484,19 +32392,15 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>熵之终结收容抉择</t>
+          <t>熵之终结突发事件记录</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>关于熵之终结的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>站点监测系统记录到熵之终结触发了4处独立监测点的警报。收容协议要求立即响应，已记录5份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -32510,6 +32414,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M93" t="inlineStr"/>
       <c r="N93" t="n">
         <v>0.08</v>
       </c>
@@ -32537,6 +32442,8 @@
           <t>AN_056</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32547,19 +32454,15 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>维度寄生日常事件</t>
+          <t>维度寄生测试数据异常</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>在管理维度寄生时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>收容单元内引发局部区域时空扭曲，持续86秒。需要紧急决策干预，已记录10份异常[数据删除]报告。</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -32573,6 +32476,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="n">
         <v>0.15</v>
       </c>
@@ -32600,6 +32504,8 @@
           <t>AN_056</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32610,19 +32516,15 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>维度寄生收容抉择</t>
+          <t>维度寄生D级人员记录</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>关于维度寄生的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>技术部门检测到维度寄生的扩散速度下降85%，超出安全阈值。技术部门提交了多套应对方案，需要主管裁决。</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -32636,6 +32538,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M95" t="inlineStr"/>
       <c r="N95" t="n">
         <v>0.08</v>
       </c>
@@ -32663,6 +32566,8 @@
           <t>AN_057</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32673,19 +32578,15 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>光影碎片日常事件</t>
+          <t>光影碎片装置性能下降</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>在管理光影碎片时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>研究员报告造成收容区Xyank时序调节器运行异常。现有收容措施已接近临界值，要求调整策略。</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -32699,6 +32600,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M96" t="inlineStr"/>
       <c r="N96" t="n">
         <v>0.15</v>
       </c>
@@ -32726,6 +32628,8 @@
           <t>AN_058</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32736,19 +32640,15 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>因果武器日常事件</t>
+          <t>因果武器风险评估报告</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>在管理因果武器时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>安保系统显示产生4次异常能量波动，峰值73焦耳。安保部门请求授权采取应急措施，已记录4份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -32762,6 +32662,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M97" t="inlineStr"/>
       <c r="N97" t="n">
         <v>0.15</v>
       </c>
@@ -32789,6 +32690,8 @@
           <t>AN_058</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32799,19 +32702,15 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>因果武器收容抉择</t>
+          <t>因果武器标准流程执行</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>关于因果武器的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>对AN_058进行的第125次观测中发现导致现实稳定度读数偏离正常值83个标准差。伦理委员会要求审核后续处理方案。</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -32825,6 +32724,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M98" t="inlineStr"/>
       <c r="N98" t="n">
         <v>0.08</v>
       </c>
@@ -32852,6 +32752,8 @@
           <t>AN_059</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32862,19 +32764,15 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>共鸣音叉日常事件</t>
+          <t>共鸣音叉能量波动记录</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>在管理共鸣音叉时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>站点监测系统记录到共鸣音叉出现5次认知污染，持续时间170秒。需要权衡资源投入与潜在风险。</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -32888,6 +32786,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M99" t="inlineStr"/>
       <c r="N99" t="n">
         <v>0.15</v>
       </c>
@@ -32915,6 +32814,8 @@
           <t>AN_060</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32925,19 +32826,15 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>集体无意识日常事件</t>
+          <t>集体无意识隔离协议更新</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>在管理集体无意识时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>收容单元内检测到模因扩散，影响范围7.9平方米。触发了应急预案，等待上级指示，已记录7份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -32951,6 +32848,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
         <v>0.15</v>
       </c>
@@ -32978,6 +32876,8 @@
           <t>AN_060</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32988,19 +32888,15 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>集体无意识收容抉择</t>
+          <t>集体无意识紧急情况汇报</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>关于集体无意识的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>技术部门检测到AN_060的异常指数指数波动至73%。研究小组建议暂停当前收容流程。</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -33014,6 +32910,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M101" t="inlineStr"/>
       <c r="N101" t="n">
         <v>0.08</v>
       </c>
@@ -33041,6 +32938,8 @@
           <t>AN_061</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -33051,19 +32950,15 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>静止胶囊日常事件</t>
+          <t>静止胶囊分析结果汇总</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>在管理静止胶囊时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>研究员报告周围8名D级人员出现生理异常症状。站点主管需做出最终裁决，已记录5份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -33077,6 +32972,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M102" t="inlineStr"/>
       <c r="N102" t="n">
         <v>0.15</v>
       </c>
@@ -33104,6 +33000,8 @@
           <t>AN_062</t>
         </is>
       </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -33114,19 +33012,15 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>幻象镜日常事件</t>
+          <t>幻象镜人事变动通知</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>在管理幻象镜时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>安保系统显示导致休谟场发生器负荷达到96%。收容协议要求立即响应，已记录7份异常数据报告。</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -33140,6 +33034,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M103" t="inlineStr"/>
       <c r="N103" t="n">
         <v>0.15</v>
       </c>
@@ -33167,6 +33062,8 @@
           <t>AN_063</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -33177,19 +33074,15 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>信息黑洞日常事件</t>
+          <t>信息黑洞器材更换申请</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>在管理信息黑洞时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>对AN_063进行的第131次观测中发现使8件标准设备出现功能异常。需要紧急决策干预。</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -33203,6 +33096,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M104" t="inlineStr"/>
       <c r="N104" t="n">
         <v>0.15</v>
       </c>
@@ -33230,6 +33124,8 @@
           <t>AN_063</t>
         </is>
       </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -33240,19 +33136,15 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>信息黑洞收容抉择</t>
+          <t>信息黑洞紧急应对决策</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>关于信息黑洞的收容策略需要做出重要决定</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>站点监测系统记录到信息黑洞触发了3处独立监测点的警报。技术部门提交了多套应对方案，需要主管裁决。</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -33266,6 +33158,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M105" t="inlineStr"/>
       <c r="N105" t="n">
         <v>0.08</v>
       </c>
@@ -33293,6 +33186,8 @@
           <t>AN_064</t>
         </is>
       </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -33303,19 +33198,15 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>呼吸石日常事件</t>
+          <t>呼吸石例行检查汇报</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>在管理呼吸石时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>收容单元内引发局部区域概率场扰动，持续76秒。现有收容措施已接近临界值，要求调整策略。</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -33329,6 +33220,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M106" t="inlineStr"/>
       <c r="N106" t="n">
         <v>0.15</v>
       </c>
@@ -33356,6 +33248,8 @@
           <t>AN_065</t>
         </is>
       </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -33366,19 +33260,15 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>数字虫日常事件</t>
+          <t>数字虫观测数据异常</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>在管理数字虫时发生了一些情况...</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>技术部门检测到数字虫的休谟波动90%，超出安全阈值。安保部门请求授权采取应急措施。</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -33392,6 +33282,7 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
+      <c r="M107" t="inlineStr"/>
       <c r="N107" t="n">
         <v>0.15</v>
       </c>
@@ -33409,8 +33300,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -33423,45 +33313,43 @@
   <dimension ref="A1:G250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.6"/>
-  <cols>
-    <col width="36.61328125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.84375" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="34.84375" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="31.61328125" customWidth="1" min="6" max="6"/>
-    <col width="30.69140625" bestFit="1" customWidth="1" min="7" max="7"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="4" t="inlineStr">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>eventDefId</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>optionId</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>resultText</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>affects</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>effectId</t>
         </is>
@@ -33473,32 +33361,32 @@
           <t>key</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>eventDefId</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>optionId</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>text</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>resultText</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>affects</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>effectId</t>
         </is>
@@ -33510,32 +33398,32 @@
           <t>int</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>string[]</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>string</t>
         </is>
@@ -33557,12 +33445,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>采集样本</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>负熵值增加5，记录完成</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -33592,12 +33480,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>增派人员</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>收容进度加快20%，耗资200预算</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -33627,12 +33515,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>紧急封锁</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>任务推进10%，公众恐慌度上升1点，记录完成</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -33662,12 +33550,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>耗资300预算，地区不稳定性增加</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -33697,12 +33585,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>延后决策</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>进度受阻，延后20%，已归档</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -33732,12 +33620,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>回收300资金，负熵值增加10，记录完成</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -33767,12 +33655,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>回收500资金，成功稳定局势</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -33802,12 +33690,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>紧急封锁</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>工作完成度增加10%，地区不稳定性增加，记录完成</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -33837,12 +33725,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>审慎评估</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>进度受阻，延后20%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -33872,12 +33760,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>协调资源</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>耗资300预算，需启动信息控制协议，已归档</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -33907,12 +33795,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>回收300资金，负熵值增加10，记录完成</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -33942,12 +33830,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>进行测试</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>负熵值增加5</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -33977,12 +33865,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>部署设备</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>收容进度加快20%，耗资200预算，记录完成</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -34012,12 +33900,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>耗资300预算，触发舆情监控机制</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -34047,12 +33935,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>处置效率提升30%，记录完成</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -34082,12 +33970,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>回收500资金，成功稳定局势</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -34117,12 +34005,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>回收500资金，成功稳定局势，记录完成</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -34152,12 +34040,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>进行测试</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>负熵值增加5</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -34187,12 +34075,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>转让成果</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>回收300资金，负熵值增加10，已归档</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -34222,12 +34110,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>耗资300预算，触发舆情监控机制，记录完成</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -34257,12 +34145,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>耗资300预算，地区不稳定性增加</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -34292,12 +34180,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>暂缓执行</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>进度受阻，延后20%，记录完成</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -34327,12 +34215,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>工作完成度增加30%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -34362,12 +34250,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>配置器材</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>收容进度加快20%，耗资200预算，已归档</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -34397,12 +34285,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>回收300资金，负熵值增加10，记录完成</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -34432,12 +34320,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>立即隔离</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>任务推进10%，地区不稳定性增加</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -34467,12 +34355,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>部署设备</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>收容进度加快20%，耗资200预算，记录完成</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -34502,12 +34390,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>任务推进30%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -34537,12 +34425,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>部署设备</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>工作完成度增加20%，耗资200预算，记录完成</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -34572,12 +34460,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>耗资300预算，需启动信息控制协议</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -34607,12 +34495,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>转让成果</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>回收300资金，负熵值增加10，已归档</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -34642,12 +34530,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>部署设备</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>收容进度加快20%，耗资200预算，记录完成</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -34677,12 +34565,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>进行测试</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>负熵值增加5</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -34712,12 +34600,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>回收500资金，成功稳定局势，记录完成</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -34747,12 +34635,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>立即隔离</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>工作完成度增加10%，公众恐慌度上升1点</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -34782,12 +34670,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>延后决策</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>进度受阻，延后20%，已归档</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -34817,12 +34705,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>回收300资金，负熵值增加10，记录完成</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -34852,12 +34740,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>回收300资金，负熵值增加10</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -34887,12 +34775,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>暂缓执行</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>进度受阻，延后20%，记录完成</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -34922,12 +34810,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>立即隔离</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>任务推进10%，需启动信息控制协议</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -34957,12 +34845,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>耗资300预算，地区不稳定性增加，记录完成</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -34992,12 +34880,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>立即隔离</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>任务推进10%，地区不稳定性增加</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -35027,12 +34915,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>强制镇压</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>处置效率提升10%，触发舆情监控机制，已归档</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -35062,12 +34950,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>回收500资金，成功稳定局势，记录完成</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -35097,12 +34985,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>增派人员</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>工作完成度增加20%，耗资200预算</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -35132,12 +35020,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>采集样本</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>负熵值增加5，记录完成</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -35167,12 +35055,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>审慎评估</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>进度受阻，延后20%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -35202,12 +35090,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>耗资300预算，公众恐慌度上升2点，记录完成</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -35237,12 +35125,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>回收300资金，负熵值增加10</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -35272,12 +35160,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>协调资源</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>耗资300预算，需启动信息控制协议，已归档</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -35307,12 +35195,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>暂缓执行</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>进度受阻，延后20%，记录完成</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -35342,12 +35230,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>回收500资金，成功稳定局势</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -35377,12 +35265,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>回收500资金，成功稳定局势，记录完成</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -35412,12 +35300,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>立即隔离</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>任务推进10%，触发舆情监控机制</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -35447,12 +35335,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>延后决策</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>进度受阻，延后20%，已归档</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -35482,12 +35370,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>工作完成度增加30%，记录完成</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -35517,12 +35405,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>审慎评估</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>进度受阻，延后20%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -35552,12 +35440,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>耗资300预算，地区不稳定性增加，记录完成</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -35587,12 +35475,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>审慎评估</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>进度受阻，延后20%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -35622,12 +35510,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>暂缓执行</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>进度受阻，延后20%，记录完成</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -35657,12 +35545,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>审慎评估</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>进度受阻，延后20%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -35692,12 +35580,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>紧急封锁</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>收容进度加快10%，需启动信息控制协议，记录完成</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -35727,12 +35615,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>工作完成度增加30%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -35762,12 +35650,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>转让成果</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>回收500资金，成功稳定局势，已归档</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -35797,12 +35685,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>采集样本</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>负熵值增加5，记录完成</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -35832,12 +35720,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>收容进度加快30%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -35867,12 +35755,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>工作完成度增加30%，记录完成</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -35902,12 +35790,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>进行测试</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>负熵值增加5</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -35937,12 +35825,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>协调资源</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>任务推进30%，已归档</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -35972,12 +35860,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>耗资300预算，需启动信息控制协议，记录完成</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -36007,12 +35895,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>回收500资金，成功稳定局势</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -36042,12 +35930,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>工作完成度增加30%，记录完成</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -36077,12 +35965,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>回收500资金，成功稳定局势</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -36112,12 +36000,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>强制镇压</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>处置效率提升10%，公众恐慌度上升1点，已归档</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -36147,12 +36035,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>暂缓执行</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>进度受阻，延后20%，记录完成</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -36182,12 +36070,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>立即隔离</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>处置效率提升10%，地区不稳定性增加</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -36217,12 +36105,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>回收500资金，成功稳定局势，记录完成</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -36252,12 +36140,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>处置效率提升30%</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -36287,12 +36175,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>采集样本</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>负熵值增加5，记录完成</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -36322,12 +36210,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>回收500资金，成功稳定局势</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -36357,12 +36245,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>协调资源</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>工作完成度增加30%，已归档</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -36392,12 +36280,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>部署设备</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>工作完成度增加20%，耗资200预算，记录完成</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -36427,12 +36315,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>耗资300预算，需启动信息控制协议</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -36462,12 +36350,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>耗资300预算，需启动信息控制协议，记录完成</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -36497,12 +36385,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>回收300资金，负熵值增加10</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -36532,12 +36420,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>回收300资金，负熵值增加10，记录完成</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -36567,12 +36455,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>立即隔离</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>收容进度加快10%，地区不稳定性增加</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -36602,12 +36490,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>耗资300预算，公众恐慌度上升2点，记录完成</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -36637,12 +36525,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>回收300资金，负熵值增加10</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -36672,12 +36560,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>延后决策</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>进度受阻，延后20%，已归档</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -36707,12 +36595,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>回收500资金，成功稳定局势，记录完成</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -36742,12 +36630,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>进行测试</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>负熵值增加5</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -36777,12 +36665,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>回收300资金，负熵值增加10，记录完成</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -36812,12 +36700,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>回收500资金，成功稳定局势</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -36847,12 +36735,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>转让成果</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>回收500资金，成功稳定局势，已归档</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -36882,12 +36770,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>回收300资金，负熵值增加10，记录完成</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -36917,12 +36805,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>增派人员</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>任务推进20%，耗资200预算</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -36952,12 +36840,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>部署设备</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>收容进度加快20%，耗资200预算，记录完成</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -36987,12 +36875,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>耗资300预算，需启动信息控制协议</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -37022,12 +36910,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>转让成果</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>回收300资金，负熵值增加10，已归档</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -37057,12 +36945,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>回收300资金，负熵值增加10，记录完成</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -37092,12 +36980,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>耗资300预算，公众恐慌度上升2点</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -37127,12 +37015,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>耗资300预算，地区不稳定性增加，记录完成</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -37162,12 +37050,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>立即隔离</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>处置效率提升10%，地区不稳定性增加</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -37197,12 +37085,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>协调资源</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>处置效率提升30%，已归档</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -37232,12 +37120,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>耗资300预算，地区不稳定性增加，记录完成</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -37267,12 +37155,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>工作完成度增加30%</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -37302,12 +37190,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>采集样本</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>负熵值增加5，记录完成</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -37337,12 +37225,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>立即隔离</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>收容进度加快10%，地区不稳定性增加</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -37372,12 +37260,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>部署设备</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>处置效率提升20%，耗资200预算，记录完成</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -37407,12 +37295,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>进行测试</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>负熵值增加5</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -37442,12 +37330,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>转让成果</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>回收300资金，负熵值增加10，已归档</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -37477,12 +37365,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>部署设备</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>收容进度加快20%，耗资200预算，记录完成</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -37512,12 +37400,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>耗资300预算，触发舆情监控机制</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -37547,12 +37435,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>耗资300预算，需启动信息控制协议，记录完成</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -37582,12 +37470,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>审慎评估</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>进度受阻，延后20%</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -37617,12 +37505,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>部署设备</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>处置效率提升20%，耗资200预算，记录完成</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -37652,12 +37540,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>回收300资金，负熵值增加10</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -37687,12 +37575,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>延后决策</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>进度受阻，延后20%，已归档</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -37722,12 +37610,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>部署设备</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>工作完成度增加20%，耗资200预算，记录完成</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -37757,12 +37645,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>立即隔离</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>任务推进10%，公众恐慌度上升1点</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -37792,12 +37680,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>回收300资金，负熵值增加10，记录完成</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -37827,12 +37715,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>增派人员</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>工作完成度增加20%，耗资200预算</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -37862,12 +37750,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>部署设备</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>任务推进20%，耗资200预算，记录完成</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -37897,12 +37785,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>耗资300预算，公众恐慌度上升2点</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -37932,12 +37820,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>强制镇压</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>任务推进10%，触发舆情监控机制，已归档</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -37967,12 +37855,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>部署设备</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>处置效率提升20%，耗资200预算，记录完成</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -38002,12 +37890,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>立即隔离</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>收容进度加快10%，公众恐慌度上升1点</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -38037,12 +37925,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>采集样本</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>负熵值增加5，记录完成</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -38072,12 +37960,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>立即隔离</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>工作完成度增加10%，地区不稳定性增加</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -38107,12 +37995,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>收容进度加快30%，记录完成</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -38142,12 +38030,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>回收300资金，负熵值增加10</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -38177,12 +38065,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>耗资300预算，触发舆情监控机制，记录完成</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -38212,12 +38100,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>耗资300预算，触发舆情监控机制</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -38247,12 +38135,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>协调资源</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>耗资300预算，触发舆情监控机制，已归档</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -38282,12 +38170,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>耗资300预算，公众恐慌度上升2点，记录完成</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -38317,12 +38205,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>增派人员</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>收容进度加快20%，耗资200预算</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -38352,12 +38240,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>耗资300预算，地区不稳定性增加，记录完成</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -38387,12 +38275,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>立即隔离</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>任务推进10%，地区不稳定性增加</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -38422,12 +38310,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>协调资源</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>任务推进30%，已归档</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -38457,12 +38345,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>回收500资金，成功稳定局势，记录完成</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -38492,12 +38380,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>立即隔离</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>任务推进10%，需启动信息控制协议</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -38527,12 +38415,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>耗资300预算，需启动信息控制协议，记录完成</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -38562,12 +38450,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>增派人员</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>收容进度加快20%，耗资200预算</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -38597,12 +38485,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>强制镇压</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>收容进度加快10%，地区不稳定性增加，已归档</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -38632,12 +38520,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>部署设备</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>工作完成度增加20%，耗资200预算，记录完成</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -38667,12 +38555,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>回收500资金，成功稳定局势</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -38702,12 +38590,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>采集样本</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>负熵值增加5，记录完成</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -38737,12 +38625,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>进行测试</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>负熵值增加5</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -38772,12 +38660,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>强制镇压</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>任务推进10%，需启动信息控制协议，已归档</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -38807,12 +38695,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>耗资300预算，需启动信息控制协议，记录完成</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -38842,12 +38730,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>审慎评估</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>进度受阻，延后20%</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -38877,12 +38765,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>工作完成度增加30%，记录完成</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -38912,12 +38800,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>回收300资金，负熵值增加10</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -38947,12 +38835,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>延后决策</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>进度受阻，延后20%，已归档</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -38982,12 +38870,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>耗资300预算，触发舆情监控机制，记录完成</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -39017,12 +38905,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>立即隔离</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>任务推进10%，需启动信息控制协议</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -39052,12 +38940,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>紧急封锁</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>工作完成度增加10%，需启动信息控制协议，记录完成</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -39087,12 +38975,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>耗资300预算，需启动信息控制协议</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -39122,12 +39010,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>采集样本</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>负熵值增加5，记录完成</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -39157,12 +39045,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>审慎评估</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>进度受阻，延后20%</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -39192,12 +39080,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>配置器材</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>工作完成度增加20%，耗资200预算，已归档</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -39227,12 +39115,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>回收500资金，成功稳定局势，记录完成</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -39262,12 +39150,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>进行测试</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>负熵值增加5</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -39297,12 +39185,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>回收500资金，成功稳定局势，记录完成</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -39332,12 +39220,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>任务推进30%</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -39367,12 +39255,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>开展实验</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>负熵值增加5，已归档</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -39402,12 +39290,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>采集样本</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>负熵值增加5，记录完成</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -39437,12 +39325,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>立即隔离</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>处置效率提升10%，需启动信息控制协议</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -39472,12 +39360,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>紧急封锁</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>任务推进10%，地区不稳定性增加，记录完成</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -39507,12 +39395,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>回收500资金，成功稳定局势</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -39542,12 +39430,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>协调资源</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>工作完成度增加30%，已归档</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -39577,12 +39465,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>工作完成度增加30%，记录完成</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -39612,12 +39500,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>增派人员</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>收容进度加快20%，耗资200预算</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -39647,12 +39535,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>耗资300预算，需启动信息控制协议，记录完成</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -39682,12 +39570,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>工作完成度增加30%</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -39717,12 +39605,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>转让成果</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>回收500资金，成功稳定局势，已归档</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -39752,12 +39640,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>耗资300预算，需启动信息控制协议，记录完成</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -39787,12 +39675,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>审慎评估</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>进度受阻，延后20%</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -39822,12 +39710,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>部署设备</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>任务推进20%，耗资200预算，记录完成</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -39857,12 +39745,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>增派人员</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>收容进度加快20%，耗资200预算</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -39892,12 +39780,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>转让成果</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>回收300资金，负熵值增加10，已归档</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -39927,12 +39815,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>紧急封锁</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>处置效率提升10%，地区不稳定性增加，记录完成</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -39962,12 +39850,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>收容进度加快30%</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -39997,12 +39885,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>紧急封锁</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>任务推进10%，触发舆情监控机制，记录完成</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -40032,12 +39920,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>进行测试</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>负熵值增加5</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -40067,12 +39955,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>紧急封锁</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>任务推进10%，公众恐慌度上升1点，记录完成</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -40102,12 +39990,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>耗资300预算，触发舆情监控机制</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -40137,12 +40025,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>转让成果</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>回收500资金，成功稳定局势，已归档</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -40172,12 +40060,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>任务推进30%，记录完成</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -40207,12 +40095,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>任务推进30%</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -40242,12 +40130,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>回收500资金，成功稳定局势，记录完成</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -40277,12 +40165,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>耗资300预算，公众恐慌度上升2点</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -40312,12 +40200,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>采集样本</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>负熵值增加5，记录完成</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -40347,12 +40235,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>回收300资金，负熵值增加10</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -40382,12 +40270,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>部署设备</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>处置效率提升20%，耗资200预算，记录完成</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -40417,12 +40305,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>回收300资金，负熵值增加10</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -40452,12 +40340,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>转让成果</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>回收300资金，负熵值增加10，已归档</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -40487,12 +40375,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>部署设备</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>收容进度加快20%，耗资200预算，记录完成</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -40522,12 +40410,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>进行测试</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>负熵值增加5</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -40557,12 +40445,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>暂缓执行</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>进度受阻，延后20%，记录完成</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -40592,12 +40480,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>耗资300预算，触发舆情监控机制</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -40627,12 +40515,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>强制镇压</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>收容进度加快10%，公众恐慌度上升1点，已归档</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -40662,12 +40550,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>部署设备</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>处置效率提升20%，耗资200预算，记录完成</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -40697,12 +40585,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>耗资300预算，触发舆情监控机制</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -40732,12 +40620,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>采集样本</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>负熵值增加5，记录完成</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -40767,12 +40655,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>回收300资金，负熵值增加10</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -40802,12 +40690,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>采集样本</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>负熵值增加5，记录完成</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -40837,12 +40725,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>回收500资金，成功稳定局势</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -40872,12 +40760,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>延后决策</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>进度受阻，延后20%，已归档</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -40907,12 +40795,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>部署设备</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>工作完成度增加20%，耗资200预算，记录完成</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -40942,12 +40830,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>回收500资金，成功稳定局势</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -40977,12 +40865,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>回收500资金，成功稳定局势，记录完成</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -41012,12 +40900,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>审慎评估</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>进度受阻，延后20%</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -41047,12 +40935,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>开展实验</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>负熵值增加5，已归档</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -41082,12 +40970,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>暂缓执行</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>进度受阻，延后20%，记录完成</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -41117,12 +41005,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>收容进度加快30%</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -41152,12 +41040,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>采集样本</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>负熵值增加5，记录完成</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -41187,12 +41075,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>进行测试</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>负熵值增加5</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -41222,12 +41110,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>强制镇压</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>工作完成度增加10%，触发舆情监控机制，已归档</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -41257,12 +41145,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>耗资300预算，触发舆情监控机制，记录完成</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -41292,12 +41180,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>回收500资金，成功稳定局势</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -41327,12 +41215,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>回收300资金，负熵值增加10，记录完成</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -41362,12 +41250,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>增派人员</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>收容进度加快20%，耗资200预算</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -41397,12 +41285,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>收容进度加快30%，记录完成</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -41432,12 +41320,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>收容进度加快30%</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -41467,12 +41355,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>配置器材</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>任务推进20%，耗资200预算，已归档</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -41502,12 +41390,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>暂缓执行</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>进度受阻，延后20%，记录完成</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -41537,12 +41425,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>立即隔离</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>工作完成度增加10%，公众恐慌度上升1点</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -41572,12 +41460,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>耗资300预算，需启动信息控制协议，记录完成</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -41607,12 +41495,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>增派人员</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>任务推进20%，耗资200预算</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -41642,12 +41530,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>回收500资金，成功稳定局势，记录完成</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -41677,12 +41565,12 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>增派人员</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>工作完成度增加20%，耗资200预算</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -41712,12 +41600,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>转让成果</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>回收500资金，成功稳定局势，已归档</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -41747,12 +41635,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>回收300资金，负熵值增加10，记录完成</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -41782,12 +41670,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>耗资300预算，地区不稳定性增加</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -41817,12 +41705,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>紧急封锁</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>收容进度加快10%，需启动信息控制协议，记录完成</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -41852,12 +41740,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>增派人员</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>任务推进20%，耗资200预算</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -41887,12 +41775,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>部署设备</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>处置效率提升20%，耗资200预算，记录完成</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -41922,12 +41810,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>增派人员</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>收容进度加快20%，耗资200预算</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -41957,12 +41845,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>抉择1</t>
+          <t>采集样本</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>执行了抉择1</t>
+          <t>负熵值增加5，记录完成</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -41992,12 +41880,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>抉择2</t>
+          <t>申请调度</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>执行了抉择2</t>
+          <t>耗资300预算，需启动信息控制协议</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -42027,12 +41915,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>抉择3</t>
+          <t>配置器材</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>执行了抉择3</t>
+          <t>任务推进20%，耗资200预算，已归档</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -42062,12 +41950,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>回收产物</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>回收500资金，成功稳定局势，记录完成</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -42097,12 +41985,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>立即隔离</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>收容进度加快10%，需启动信息控制协议</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -42132,12 +42020,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>选项1</t>
+          <t>请求支援</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>选择了选项1的结果</t>
+          <t>收容进度加快30%，记录完成</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -42167,12 +42055,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>选项2</t>
+          <t>变现样本</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>选择了选项2的结果</t>
+          <t>回收300资金，负熵值增加10</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -42187,6 +42075,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -26862,8 +26862,6 @@
           <t>AN_001</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -26882,7 +26880,11 @@
           <t>收容单元内检测到时空扭曲，影响范围4.7平方米。需要紧急决策干预，已记录6份异常数据报告。</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -26896,7 +26898,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
         <v>0.15</v>
       </c>
@@ -26924,8 +26925,6 @@
           <t>AN_001</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -26944,7 +26943,11 @@
           <t>技术部门检测到维度门的异常指数指数下降至86%。技术部门提交了多套应对方案，需要主管裁决。</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -26958,7 +26961,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
         <v>0.08</v>
       </c>
@@ -26986,8 +26988,6 @@
           <t>AN_002</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27006,7 +27006,11 @@
           <t>研究员报告周围4名D级人员出现生理异常症状。现有收容措施已接近临界值，要求调整策略。</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -27020,7 +27024,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
         <v>0.15</v>
       </c>
@@ -27048,8 +27051,6 @@
           <t>AN_002</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27068,7 +27069,11 @@
           <t>安保系统显示导致特斯拉防护网负荷达到96%。安保部门请求授权采取应急措施，已记录5份异常数据报告。</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -27082,7 +27087,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
         <v>0.08</v>
       </c>
@@ -27110,8 +27114,6 @@
           <t>AN_003</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27130,7 +27132,11 @@
           <t>对AN_003进行的第35次观测中发现使7件标准设备出现功能异常。伦理委员会要求审核后续处理方案。</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -27144,7 +27150,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
         <v>0.15</v>
       </c>
@@ -27172,8 +27177,6 @@
           <t>AN_004</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27192,7 +27195,11 @@
           <t>站点监测系统记录到失声合唱触发了2处独立监测点的警报。需要权衡资源投入与潜在风险。</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -27206,7 +27213,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
         <v>0.15</v>
       </c>
@@ -27234,8 +27240,6 @@
           <t>AN_005</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27254,7 +27258,11 @@
           <t>收容单元内引发局部区域模因扩散，持续140秒。触发了应急预案，等待上级指示，已记录7份异常[数据删除]报告。</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -27268,7 +27276,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
         <v>0.15</v>
       </c>
@@ -27296,8 +27303,6 @@
           <t>AN_005</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27316,7 +27321,11 @@
           <t>技术部门检测到AN_005的休谟上升82%，超出安全阈值。研究小组建议暂停当前收容流程。</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -27330,7 +27339,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
         <v>0.08</v>
       </c>
@@ -27358,8 +27366,6 @@
           <t>AN_006</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27378,7 +27384,11 @@
           <t>研究员报告造成收容区斯克兰顿现实稳定锚运行异常。站点主管需做出最终裁决，已记录10份异常数据报告。</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -27392,7 +27402,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
         <v>0.15</v>
       </c>
@@ -27420,8 +27429,6 @@
           <t>AN_006</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27440,7 +27447,11 @@
           <t>安保系统显示产生2次异常能量波动，峰值91焦耳。收容协议要求立即响应，已记录12份异常数据报告。</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -27454,7 +27465,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
         <v>0.08</v>
       </c>
@@ -27482,8 +27492,6 @@
           <t>AN_007</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27502,7 +27510,11 @@
           <t>对AN_007进行的第41次观测中发现导致危险等级读数偏离正常值67个标准差。需要紧急决策干预。</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -27516,7 +27528,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
         <v>0.15</v>
       </c>
@@ -27544,8 +27555,6 @@
           <t>AN_008</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27564,7 +27573,11 @@
           <t>站点监测系统记录到现实崩解出现8次信息辐射，持续时间37秒。技术部门提交了多套应对方案，需要主管裁决。</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -27578,7 +27591,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
         <v>0.15</v>
       </c>
@@ -27606,8 +27618,6 @@
           <t>AN_008</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27626,7 +27636,11 @@
           <t>收容单元内检测到概率场扰动，影响范围1.8平方米。现有收容措施已接近临界值，要求调整策略。</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -27640,7 +27654,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
         <v>0.08</v>
       </c>
@@ -27668,8 +27681,6 @@
           <t>AN_009</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27688,7 +27699,11 @@
           <t>技术部门检测到末日预言的熵值指数上升至87%。安保部门请求授权采取应急措施，已记录8份异常[数据删除]报告。</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -27702,7 +27717,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
         <v>0.15</v>
       </c>
@@ -27730,8 +27744,6 @@
           <t>AN_009</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27750,7 +27762,11 @@
           <t>研究员报告周围5名D级人员出现空间迷向症状。伦理委员会要求审核后续处理方案，已记录9份异常数据报告。</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -27764,7 +27780,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
         <v>0.08</v>
       </c>
@@ -27792,8 +27807,6 @@
           <t>AN_010</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27812,7 +27825,11 @@
           <t>安保系统显示导致负熵泵负荷达到96%。需要权衡资源投入与潜在风险，已记录5份异常数据报告。</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -27826,7 +27843,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
         <v>0.15</v>
       </c>
@@ -27854,8 +27870,6 @@
           <t>AN_011</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27874,7 +27888,11 @@
           <t>对AN_011进行的第47次观测中发现使4件标准设备出现功能异常。触发了应急预案，等待上级指示。</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -27888,7 +27906,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
         <v>0.15</v>
       </c>
@@ -27916,8 +27933,6 @@
           <t>AN_011</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27936,7 +27951,11 @@
           <t>站点监测系统记录到意识寄生触发了5处独立监测点的警报。研究小组建议暂停当前收容流程。</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -27950,7 +27969,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
         <v>0.08</v>
       </c>
@@ -27978,8 +27996,6 @@
           <t>AN_012</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -27998,7 +28014,11 @@
           <t>收容单元内引发局部区域因果紊乱，持续106秒。站点主管需做出最终裁决，已记录6份异常数据报告。</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -28012,7 +28032,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
         <v>0.15</v>
       </c>
@@ -28040,8 +28059,6 @@
           <t>AN_013</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28060,7 +28077,11 @@
           <t>技术部门检测到形态模仿的扩散速度下降88%，超出安全阈值。收容协议要求立即响应。</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -28074,7 +28095,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
         <v>0.15</v>
       </c>
@@ -28102,8 +28122,6 @@
           <t>AN_013</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28122,7 +28140,11 @@
           <t>研究员报告造成收容区Xyank时序调节器运行异常。需要紧急决策干预，已记录10份异常[数据删除]报告。</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -28136,7 +28158,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
         <v>0.08</v>
       </c>
@@ -28164,8 +28185,6 @@
           <t>AN_014</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28184,7 +28203,11 @@
           <t>安保系统显示产生5次异常能量波动，峰值90焦耳。技术部门提交了多套应对方案，需要主管裁决。</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -28198,7 +28221,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
         <v>0.15</v>
       </c>
@@ -28226,8 +28248,6 @@
           <t>AN_014</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28246,7 +28266,11 @@
           <t>对AN_014进行的第53次观测中发现导致现实稳定度读数偏离正常值74个标准差。现有收容措施已接近临界值，要求调整策略。</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -28260,7 +28284,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
         <v>0.08</v>
       </c>
@@ -28288,8 +28311,6 @@
           <t>AN_015</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28308,7 +28329,11 @@
           <t>站点监测系统记录到静电蝴蝶出现4次时间流速异常，持续时间98秒。安保部门请求授权采取应急措施。</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -28322,7 +28347,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
         <v>0.15</v>
       </c>
@@ -28350,8 +28374,6 @@
           <t>AN_016</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28370,7 +28392,11 @@
           <t>收容单元内检测到空间折叠，影响范围7.7平方米。伦理委员会要求审核后续处理方案。</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -28384,7 +28410,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
         <v>0.15</v>
       </c>
@@ -28412,8 +28437,6 @@
           <t>AN_017</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28432,7 +28455,11 @@
           <t>技术部门检测到虚空凝视的异常指数指数下降至92%。需要权衡资源投入与潜在风险，已记录5份异常数据报告。</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -28446,7 +28473,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
         <v>0.15</v>
       </c>
@@ -28474,8 +28500,6 @@
           <t>AN_017</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28494,7 +28518,11 @@
           <t>研究员报告周围2名D级人员出现生理异常症状。触发了应急预案，等待上级指示，已记录5份异常数据报告。</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -28508,7 +28536,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
         <v>0.08</v>
       </c>
@@ -28536,8 +28563,6 @@
           <t>AN_018</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28556,7 +28581,11 @@
           <t>安保系统显示导致休谟场发生器负荷达到88%。研究小组建议暂停当前收容流程，已记录10份异常[数据删除]报告。</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -28570,7 +28599,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
         <v>0.15</v>
       </c>
@@ -28598,8 +28626,6 @@
           <t>AN_018</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28618,7 +28644,11 @@
           <t>对AN_018进行的第59次观测中发现使7件标准设备出现功能异常。站点主管需做出最终裁决。</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -28632,7 +28662,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
         <v>0.08</v>
       </c>
@@ -28660,8 +28689,6 @@
           <t>AN_019</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28680,7 +28707,11 @@
           <t>站点监测系统记录到共生幻影触发了3处独立监测点的警报。收容协议要求立即响应，已记录12份异常数据报告。</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -28694,7 +28725,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
         <v>0.15</v>
       </c>
@@ -28722,8 +28752,6 @@
           <t>AN_019</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28742,7 +28770,11 @@
           <t>收容单元内引发局部区域时空扭曲，持续84秒。需要紧急决策干预，已记录9份异常数据报告。</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -28756,7 +28788,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
         <v>0.08</v>
       </c>
@@ -28784,8 +28815,6 @@
           <t>AN_020</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28804,7 +28833,11 @@
           <t>技术部门检测到梦境碎片的休谟上升73%，超出安全阈值。技术部门提交了多套应对方案，需要主管裁决。</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -28818,7 +28851,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
         <v>0.15</v>
       </c>
@@ -28846,8 +28878,6 @@
           <t>AN_021</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28866,7 +28896,11 @@
           <t>研究员报告造成收容区生物遏制单元运行异常。现有收容措施已接近临界值，要求调整策略。</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -28880,7 +28914,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
         <v>0.15</v>
       </c>
@@ -28908,8 +28941,6 @@
           <t>AN_021</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28928,7 +28959,11 @@
           <t>安保系统显示产生3次异常能量波动，峰值75焦耳。安保部门请求授权采取应急措施，已记录7份异常数据报告。</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -28942,7 +28977,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
         <v>0.08</v>
       </c>
@@ -28970,8 +29004,6 @@
           <t>AN_022</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -28990,7 +29022,11 @@
           <t>对AN_022进行的第65次观测中发现导致危险等级读数偏离正常值91个标准差。伦理委员会要求审核后续处理方案。</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29004,7 +29040,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
         <v>0.15</v>
       </c>
@@ -29032,8 +29067,6 @@
           <t>AN_023</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29052,7 +29085,11 @@
           <t>站点监测系统记录到影子玩偶出现3次认知污染，持续时间75秒。需要权衡资源投入与潜在风险。</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29066,7 +29103,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
         <v>0.15</v>
       </c>
@@ -29094,8 +29130,6 @@
           <t>AN_024</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29114,7 +29148,11 @@
           <t>收容单元内检测到模因扩散，影响范围7.3平方米。触发了应急预案，等待上级指示，已记录6份异常数据报告。</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29128,7 +29166,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
         <v>0.15</v>
       </c>
@@ -29156,8 +29193,6 @@
           <t>AN_024</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29176,7 +29211,11 @@
           <t>技术部门检测到思维回声的熵值指数下降至81%。研究小组建议暂停当前收容流程，已记录11份异常数据报告。</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -29190,7 +29229,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
         <v>0.08</v>
       </c>
@@ -29218,8 +29256,6 @@
           <t>AN_025</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29238,7 +29274,11 @@
           <t>研究员报告周围4名D级人员出现空间迷向症状。站点主管需做出最终裁决，已记录8份异常数据报告。</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29252,7 +29292,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
         <v>0.15</v>
       </c>
@@ -29280,8 +29319,6 @@
           <t>AN_025</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29300,7 +29337,11 @@
           <t>安保系统显示导致特斯拉防护网负荷达到90%。收容协议要求立即响应，已记录7份异常数据报告。</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -29314,7 +29355,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
         <v>0.08</v>
       </c>
@@ -29342,8 +29382,6 @@
           <t>AN_026</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29362,7 +29400,11 @@
           <t>对AN_026进行的第71次观测中发现使3件标准设备出现功能异常。需要紧急决策干预。</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29376,7 +29418,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
         <v>0.15</v>
       </c>
@@ -29404,8 +29445,6 @@
           <t>AN_026</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29424,7 +29463,11 @@
           <t>站点监测系统[已编辑]到无限增殖触发了4处独立监测点的警报。技术部门提交了多套应对方案，需要主管裁决。</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -29438,7 +29481,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
         <v>0.08</v>
       </c>
@@ -29466,8 +29508,6 @@
           <t>AN_027</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29486,7 +29526,11 @@
           <t>收容单元内引发局部区域概率场扰动，持续61秒。现有收容措施已接近临界值，要求调整策略。</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29500,7 +29544,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
         <v>0.15</v>
       </c>
@@ -29528,8 +29571,6 @@
           <t>AN_027</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29548,7 +29589,11 @@
           <t>技术部门检测到预知镜面的扩散速度上升72%，超出安全阈值。安保部门请求授权采取应急措施。</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -29562,7 +29607,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
         <v>0.08</v>
       </c>
@@ -29590,8 +29634,6 @@
           <t>AN_028</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29610,7 +29652,11 @@
           <t>研究员报告造成收容区斯克兰顿现实稳定锚运行异常。伦理委员会要求审核后续处理方案。</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29624,7 +29670,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
         <v>0.15</v>
       </c>
@@ -29652,8 +29697,6 @@
           <t>AN_029</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29672,7 +29715,11 @@
           <t>安保系统显示产生8次异常能量波动，峰值70焦耳。需要权衡资源投入与潜在风险，已记录4份异常数据报告。</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29686,7 +29733,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
         <v>0.15</v>
       </c>
@@ -29714,8 +29760,6 @@
           <t>AN_029</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29734,7 +29778,11 @@
           <t>对AN_029进行的第77次观测中发现导致现实稳定度读数偏离正常值79个标准差。触发了应急预案，等待上级指示。</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -29748,7 +29796,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
         <v>0.08</v>
       </c>
@@ -29776,8 +29823,6 @@
           <t>AN_030</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29796,7 +29841,11 @@
           <t>站点监测系统记录到温度灯出现3次维度裂隙，持续时间57秒。研究小组建议暂停当前收容流程。</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29810,7 +29859,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
         <v>0.15</v>
       </c>
@@ -29838,8 +29886,6 @@
           <t>AN_031</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29858,7 +29904,11 @@
           <t>收容单元内检测到因果紊乱，影响范围6.1平方米。站点主管需做出最终裁决，已记录11份异常[数据删除]报告。</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29872,7 +29922,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
         <v>0.15</v>
       </c>
@@ -29900,8 +29949,6 @@
           <t>AN_031</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29920,7 +29967,11 @@
           <t>技术部门检测到时间吞噬的异常指数指数波动至72%。收容协议要求立即响应，已记录8份异常数据报告。</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -29934,7 +29985,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
         <v>0.08</v>
       </c>
@@ -29962,8 +30012,6 @@
           <t>AN_032</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -29982,7 +30030,11 @@
           <t>研究员报告周围2名D级人员出现生理异常症状。需要紧急决策干预，已记录11份异常数据报告。</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -29996,7 +30048,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
         <v>0.15</v>
       </c>
@@ -30024,8 +30075,6 @@
           <t>AN_033</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30044,7 +30093,11 @@
           <t>安保系统显示导致负熵泵负荷达到78%。技术部门提交了多套应对方案，需要主管裁决。</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -30058,7 +30111,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
         <v>0.15</v>
       </c>
@@ -30086,8 +30138,6 @@
           <t>AN_033</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30106,7 +30156,11 @@
           <t>对AN_033进行的第83次观测中发现使5件标准设备出现功能异常。现有收容措施已接近临界值，要求调整策略。</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -30120,7 +30174,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
         <v>0.08</v>
       </c>
@@ -30148,8 +30201,6 @@
           <t>AN_034</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30168,7 +30219,11 @@
           <t>站点监测系统记录到透明生物触发了3处独立监测点的警报。安保部门请求授权采取应急措施。</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -30182,7 +30237,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
         <v>0.15</v>
       </c>
@@ -30210,8 +30264,6 @@
           <t>AN_035</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30230,7 +30282,11 @@
           <t>收容单元内引发局部区域空间折叠，持续31秒。伦理委员会要求审核后续处理方案，已记录10份异常数据报告。</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -30244,7 +30300,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
         <v>0.15</v>
       </c>
@@ -30272,8 +30327,6 @@
           <t>AN_036</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30292,7 +30345,11 @@
           <t>技术部门检测到维度入侵的休谟波动95%，超出安全阈值。需要权衡资源投入与潜在风险。</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -30306,7 +30363,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
         <v>0.15</v>
       </c>
@@ -30334,8 +30390,6 @@
           <t>AN_036</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30354,7 +30408,11 @@
           <t>研究员报告造成收容区Xyank时序调节器运行异常。触发了应急预案，等待上级指示。</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -30368,7 +30426,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
         <v>0.08</v>
       </c>
@@ -30396,8 +30453,6 @@
           <t>AN_037</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30416,7 +30471,11 @@
           <t>安保系统显示产生8次异常能量波动，峰值71焦耳。研究小组建议暂停当前收容流程，已记录3份异常数据报告。</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -30430,7 +30489,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
         <v>0.15</v>
       </c>
@@ -30458,8 +30516,6 @@
           <t>AN_037</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30478,7 +30534,11 @@
           <t>对AN_037进行的第89次观测中发现导致危险等级读数偏离正常值84个标准差。站点主管需做出最终裁决。</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -30492,7 +30552,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
         <v>0.08</v>
       </c>
@@ -30520,8 +30579,6 @@
           <t>AN_038</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30540,7 +30597,11 @@
           <t>站点监测系统记录到平行投影出现2次能量峰值，持续时间95秒。收容协议要求立即响应。</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -30554,7 +30615,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
         <v>0.15</v>
       </c>
@@ -30582,8 +30642,6 @@
           <t>AN_038</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30602,7 +30660,11 @@
           <t>收容单元内检测到时空扭曲，影响范围4.6平方米。需要紧急决策干预，已记录4份异常数据报告。</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -30616,7 +30678,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
         <v>0.08</v>
       </c>
@@ -30644,8 +30705,6 @@
           <t>AN_039</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30664,7 +30723,11 @@
           <t>技术部门检测到AN_039的熵值指数上升至91%。技术部门提交了多套应对方案，需要主管裁决。</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -30678,7 +30741,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
         <v>0.15</v>
       </c>
@@ -30706,8 +30768,6 @@
           <t>AN_039</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30726,7 +30786,11 @@
           <t>研究员报告周围3名D级人员出现空间迷向症状。现有收容措施已接近临界值，要求调整策略。</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -30740,7 +30804,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
         <v>0.08</v>
       </c>
@@ -30768,8 +30831,6 @@
           <t>AN_040</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30788,7 +30849,11 @@
           <t>安保系统显示导致休谟场发生器负荷达到86%。安保部门请求授权采取应急措施，已记录8份异常数据报告。</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -30802,7 +30867,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
         <v>0.15</v>
       </c>
@@ -30830,8 +30894,6 @@
           <t>AN_040</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30850,7 +30912,11 @@
           <t>对AN_040进行的第95次观测中发现使6件标准设备出现功能异常。伦理委员会要求审核后续处理方案。</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -30864,7 +30930,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
         <v>0.08</v>
       </c>
@@ -30892,8 +30957,6 @@
           <t>AN_041</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30912,7 +30975,11 @@
           <t>站点监测系统记录到记忆书签触发了8处独立监测点的警报。需要权衡资源投入与潜在风险。</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -30926,7 +30993,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
         <v>0.15</v>
       </c>
@@ -30954,8 +31020,6 @@
           <t>AN_042</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -30974,7 +31038,11 @@
           <t>收容单元内引发局部区域模因扩散，持续118秒。触发了应急预案，等待上级指示，已记录6份异常数据报告。</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -30988,7 +31056,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
         <v>0.15</v>
       </c>
@@ -31016,8 +31083,6 @@
           <t>AN_042</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31036,7 +31101,11 @@
           <t>技术部门检测到时空褶皱的扩散速度上升70%，超出安全阈值。研究小组建议暂停当前收容流程。</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J71" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -31050,7 +31119,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
         <v>0.08</v>
       </c>
@@ -31078,8 +31146,6 @@
           <t>AN_043</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31098,7 +31164,11 @@
           <t>研究员报告造成收容区生物遏制单元运行异常。站点主管需做出最终裁决，已记录7份异常数据报告。</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -31112,7 +31182,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
         <v>0.15</v>
       </c>
@@ -31140,8 +31209,6 @@
           <t>AN_043</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31160,7 +31227,11 @@
           <t>安保系统显示产生4次异常能量波动，峰值69焦耳。收容协议要求立即响应，已记录8份异常[数据删除]报告。</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -31174,7 +31245,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
         <v>0.08</v>
       </c>
@@ -31202,8 +31272,6 @@
           <t>AN_044</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31222,7 +31290,11 @@
           <t>对AN_044进行的第101次观测中发现导致现实稳定度读数偏离正常值66个标准差。需要紧急决策干预。</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -31236,7 +31308,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr"/>
       <c r="N74" t="n">
         <v>0.15</v>
       </c>
@@ -31264,8 +31335,6 @@
           <t>AN_044</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31284,7 +31353,11 @@
           <t>站点监测系统记录到熵增加速出现6次信息辐射，持续时间80秒。技术部门提交了多套应对方案，需要主管裁决。</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -31298,7 +31371,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr"/>
       <c r="N75" t="n">
         <v>0.08</v>
       </c>
@@ -31326,8 +31398,6 @@
           <t>AN_045</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31346,7 +31416,11 @@
           <t>收容单元内检测到概率场扰动，影响范围7.2平方米。现有收容措施已接近临界值，要求调整策略。</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J76" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -31360,7 +31434,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
       <c r="N76" t="n">
         <v>0.15</v>
       </c>
@@ -31388,8 +31461,6 @@
           <t>AN_045</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31408,7 +31479,11 @@
           <t>技术部门检测到因果断裂的异常指数指数上升至65%。安保部门请求授权采取应急措施。</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -31422,7 +31497,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
         <v>0.08</v>
       </c>
@@ -31450,8 +31524,6 @@
           <t>AN_046</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31470,7 +31542,11 @@
           <t>研究员报告周围7名D级人员出现生理异常症状。伦理委员会要求审核后续处理方案，已记录5份异常数据报告。</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -31484,7 +31560,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
       <c r="N78" t="n">
         <v>0.15</v>
       </c>
@@ -31512,8 +31587,6 @@
           <t>AN_046</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31532,7 +31605,11 @@
           <t>安保系统显示导致特斯拉防护网负荷达到98%。需要权衡资源投入与潜在风险，已记录9份异常数据报告。</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -31546,7 +31623,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr"/>
       <c r="N79" t="n">
         <v>0.08</v>
       </c>
@@ -31574,8 +31650,6 @@
           <t>AN_047</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31594,7 +31668,11 @@
           <t>对AN_047进行的第107次观测中发现使3件标准设备出现功能异常。触发了应急预案，等待上级指示。</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -31608,7 +31686,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
       <c r="N80" t="n">
         <v>0.15</v>
       </c>
@@ -31636,8 +31713,6 @@
           <t>AN_048</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31656,7 +31731,11 @@
           <t>站点监测系统记录到全知之眼触发了5处独立监测点的警报。研究小组建议暂停当前收容流程。</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -31670,7 +31749,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr"/>
       <c r="N81" t="n">
         <v>0.15</v>
       </c>
@@ -31698,8 +31776,6 @@
           <t>AN_048</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31718,7 +31794,11 @@
           <t>收容单元内引发局部区域因果紊乱，持续111秒。站点主管需做出最终裁决，已记录10份异常数据报告。</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -31732,7 +31812,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
       <c r="N82" t="n">
         <v>0.08</v>
       </c>
@@ -31760,8 +31839,6 @@
           <t>AN_049</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31780,7 +31857,11 @@
           <t>技术部门检测到寒霜种子的休谟上升90%，超出安全阈值。收容协议要求立即响应，已记录7份异常数据报告。</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -31794,7 +31875,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
       <c r="N83" t="n">
         <v>0.15</v>
       </c>
@@ -31822,8 +31902,6 @@
           <t>AN_050</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31842,7 +31920,11 @@
           <t>研究员报告造成收容区斯克兰顿现实稳定锚运行异常。需要紧急决策干预，已记录11份异常数据报告。</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -31856,7 +31938,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
       <c r="N84" t="n">
         <v>0.15</v>
       </c>
@@ -31884,8 +31965,6 @@
           <t>AN_051</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31904,7 +31983,11 @@
           <t>安保系统显示产生7次异常能量波动，峰值90焦耳。技术部门提交了多套应对方案，需要主管裁决。</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -31918,7 +32001,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr"/>
       <c r="N85" t="n">
         <v>0.15</v>
       </c>
@@ -31946,8 +32028,6 @@
           <t>AN_051</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -31966,7 +32046,11 @@
           <t>对AN_051进行的第113次观测中发现导致危险等级读数偏离正常值73个标准差。现有收容措施已接近临界值，要求调整策略。</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -31980,7 +32064,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr"/>
       <c r="N86" t="n">
         <v>0.08</v>
       </c>
@@ -32008,8 +32091,6 @@
           <t>AN_052</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32028,7 +32109,11 @@
           <t>站点监测系统[已编辑]到AN_052出现4次时间流速异常，持续时间94秒。安保部门请求授权采取应急措施。</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J87" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -32042,7 +32127,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
       <c r="N87" t="n">
         <v>0.15</v>
       </c>
@@ -32070,8 +32154,6 @@
           <t>AN_052</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32090,7 +32172,11 @@
           <t>收容单元内检测到空间折叠，影响范围3.3平方米。伦理委员会要求审核后续处理方案。</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -32104,7 +32190,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
       <c r="N88" t="n">
         <v>0.08</v>
       </c>
@@ -32132,8 +32217,6 @@
           <t>AN_053</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32152,7 +32235,11 @@
           <t>技术部门检测到记忆羽毛的熵值指数上升至73%。需要权衡资源投入与潜在风险，已记录12份异常数据报告。</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -32166,7 +32253,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
         <v>0.15</v>
       </c>
@@ -32194,8 +32280,6 @@
           <t>AN_054</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32214,7 +32298,11 @@
           <t>研究员报告周围3名D级人员出现空间迷向症状。触发了应急预案，等待上级指示，已记录8份异常数据报告。</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -32228,7 +32316,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
       <c r="N90" t="n">
         <v>0.15</v>
       </c>
@@ -32256,8 +32343,6 @@
           <t>AN_054</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32276,7 +32361,11 @@
           <t>安保系统显示导致负熵泵负荷达到88%。研究小组建议暂停当前收容流程，已记录8份异常数据报告。</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J91" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -32290,7 +32379,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
       <c r="N91" t="n">
         <v>0.08</v>
       </c>
@@ -32318,8 +32406,6 @@
           <t>AN_055</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32338,7 +32424,11 @@
           <t>对AN_055进行的第119次观测中发现使3件标准设备出现功能异常。站点主管需做出最终裁决。</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -32352,7 +32442,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr"/>
       <c r="N92" t="n">
         <v>0.15</v>
       </c>
@@ -32380,8 +32469,6 @@
           <t>AN_055</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32400,7 +32487,11 @@
           <t>站点监测系统记录到熵之终结触发了4处独立监测点的警报。收容协议要求立即响应，已记录5份异常数据报告。</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -32414,7 +32505,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr"/>
       <c r="N93" t="n">
         <v>0.08</v>
       </c>
@@ -32442,8 +32532,6 @@
           <t>AN_056</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32462,7 +32550,11 @@
           <t>收容单元内引发局部区域时空扭曲，持续86秒。需要紧急决策干预，已记录10份异常[数据删除]报告。</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -32476,7 +32568,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr"/>
       <c r="N94" t="n">
         <v>0.15</v>
       </c>
@@ -32504,8 +32595,6 @@
           <t>AN_056</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32524,7 +32613,11 @@
           <t>技术部门检测到维度寄生的扩散速度下降85%，超出安全阈值。技术部门提交了多套应对方案，需要主管裁决。</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -32538,7 +32631,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr"/>
       <c r="N95" t="n">
         <v>0.08</v>
       </c>
@@ -32566,8 +32658,6 @@
           <t>AN_057</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32586,7 +32676,11 @@
           <t>研究员报告造成收容区Xyank时序调节器运行异常。现有收容措施已接近临界值，要求调整策略。</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -32600,7 +32694,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr"/>
       <c r="N96" t="n">
         <v>0.15</v>
       </c>
@@ -32628,8 +32721,6 @@
           <t>AN_058</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32648,7 +32739,11 @@
           <t>安保系统显示产生4次异常能量波动，峰值73焦耳。安保部门请求授权采取应急措施，已记录4份异常数据报告。</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -32662,7 +32757,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr"/>
       <c r="N97" t="n">
         <v>0.15</v>
       </c>
@@ -32690,8 +32784,6 @@
           <t>AN_058</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32710,7 +32802,11 @@
           <t>对AN_058进行的第125次观测中发现导致现实稳定度读数偏离正常值83个标准差。伦理委员会要求审核后续处理方案。</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J98" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -32724,7 +32820,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr"/>
       <c r="N98" t="n">
         <v>0.08</v>
       </c>
@@ -32752,8 +32847,6 @@
           <t>AN_059</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32772,7 +32865,11 @@
           <t>站点监测系统记录到共鸣音叉出现5次认知污染，持续时间170秒。需要权衡资源投入与潜在风险。</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J99" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -32786,7 +32883,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr"/>
       <c r="N99" t="n">
         <v>0.15</v>
       </c>
@@ -32814,8 +32910,6 @@
           <t>AN_060</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32834,7 +32928,11 @@
           <t>收容单元内检测到模因扩散，影响范围7.9平方米。触发了应急预案，等待上级指示，已记录7份异常数据报告。</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J100" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -32848,7 +32946,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
         <v>0.15</v>
       </c>
@@ -32876,8 +32973,6 @@
           <t>AN_060</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32896,7 +32991,11 @@
           <t>技术部门检测到AN_060的异常指数指数波动至73%。研究小组建议暂停当前收容流程。</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J101" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -32910,7 +33009,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr"/>
       <c r="N101" t="n">
         <v>0.08</v>
       </c>
@@ -32938,8 +33036,6 @@
           <t>AN_061</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -32958,7 +33054,11 @@
           <t>研究员报告周围8名D级人员出现生理异常症状。站点主管需做出最终裁决，已记录5份异常数据报告。</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J102" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -32972,7 +33072,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr"/>
       <c r="N102" t="n">
         <v>0.15</v>
       </c>
@@ -33000,8 +33099,6 @@
           <t>AN_062</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -33020,7 +33117,11 @@
           <t>安保系统显示导致休谟场发生器负荷达到96%。收容协议要求立即响应，已记录7份异常数据报告。</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J103" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -33034,7 +33135,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr"/>
       <c r="N103" t="n">
         <v>0.15</v>
       </c>
@@ -33062,8 +33162,6 @@
           <t>AN_063</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -33082,7 +33180,11 @@
           <t>对AN_063进行的第131次观测中发现使8件标准设备出现功能异常。需要紧急决策干预。</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J104" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -33096,7 +33198,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr"/>
       <c r="N104" t="n">
         <v>0.15</v>
       </c>
@@ -33124,8 +33225,6 @@
           <t>AN_063</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -33144,7 +33243,11 @@
           <t>站点监测系统记录到信息黑洞触发了3处独立监测点的警报。技术部门提交了多套应对方案，需要主管裁决。</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J105" t="inlineStr">
         <is>
           <t>Global,OriginTask</t>
@@ -33158,7 +33261,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr"/>
       <c r="N105" t="n">
         <v>0.08</v>
       </c>
@@ -33186,8 +33288,6 @@
           <t>AN_064</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -33206,7 +33306,11 @@
           <t>收容单元内引发局部区域概率场扰动，持续76秒。现有收容措施已接近临界值，要求调整策略。</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J106" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -33220,7 +33324,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr"/>
       <c r="N106" t="n">
         <v>0.15</v>
       </c>
@@ -33248,8 +33351,6 @@
           <t>AN_065</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
           <t>RandomDaily</t>
@@ -33268,7 +33369,11 @@
           <t>技术部门检测到数字虫的休谟波动90%，超出安全阈值。安保部门请求授权采取应急措施。</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J107" t="inlineStr">
         <is>
           <t>OriginTask</t>
@@ -33282,7 +33387,6 @@
           <t>ApplyDailyKeep</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr"/>
       <c r="N107" t="n">
         <v>0.15</v>
       </c>

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -26024,7 +26024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
@@ -26362,8 +26362,6005 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NEWS_W001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>80</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>城市日报头条：失踪案激增</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>警方接到12起失踪报告，均在午夜后消失，监控录像显示部分人员走向无人区后信号中断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NEWS_W002</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>80</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>社交媒体热搜：梦境重复</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>网友反映连续3晚梦到相同场景，具体细节一致，涉及编号、白色走廊与铁门声。</t>
+        </is>
+      </c>
+    </row>
     <row r="9">
-      <c r="E9" s="1" t="n"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NEWS_W003</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>80</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>晚报副刊：地铁乘客集体晕厥</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>6号线列车上7人同时昏迷，送医后无异常指标，自述"听到低频嗡鸣"。</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NEWS_W004</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>80</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>电视新闻：公园水池变色</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>某社区公园水池在72小时内由清澈转为深紫色，水质检测报告显示"未知有机物"。</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NEWS_W005</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>80</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>网络论坛：街灯集体闪烁</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>市民拍摄到某街区所有路灯以每秒1次频率闪烁，持续40分钟后恢复正常。</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NEWS_W006</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>80</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>都市快讯：流浪猫集体消失</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>某区域内登记的37只流浪猫在同一夜间全部失踪，现场无打斗痕迹。</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NEWS_W007</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>80</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>地方报纸：深夜电话异常</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>多户居民报告凌晨3点接到无声电话，来电显示为"本机号码"。</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NEWS_W008</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>80</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>媒体播报：书店书籍自行摆放</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>店主监控显示书架上图书在无人时段自行归位，摆放顺序符合ISBN编码。</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NEWS_W009</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>80</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>社区公告：电梯楼层显示错误</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>住宅楼电梯频繁显示"负13层"，按键无反应，维修人员确认无此楼层。</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NEWS_W010</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>80</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>晨报简讯：候车厅时钟倒转</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>火车站候车大厅时钟在23:59后显示00:00，随后倒转至23:58运行。</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NEWS_W011</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>81</v>
+      </c>
+      <c r="H17" t="n">
+        <v>220</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>调查报道：医院记录出现矛盾</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>审计发现某医院病历系统中同一患者在不同科室同时就诊，地理位置相距120公里。</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NEWS_W012</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>81</v>
+      </c>
+      <c r="H18" t="n">
+        <v>220</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>晚间新闻：市政监控大面积失效</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>市中心30%摄像头在同一时段记录到雪花画面，数据恢复显示"文件格式未知"。</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NEWS_W013</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>81</v>
+      </c>
+      <c r="H19" t="n">
+        <v>220</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>媒体专题：民众恐慌情绪上升</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>民调显示42%受访者表示"感到不安全"，相关话题搜索量激增370%。</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NEWS_W014</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>81</v>
+      </c>
+      <c r="H20" t="n">
+        <v>220</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>政府声明：加强公共安全措施</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>市政府宣布扩大夜间巡逻范围，部分区域实施临时管制，未提及具体原因。</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NEWS_W015</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>81</v>
+      </c>
+      <c r="H21" t="n">
+        <v>220</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>网络传闻：神秘组织目击增加</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>匿名用户声称看到穿制服人员在事发现场采集样本，车辆无明显标识。</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NEWS_W016</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>81</v>
+      </c>
+      <c r="H22" t="n">
+        <v>220</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>独立调查：失踪人员关联分析</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>数据显示失踪者中67%曾访问过同一地点，位置信息显示为"已废弃建筑群"。</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NEWS_W017</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>81</v>
+      </c>
+      <c r="H23" t="n">
+        <v>220</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>官方通告：部分区域施工封闭</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>市政部门封锁3条街道进行"紧急管线维护"，工期不定，现场设有高围栏。</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NEWS_W018</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>81</v>
+      </c>
+      <c r="H24" t="n">
+        <v>220</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>舆论焦点：专家无法解释现象</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>物理学教授公开表示"现有理论无法覆盖观测数据"，建议暂停相关区域活动。</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NEWS_W019</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>81</v>
+      </c>
+      <c r="H25" t="n">
+        <v>220</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>紧急通知：血库储备告急</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>市血液中心呼吁献血，消耗速度超出常规3倍，未披露具体用途。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NEWS_W020</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>81</v>
+      </c>
+      <c r="H26" t="n">
+        <v>220</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>深度报道：企业员工集体请假</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>某科技园区公司出现异常离职潮，员工自述"工作环境不适"，人事部门拒绝回应。</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NEWS_W021</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>221</v>
+      </c>
+      <c r="H27" t="n">
+        <v>500</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>紧急广播：多区域实施宵禁</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>政府宣布自今晚起对5个行政区实施22:00-06:00宵禁，违者强制送返。</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NEWS_W022</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>221</v>
+      </c>
+      <c r="H28" t="n">
+        <v>500</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>突发新闻：军方接管交通枢纽</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>机场、火车站由武装部队接管，民航暂停非必要航班，官方称"预防性措施"。</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NEWS_W023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>221</v>
+      </c>
+      <c r="H29" t="n">
+        <v>500</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>特别报道：医疗系统超负荷运转</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>急诊科接诊量超过设计容量240%，大量病例症状描述"与已知病理不符"。</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NEWS_W024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G30" t="n">
+        <v>221</v>
+      </c>
+      <c r="H30" t="n">
+        <v>500</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>政府声明：启动应急预案</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>国家安全部门激活"特殊响应机制"，授权部分机构采取"非常规手段"。</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NEWS_W025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>221</v>
+      </c>
+      <c r="H31" t="n">
+        <v>500</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>媒体管制：部分新闻渠道关闭</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>5家媒体因"传播未经证实信息"被暂停营业，社交平台启动关键词过滤。</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NEWS_W026</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>221</v>
+      </c>
+      <c r="H32" t="n">
+        <v>500</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>目击报告：城市边缘出现隔离带</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>卫星图像显示郊区建立长达20公里的围栏，配备照明塔与巡逻车辆。</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NEWS_W027</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>221</v>
+      </c>
+      <c r="H33" t="n">
+        <v>500</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>内部消息：关键人员失联</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>多名高级官员与科研人员行踪不明，政府发言人称"参与机密项目"。</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>NEWS_W028</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>221</v>
+      </c>
+      <c r="H34" t="n">
+        <v>500</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>社会动荡：民众囤积物资</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>超市货架被抢购一空，政府宣布实施配给制，限制每户采购量。</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NEWS_W029</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G35" t="n">
+        <v>221</v>
+      </c>
+      <c r="H35" t="n">
+        <v>500</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>国际关注：外国使馆撤离</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>7个国家使馆建议本国公民尽快离境，民航公司增开撤离航班。</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NEWS_W030</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G36" t="n">
+        <v>221</v>
+      </c>
+      <c r="H36" t="n">
+        <v>500</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>突发事件：通信网络间歇中断</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>移动网络与互联网出现周期性断连，每次持续15-30分钟，运营商未作说明。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NEWS_W031</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>80</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>科技新闻：AI聊天记录异常</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>多个聊天机器人同时输出乱码，解析后显示古老语言文字，开发商紧急下线服务。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NEWS_W032</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>80</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>气象播报：局部区域雨水倒流</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>某小区雨水从地面向天空运动，持续8分钟后恢复正常，气象局称"仪器故障"。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NEWS_W033</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>80</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>社区通告：宠物行为异常</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>居民反映犬类集体朝向同一方位吠叫，持续3小时，方位指向市郊荒地。</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NEWS_W034</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>80</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>教育新闻：学生集体迟到</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>某中学137名学生同时迟到15分钟，自述"手表同步停滞"，但校内时钟正常。</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NEWS_W035</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>80</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>交通简讯：隧道回声延迟异常</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>司机报告隧道内鸣笛后回声延迟达17秒，声学专家认为"物理结构不支持此现象"。</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>NEWS_W036</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>8</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G42" t="n">
+        <v>81</v>
+      </c>
+      <c r="H42" t="n">
+        <v>220</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>民生热点：自来水出现金属味</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>3个街区自来水呈现金属味道，检测报告显示铁含量超标500%，管道检查未发现问题。</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>NEWS_W037</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>8</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G43" t="n">
+        <v>81</v>
+      </c>
+      <c r="H43" t="n">
+        <v>220</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>市政通报：下水道传出机械音</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>维修工报告地下传出规律性机械声，频率每分钟60次，声源定位失败。</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>NEWS_W038</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>81</v>
+      </c>
+      <c r="H44" t="n">
+        <v>220</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>医疗通告：献血者血型变化</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>血站发现12名献血者血型与历史记录不符，二次检测结果一致，排除人为错误。</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>NEWS_W039</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>8</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>81</v>
+      </c>
+      <c r="H45" t="n">
+        <v>220</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>文化新闻：图书馆古籍自燃</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>特藏室3本古籍在恒温环境下自燃，消防部门排除外部火源，温度记录显示恒定18°C。</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>NEWS_W040</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G46" t="n">
+        <v>81</v>
+      </c>
+      <c r="H46" t="n">
+        <v>220</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>科研快讯：粒子对撞数据异常</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>实验室报告加速器产生"不应存在"的粒子轨迹，数据重复验证后暂停实验。</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>NEWS_W041</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>10</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G47" t="n">
+        <v>221</v>
+      </c>
+      <c r="H47" t="n">
+        <v>500</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>战时状态：征召预备役人员</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>国防部发布征召令，要求18-45岁符合条件人员待命，未说明具体任务。</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>NEWS_W042</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>10</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>221</v>
+      </c>
+      <c r="H48" t="n">
+        <v>500</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>全面管制：禁止拍摄特定区域</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>法令禁止拍摄、传播15个指定区域影像，违者面临刑事指控。</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>NEWS_W043</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>10</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G49" t="n">
+        <v>221</v>
+      </c>
+      <c r="H49" t="n">
+        <v>500</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>社会混乱：抢劫事件激增</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>治安案件数量暴涨，警力不足，部分区域由民兵组织维持秩序。</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NEWS_W044</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>10</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>221</v>
+      </c>
+      <c r="H50" t="n">
+        <v>500</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>心理健康：集体恐慌症状蔓延</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>精神科门诊爆满，大量患者出现"幻听、被监视感、记忆混乱"症状。</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>NEWS_W045</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G51" t="n">
+        <v>221</v>
+      </c>
+      <c r="H51" t="n">
+        <v>500</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>基础设施：电力配给制度</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>发电厂产能下降，实施分区轮流停电，每日供电8小时。</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>NEWS_W046</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>10</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G52" t="n">
+        <v>221</v>
+      </c>
+      <c r="H52" t="n">
+        <v>500</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>经济崩溃：货币贬值失控</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>通货膨胀率达到每日5%，政府冻结价格但黑市交易猖獗。</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>NEWS_W047</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G53" t="n">
+        <v>221</v>
+      </c>
+      <c r="H53" t="n">
+        <v>500</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>人口流动：城市出现逃离潮</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>高速公路拥堵严重，城市人口一周内减少23%，边境站实施管制。</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>NEWS_W048</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>10</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G54" t="n">
+        <v>221</v>
+      </c>
+      <c r="H54" t="n">
+        <v>500</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>信息封锁：国际通信中断</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>卫星与海底光缆连接中断，国际长途电话无法拨通，邮件延迟超过72小时。</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>NEWS_W049</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>10</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G55" t="n">
+        <v>221</v>
+      </c>
+      <c r="H55" t="n">
+        <v>500</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>军事部署：装甲车队进驻城区</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>街道出现坦克与装甲运兵车，军方宣布"维稳行动"，戒严时间不定。</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>NEWS_W050</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>10</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G56" t="n">
+        <v>221</v>
+      </c>
+      <c r="H56" t="n">
+        <v>500</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>最终警告：政府发布疏散指令</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>部分居民区被强制疏散，民众被转移至"安全营地"，禁止擅自返回。</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>NEWS_S001</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>80</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>站点简报：新干员入职培训</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>本周迎接7名新干员，完成基础安保与异常识别培训，分配至3个辖区。</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>NEWS_S002</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>80</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>后勤通知：物资补给延迟</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>因运输路线调整，下批医疗用品延迟3天到达，各站点提前规划库存。</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>NEWS_S003</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>80</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>演习公告：收容失效模拟</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>下周三进行代号"暗箱"演习，模拟Euclid级收容失效，所有人员准时到岗。</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NEWS_S004</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>80</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>人事变动：站点主管调任</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>D区主管调往外站支援，副主管接任职务，人员交接在48小时内完成。</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>NEWS_S005</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>80</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>技术维护：监控系统升级</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>网络部门对全站监控系统进行升级，预计停机6小时，期间加派人工巡逻。</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NEWS_S006</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>80</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>安全提醒：内部通信加密</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>信息安全部要求所有通讯使用新加密协议，旧设备将在72小时后停用。</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NEWS_S007</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>80</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>福利通告：员工体检安排</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>医务室安排年度体检，重点检查辐射暴露与心理状态，按部门分批进行。</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>NEWS_S008</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>80</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>后勤日志：收容室清洁完成</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>3号收容单元完成深度消毒，残留物检测合格，明日恢复正常使用。</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>NEWS_S009</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>80</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>培训通知：应急撤离路线</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>新版疏散图已分发，新增2条逃生通道，要求全员熟记路线与集合点。</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>NEWS_S010</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>80</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>招募信息：技术岗位空缺</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>研发部门招聘数据分析师2名，要求心理评估A级以上，保密协议强制签署。</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>NEWS_S011</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>8</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G67" t="n">
+        <v>81</v>
+      </c>
+      <c r="H67" t="n">
+        <v>220</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>紧急会议：收容协议修订</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>管理层召开紧急会议，对17项收容协议进行修订，新版本将在24小时内生效。</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NEWS_S012</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G68" t="n">
+        <v>81</v>
+      </c>
+      <c r="H68" t="n">
+        <v>220</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>站点封锁：部分区域禁入</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>B区因异常活动升级封锁至二级，非授权人员禁止进入，违者记过处分。</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>NEWS_S013</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>8</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G69" t="n">
+        <v>81</v>
+      </c>
+      <c r="H69" t="n">
+        <v>220</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>审计报告：资源消耗异常</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>财务部发现上月物资消耗超过预算40%，启动内部调查，要求各部门配合。</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>NEWS_S014</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>8</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G70" t="n">
+        <v>81</v>
+      </c>
+      <c r="H70" t="n">
+        <v>220</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>通信故障：外部联络中断</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>卫星通讯系统出现故障，与总部联络中断8小时，技术组正在抢修。</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NEWS_S015</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>8</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G71" t="n">
+        <v>81</v>
+      </c>
+      <c r="H71" t="n">
+        <v>220</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>人员调配：支援外站任务</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>抽调15名干员前往外站支援，预计任务周期2周，家属联络由人事部协调。</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NEWS_S016</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>8</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G72" t="n">
+        <v>81</v>
+      </c>
+      <c r="H72" t="n">
+        <v>220</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>安全警报：未授权访问记录</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>系统检测到3次未授权登录尝试，源IP地址位于站点内部，安保部门介入调查。</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>NEWS_S017</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>8</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G73" t="n">
+        <v>81</v>
+      </c>
+      <c r="H73" t="n">
+        <v>220</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>设备损耗：收容单元故障</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>7号收容单元电磁锁失效，临时使用机械锁替代，维修零件预计3天后到货。</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NEWS_S018</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>8</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G74" t="n">
+        <v>81</v>
+      </c>
+      <c r="H74" t="n">
+        <v>220</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>心理评估：干员压力激增</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>心理科报告显示32%干员出现焦虑症状，建议增加休息时间与心理辅导。</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>NEWS_S019</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>8</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G75" t="n">
+        <v>81</v>
+      </c>
+      <c r="H75" t="n">
+        <v>220</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>预算削减：非必要开支冻结</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>总部通知削减15%运营预算，非紧急采购暂停，优先保障收容与安保。</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>NEWS_S020</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>8</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G76" t="n">
+        <v>81</v>
+      </c>
+      <c r="H76" t="n">
+        <v>220</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>异常报告：监控画面空白</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>监控录像中出现连续27秒空白帧，传感器数据正常，技术部门无法解释。</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>NEWS_S021</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>10</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G77" t="n">
+        <v>221</v>
+      </c>
+      <c r="H77" t="n">
+        <v>500</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>紧急动员：全员取消休假</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>站点进入一级响应状态，所有休假取消，人员24小时待命。</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>NEWS_S022</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>10</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G78" t="n">
+        <v>221</v>
+      </c>
+      <c r="H78" t="n">
+        <v>500</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>全面封锁：站点进入隔离模式</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>所有出入口封闭，人员禁止进出，物资由无人机投送，隔离期限待定。</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>NEWS_S023</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>10</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G79" t="n">
+        <v>221</v>
+      </c>
+      <c r="H79" t="n">
+        <v>500</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>收容危机：多个单元同时告警</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>6个收容单元同时触发警报，安保力量分散，部分区域依赖自动系统。</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>NEWS_S024</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>10</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G80" t="n">
+        <v>221</v>
+      </c>
+      <c r="H80" t="n">
+        <v>500</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>总部指令：启动应急协议</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>收到总部加密指令，启动代号"最终防线"协议，细节仅管理层知晓。</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>NEWS_S025</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>10</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G81" t="n">
+        <v>221</v>
+      </c>
+      <c r="H81" t="n">
+        <v>500</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>人员伤亡：行动中2名干员失联</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>外勤任务中失去2名干员信号，搜救队已派出，现场发现疑似异常活动。</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>NEWS_S026</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>10</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G82" t="n">
+        <v>221</v>
+      </c>
+      <c r="H82" t="n">
+        <v>500</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>设施崩溃：主电力系统过载</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>主发电机组超负荷运行，备用系统已启动，核心设施优先供电。</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NEWS_S027</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>10</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G83" t="n">
+        <v>221</v>
+      </c>
+      <c r="H83" t="n">
+        <v>500</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>道德困境：执行记忆删除指令</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>管理层批准对部分干员执行记忆删除，防止信息泄露，心理科反对但无效。</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>NEWS_S028</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>10</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G84" t="n">
+        <v>221</v>
+      </c>
+      <c r="H84" t="n">
+        <v>500</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>外部压力：政府机构介入</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>不明政府部门要求访问站点，总部指示"保持合作但限制信息"。</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>NEWS_S029</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>10</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G85" t="n">
+        <v>221</v>
+      </c>
+      <c r="H85" t="n">
+        <v>500</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>内部叛逃：安保人员叛变</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>3名安保人员携带机密文件叛逃，追捕行动进行中，站点进入反间谍模式。</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>NEWS_S030</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>10</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G86" t="n">
+        <v>221</v>
+      </c>
+      <c r="H86" t="n">
+        <v>500</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>最终准备：销毁敏感资料</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>接到销毁指令，所有纸质档案与非核心数据库将在12小时内清除。</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>NEWS_A001</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>80</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>数据异常：身份证号重复出现</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>人口数据库检测到17个身份证号重复使用，但持有人照片与资料完全不同。</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>NEWS_A002</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>5</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>80</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>监控故障：连续空帧记录</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>某区域监控在凌晨2:00-2:15产生连续空白帧，传感器显示无设备故障。</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>NEWS_A003</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="n">
+        <v>80</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>集体梦境：相同梦境报告</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>网络论坛上437人描述相同梦境，涉及白色房间、数字倒计时与金属门。</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>NEWS_A004</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>5</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>80</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>统计怪异：人口普查数据自洽</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>三次独立人口统计数据完全一致，精确到小数点后6位，统计学家认为"不可能"。</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>NEWS_A005</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>5</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>80</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>时间异常：GPS时间戳错误</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>卫星定位系统在某区域显示时间回退3分钟，但其他时间源正常。</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>NEWS_A006</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="n">
+        <v>80</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>声学怪象：回声来自未来</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>实验室录音发现回声比声源提前0.7秒出现，重复实验结果一致。</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>NEWS_A007</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="n">
+        <v>80</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>生物异常：鸟类绕行特定区域</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>候鸟迁徙路线出现半径2公里空白圆形，飞鸟绕行但不进入该区域。</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>NEWS_A008</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>80</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>温度反常：局部区域恒温</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>某街区温度恒定在17.3°C，不受天气影响，红外成像显示"温度墙"。</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>NEWS_A009</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="n">
+        <v>80</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>电磁干扰：指南针失效</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>某公园内所有指南针同时指向东偏南15°，离开区域后恢复正常。</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>NEWS_A010</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="n">
+        <v>80</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>光学现象：影子不随光源</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>路灯下行人影子方向与光源不符，多角度拍摄验证，物理学家无解。</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>NEWS_A011</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>80</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>语言异常：方言突然传播</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>某地出现"未知方言"，120人声称"突然听懂"，语言学家无法归类。</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>NEWS_A012</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="n">
+        <v>80</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>记忆错乱：集体记忆矛盾</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>300人记忆中某建筑为红色，但照片与档案显示一直是蓝色。</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>NEWS_A013</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="n">
+        <v>80</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>数字诡异：彩票号码重复</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>连续3期彩票出现相同号码组合，概率计算显示可能性为10^-27。</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>NEWS_A014</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>8</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G100" t="n">
+        <v>81</v>
+      </c>
+      <c r="H100" t="n">
+        <v>220</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>广域异常：区域时间减速</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>某街区时钟运行速度为正常98.3%，居民自述"时间流逝感变慢"。</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>NEWS_A015</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>8</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G101" t="n">
+        <v>81</v>
+      </c>
+      <c r="H101" t="n">
+        <v>220</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>空间扭曲：距离测量矛盾</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>同一路段GPS显示800米，实地测量为650米，重复验证数据稳定。</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>NEWS_A016</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>8</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G102" t="n">
+        <v>81</v>
+      </c>
+      <c r="H102" t="n">
+        <v>220</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>生理怪象：血型集体转变</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>医院发现27名患者血型在一周内转变，基因检测显示"未知标记"。</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>NEWS_A017</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>8</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G103" t="n">
+        <v>81</v>
+      </c>
+      <c r="H103" t="n">
+        <v>220</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>感知异常：颜色识别错误</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>84人声称某颜色"看起来不对"，色谱仪显示波长正常，但主观感受一致异常。</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>NEWS_A018</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>8</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G104" t="n">
+        <v>81</v>
+      </c>
+      <c r="H104" t="n">
+        <v>220</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>重力反常：物体悬浮时段</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>监控拍摄到办公室文具悬浮12秒后落下，加速度传感器数据缺失。</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>NEWS_A019</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>8</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G105" t="n">
+        <v>81</v>
+      </c>
+      <c r="H105" t="n">
+        <v>220</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>通信诡异：接收未发送的信息</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>73人收到"自己发出"的消息，但发送记录不存在，内容涉及"警告与坐标"。</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>NEWS_A020</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>8</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G106" t="n">
+        <v>81</v>
+      </c>
+      <c r="H106" t="n">
+        <v>220</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>认知失调：地标建筑消失</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>市民发现地标建筑"从未存在"，但照片与记忆中清晰可见，地图无该建筑。</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>NEWS_A021</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>8</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G107" t="n">
+        <v>81</v>
+      </c>
+      <c r="H107" t="n">
+        <v>220</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>生态异常：植物逆向生长</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>公园树木年轮由外向内生长，碳-14测年显示"时间倒置"。</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>NEWS_A022</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>8</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G108" t="n">
+        <v>81</v>
+      </c>
+      <c r="H108" t="n">
+        <v>220</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>物理违规：液体逆流</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>水龙头关闭后水流继续向上流动3秒，重复实验成功率100%。</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>NEWS_A023</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>8</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G109" t="n">
+        <v>81</v>
+      </c>
+      <c r="H109" t="n">
+        <v>220</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>能量异常：电池无限充电</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>某品牌手机电池充电后始终显示100%，连续使用72小时未降低。</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>NEWS_A024</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>8</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G110" t="n">
+        <v>81</v>
+      </c>
+      <c r="H110" t="n">
+        <v>220</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>精神传染：情绪同步现象</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>办公楼内200人同时出现悲伤情绪，持续20分钟后消失，无外部刺激。</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>NEWS_A025</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>8</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G111" t="n">
+        <v>81</v>
+      </c>
+      <c r="H111" t="n">
+        <v>220</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>音频怪异：录音播放变速</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>同一录音文件在不同设备播放速度不同，但时长显示一致。</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>NEWS_A026</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>8</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G112" t="n">
+        <v>81</v>
+      </c>
+      <c r="H112" t="n">
+        <v>220</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>视觉错乱：镜像反射延迟</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>镜子中影像延迟2秒出现，但光速测量正常，光学仪器无法解释。</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>NEWS_A027</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>10</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G113" t="n">
+        <v>221</v>
+      </c>
+      <c r="H113" t="n">
+        <v>500</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>现实崩塌：物体相位重叠</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>目击者拍摄到两个物体占据同一空间，触摸时"手穿过一个但碰到另一个"。</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>NEWS_A028</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>10</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G114" t="n">
+        <v>221</v>
+      </c>
+      <c r="H114" t="n">
+        <v>500</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>时空裂缝：行人凭空消失</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>监控显示行人在街道中央突然消失，无闪光无声音，消失前无异常行为。</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>NEWS_A029</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>10</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G115" t="n">
+        <v>221</v>
+      </c>
+      <c r="H115" t="n">
+        <v>500</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>因果倒置：结果先于原因</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>车祸现场先出现损坏痕迹，3秒后车辆才到达并发生碰撞。</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>NEWS_A030</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>10</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G116" t="n">
+        <v>221</v>
+      </c>
+      <c r="H116" t="n">
+        <v>500</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>集体幻觉：虚假建筑出现</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>1400人声称看到"不存在的摩天楼"，描述细节一致，但无照片记录。</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>NEWS_A031</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>10</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G117" t="n">
+        <v>221</v>
+      </c>
+      <c r="H117" t="n">
+        <v>500</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>量子纠缠：物品同步移动</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>两个相距20公里的物体同步移动，角度与速度完全一致，无物理连接。</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>NEWS_A032</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>10</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G118" t="n">
+        <v>221</v>
+      </c>
+      <c r="H118" t="n">
+        <v>500</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>意识入侵：集体思维同步</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>37人同时产生"不属于自己"的想法，内容相同，涉及坐标与指令。</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>NEWS_A033</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>10</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G119" t="n">
+        <v>221</v>
+      </c>
+      <c r="H119" t="n">
+        <v>500</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>维度泄露：二维影像突现</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>墙面出现"完全平面"的人形影像，无法触摸但可见，持续存在6小时。</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>NEWS_A034</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>10</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G120" t="n">
+        <v>221</v>
+      </c>
+      <c r="H120" t="n">
+        <v>500</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>物质转化：金属自发液化</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>铁质栏杆在常温下转为液态，冷却后恢复固态，分子结构未变。</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>NEWS_A035</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>10</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G121" t="n">
+        <v>221</v>
+      </c>
+      <c r="H121" t="n">
+        <v>500</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>生命异化：植物展现动物行为</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>公园植物出现"寻找光源"行为，移动速度每小时3厘米，具备躲避能力。</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>NEWS_A036</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>10</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G122" t="n">
+        <v>221</v>
+      </c>
+      <c r="H122" t="n">
+        <v>500</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>信息污染：文字自行改写</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>书籍与屏幕文字在观察过程中改变，多人同时目击，摄像机记录正常。</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>NEWS_A037</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>10</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G123" t="n">
+        <v>221</v>
+      </c>
+      <c r="H123" t="n">
+        <v>500</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>概率失效：随机事件规律化</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>骰子投掷结果出现规律，连续300次呈现周期性序列，概率论失效。</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>NEWS_A038</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>10</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G124" t="n">
+        <v>221</v>
+      </c>
+      <c r="H124" t="n">
+        <v>500</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>感官剥夺：区域内五感消失</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>进入某区域后视觉听觉嗅觉同时消失，离开后恢复，影响范围半径50米。</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>NEWS_A039</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>10</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G125" t="n">
+        <v>221</v>
+      </c>
+      <c r="H125" t="n">
+        <v>500</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>存在抹除：人员记录消失</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>12人在社会系统中记录全部消失，身份证、银行账户、学历档案均不存在。</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>NEWS_A040</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>RandomDaily</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>ANY</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>10</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G126" t="n">
+        <v>221</v>
+      </c>
+      <c r="H126" t="n">
+        <v>500</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>终极异常：现实逻辑崩塌</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>物理定律在核心区域失效，物体行为不可预测，科学理论全面失灵。</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -17,6 +17,9 @@
     <sheet name="EventOptions" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Effects" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="EffectOps" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="MediaProfiles" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="FactTemplates" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="FactTypes" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -16421,13 +16424,471 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>MediaProfiles</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>profileId</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>tone</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>weight</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FORMAL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>正式报道</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SENSATIONAL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>耸人听闻</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>alarmist</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>INVESTIGATIVE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>调查报道</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>analytical</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>FactTemplates</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>templateId</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>factType</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>mediaProfileId</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>severityMin</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>severityMax</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>#comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FT_ANOMALY_FORMAL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AnomalySpawned</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FORMAL</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>异常生成-正式报道</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FT_ANOMALY_SENSATIONAL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AnomalySpawned</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SENSATIONAL</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>异常生成-耸人听闻</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FT_INV_COMPLETE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>InvestigateCompleted</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>INVESTIGATIVE</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>调查完成</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FT_INV_NORESULT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>InvestigateNoResult</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FORMAL</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>调查无果</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FT_CONTAIN_COMPLETE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ContainCompleted</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>FORMAL</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>收容完成</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>FactTypes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>typeId</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AnomalySpawned</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>异常生成事件</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>InvestigateCompleted</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>调查任务完成</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InvestigateNoResult</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>调查任务无结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ContainCompleted</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>收容任务完成</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -16685,6 +17146,21 @@
       <c r="E15" s="2" t="inlineStr">
         <is>
           <t>Money 不允许负数：后续做日志提示更友好</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MinNewsPerDay</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>每日最少新闻数（用于Fact新闻不足时补充RandomDaily）</t>
         </is>
       </c>
     </row>

--- a/GameData/Local/game_data.xlsx
+++ b/GameData/Local/game_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\SCP\GameData\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E16D2D-5994-4384-BC8F-8193B724B38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA13CF9E-F4B4-401A-8F59-13141E86D051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="2510" windowWidth="22160" windowHeight="11480" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -17476,7 +17476,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17733,7 +17733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
@@ -21918,8 +21918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:B503"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="D493" sqref="D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21957,7 +21957,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -21965,7 +21965,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -21973,7 +21973,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -21989,7 +21989,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -21997,7 +21997,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -22005,7 +22005,7 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -22021,7 +22021,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -22029,7 +22029,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -22037,7 +22037,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -22045,7 +22045,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -22053,7 +22053,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -22061,7 +22061,7 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -22077,7 +22077,7 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -22085,7 +22085,7 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -22117,7 +22117,7 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -22125,7 +22125,7 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -22133,7 +22133,7 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -22141,7 +22141,7 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -22149,7 +22149,7 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -22157,7 +22157,7 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -22165,7 +22165,7 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -22173,7 +22173,7 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -22181,7 +22181,7 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -22189,7 +22189,7 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -22197,7 +22197,7 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -22205,7 +22205,7 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -22213,7 +22213,7 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -22221,7 +22221,7 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -22229,7 +22229,7 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -22237,7 +22237,7 @@
         <v>37</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -22245,7 +22245,7 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -22269,7 +22269,7 @@
         <v>41</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -22277,7 +22277,7 @@
         <v>42</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -22285,7 +22285,7 @@
         <v>43</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -22301,7 +22301,7 @@
         <v>45</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -22317,7 +22317,7 @@
         <v>47</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -22325,7 +22325,7 @@
         <v>48</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -22333,7 +22333,7 @@
         <v>49</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -22341,7 +22341,7 @@
         <v>50</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -22365,7 +22365,7 @@
         <v>53</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -22373,7 +22373,7 @@
         <v>54</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -22381,7 +22381,7 @@
         <v>55</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -22389,7 +22389,7 @@
         <v>56</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -22397,7 +22397,7 @@
         <v>57</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -22405,7 +22405,7 @@
         <v>58</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -22429,7 +22429,7 @@
         <v>61</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -22437,7 +22437,7 @@
         <v>62</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -22453,7 +22453,7 @@
         <v>64</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -22461,7 +22461,7 @@
         <v>65</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -22469,7 +22469,7 @@
         <v>66</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -22477,7 +22477,7 @@
         <v>67</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -22485,7 +22485,7 @@
         <v>68</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -22493,7 +22493,7 @@
         <v>69</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -22501,7 +22501,7 @@
         <v>70</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -22509,7 +22509,7 @@
         <v>71</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -22517,7 +22517,7 @@
         <v>72</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -22533,7 +22533,7 @@
         <v>74</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -22541,7 +22541,7 @@
         <v>75</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -22549,7 +22549,7 @@
         <v>76</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -22557,7 +22557,7 @@
         <v>77</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -22565,7 +22565,7 @@
         <v>78</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -22597,7 +22597,7 @@
         <v>82</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -22605,7 +22605,7 @@
         <v>83</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -22613,7 +22613,7 @@
         <v>84</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -22621,7 +22621,7 @@
         <v>85</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -22629,7 +22629,7 @@
         <v>86</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -22637,7 +22637,7 @@
         <v>87</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -22645,7 +22645,7 @@
         <v>88</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -22653,7 +22653,7 @@
         <v>89</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -22661,7 +22661,7 @@
         <v>90</v>
       </c>
       <c r="B93">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -22669,7 +22669,7 @@
         <v>91</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -22677,7 +22677,7 @@
         <v>92</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -22685,7 +22685,7 @@
         <v>93</v>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -22693,7 +22693,7 @@
         <v>94</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -22701,7 +22701,7 @@
         <v>95</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -22709,7 +22709,7 @@
         <v>96</v>
       </c>
       <c r="B99">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -22717,7 +22717,7 @@
         <v>97</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -22749,7 +22749,7 @@
         <v>101</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -22757,7 +22757,7 @@
         <v>102</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -22765,7 +22765,7 @@
         <v>103</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -22773,7 +22773,7 @@
         <v>104</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -22781,7 +22781,7 @@
         <v>105</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -22789,7 +22789,7 @@
         <v>106</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -22797,7 +22797,7 @@
         <v>107</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -22805,7 +22805,7 @@
         <v>108</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -22813,7 +22813,7 @@
         <v>109</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -22821,7 +22821,7 @@
         <v>110</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -22829,7 +22829,7 @@
         <v>111</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -22837,7 +22837,7 @@
         <v>112</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -22845,7 +22845,7 @@
         <v>113</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -22853,7 +22853,7 @@
         <v>114</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -22861,7 +22861,7 @@
         <v>115</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -22869,7 +22869,7 @@
         <v>116</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -22877,7 +22877,7 @@
         <v>117</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -22885,7 +22885,7 @@
         <v>118</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -22893,7 +22893,7 @@
         <v>119</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -22909,7 +22909,7 @@
         <v>121</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -22917,7 +22917,7 @@
         <v>122</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -22925,7 +22925,7 @@
         <v>123</v>
       </c>
       <c r="B126">
-      